--- a/output/summary_table_5.xlsx
+++ b/output/summary_table_5.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Inequalities" sheetId="5" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t>Table 2. Average weekly spend on tobacco by socio-economic status (SES) and age group</t>
   </si>
@@ -71,12 +71,6 @@
     <t>% of income spent on tobacco</t>
   </si>
   <si>
-    <t>Total estimated annual expenditure (£000s)</t>
-  </si>
-  <si>
-    <t>Annual Smokefree Dividend (£000s)</t>
-  </si>
-  <si>
     <t>Table 4. Expenditure of smoking in the local authorities with the highest tobacco expenditure as a proportion of income</t>
   </si>
   <si>
@@ -137,6 +131,12 @@
     <t>Female</t>
   </si>
   <si>
+    <t>Total estimated annual expenditure (£m)</t>
+  </si>
+  <si>
+    <t>Annual Smokefree Dividend (£m)</t>
+  </si>
+  <si>
     <t xml:space="preserve">E09000002</t>
   </si>
   <si>
@@ -1041,17 +1041,45 @@
   </si>
   <si>
     <t xml:space="preserve">York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Midlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East of England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Midlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yorkshire and the Humber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;Â£&quot;#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,15 +1098,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <i/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <b/>
     </font>
   </fonts>
   <fills count="11">
@@ -1155,46 +1174,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1507,7 +1502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1525,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1540,30 +1535,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="2" max="2" width="33.54296875" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="19.54296875" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="13" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="C1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -1573,48 +1568,48 @@
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
     </row>
-    <row r="2" ht="55" customHeight="1">
+    <row r="2" ht="54.95" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="J2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="L2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1625,7 +1620,7 @@
         <v>190</v>
       </c>
       <c r="C3" t="n">
-        <v>341.41</v>
+        <v>62.44</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -1646,16 +1641,16 @@
         <v>26982</v>
       </c>
       <c r="J3" t="n">
-        <v>9212</v>
+        <v>1685</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>479.019</v>
+        <v>87.607</v>
       </c>
       <c r="L3" t="n">
         <v>495</v>
       </c>
       <c r="M3" t="n">
-        <v>69.02</v>
+        <v>12.62</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
@@ -1669,7 +1664,7 @@
         <v>191</v>
       </c>
       <c r="C4" t="n">
-        <v>375.53</v>
+        <v>68.68</v>
       </c>
       <c r="D4" t="n">
         <v>6</v>
@@ -1690,16 +1685,16 @@
         <v>33648</v>
       </c>
       <c r="J4" t="n">
-        <v>12636</v>
+        <v>2311</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>657.059</v>
+        <v>120.168</v>
       </c>
       <c r="L4" t="n">
         <v>633</v>
       </c>
       <c r="M4" t="n">
-        <v>59.3</v>
+        <v>10.84</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
@@ -1713,7 +1708,7 @@
         <v>192</v>
       </c>
       <c r="C5" t="n">
-        <v>266.85</v>
+        <v>48.8</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1734,16 +1729,16 @@
         <v>35804</v>
       </c>
       <c r="J5" t="n">
-        <v>9554</v>
+        <v>1747</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>496.826</v>
+        <v>90.864</v>
       </c>
       <c r="L5" t="n">
         <v>506</v>
       </c>
       <c r="M5" t="n">
-        <v>52.78</v>
+        <v>9.65</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
@@ -1757,7 +1752,7 @@
         <v>193</v>
       </c>
       <c r="C6" t="n">
-        <v>277.07</v>
+        <v>50.67</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1778,16 +1773,16 @@
         <v>20484</v>
       </c>
       <c r="J6" t="n">
-        <v>5676</v>
+        <v>1038</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>295.129</v>
+        <v>53.976</v>
       </c>
       <c r="L6" t="n">
         <v>574</v>
       </c>
       <c r="M6" t="n">
-        <v>48.24</v>
+        <v>8.82</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -1801,7 +1796,7 @@
         <v>194</v>
       </c>
       <c r="C7" t="n">
-        <v>276.86</v>
+        <v>50.63</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1822,16 +1817,16 @@
         <v>14262</v>
       </c>
       <c r="J7" t="n">
-        <v>3949</v>
+        <v>722</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>205.326</v>
+        <v>37.552</v>
       </c>
       <c r="L7" t="n">
         <v>574</v>
       </c>
       <c r="M7" t="n">
-        <v>48.25</v>
+        <v>8.83</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -1845,7 +1840,7 @@
         <v>195</v>
       </c>
       <c r="C8" t="n">
-        <v>358.4</v>
+        <v>65.55</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
@@ -1866,16 +1861,16 @@
         <v>27084</v>
       </c>
       <c r="J8" t="n">
-        <v>9707</v>
+        <v>1775</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>504.761</v>
+        <v>92.315</v>
       </c>
       <c r="L8" t="n">
         <v>623</v>
       </c>
       <c r="M8" t="n">
-        <v>57.56</v>
+        <v>10.53</v>
       </c>
       <c r="N8" t="n">
         <v>3</v>
@@ -1889,7 +1884,7 @@
         <v>196</v>
       </c>
       <c r="C9" t="n">
-        <v>399.8</v>
+        <v>73.12</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -1910,16 +1905,16 @@
         <v>126363</v>
       </c>
       <c r="J9" t="n">
-        <v>50519</v>
+        <v>9239</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>2627.007</v>
+        <v>480.449</v>
       </c>
       <c r="L9" t="n">
         <v>434</v>
       </c>
       <c r="M9" t="n">
-        <v>92.04</v>
+        <v>16.83</v>
       </c>
       <c r="N9" t="n">
         <v>9</v>
@@ -1933,7 +1928,7 @@
         <v>197</v>
       </c>
       <c r="C10" t="n">
-        <v>369.77</v>
+        <v>67.63</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
@@ -1954,16 +1949,16 @@
         <v>17197</v>
       </c>
       <c r="J10" t="n">
-        <v>6359</v>
+        <v>1163</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>330.668</v>
+        <v>60.475</v>
       </c>
       <c r="L10" t="n">
         <v>422</v>
       </c>
       <c r="M10" t="n">
-        <v>87.67</v>
+        <v>16.03</v>
       </c>
       <c r="N10" t="n">
         <v>9</v>
@@ -1977,7 +1972,7 @@
         <v>198</v>
       </c>
       <c r="C11" t="n">
-        <v>356.34</v>
+        <v>65.17</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -1998,16 +1993,16 @@
         <v>25797</v>
       </c>
       <c r="J11" t="n">
-        <v>9192</v>
+        <v>1681</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>478.008</v>
+        <v>87.422</v>
       </c>
       <c r="L11" t="n">
         <v>377</v>
       </c>
       <c r="M11" t="n">
-        <v>94.46</v>
+        <v>17.28</v>
       </c>
       <c r="N11" t="n">
         <v>9</v>
@@ -2021,7 +2016,7 @@
         <v>199</v>
       </c>
       <c r="C12" t="n">
-        <v>491.84</v>
+        <v>89.95</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
@@ -2042,16 +2037,16 @@
         <v>34774</v>
       </c>
       <c r="J12" t="n">
-        <v>17103</v>
+        <v>3128</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>889.36</v>
+        <v>162.654</v>
       </c>
       <c r="L12" t="n">
         <v>468</v>
       </c>
       <c r="M12" t="n">
-        <v>105.13</v>
+        <v>19.23</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
@@ -2065,7 +2060,7 @@
         <v>200</v>
       </c>
       <c r="C13" t="n">
-        <v>309.12</v>
+        <v>56.54</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -2086,16 +2081,16 @@
         <v>44330</v>
       </c>
       <c r="J13" t="n">
-        <v>13703</v>
+        <v>2506</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>712.581</v>
+        <v>130.323</v>
       </c>
       <c r="L13" t="n">
         <v>508</v>
       </c>
       <c r="M13" t="n">
-        <v>60.82</v>
+        <v>11.12</v>
       </c>
       <c r="N13" t="n">
         <v>4</v>
@@ -2109,7 +2104,7 @@
         <v>201</v>
       </c>
       <c r="C14" t="n">
-        <v>296.18</v>
+        <v>54.17</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -2130,16 +2125,16 @@
         <v>11170</v>
       </c>
       <c r="J14" t="n">
-        <v>3308</v>
+        <v>605</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>172.034</v>
+        <v>31.463</v>
       </c>
       <c r="L14" t="n">
         <v>604</v>
       </c>
       <c r="M14" t="n">
-        <v>49</v>
+        <v>8.96</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
@@ -2153,7 +2148,7 @@
         <v>202</v>
       </c>
       <c r="C15" t="n">
-        <v>385.44</v>
+        <v>70.49</v>
       </c>
       <c r="D15" t="n">
         <v>7</v>
@@ -2174,16 +2169,16 @@
         <v>65583</v>
       </c>
       <c r="J15" t="n">
-        <v>25278</v>
+        <v>4623</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>1314.459</v>
+        <v>240.399</v>
       </c>
       <c r="L15" t="n">
         <v>430</v>
       </c>
       <c r="M15" t="n">
-        <v>89.58</v>
+        <v>16.38</v>
       </c>
       <c r="N15" t="n">
         <v>9</v>
@@ -2197,7 +2192,7 @@
         <v>203</v>
       </c>
       <c r="C16" t="n">
-        <v>379.32</v>
+        <v>69.37</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -2218,16 +2213,16 @@
         <v>26046</v>
       </c>
       <c r="J16" t="n">
-        <v>9880</v>
+        <v>1807</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>513.743</v>
+        <v>93.958</v>
       </c>
       <c r="L16" t="n">
         <v>530</v>
       </c>
       <c r="M16" t="n">
-        <v>71.51</v>
+        <v>13.08</v>
       </c>
       <c r="N16" t="n">
         <v>6</v>
@@ -2241,7 +2236,7 @@
         <v>204</v>
       </c>
       <c r="C17" t="n">
-        <v>287.47</v>
+        <v>52.58</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -2262,16 +2257,16 @@
         <v>42107</v>
       </c>
       <c r="J17" t="n">
-        <v>12105</v>
+        <v>2214</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>629.442</v>
+        <v>115.118</v>
       </c>
       <c r="L17" t="n">
         <v>575</v>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>9.14</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
@@ -2285,7 +2280,7 @@
         <v>205</v>
       </c>
       <c r="C18" t="n">
-        <v>282.16</v>
+        <v>51.6</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -2306,16 +2301,16 @@
         <v>66358</v>
       </c>
       <c r="J18" t="n">
-        <v>18724</v>
+        <v>3424</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>973.641</v>
+        <v>178.068</v>
       </c>
       <c r="L18" t="n">
         <v>521</v>
       </c>
       <c r="M18" t="n">
-        <v>54.17</v>
+        <v>9.91</v>
       </c>
       <c r="N18" t="n">
         <v>2</v>
@@ -2329,7 +2324,7 @@
         <v>206</v>
       </c>
       <c r="C19" t="n">
-        <v>378.68</v>
+        <v>69.26</v>
       </c>
       <c r="D19" t="n">
         <v>6</v>
@@ -2350,16 +2345,16 @@
         <v>24254</v>
       </c>
       <c r="J19" t="n">
-        <v>9184</v>
+        <v>1680</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>477.592</v>
+        <v>87.346</v>
       </c>
       <c r="L19" t="n">
         <v>704</v>
       </c>
       <c r="M19" t="n">
-        <v>53.77</v>
+        <v>9.83</v>
       </c>
       <c r="N19" t="n">
         <v>2</v>
@@ -2373,7 +2368,7 @@
         <v>207</v>
       </c>
       <c r="C20" t="n">
-        <v>333.47</v>
+        <v>60.99</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
@@ -2393,7 +2388,7 @@
         <v>645</v>
       </c>
       <c r="M20" t="n">
-        <v>51.72</v>
+        <v>9.46</v>
       </c>
       <c r="N20" t="n">
         <v>2</v>
@@ -2407,7 +2402,7 @@
         <v>208</v>
       </c>
       <c r="C21" t="n">
-        <v>364.11</v>
+        <v>66.59</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
@@ -2428,16 +2423,16 @@
         <v>18859</v>
       </c>
       <c r="J21" t="n">
-        <v>6867</v>
+        <v>1256</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>357.075</v>
+        <v>65.305</v>
       </c>
       <c r="L21" t="n">
         <v>508</v>
       </c>
       <c r="M21" t="n">
-        <v>71.7</v>
+        <v>13.11</v>
       </c>
       <c r="N21" t="n">
         <v>7</v>
@@ -2451,7 +2446,7 @@
         <v>209</v>
       </c>
       <c r="C22" t="n">
-        <v>363.84</v>
+        <v>66.54</v>
       </c>
       <c r="D22" t="n">
         <v>5</v>
@@ -2472,16 +2467,16 @@
         <v>26598</v>
       </c>
       <c r="J22" t="n">
-        <v>9677</v>
+        <v>1770</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>503.228</v>
+        <v>92.035</v>
       </c>
       <c r="L22" t="n">
         <v>482</v>
       </c>
       <c r="M22" t="n">
-        <v>75.44</v>
+        <v>13.8</v>
       </c>
       <c r="N22" t="n">
         <v>7</v>
@@ -2495,7 +2490,7 @@
         <v>210</v>
       </c>
       <c r="C23" t="n">
-        <v>321.97</v>
+        <v>58.88</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
@@ -2516,16 +2511,16 @@
         <v>68239</v>
       </c>
       <c r="J23" t="n">
-        <v>21971</v>
+        <v>4018</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>1142.474</v>
+        <v>208.945</v>
       </c>
       <c r="L23" t="n">
         <v>624</v>
       </c>
       <c r="M23" t="n">
-        <v>51.62</v>
+        <v>9.44</v>
       </c>
       <c r="N23" t="n">
         <v>1</v>
@@ -2539,7 +2534,7 @@
         <v>211</v>
       </c>
       <c r="C24" t="n">
-        <v>313.94</v>
+        <v>57.42</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -2560,16 +2555,16 @@
         <v>26219</v>
       </c>
       <c r="J24" t="n">
-        <v>8231</v>
+        <v>1505</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>428.02</v>
+        <v>78.28</v>
       </c>
       <c r="L24" t="n">
         <v>625</v>
       </c>
       <c r="M24" t="n">
-        <v>50.24</v>
+        <v>9.19</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -2583,7 +2578,7 @@
         <v>212</v>
       </c>
       <c r="C25" t="n">
-        <v>396.79</v>
+        <v>72.57</v>
       </c>
       <c r="D25" t="n">
         <v>7</v>
@@ -2604,16 +2599,16 @@
         <v>30831</v>
       </c>
       <c r="J25" t="n">
-        <v>12233</v>
+        <v>2237</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>636.138</v>
+        <v>116.342</v>
       </c>
       <c r="L25" t="n">
         <v>616</v>
       </c>
       <c r="M25" t="n">
-        <v>64.41</v>
+        <v>11.78</v>
       </c>
       <c r="N25" t="n">
         <v>4</v>
@@ -2627,7 +2622,7 @@
         <v>213</v>
       </c>
       <c r="C26" t="n">
-        <v>426.43</v>
+        <v>77.99</v>
       </c>
       <c r="D26" t="n">
         <v>9</v>
@@ -2648,16 +2643,16 @@
         <v>42362</v>
       </c>
       <c r="J26" t="n">
-        <v>18064</v>
+        <v>3304</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>939.354</v>
+        <v>171.797</v>
       </c>
       <c r="L26" t="n">
         <v>581</v>
       </c>
       <c r="M26" t="n">
-        <v>73.43</v>
+        <v>13.43</v>
       </c>
       <c r="N26" t="n">
         <v>7</v>
@@ -2671,7 +2666,7 @@
         <v>214</v>
       </c>
       <c r="C27" t="n">
-        <v>240.83</v>
+        <v>44.05</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -2692,16 +2687,16 @@
         <v>31125</v>
       </c>
       <c r="J27" t="n">
-        <v>7496</v>
+        <v>1371</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>389.789</v>
+        <v>71.288</v>
       </c>
       <c r="L27" t="n">
         <v>560</v>
       </c>
       <c r="M27" t="n">
-        <v>42.98</v>
+        <v>7.86</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -2741,7 +2736,7 @@
         <v>216</v>
       </c>
       <c r="C29" t="n">
-        <v>281.96</v>
+        <v>51.57</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -2762,16 +2757,16 @@
         <v>69931</v>
       </c>
       <c r="J29" t="n">
-        <v>19718</v>
+        <v>3606</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>1025.322</v>
+        <v>187.519</v>
       </c>
       <c r="L29" t="n">
         <v>490</v>
       </c>
       <c r="M29" t="n">
-        <v>57.56</v>
+        <v>10.53</v>
       </c>
       <c r="N29" t="n">
         <v>3</v>
@@ -2785,7 +2780,7 @@
         <v>217</v>
       </c>
       <c r="C30" t="n">
-        <v>331.85</v>
+        <v>60.69</v>
       </c>
       <c r="D30" t="n">
         <v>3</v>
@@ -2806,16 +2801,16 @@
         <v>72875</v>
       </c>
       <c r="J30" t="n">
-        <v>24183</v>
+        <v>4423</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>1257.527</v>
+        <v>229.987</v>
       </c>
       <c r="L30" t="n">
         <v>485</v>
       </c>
       <c r="M30" t="n">
-        <v>68.37</v>
+        <v>12.5</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
@@ -2829,7 +2824,7 @@
         <v>218</v>
       </c>
       <c r="C31" t="n">
-        <v>366.57</v>
+        <v>67.04</v>
       </c>
       <c r="D31" t="n">
         <v>6</v>
@@ -2850,16 +2845,16 @@
         <v>43973</v>
       </c>
       <c r="J31" t="n">
-        <v>16119</v>
+        <v>2948</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>838.207</v>
+        <v>153.298</v>
       </c>
       <c r="L31" t="n">
         <v>476</v>
       </c>
       <c r="M31" t="n">
-        <v>76.97</v>
+        <v>14.08</v>
       </c>
       <c r="N31" t="n">
         <v>7</v>
@@ -2873,7 +2868,7 @@
         <v>219</v>
       </c>
       <c r="C32" t="n">
-        <v>353.91</v>
+        <v>64.73</v>
       </c>
       <c r="D32" t="n">
         <v>5</v>
@@ -2894,16 +2889,16 @@
         <v>36269</v>
       </c>
       <c r="J32" t="n">
-        <v>12836</v>
+        <v>2348</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>667.474</v>
+        <v>122.073</v>
       </c>
       <c r="L32" t="n">
         <v>600</v>
       </c>
       <c r="M32" t="n">
-        <v>58.96</v>
+        <v>10.78</v>
       </c>
       <c r="N32" t="n">
         <v>3</v>
@@ -2917,7 +2912,7 @@
         <v>220</v>
       </c>
       <c r="C33" t="n">
-        <v>349.8</v>
+        <v>63.98</v>
       </c>
       <c r="D33" t="n">
         <v>4</v>
@@ -2938,16 +2933,16 @@
         <v>62243</v>
       </c>
       <c r="J33" t="n">
-        <v>21773</v>
+        <v>3982</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>1132.189</v>
+        <v>207.064</v>
       </c>
       <c r="L33" t="n">
         <v>514</v>
       </c>
       <c r="M33" t="n">
-        <v>68.01</v>
+        <v>12.44</v>
       </c>
       <c r="N33" t="n">
         <v>5</v>
@@ -2961,7 +2956,7 @@
         <v>221</v>
       </c>
       <c r="C34" t="n">
-        <v>447.56</v>
+        <v>81.85</v>
       </c>
       <c r="D34" t="n">
         <v>9</v>
@@ -2982,16 +2977,16 @@
         <v>11552</v>
       </c>
       <c r="J34" t="n">
-        <v>5170</v>
+        <v>946</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>268.853</v>
+        <v>49.17</v>
       </c>
       <c r="L34" t="n">
         <v>466</v>
       </c>
       <c r="M34" t="n">
-        <v>95.96</v>
+        <v>17.55</v>
       </c>
       <c r="N34" t="n">
         <v>10</v>
@@ -3005,7 +3000,7 @@
         <v>222</v>
       </c>
       <c r="C35" t="n">
-        <v>334.39</v>
+        <v>61.16</v>
       </c>
       <c r="D35" t="n">
         <v>3</v>
@@ -3026,16 +3021,16 @@
         <v>33045</v>
       </c>
       <c r="J35" t="n">
-        <v>11050</v>
+        <v>2021</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>574.597</v>
+        <v>105.087</v>
       </c>
       <c r="L35" t="n">
         <v>522</v>
       </c>
       <c r="M35" t="n">
-        <v>64.05</v>
+        <v>11.71</v>
       </c>
       <c r="N35" t="n">
         <v>4</v>
@@ -3049,7 +3044,7 @@
         <v>223</v>
       </c>
       <c r="C36" t="n">
-        <v>380.71</v>
+        <v>69.63</v>
       </c>
       <c r="D36" t="n">
         <v>7</v>
@@ -3070,16 +3065,16 @@
         <v>81716</v>
       </c>
       <c r="J36" t="n">
-        <v>31110</v>
+        <v>5690</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>1617.732</v>
+        <v>295.864</v>
       </c>
       <c r="L36" t="n">
         <v>556</v>
       </c>
       <c r="M36" t="n">
-        <v>68.43</v>
+        <v>12.52</v>
       </c>
       <c r="N36" t="n">
         <v>6</v>
@@ -3093,7 +3088,7 @@
         <v>224</v>
       </c>
       <c r="C37" t="n">
-        <v>284.1</v>
+        <v>51.96</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -3114,16 +3109,16 @@
         <v>88461</v>
       </c>
       <c r="J37" t="n">
-        <v>25132</v>
+        <v>4596</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>1306.85</v>
+        <v>239.008</v>
       </c>
       <c r="L37" t="n">
         <v>523</v>
       </c>
       <c r="M37" t="n">
-        <v>54.35</v>
+        <v>9.94</v>
       </c>
       <c r="N37" t="n">
         <v>2</v>
@@ -3137,7 +3132,7 @@
         <v>225</v>
       </c>
       <c r="C38" t="n">
-        <v>447.22</v>
+        <v>81.79</v>
       </c>
       <c r="D38" t="n">
         <v>9</v>
@@ -3158,16 +3153,16 @@
         <v>46779</v>
       </c>
       <c r="J38" t="n">
-        <v>20921</v>
+        <v>3826</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>1087.875</v>
+        <v>198.96</v>
       </c>
       <c r="L38" t="n">
         <v>498</v>
       </c>
       <c r="M38" t="n">
-        <v>89.74</v>
+        <v>16.41</v>
       </c>
       <c r="N38" t="n">
         <v>9</v>
@@ -3181,7 +3176,7 @@
         <v>226</v>
       </c>
       <c r="C39" t="n">
-        <v>328.98</v>
+        <v>60.17</v>
       </c>
       <c r="D39" t="n">
         <v>3</v>
@@ -3202,16 +3197,16 @@
         <v>31530</v>
       </c>
       <c r="J39" t="n">
-        <v>10373</v>
+        <v>1897</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>539.377</v>
+        <v>98.646</v>
       </c>
       <c r="L39" t="n">
         <v>552</v>
       </c>
       <c r="M39" t="n">
-        <v>59.61</v>
+        <v>10.9</v>
       </c>
       <c r="N39" t="n">
         <v>3</v>
@@ -3225,7 +3220,7 @@
         <v>227</v>
       </c>
       <c r="C40" t="n">
-        <v>328.35</v>
+        <v>60.05</v>
       </c>
       <c r="D40" t="n">
         <v>3</v>
@@ -3246,16 +3241,16 @@
         <v>34039</v>
       </c>
       <c r="J40" t="n">
-        <v>11177</v>
+        <v>2044</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>581.194</v>
+        <v>106.294</v>
       </c>
       <c r="L40" t="n">
         <v>479</v>
       </c>
       <c r="M40" t="n">
-        <v>68.52</v>
+        <v>12.53</v>
       </c>
       <c r="N40" t="n">
         <v>6</v>
@@ -3269,7 +3264,7 @@
         <v>228</v>
       </c>
       <c r="C41" t="n">
-        <v>368.84</v>
+        <v>67.46</v>
       </c>
       <c r="D41" t="n">
         <v>6</v>
@@ -3290,16 +3285,16 @@
         <v>25841</v>
       </c>
       <c r="J41" t="n">
-        <v>9531</v>
+        <v>1743</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>495.62</v>
+        <v>90.643</v>
       </c>
       <c r="L41" t="n">
         <v>598</v>
       </c>
       <c r="M41" t="n">
-        <v>61.7</v>
+        <v>11.28</v>
       </c>
       <c r="N41" t="n">
         <v>4</v>
@@ -3313,7 +3308,7 @@
         <v>229</v>
       </c>
       <c r="C42" t="n">
-        <v>404.91</v>
+        <v>74.05</v>
       </c>
       <c r="D42" t="n">
         <v>8</v>
@@ -3334,16 +3329,16 @@
         <v>33682</v>
       </c>
       <c r="J42" t="n">
-        <v>13638</v>
+        <v>2494</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>709.183</v>
+        <v>129.701</v>
       </c>
       <c r="L42" t="n">
         <v>543</v>
       </c>
       <c r="M42" t="n">
-        <v>74.56</v>
+        <v>13.64</v>
       </c>
       <c r="N42" t="n">
         <v>7</v>
@@ -3357,7 +3352,7 @@
         <v>230</v>
       </c>
       <c r="C43" t="n">
-        <v>314.22</v>
+        <v>57.47</v>
       </c>
       <c r="D43" t="n">
         <v>3</v>
@@ -3378,16 +3373,16 @@
         <v>57010</v>
       </c>
       <c r="J43" t="n">
-        <v>17914</v>
+        <v>3276</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>931.503</v>
+        <v>170.361</v>
       </c>
       <c r="L43" t="n">
         <v>555</v>
       </c>
       <c r="M43" t="n">
-        <v>56.6</v>
+        <v>10.35</v>
       </c>
       <c r="N43" t="n">
         <v>2</v>
@@ -3401,7 +3396,7 @@
         <v>231</v>
       </c>
       <c r="C44" t="n">
-        <v>357.88</v>
+        <v>65.45</v>
       </c>
       <c r="D44" t="n">
         <v>5</v>
@@ -3422,16 +3417,16 @@
         <v>39424</v>
       </c>
       <c r="J44" t="n">
-        <v>14109</v>
+        <v>2580</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>733.67</v>
+        <v>134.18</v>
       </c>
       <c r="L44" t="n">
         <v>547</v>
       </c>
       <c r="M44" t="n">
-        <v>65.37</v>
+        <v>11.95</v>
       </c>
       <c r="N44" t="n">
         <v>5</v>
@@ -3445,7 +3440,7 @@
         <v>232</v>
       </c>
       <c r="C45" t="n">
-        <v>392.69</v>
+        <v>71.82</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
@@ -3466,16 +3461,16 @@
         <v>154954</v>
       </c>
       <c r="J45" t="n">
-        <v>60849</v>
+        <v>11128</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>3164.124</v>
+        <v>578.682</v>
       </c>
       <c r="L45" t="n">
         <v>577</v>
       </c>
       <c r="M45" t="n">
-        <v>68.1</v>
+        <v>12.45</v>
       </c>
       <c r="N45" t="n">
         <v>6</v>
@@ -3489,7 +3484,7 @@
         <v>233</v>
       </c>
       <c r="C46" t="n">
-        <v>293.18</v>
+        <v>53.62</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -3510,16 +3505,16 @@
         <v>27805</v>
       </c>
       <c r="J46" t="n">
-        <v>8152</v>
+        <v>1491</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>423.902</v>
+        <v>77.527</v>
       </c>
       <c r="L46" t="n">
         <v>470</v>
       </c>
       <c r="M46" t="n">
-        <v>62.43</v>
+        <v>11.42</v>
       </c>
       <c r="N46" t="n">
         <v>4</v>
@@ -3533,7 +3528,7 @@
         <v>234</v>
       </c>
       <c r="C47" t="n">
-        <v>334.18</v>
+        <v>61.12</v>
       </c>
       <c r="D47" t="n">
         <v>3</v>
@@ -3554,16 +3549,16 @@
         <v>65858</v>
       </c>
       <c r="J47" t="n">
-        <v>22008</v>
+        <v>4025</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>1144.433</v>
+        <v>209.304</v>
       </c>
       <c r="L47" t="n">
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>59.46</v>
+        <v>10.88</v>
       </c>
       <c r="N47" t="n">
         <v>3</v>
@@ -3577,7 +3572,7 @@
         <v>235</v>
       </c>
       <c r="C48" t="n">
-        <v>378.32</v>
+        <v>69.19</v>
       </c>
       <c r="D48" t="n">
         <v>6</v>
@@ -3598,16 +3593,16 @@
         <v>27929</v>
       </c>
       <c r="J48" t="n">
-        <v>10566</v>
+        <v>1932</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>549.439</v>
+        <v>100.486</v>
       </c>
       <c r="L48" t="n">
         <v>585</v>
       </c>
       <c r="M48" t="n">
-        <v>64.71</v>
+        <v>11.83</v>
       </c>
       <c r="N48" t="n">
         <v>5</v>
@@ -3621,7 +3616,7 @@
         <v>236</v>
       </c>
       <c r="C49" t="n">
-        <v>302.19</v>
+        <v>55.27</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -3642,16 +3637,16 @@
         <v>31381</v>
       </c>
       <c r="J49" t="n">
-        <v>9483</v>
+        <v>1734</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>493.117</v>
+        <v>90.185</v>
       </c>
       <c r="L49" t="n">
         <v>519</v>
       </c>
       <c r="M49" t="n">
-        <v>58.2</v>
+        <v>10.64</v>
       </c>
       <c r="N49" t="n">
         <v>3</v>
@@ -3665,7 +3660,7 @@
         <v>237</v>
       </c>
       <c r="C50" t="n">
-        <v>537.9</v>
+        <v>98.38</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
@@ -3686,16 +3681,16 @@
         <v>15000</v>
       </c>
       <c r="J50" t="n">
-        <v>8069</v>
+        <v>1476</v>
       </c>
       <c r="K50" s="3" t="n">
-        <v>419.562</v>
+        <v>76.733</v>
       </c>
       <c r="L50" t="n">
         <v>460</v>
       </c>
       <c r="M50" t="n">
-        <v>117</v>
+        <v>21.4</v>
       </c>
       <c r="N50" t="n">
         <v>10</v>
@@ -3709,7 +3704,7 @@
         <v>238</v>
       </c>
       <c r="C51" t="n">
-        <v>340.7</v>
+        <v>62.31</v>
       </c>
       <c r="D51" t="n">
         <v>4</v>
@@ -3730,16 +3725,16 @@
         <v>15305</v>
       </c>
       <c r="J51" t="n">
-        <v>5214</v>
+        <v>954</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>271.153</v>
+        <v>49.591</v>
       </c>
       <c r="L51" t="n">
         <v>610</v>
       </c>
       <c r="M51" t="n">
-        <v>55.82</v>
+        <v>10.21</v>
       </c>
       <c r="N51" t="n">
         <v>2</v>
@@ -3753,7 +3748,7 @@
         <v>239</v>
       </c>
       <c r="C52" t="n">
-        <v>389.09</v>
+        <v>71.16</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -3774,16 +3769,16 @@
         <v>109694</v>
       </c>
       <c r="J52" t="n">
-        <v>42681</v>
+        <v>7806</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>2219.431</v>
+        <v>405.908</v>
       </c>
       <c r="L52" t="n">
         <v>630</v>
       </c>
       <c r="M52" t="n">
-        <v>61.79</v>
+        <v>11.3</v>
       </c>
       <c r="N52" t="n">
         <v>4</v>
@@ -3797,7 +3792,7 @@
         <v>240</v>
       </c>
       <c r="C53" t="n">
-        <v>299.62</v>
+        <v>54.8</v>
       </c>
       <c r="D53" t="n">
         <v>2</v>
@@ -3818,16 +3813,16 @@
         <v>31107</v>
       </c>
       <c r="J53" t="n">
-        <v>9320</v>
+        <v>1705</v>
       </c>
       <c r="K53" s="3" t="n">
-        <v>484.655</v>
+        <v>88.638</v>
       </c>
       <c r="L53" t="n">
         <v>577</v>
       </c>
       <c r="M53" t="n">
-        <v>51.93</v>
+        <v>9.5</v>
       </c>
       <c r="N53" t="n">
         <v>2</v>
@@ -3841,7 +3836,7 @@
         <v>241</v>
       </c>
       <c r="C54" t="n">
-        <v>446.76</v>
+        <v>81.71</v>
       </c>
       <c r="D54" t="n">
         <v>9</v>
@@ -3862,16 +3857,16 @@
         <v>19875</v>
       </c>
       <c r="J54" t="n">
-        <v>8879</v>
+        <v>1624</v>
       </c>
       <c r="K54" s="3" t="n">
-        <v>461.723</v>
+        <v>84.444</v>
       </c>
       <c r="L54" t="n">
         <v>644</v>
       </c>
       <c r="M54" t="n">
-        <v>69.37</v>
+        <v>12.69</v>
       </c>
       <c r="N54" t="n">
         <v>6</v>
@@ -3885,7 +3880,7 @@
         <v>242</v>
       </c>
       <c r="C55" t="n">
-        <v>483.87</v>
+        <v>88.49</v>
       </c>
       <c r="D55" t="n">
         <v>10</v>
@@ -3906,16 +3901,16 @@
         <v>14180</v>
       </c>
       <c r="J55" t="n">
-        <v>6861</v>
+        <v>1255</v>
       </c>
       <c r="K55" s="3" t="n">
-        <v>356.786</v>
+        <v>65.252</v>
       </c>
       <c r="L55" t="n">
         <v>422</v>
       </c>
       <c r="M55" t="n">
-        <v>114.76</v>
+        <v>20.99</v>
       </c>
       <c r="N55" t="n">
         <v>10</v>
@@ -3929,7 +3924,7 @@
         <v>243</v>
       </c>
       <c r="C56" t="n">
-        <v>541.73</v>
+        <v>99.08</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
@@ -3950,16 +3945,16 @@
         <v>26524</v>
       </c>
       <c r="J56" t="n">
-        <v>14369</v>
+        <v>2628</v>
       </c>
       <c r="K56" s="3" t="n">
-        <v>747.175</v>
+        <v>136.65</v>
       </c>
       <c r="L56" t="n">
         <v>621</v>
       </c>
       <c r="M56" t="n">
-        <v>87.27</v>
+        <v>15.96</v>
       </c>
       <c r="N56" t="n">
         <v>8</v>
@@ -3973,7 +3968,7 @@
         <v>244</v>
       </c>
       <c r="C57" t="n">
-        <v>417.59</v>
+        <v>76.37</v>
       </c>
       <c r="D57" t="n">
         <v>8</v>
@@ -3994,16 +3989,16 @@
         <v>19235</v>
       </c>
       <c r="J57" t="n">
-        <v>8032</v>
+        <v>1469</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>417.682</v>
+        <v>76.389</v>
       </c>
       <c r="L57" t="n">
         <v>520</v>
       </c>
       <c r="M57" t="n">
-        <v>80.28</v>
+        <v>14.68</v>
       </c>
       <c r="N57" t="n">
         <v>8</v>
@@ -4017,7 +4012,7 @@
         <v>245</v>
       </c>
       <c r="C58" t="n">
-        <v>341.9</v>
+        <v>62.53</v>
       </c>
       <c r="D58" t="n">
         <v>4</v>
@@ -4038,16 +4033,16 @@
         <v>100550</v>
       </c>
       <c r="J58" t="n">
-        <v>34378</v>
+        <v>6287</v>
       </c>
       <c r="K58" s="3" t="n">
-        <v>1787.656</v>
+        <v>326.942</v>
       </c>
       <c r="L58" t="n">
         <v>597</v>
       </c>
       <c r="M58" t="n">
-        <v>57.32</v>
+        <v>10.48</v>
       </c>
       <c r="N58" t="n">
         <v>2</v>
@@ -4061,7 +4056,7 @@
         <v>246</v>
       </c>
       <c r="C59" t="n">
-        <v>370.98</v>
+        <v>67.85</v>
       </c>
       <c r="D59" t="n">
         <v>6</v>
@@ -4082,16 +4077,16 @@
         <v>27469</v>
       </c>
       <c r="J59" t="n">
-        <v>10190</v>
+        <v>1864</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>529.896</v>
+        <v>96.912</v>
       </c>
       <c r="L59" t="n">
         <v>615</v>
       </c>
       <c r="M59" t="n">
-        <v>60.34</v>
+        <v>11.04</v>
       </c>
       <c r="N59" t="n">
         <v>3</v>
@@ -4105,7 +4100,7 @@
         <v>247</v>
       </c>
       <c r="C60" t="n">
-        <v>393.02</v>
+        <v>71.88</v>
       </c>
       <c r="D60" t="n">
         <v>7</v>
@@ -4126,16 +4121,16 @@
         <v>29395</v>
       </c>
       <c r="J60" t="n">
-        <v>11553</v>
+        <v>2113</v>
       </c>
       <c r="K60" s="3" t="n">
-        <v>600.741</v>
+        <v>109.868</v>
       </c>
       <c r="L60" t="n">
         <v>593</v>
       </c>
       <c r="M60" t="n">
-        <v>66.25</v>
+        <v>12.12</v>
       </c>
       <c r="N60" t="n">
         <v>5</v>
@@ -4149,7 +4144,7 @@
         <v>248</v>
       </c>
       <c r="C61" t="n">
-        <v>420.86</v>
+        <v>76.97</v>
       </c>
       <c r="D61" t="n">
         <v>9</v>
@@ -4170,16 +4165,16 @@
         <v>16896</v>
       </c>
       <c r="J61" t="n">
-        <v>7111</v>
+        <v>1300</v>
       </c>
       <c r="K61" s="3" t="n">
-        <v>369.763</v>
+        <v>67.625</v>
       </c>
       <c r="L61" t="n">
         <v>522</v>
       </c>
       <c r="M61" t="n">
-        <v>80.62</v>
+        <v>14.74</v>
       </c>
       <c r="N61" t="n">
         <v>8</v>
@@ -4219,7 +4214,7 @@
         <v>250</v>
       </c>
       <c r="C63" t="n">
-        <v>329.36</v>
+        <v>60.24</v>
       </c>
       <c r="D63" t="n">
         <v>3</v>
@@ -4240,16 +4235,16 @@
         <v>24714</v>
       </c>
       <c r="J63" t="n">
-        <v>8140</v>
+        <v>1489</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>423.268</v>
+        <v>77.411</v>
       </c>
       <c r="L63" t="n">
         <v>569</v>
       </c>
       <c r="M63" t="n">
-        <v>57.85</v>
+        <v>10.58</v>
       </c>
       <c r="N63" t="n">
         <v>3</v>
@@ -4263,7 +4258,7 @@
         <v>251</v>
       </c>
       <c r="C64" t="n">
-        <v>430.43</v>
+        <v>78.72</v>
       </c>
       <c r="D64" t="n">
         <v>9</v>
@@ -4284,16 +4279,16 @@
         <v>18999</v>
       </c>
       <c r="J64" t="n">
-        <v>8178</v>
+        <v>1496</v>
       </c>
       <c r="K64" s="3" t="n">
-        <v>425.239</v>
+        <v>77.771</v>
       </c>
       <c r="L64" t="n">
         <v>654</v>
       </c>
       <c r="M64" t="n">
-        <v>65.77</v>
+        <v>12.03</v>
       </c>
       <c r="N64" t="n">
         <v>5</v>
@@ -4307,7 +4302,7 @@
         <v>252</v>
       </c>
       <c r="C65" t="n">
-        <v>361.78</v>
+        <v>66.17</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
@@ -4324,10 +4319,10 @@
         <v>169384</v>
       </c>
       <c r="J65" t="n">
-        <v>61280</v>
+        <v>11207</v>
       </c>
       <c r="K65" s="3" t="n">
-        <v>3186.557</v>
+        <v>582.784</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
@@ -4341,7 +4336,7 @@
         <v>253</v>
       </c>
       <c r="C66" t="n">
-        <v>410.21</v>
+        <v>75.02</v>
       </c>
       <c r="D66" t="n">
         <v>8</v>
@@ -4362,16 +4357,16 @@
         <v>44979</v>
       </c>
       <c r="J66" t="n">
-        <v>18451</v>
+        <v>3374</v>
       </c>
       <c r="K66" s="3" t="n">
-        <v>959.45</v>
+        <v>175.472</v>
       </c>
       <c r="L66" t="n">
         <v>432</v>
       </c>
       <c r="M66" t="n">
-        <v>95.03</v>
+        <v>17.38</v>
       </c>
       <c r="N66" t="n">
         <v>10</v>
@@ -4385,7 +4380,7 @@
         <v>254</v>
       </c>
       <c r="C67" t="n">
-        <v>264.36</v>
+        <v>48.35</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -4406,16 +4401,16 @@
         <v>12722</v>
       </c>
       <c r="J67" t="n">
-        <v>3363</v>
+        <v>615</v>
       </c>
       <c r="K67" s="3" t="n">
-        <v>174.888</v>
+        <v>31.985</v>
       </c>
       <c r="L67" t="n">
         <v>745</v>
       </c>
       <c r="M67" t="n">
-        <v>35.47</v>
+        <v>6.49</v>
       </c>
       <c r="N67" t="n">
         <v>1</v>
@@ -4429,7 +4424,7 @@
         <v>255</v>
       </c>
       <c r="C68" t="n">
-        <v>341.99</v>
+        <v>62.55</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
@@ -4450,16 +4445,16 @@
         <v>48497</v>
       </c>
       <c r="J68" t="n">
-        <v>16586</v>
+        <v>3033</v>
       </c>
       <c r="K68" s="3" t="n">
-        <v>862.457</v>
+        <v>157.733</v>
       </c>
       <c r="L68" t="n">
         <v>468</v>
       </c>
       <c r="M68" t="n">
-        <v>73.03</v>
+        <v>13.36</v>
       </c>
       <c r="N68" t="n">
         <v>7</v>
@@ -4473,7 +4468,7 @@
         <v>256</v>
       </c>
       <c r="C69" t="n">
-        <v>420.74</v>
+        <v>76.95</v>
       </c>
       <c r="D69" t="n">
         <v>8</v>
@@ -4494,16 +4489,16 @@
         <v>16682</v>
       </c>
       <c r="J69" t="n">
-        <v>7019</v>
+        <v>1284</v>
       </c>
       <c r="K69" s="3" t="n">
-        <v>364.98</v>
+        <v>66.751</v>
       </c>
       <c r="L69" t="n">
         <v>404</v>
       </c>
       <c r="M69" t="n">
-        <v>104.26</v>
+        <v>19.07</v>
       </c>
       <c r="N69" t="n">
         <v>10</v>
@@ -4517,7 +4512,7 @@
         <v>257</v>
       </c>
       <c r="C70" t="n">
-        <v>350.09</v>
+        <v>64.03</v>
       </c>
       <c r="D70" t="n">
         <v>4</v>
@@ -4538,16 +4533,16 @@
         <v>35272</v>
       </c>
       <c r="J70" t="n">
-        <v>12348</v>
+        <v>2258</v>
       </c>
       <c r="K70" s="3" t="n">
-        <v>642.121</v>
+        <v>117.436</v>
       </c>
       <c r="L70" t="n">
         <v>591</v>
       </c>
       <c r="M70" t="n">
-        <v>59.24</v>
+        <v>10.84</v>
       </c>
       <c r="N70" t="n">
         <v>3</v>
@@ -4561,7 +4556,7 @@
         <v>258</v>
       </c>
       <c r="C71" t="n">
-        <v>354.45</v>
+        <v>64.83</v>
       </c>
       <c r="D71" t="n">
         <v>5</v>
@@ -4582,16 +4577,16 @@
         <v>134164</v>
       </c>
       <c r="J71" t="n">
-        <v>47555</v>
+        <v>8697</v>
       </c>
       <c r="K71" s="3" t="n">
-        <v>2472.848</v>
+        <v>452.255</v>
       </c>
       <c r="L71" t="n">
         <v>493</v>
       </c>
       <c r="M71" t="n">
-        <v>71.9</v>
+        <v>13.15</v>
       </c>
       <c r="N71" t="n">
         <v>7</v>
@@ -4605,7 +4600,7 @@
         <v>259</v>
       </c>
       <c r="C72" t="n">
-        <v>292.48</v>
+        <v>53.49</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -4626,16 +4621,16 @@
         <v>95184</v>
       </c>
       <c r="J72" t="n">
-        <v>27839</v>
+        <v>5091</v>
       </c>
       <c r="K72" s="3" t="n">
-        <v>1447.625</v>
+        <v>264.754</v>
       </c>
       <c r="L72" t="n">
         <v>486</v>
       </c>
       <c r="M72" t="n">
-        <v>60.2</v>
+        <v>11.01</v>
       </c>
       <c r="N72" t="n">
         <v>3</v>
@@ -4649,7 +4644,7 @@
         <v>260</v>
       </c>
       <c r="C73" t="n">
-        <v>295.44</v>
+        <v>54.03</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
@@ -4670,16 +4665,16 @@
         <v>41728</v>
       </c>
       <c r="J73" t="n">
-        <v>12328</v>
+        <v>2255</v>
       </c>
       <c r="K73" s="3" t="n">
-        <v>641.062</v>
+        <v>117.243</v>
       </c>
       <c r="L73" t="n">
         <v>401</v>
       </c>
       <c r="M73" t="n">
-        <v>73.71</v>
+        <v>13.48</v>
       </c>
       <c r="N73" t="n">
         <v>7</v>
@@ -4693,7 +4688,7 @@
         <v>261</v>
       </c>
       <c r="C74" t="n">
-        <v>411.1</v>
+        <v>75.18</v>
       </c>
       <c r="D74" t="n">
         <v>8</v>
@@ -4714,16 +4709,16 @@
         <v>67615</v>
       </c>
       <c r="J74" t="n">
-        <v>27796</v>
+        <v>5084</v>
       </c>
       <c r="K74" s="3" t="n">
-        <v>1445.406</v>
+        <v>264.348</v>
       </c>
       <c r="L74" t="n">
         <v>599</v>
       </c>
       <c r="M74" t="n">
-        <v>68.6</v>
+        <v>12.55</v>
       </c>
       <c r="N74" t="n">
         <v>6</v>
@@ -4737,7 +4732,7 @@
         <v>262</v>
       </c>
       <c r="C75" t="n">
-        <v>343.31</v>
+        <v>62.79</v>
       </c>
       <c r="D75" t="n">
         <v>4</v>
@@ -4758,16 +4753,16 @@
         <v>34483</v>
       </c>
       <c r="J75" t="n">
-        <v>11838</v>
+        <v>2165</v>
       </c>
       <c r="K75" s="3" t="n">
-        <v>615.59</v>
+        <v>112.584</v>
       </c>
       <c r="L75" t="n">
         <v>592</v>
       </c>
       <c r="M75" t="n">
-        <v>58.03</v>
+        <v>10.61</v>
       </c>
       <c r="N75" t="n">
         <v>3</v>
@@ -4781,7 +4776,7 @@
         <v>263</v>
       </c>
       <c r="C76" t="n">
-        <v>313.81</v>
+        <v>57.39</v>
       </c>
       <c r="D76" t="n">
         <v>2</v>
@@ -4802,16 +4797,16 @@
         <v>94175</v>
       </c>
       <c r="J76" t="n">
-        <v>29553</v>
+        <v>5405</v>
       </c>
       <c r="K76" s="3" t="n">
-        <v>1536.777</v>
+        <v>281.059</v>
       </c>
       <c r="L76" t="n">
         <v>520</v>
       </c>
       <c r="M76" t="n">
-        <v>60.39</v>
+        <v>11.04</v>
       </c>
       <c r="N76" t="n">
         <v>4</v>
@@ -4825,7 +4820,7 @@
         <v>264</v>
       </c>
       <c r="C77" t="n">
-        <v>366.26</v>
+        <v>66.99</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
@@ -4846,16 +4841,16 @@
         <v>56803</v>
       </c>
       <c r="J77" t="n">
-        <v>20805</v>
+        <v>3805</v>
       </c>
       <c r="K77" s="3" t="n">
-        <v>1081.857</v>
+        <v>197.859</v>
       </c>
       <c r="L77" t="n">
         <v>421</v>
       </c>
       <c r="M77" t="n">
-        <v>86.99</v>
+        <v>15.91</v>
       </c>
       <c r="N77" t="n">
         <v>8</v>
@@ -4869,7 +4864,7 @@
         <v>265</v>
       </c>
       <c r="C78" t="n">
-        <v>523.87</v>
+        <v>95.81</v>
       </c>
       <c r="D78" t="n">
         <v>10</v>
@@ -4890,16 +4885,16 @@
         <v>26204</v>
       </c>
       <c r="J78" t="n">
-        <v>13727</v>
+        <v>2511</v>
       </c>
       <c r="K78" s="3" t="n">
-        <v>713.823</v>
+        <v>130.55</v>
       </c>
       <c r="L78" t="n">
         <v>493</v>
       </c>
       <c r="M78" t="n">
-        <v>106.35</v>
+        <v>19.45</v>
       </c>
       <c r="N78" t="n">
         <v>10</v>
@@ -4913,7 +4908,7 @@
         <v>266</v>
       </c>
       <c r="C79" t="n">
-        <v>220.75</v>
+        <v>40.37</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -4934,16 +4929,16 @@
         <v>77467</v>
       </c>
       <c r="J79" t="n">
-        <v>17101</v>
+        <v>3128</v>
       </c>
       <c r="K79" s="3" t="n">
-        <v>889.251</v>
+        <v>162.634</v>
       </c>
       <c r="L79" t="n">
         <v>421</v>
       </c>
       <c r="M79" t="n">
-        <v>52.41</v>
+        <v>9.59</v>
       </c>
       <c r="N79" t="n">
         <v>2</v>
@@ -4957,7 +4952,7 @@
         <v>267</v>
       </c>
       <c r="C80" t="n">
-        <v>435.87</v>
+        <v>79.72</v>
       </c>
       <c r="D80" t="n">
         <v>9</v>
@@ -4978,16 +4973,16 @@
         <v>30036</v>
       </c>
       <c r="J80" t="n">
-        <v>13092</v>
+        <v>2394</v>
       </c>
       <c r="K80" s="3" t="n">
-        <v>680.775</v>
+        <v>124.506</v>
       </c>
       <c r="L80" t="n">
         <v>547</v>
       </c>
       <c r="M80" t="n">
-        <v>79.65</v>
+        <v>14.57</v>
       </c>
       <c r="N80" t="n">
         <v>8</v>
@@ -5001,7 +4996,7 @@
         <v>268</v>
       </c>
       <c r="C81" t="n">
-        <v>302.16</v>
+        <v>55.26</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
@@ -5022,16 +5017,16 @@
         <v>21559</v>
       </c>
       <c r="J81" t="n">
-        <v>6514</v>
+        <v>1191</v>
       </c>
       <c r="K81" s="3" t="n">
-        <v>338.747</v>
+        <v>61.953</v>
       </c>
       <c r="L81" t="n">
         <v>680</v>
       </c>
       <c r="M81" t="n">
-        <v>44.43</v>
+        <v>8.12</v>
       </c>
       <c r="N81" t="n">
         <v>1</v>
@@ -5045,7 +5040,7 @@
         <v>269</v>
       </c>
       <c r="C82" t="n">
-        <v>484.09</v>
+        <v>88.53</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
@@ -5066,16 +5061,16 @@
         <v>18578</v>
       </c>
       <c r="J82" t="n">
-        <v>8993</v>
+        <v>1645</v>
       </c>
       <c r="K82" s="3" t="n">
-        <v>467.657</v>
+        <v>85.529</v>
       </c>
       <c r="L82" t="n">
         <v>429</v>
       </c>
       <c r="M82" t="n">
-        <v>112.75</v>
+        <v>20.62</v>
       </c>
       <c r="N82" t="n">
         <v>10</v>
@@ -5089,7 +5084,7 @@
         <v>270</v>
       </c>
       <c r="C83" t="n">
-        <v>368.2</v>
+        <v>67.34</v>
       </c>
       <c r="D83" t="n">
         <v>6</v>
@@ -5110,16 +5105,16 @@
         <v>30202</v>
       </c>
       <c r="J83" t="n">
-        <v>11120</v>
+        <v>2034</v>
       </c>
       <c r="K83" s="3" t="n">
-        <v>578.254</v>
+        <v>105.756</v>
       </c>
       <c r="L83" t="n">
         <v>567</v>
       </c>
       <c r="M83" t="n">
-        <v>64.94</v>
+        <v>11.88</v>
       </c>
       <c r="N83" t="n">
         <v>5</v>
@@ -5133,7 +5128,7 @@
         <v>271</v>
       </c>
       <c r="C84" t="n">
-        <v>461.34</v>
+        <v>84.37</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
@@ -5154,16 +5149,16 @@
         <v>31804</v>
       </c>
       <c r="J84" t="n">
-        <v>14672</v>
+        <v>2683</v>
       </c>
       <c r="K84" s="3" t="n">
-        <v>762.964</v>
+        <v>139.537</v>
       </c>
       <c r="L84" t="n">
         <v>463</v>
       </c>
       <c r="M84" t="n">
-        <v>99.6</v>
+        <v>18.22</v>
       </c>
       <c r="N84" t="n">
         <v>10</v>
@@ -5177,7 +5172,7 @@
         <v>272</v>
       </c>
       <c r="C85" t="n">
-        <v>416.24</v>
+        <v>76.13</v>
       </c>
       <c r="D85" t="n">
         <v>8</v>
@@ -5198,16 +5193,16 @@
         <v>36891</v>
       </c>
       <c r="J85" t="n">
-        <v>15355</v>
+        <v>2808</v>
       </c>
       <c r="K85" s="3" t="n">
-        <v>798.482</v>
+        <v>146.033</v>
       </c>
       <c r="L85" t="n">
         <v>505</v>
       </c>
       <c r="M85" t="n">
-        <v>82.37</v>
+        <v>15.07</v>
       </c>
       <c r="N85" t="n">
         <v>8</v>
@@ -5221,7 +5216,7 @@
         <v>273</v>
       </c>
       <c r="C86" t="n">
-        <v>301.72</v>
+        <v>55.18</v>
       </c>
       <c r="D86" t="n">
         <v>2</v>
@@ -5242,16 +5237,16 @@
         <v>106988</v>
       </c>
       <c r="J86" t="n">
-        <v>32280</v>
+        <v>5904</v>
       </c>
       <c r="K86" s="3" t="n">
-        <v>1678.582</v>
+        <v>306.993</v>
       </c>
       <c r="L86" t="n">
         <v>545</v>
       </c>
       <c r="M86" t="n">
-        <v>55.31</v>
+        <v>10.12</v>
       </c>
       <c r="N86" t="n">
         <v>2</v>
@@ -5265,7 +5260,7 @@
         <v>274</v>
       </c>
       <c r="C87" t="n">
-        <v>361.64</v>
+        <v>66.14</v>
       </c>
       <c r="D87" t="n">
         <v>5</v>
@@ -5286,16 +5281,16 @@
         <v>27763</v>
       </c>
       <c r="J87" t="n">
-        <v>10040</v>
+        <v>1836</v>
       </c>
       <c r="K87" s="3" t="n">
-        <v>522.091</v>
+        <v>95.484</v>
       </c>
       <c r="L87" t="n">
         <v>452</v>
       </c>
       <c r="M87" t="n">
-        <v>79.93</v>
+        <v>14.62</v>
       </c>
       <c r="N87" t="n">
         <v>8</v>
@@ -5309,7 +5304,7 @@
         <v>275</v>
       </c>
       <c r="C88" t="n">
-        <v>385.67</v>
+        <v>70.53</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
@@ -5330,16 +5325,16 @@
         <v>24374</v>
       </c>
       <c r="J88" t="n">
-        <v>9400</v>
+        <v>1719</v>
       </c>
       <c r="K88" s="3" t="n">
-        <v>488.817</v>
+        <v>89.399</v>
       </c>
       <c r="L88" t="n">
         <v>516</v>
       </c>
       <c r="M88" t="n">
-        <v>74.78</v>
+        <v>13.68</v>
       </c>
       <c r="N88" t="n">
         <v>7</v>
@@ -5353,7 +5348,7 @@
         <v>276</v>
       </c>
       <c r="C89" t="n">
-        <v>281.03</v>
+        <v>51.4</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -5374,16 +5369,16 @@
         <v>19276</v>
       </c>
       <c r="J89" t="n">
-        <v>5417</v>
+        <v>991</v>
       </c>
       <c r="K89" s="3" t="n">
-        <v>281.689</v>
+        <v>51.518</v>
       </c>
       <c r="L89" t="n">
         <v>556</v>
       </c>
       <c r="M89" t="n">
-        <v>50.57</v>
+        <v>9.25</v>
       </c>
       <c r="N89" t="n">
         <v>1</v>
@@ -5397,7 +5392,7 @@
         <v>277</v>
       </c>
       <c r="C90" t="n">
-        <v>436.72</v>
+        <v>79.87</v>
       </c>
       <c r="D90" t="n">
         <v>9</v>
@@ -5418,16 +5413,16 @@
         <v>23140</v>
       </c>
       <c r="J90" t="n">
-        <v>10106</v>
+        <v>1848</v>
       </c>
       <c r="K90" s="3" t="n">
-        <v>525.494</v>
+        <v>96.107</v>
       </c>
       <c r="L90" t="n">
         <v>500</v>
       </c>
       <c r="M90" t="n">
-        <v>87.29</v>
+        <v>15.96</v>
       </c>
       <c r="N90" t="n">
         <v>8</v>
@@ -5441,7 +5436,7 @@
         <v>278</v>
       </c>
       <c r="C91" t="n">
-        <v>367.78</v>
+        <v>67.26</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
@@ -5462,16 +5457,16 @@
         <v>59798</v>
       </c>
       <c r="J91" t="n">
-        <v>21993</v>
+        <v>4022</v>
       </c>
       <c r="K91" s="3" t="n">
-        <v>1143.617</v>
+        <v>209.154</v>
       </c>
       <c r="L91" t="n">
         <v>550</v>
       </c>
       <c r="M91" t="n">
-        <v>66.82</v>
+        <v>12.22</v>
       </c>
       <c r="N91" t="n">
         <v>5</v>
@@ -5485,7 +5480,7 @@
         <v>279</v>
       </c>
       <c r="C92" t="n">
-        <v>381.55</v>
+        <v>69.78</v>
       </c>
       <c r="D92" t="n">
         <v>7</v>
@@ -5506,16 +5501,16 @@
         <v>95181</v>
       </c>
       <c r="J92" t="n">
-        <v>36316</v>
+        <v>6642</v>
       </c>
       <c r="K92" s="3" t="n">
-        <v>1888.435</v>
+        <v>345.373</v>
       </c>
       <c r="L92" t="n">
         <v>558</v>
       </c>
       <c r="M92" t="n">
-        <v>68.33</v>
+        <v>12.5</v>
       </c>
       <c r="N92" t="n">
         <v>6</v>
@@ -5529,7 +5524,7 @@
         <v>280</v>
       </c>
       <c r="C93" t="n">
-        <v>398.9</v>
+        <v>72.95</v>
       </c>
       <c r="D93" t="n">
         <v>7</v>
@@ -5550,16 +5545,16 @@
         <v>33849</v>
       </c>
       <c r="J93" t="n">
-        <v>13502</v>
+        <v>2469</v>
       </c>
       <c r="K93" s="3" t="n">
-        <v>702.115</v>
+        <v>128.409</v>
       </c>
       <c r="L93" t="n">
         <v>513</v>
       </c>
       <c r="M93" t="n">
-        <v>77.83</v>
+        <v>14.23</v>
       </c>
       <c r="N93" t="n">
         <v>8</v>
@@ -5573,7 +5568,7 @@
         <v>281</v>
       </c>
       <c r="C94" t="n">
-        <v>353</v>
+        <v>64.56</v>
       </c>
       <c r="D94" t="n">
         <v>5</v>
@@ -5594,16 +5589,16 @@
         <v>55121</v>
       </c>
       <c r="J94" t="n">
-        <v>19458</v>
+        <v>3559</v>
       </c>
       <c r="K94" s="3" t="n">
-        <v>1011.793</v>
+        <v>185.045</v>
       </c>
       <c r="L94" t="n">
         <v>456</v>
       </c>
       <c r="M94" t="n">
-        <v>77.49</v>
+        <v>14.17</v>
       </c>
       <c r="N94" t="n">
         <v>8</v>
@@ -5617,7 +5612,7 @@
         <v>282</v>
       </c>
       <c r="C95" t="n">
-        <v>384.91</v>
+        <v>70.4</v>
       </c>
       <c r="D95" t="n">
         <v>7</v>
@@ -5638,16 +5633,16 @@
         <v>95012</v>
       </c>
       <c r="J95" t="n">
-        <v>36571</v>
+        <v>6688</v>
       </c>
       <c r="K95" s="3" t="n">
-        <v>1901.693</v>
+        <v>347.798</v>
       </c>
       <c r="L95" t="n">
         <v>590</v>
       </c>
       <c r="M95" t="n">
-        <v>65.27</v>
+        <v>11.94</v>
       </c>
       <c r="N95" t="n">
         <v>5</v>
@@ -5661,7 +5656,7 @@
         <v>283</v>
       </c>
       <c r="C96" t="n">
-        <v>451.39</v>
+        <v>82.55</v>
       </c>
       <c r="D96" t="n">
         <v>9</v>
@@ -5682,16 +5677,16 @@
         <v>31764</v>
       </c>
       <c r="J96" t="n">
-        <v>14338</v>
+        <v>2622</v>
       </c>
       <c r="K96" s="3" t="n">
-        <v>745.575</v>
+        <v>136.357</v>
       </c>
       <c r="L96" t="n">
         <v>463</v>
       </c>
       <c r="M96" t="n">
-        <v>97.44</v>
+        <v>17.82</v>
       </c>
       <c r="N96" t="n">
         <v>10</v>
@@ -5705,7 +5700,7 @@
         <v>284</v>
       </c>
       <c r="C97" t="n">
-        <v>339.23</v>
+        <v>62.04</v>
       </c>
       <c r="D97" t="n">
         <v>3</v>
@@ -5726,16 +5721,16 @@
         <v>65455</v>
       </c>
       <c r="J97" t="n">
-        <v>22204</v>
+        <v>4061</v>
       </c>
       <c r="K97" s="3" t="n">
-        <v>1154.611</v>
+        <v>211.165</v>
       </c>
       <c r="L97" t="n">
         <v>641</v>
       </c>
       <c r="M97" t="n">
-        <v>52.96</v>
+        <v>9.69</v>
       </c>
       <c r="N97" t="n">
         <v>2</v>
@@ -5749,7 +5744,7 @@
         <v>285</v>
       </c>
       <c r="C98" t="n">
-        <v>307.95</v>
+        <v>56.32</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
@@ -5770,16 +5765,16 @@
         <v>28328</v>
       </c>
       <c r="J98" t="n">
-        <v>8724</v>
+        <v>1595</v>
       </c>
       <c r="K98" s="3" t="n">
-        <v>453.635</v>
+        <v>82.965</v>
       </c>
       <c r="L98" t="n">
         <v>518</v>
       </c>
       <c r="M98" t="n">
-        <v>59.45</v>
+        <v>10.87</v>
       </c>
       <c r="N98" t="n">
         <v>3</v>
@@ -5793,7 +5788,7 @@
         <v>286</v>
       </c>
       <c r="C99" t="n">
-        <v>311.98</v>
+        <v>57.06</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -5814,16 +5809,16 @@
         <v>38738</v>
       </c>
       <c r="J99" t="n">
-        <v>12086</v>
+        <v>2210</v>
       </c>
       <c r="K99" s="3" t="n">
-        <v>628.45</v>
+        <v>114.936</v>
       </c>
       <c r="L99" t="n">
         <v>505</v>
       </c>
       <c r="M99" t="n">
-        <v>61.81</v>
+        <v>11.3</v>
       </c>
       <c r="N99" t="n">
         <v>4</v>
@@ -5837,7 +5832,7 @@
         <v>287</v>
       </c>
       <c r="C100" t="n">
-        <v>411.43</v>
+        <v>75.25</v>
       </c>
       <c r="D100" t="n">
         <v>8</v>
@@ -5858,16 +5853,16 @@
         <v>28148</v>
       </c>
       <c r="J100" t="n">
-        <v>11581</v>
+        <v>2118</v>
       </c>
       <c r="K100" s="3" t="n">
-        <v>602.203</v>
+        <v>110.136</v>
       </c>
       <c r="L100" t="n">
         <v>558</v>
       </c>
       <c r="M100" t="n">
-        <v>73.7</v>
+        <v>13.48</v>
       </c>
       <c r="N100" t="n">
         <v>7</v>
@@ -5913,7 +5908,7 @@
         <v>289</v>
       </c>
       <c r="C102" t="n">
-        <v>406.91</v>
+        <v>74.42</v>
       </c>
       <c r="D102" t="n">
         <v>8</v>
@@ -5934,16 +5929,16 @@
         <v>30605</v>
       </c>
       <c r="J102" t="n">
-        <v>12453</v>
+        <v>2278</v>
       </c>
       <c r="K102" s="3" t="n">
-        <v>647.582</v>
+        <v>118.435</v>
       </c>
       <c r="L102" t="n">
         <v>593</v>
       </c>
       <c r="M102" t="n">
-        <v>68.6</v>
+        <v>12.55</v>
       </c>
       <c r="N102" t="n">
         <v>6</v>
@@ -5957,7 +5952,7 @@
         <v>290</v>
       </c>
       <c r="C103" t="n">
-        <v>409.11</v>
+        <v>74.82</v>
       </c>
       <c r="D103" t="n">
         <v>8</v>
@@ -5978,16 +5973,16 @@
         <v>16942</v>
       </c>
       <c r="J103" t="n">
-        <v>6931</v>
+        <v>1268</v>
       </c>
       <c r="K103" s="3" t="n">
-        <v>360.421</v>
+        <v>65.917</v>
       </c>
       <c r="L103" t="n">
         <v>468</v>
       </c>
       <c r="M103" t="n">
-        <v>87.45</v>
+        <v>15.99</v>
       </c>
       <c r="N103" t="n">
         <v>9</v>
@@ -6001,7 +5996,7 @@
         <v>291</v>
       </c>
       <c r="C104" t="n">
-        <v>375.57</v>
+        <v>68.69</v>
       </c>
       <c r="D104" t="n">
         <v>6</v>
@@ -6022,16 +6017,16 @@
         <v>12172</v>
       </c>
       <c r="J104" t="n">
-        <v>4571</v>
+        <v>836</v>
       </c>
       <c r="K104" s="3" t="n">
-        <v>237.717</v>
+        <v>43.476</v>
       </c>
       <c r="L104" t="n">
         <v>779</v>
       </c>
       <c r="M104" t="n">
-        <v>48.19</v>
+        <v>8.81</v>
       </c>
       <c r="N104" t="n">
         <v>1</v>
@@ -6045,7 +6040,7 @@
         <v>292</v>
       </c>
       <c r="C105" t="n">
-        <v>345.18</v>
+        <v>63.13</v>
       </c>
       <c r="D105" t="n">
         <v>4</v>
@@ -6066,16 +6061,16 @@
         <v>25632</v>
       </c>
       <c r="J105" t="n">
-        <v>8848</v>
+        <v>1618</v>
       </c>
       <c r="K105" s="3" t="n">
-        <v>460.073</v>
+        <v>84.142</v>
       </c>
       <c r="L105" t="n">
         <v>455</v>
       </c>
       <c r="M105" t="n">
-        <v>75.85</v>
+        <v>13.87</v>
       </c>
       <c r="N105" t="n">
         <v>7</v>
@@ -6089,7 +6084,7 @@
         <v>293</v>
       </c>
       <c r="C106" t="n">
-        <v>341.31</v>
+        <v>62.42</v>
       </c>
       <c r="D106" t="n">
         <v>4</v>
@@ -6110,16 +6105,16 @@
         <v>37100</v>
       </c>
       <c r="J106" t="n">
-        <v>12663</v>
+        <v>2316</v>
       </c>
       <c r="K106" s="3" t="n">
-        <v>658.46</v>
+        <v>120.425</v>
       </c>
       <c r="L106" t="n">
         <v>509</v>
       </c>
       <c r="M106" t="n">
-        <v>67.08</v>
+        <v>12.27</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6133,7 +6128,7 @@
         <v>294</v>
       </c>
       <c r="C107" t="n">
-        <v>412.76</v>
+        <v>75.49</v>
       </c>
       <c r="D107" t="n">
         <v>8</v>
@@ -6154,16 +6149,16 @@
         <v>3258</v>
       </c>
       <c r="J107" t="n">
-        <v>1345</v>
+        <v>246</v>
       </c>
       <c r="K107" s="3" t="n">
-        <v>69.927</v>
+        <v>12.789</v>
       </c>
       <c r="L107" t="n">
         <v>662</v>
       </c>
       <c r="M107" t="n">
-        <v>62.39</v>
+        <v>11.41</v>
       </c>
       <c r="N107" t="n">
         <v>4</v>
@@ -6177,7 +6172,7 @@
         <v>295</v>
       </c>
       <c r="C108" t="n">
-        <v>505.87</v>
+        <v>92.52</v>
       </c>
       <c r="D108" t="n">
         <v>10</v>
@@ -6198,16 +6193,16 @@
         <v>38440</v>
       </c>
       <c r="J108" t="n">
-        <v>19446</v>
+        <v>3556</v>
       </c>
       <c r="K108" s="3" t="n">
-        <v>1011.168</v>
+        <v>184.931</v>
       </c>
       <c r="L108" t="n">
         <v>441</v>
       </c>
       <c r="M108" t="n">
-        <v>114.6</v>
+        <v>20.96</v>
       </c>
       <c r="N108" t="n">
         <v>10</v>
@@ -6221,7 +6216,7 @@
         <v>296</v>
       </c>
       <c r="C109" t="n">
-        <v>403.41</v>
+        <v>73.78</v>
       </c>
       <c r="D109" t="n">
         <v>8</v>
@@ -6242,16 +6237,16 @@
         <v>37750</v>
       </c>
       <c r="J109" t="n">
-        <v>15229</v>
+        <v>2785</v>
       </c>
       <c r="K109" s="3" t="n">
-        <v>791.891</v>
+        <v>144.828</v>
       </c>
       <c r="L109" t="n">
         <v>402</v>
       </c>
       <c r="M109" t="n">
-        <v>100.26</v>
+        <v>18.34</v>
       </c>
       <c r="N109" t="n">
         <v>10</v>
@@ -6265,7 +6260,7 @@
         <v>297</v>
       </c>
       <c r="C110" t="n">
-        <v>458.81</v>
+        <v>83.91</v>
       </c>
       <c r="D110" t="n">
         <v>10</v>
@@ -6286,16 +6281,16 @@
         <v>21157</v>
       </c>
       <c r="J110" t="n">
-        <v>9707</v>
+        <v>1775</v>
       </c>
       <c r="K110" s="3" t="n">
-        <v>504.764</v>
+        <v>92.315</v>
       </c>
       <c r="L110" t="n">
         <v>496</v>
       </c>
       <c r="M110" t="n">
-        <v>92.58</v>
+        <v>16.93</v>
       </c>
       <c r="N110" t="n">
         <v>9</v>
@@ -6309,7 +6304,7 @@
         <v>298</v>
       </c>
       <c r="C111" t="n">
-        <v>350.17</v>
+        <v>64.04</v>
       </c>
       <c r="D111" t="n">
         <v>4</v>
@@ -6330,16 +6325,16 @@
         <v>64968</v>
       </c>
       <c r="J111" t="n">
-        <v>22750</v>
+        <v>4161</v>
       </c>
       <c r="K111" s="3" t="n">
-        <v>1183.007</v>
+        <v>216.358</v>
       </c>
       <c r="L111" t="n">
         <v>522</v>
       </c>
       <c r="M111" t="n">
-        <v>67.05</v>
+        <v>12.26</v>
       </c>
       <c r="N111" t="n">
         <v>5</v>
@@ -6353,7 +6348,7 @@
         <v>299</v>
       </c>
       <c r="C112" t="n">
-        <v>448.04</v>
+        <v>81.94</v>
       </c>
       <c r="D112" t="n">
         <v>9</v>
@@ -6374,16 +6369,16 @@
         <v>36082</v>
       </c>
       <c r="J112" t="n">
-        <v>16166</v>
+        <v>2957</v>
       </c>
       <c r="K112" s="3" t="n">
-        <v>840.642</v>
+        <v>153.744</v>
       </c>
       <c r="L112" t="n">
         <v>536</v>
       </c>
       <c r="M112" t="n">
-        <v>83.64</v>
+        <v>15.3</v>
       </c>
       <c r="N112" t="n">
         <v>8</v>
@@ -6397,7 +6392,7 @@
         <v>300</v>
       </c>
       <c r="C113" t="n">
-        <v>348.7</v>
+        <v>63.77</v>
       </c>
       <c r="D113" t="n">
         <v>4</v>
@@ -6418,16 +6413,16 @@
         <v>17192</v>
       </c>
       <c r="J113" t="n">
-        <v>5995</v>
+        <v>1096</v>
       </c>
       <c r="K113" s="3" t="n">
-        <v>311.732</v>
+        <v>57.012</v>
       </c>
       <c r="L113" t="n">
         <v>498</v>
       </c>
       <c r="M113" t="n">
-        <v>69.97</v>
+        <v>12.8</v>
       </c>
       <c r="N113" t="n">
         <v>6</v>
@@ -6441,7 +6436,7 @@
         <v>301</v>
       </c>
       <c r="C114" t="n">
-        <v>470.36</v>
+        <v>86.02</v>
       </c>
       <c r="D114" t="n">
         <v>10</v>
@@ -6462,16 +6457,16 @@
         <v>21225</v>
       </c>
       <c r="J114" t="n">
-        <v>9983</v>
+        <v>1826</v>
       </c>
       <c r="K114" s="3" t="n">
-        <v>519.131</v>
+        <v>94.943</v>
       </c>
       <c r="L114" t="n">
         <v>566</v>
       </c>
       <c r="M114" t="n">
-        <v>83.09</v>
+        <v>15.2</v>
       </c>
       <c r="N114" t="n">
         <v>8</v>
@@ -6485,7 +6480,7 @@
         <v>302</v>
       </c>
       <c r="C115" t="n">
-        <v>304.26</v>
+        <v>55.65</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
@@ -6506,16 +6501,16 @@
         <v>64912</v>
       </c>
       <c r="J115" t="n">
-        <v>19750</v>
+        <v>3612</v>
       </c>
       <c r="K115" s="3" t="n">
-        <v>1027.007</v>
+        <v>187.828</v>
       </c>
       <c r="L115" t="n">
         <v>521</v>
       </c>
       <c r="M115" t="n">
-        <v>58.44</v>
+        <v>10.69</v>
       </c>
       <c r="N115" t="n">
         <v>3</v>
@@ -6529,7 +6524,7 @@
         <v>303</v>
       </c>
       <c r="C116" t="n">
-        <v>330.36</v>
+        <v>60.42</v>
       </c>
       <c r="D116" t="n">
         <v>3</v>
@@ -6550,16 +6545,16 @@
         <v>25299</v>
       </c>
       <c r="J116" t="n">
-        <v>8358</v>
+        <v>1529</v>
       </c>
       <c r="K116" s="3" t="n">
-        <v>434.607</v>
+        <v>79.485</v>
       </c>
       <c r="L116" t="n">
         <v>582</v>
       </c>
       <c r="M116" t="n">
-        <v>56.72</v>
+        <v>10.37</v>
       </c>
       <c r="N116" t="n">
         <v>2</v>
@@ -6573,7 +6568,7 @@
         <v>304</v>
       </c>
       <c r="C117" t="n">
-        <v>352.91</v>
+        <v>64.54</v>
       </c>
       <c r="D117" t="n">
         <v>5</v>
@@ -6594,16 +6589,16 @@
         <v>19723</v>
       </c>
       <c r="J117" t="n">
-        <v>6960</v>
+        <v>1273</v>
       </c>
       <c r="K117" s="3" t="n">
-        <v>361.94</v>
+        <v>66.195</v>
       </c>
       <c r="L117" t="n">
         <v>472</v>
       </c>
       <c r="M117" t="n">
-        <v>74.84</v>
+        <v>13.69</v>
       </c>
       <c r="N117" t="n">
         <v>7</v>
@@ -6617,7 +6612,7 @@
         <v>305</v>
       </c>
       <c r="C118" t="n">
-        <v>317.3</v>
+        <v>58.03</v>
       </c>
       <c r="D118" t="n">
         <v>3</v>
@@ -6638,16 +6633,16 @@
         <v>33803</v>
       </c>
       <c r="J118" t="n">
-        <v>10726</v>
+        <v>1962</v>
       </c>
       <c r="K118" s="3" t="n">
-        <v>557.729</v>
+        <v>102.002</v>
       </c>
       <c r="L118" t="n">
         <v>530</v>
       </c>
       <c r="M118" t="n">
-        <v>59.85</v>
+        <v>10.95</v>
       </c>
       <c r="N118" t="n">
         <v>3</v>
@@ -6661,7 +6656,7 @@
         <v>306</v>
       </c>
       <c r="C119" t="n">
-        <v>392.77</v>
+        <v>71.83</v>
       </c>
       <c r="D119" t="n">
         <v>7</v>
@@ -6682,16 +6677,16 @@
         <v>18976</v>
       </c>
       <c r="J119" t="n">
-        <v>7453</v>
+        <v>1363</v>
       </c>
       <c r="K119" s="3" t="n">
-        <v>387.568</v>
+        <v>70.882</v>
       </c>
       <c r="L119" t="n">
         <v>538</v>
       </c>
       <c r="M119" t="n">
-        <v>72.94</v>
+        <v>13.34</v>
       </c>
       <c r="N119" t="n">
         <v>7</v>
@@ -6705,7 +6700,7 @@
         <v>307</v>
       </c>
       <c r="C120" t="n">
-        <v>297.07</v>
+        <v>54.33</v>
       </c>
       <c r="D120" t="n">
         <v>2</v>
@@ -6726,16 +6721,16 @@
         <v>39445</v>
       </c>
       <c r="J120" t="n">
-        <v>11718</v>
+        <v>2143</v>
       </c>
       <c r="K120" s="3" t="n">
-        <v>609.339</v>
+        <v>111.441</v>
       </c>
       <c r="L120" t="n">
         <v>590</v>
       </c>
       <c r="M120" t="n">
-        <v>50.32</v>
+        <v>9.2</v>
       </c>
       <c r="N120" t="n">
         <v>1</v>
@@ -6749,7 +6744,7 @@
         <v>308</v>
       </c>
       <c r="C121" t="n">
-        <v>435.97</v>
+        <v>79.73</v>
       </c>
       <c r="D121" t="n">
         <v>9</v>
@@ -6770,16 +6765,16 @@
         <v>18748</v>
       </c>
       <c r="J121" t="n">
-        <v>8174</v>
+        <v>1495</v>
       </c>
       <c r="K121" s="3" t="n">
-        <v>425.028</v>
+        <v>77.733</v>
       </c>
       <c r="L121" t="n">
         <v>488</v>
       </c>
       <c r="M121" t="n">
-        <v>89.42</v>
+        <v>16.35</v>
       </c>
       <c r="N121" t="n">
         <v>9</v>
@@ -6793,7 +6788,7 @@
         <v>309</v>
       </c>
       <c r="C122" t="n">
-        <v>347.85</v>
+        <v>63.62</v>
       </c>
       <c r="D122" t="n">
         <v>4</v>
@@ -6814,16 +6809,16 @@
         <v>98437</v>
       </c>
       <c r="J122" t="n">
-        <v>34241</v>
+        <v>6262</v>
       </c>
       <c r="K122" s="3" t="n">
-        <v>1780.541</v>
+        <v>325.64</v>
       </c>
       <c r="L122" t="n">
         <v>540</v>
       </c>
       <c r="M122" t="n">
-        <v>64.41</v>
+        <v>11.78</v>
       </c>
       <c r="N122" t="n">
         <v>4</v>
@@ -6837,7 +6832,7 @@
         <v>310</v>
       </c>
       <c r="C123" t="n">
-        <v>561.12</v>
+        <v>102.62</v>
       </c>
       <c r="D123" t="n">
         <v>10</v>
@@ -6858,16 +6853,16 @@
         <v>30789</v>
       </c>
       <c r="J123" t="n">
-        <v>17276</v>
+        <v>3160</v>
       </c>
       <c r="K123" s="3" t="n">
-        <v>898.361</v>
+        <v>164.3</v>
       </c>
       <c r="L123" t="n">
         <v>541</v>
       </c>
       <c r="M123" t="n">
-        <v>103.81</v>
+        <v>18.99</v>
       </c>
       <c r="N123" t="n">
         <v>10</v>
@@ -6881,7 +6876,7 @@
         <v>311</v>
       </c>
       <c r="C124" t="n">
-        <v>432.72</v>
+        <v>79.14</v>
       </c>
       <c r="D124" t="n">
         <v>9</v>
@@ -6902,16 +6897,16 @@
         <v>20294</v>
       </c>
       <c r="J124" t="n">
-        <v>8782</v>
+        <v>1606</v>
       </c>
       <c r="K124" s="3" t="n">
-        <v>456.643</v>
+        <v>83.515</v>
       </c>
       <c r="L124" t="n">
         <v>489</v>
       </c>
       <c r="M124" t="n">
-        <v>88.41</v>
+        <v>16.17</v>
       </c>
       <c r="N124" t="n">
         <v>9</v>
@@ -6925,7 +6920,7 @@
         <v>312</v>
       </c>
       <c r="C125" t="n">
-        <v>350.86</v>
+        <v>64.17</v>
       </c>
       <c r="D125" t="n">
         <v>5</v>
@@ -6946,16 +6941,16 @@
         <v>36216</v>
       </c>
       <c r="J125" t="n">
-        <v>12707</v>
+        <v>2324</v>
       </c>
       <c r="K125" s="3" t="n">
-        <v>660.755</v>
+        <v>120.844</v>
       </c>
       <c r="L125" t="n">
         <v>453</v>
       </c>
       <c r="M125" t="n">
-        <v>77.47</v>
+        <v>14.17</v>
       </c>
       <c r="N125" t="n">
         <v>8</v>
@@ -6969,7 +6964,7 @@
         <v>313</v>
       </c>
       <c r="C126" t="n">
-        <v>349.63</v>
+        <v>63.94</v>
       </c>
       <c r="D126" t="n">
         <v>4</v>
@@ -6990,16 +6985,16 @@
         <v>97749</v>
       </c>
       <c r="J126" t="n">
-        <v>34176</v>
+        <v>6250</v>
       </c>
       <c r="K126" s="3" t="n">
-        <v>1777.168</v>
+        <v>325.023</v>
       </c>
       <c r="L126" t="n">
         <v>559</v>
       </c>
       <c r="M126" t="n">
-        <v>62.5</v>
+        <v>11.43</v>
       </c>
       <c r="N126" t="n">
         <v>4</v>
@@ -7013,7 +7008,7 @@
         <v>314</v>
       </c>
       <c r="C127" t="n">
-        <v>409.71</v>
+        <v>74.93</v>
       </c>
       <c r="D127" t="n">
         <v>8</v>
@@ -7034,16 +7029,16 @@
         <v>35699</v>
       </c>
       <c r="J127" t="n">
-        <v>14626</v>
+        <v>2675</v>
       </c>
       <c r="K127" s="3" t="n">
-        <v>760.561</v>
+        <v>139.098</v>
       </c>
       <c r="L127" t="n">
         <v>466</v>
       </c>
       <c r="M127" t="n">
-        <v>87.85</v>
+        <v>16.07</v>
       </c>
       <c r="N127" t="n">
         <v>9</v>
@@ -7057,7 +7052,7 @@
         <v>315</v>
       </c>
       <c r="C128" t="n">
-        <v>444.16</v>
+        <v>81.23</v>
       </c>
       <c r="D128" t="n">
         <v>9</v>
@@ -7078,16 +7073,16 @@
         <v>93710</v>
       </c>
       <c r="J128" t="n">
-        <v>41622</v>
+        <v>7612</v>
       </c>
       <c r="K128" s="3" t="n">
-        <v>2164.338</v>
+        <v>395.832</v>
       </c>
       <c r="L128" t="n">
         <v>658</v>
       </c>
       <c r="M128" t="n">
-        <v>67.48</v>
+        <v>12.34</v>
       </c>
       <c r="N128" t="n">
         <v>5</v>
@@ -7101,7 +7096,7 @@
         <v>316</v>
       </c>
       <c r="C129" t="n">
-        <v>452.05</v>
+        <v>82.68</v>
       </c>
       <c r="D129" t="n">
         <v>9</v>
@@ -7122,16 +7117,16 @@
         <v>24988</v>
       </c>
       <c r="J129" t="n">
-        <v>11296</v>
+        <v>2066</v>
       </c>
       <c r="K129" s="3" t="n">
-        <v>587.389</v>
+        <v>107.427</v>
       </c>
       <c r="L129" t="n">
         <v>678</v>
       </c>
       <c r="M129" t="n">
-        <v>66.69</v>
+        <v>12.2</v>
       </c>
       <c r="N129" t="n">
         <v>5</v>
@@ -7145,7 +7140,7 @@
         <v>317</v>
       </c>
       <c r="C130" t="n">
-        <v>375.28</v>
+        <v>68.63</v>
       </c>
       <c r="D130" t="n">
         <v>6</v>
@@ -7166,16 +7161,16 @@
         <v>22505</v>
       </c>
       <c r="J130" t="n">
-        <v>8446</v>
+        <v>1545</v>
       </c>
       <c r="K130" s="3" t="n">
-        <v>439.178</v>
+        <v>80.321</v>
       </c>
       <c r="L130" t="n">
         <v>527</v>
       </c>
       <c r="M130" t="n">
-        <v>71.26</v>
+        <v>13.03</v>
       </c>
       <c r="N130" t="n">
         <v>6</v>
@@ -7189,7 +7184,7 @@
         <v>318</v>
       </c>
       <c r="C131" t="n">
-        <v>415.92</v>
+        <v>76.07</v>
       </c>
       <c r="D131" t="n">
         <v>8</v>
@@ -7210,16 +7205,16 @@
         <v>31913</v>
       </c>
       <c r="J131" t="n">
-        <v>13273</v>
+        <v>2428</v>
       </c>
       <c r="K131" s="3" t="n">
-        <v>690.207</v>
+        <v>126.231</v>
       </c>
       <c r="L131" t="n">
         <v>455</v>
       </c>
       <c r="M131" t="n">
-        <v>91.37</v>
+        <v>16.71</v>
       </c>
       <c r="N131" t="n">
         <v>9</v>
@@ -7233,7 +7228,7 @@
         <v>319</v>
       </c>
       <c r="C132" t="n">
-        <v>376.03</v>
+        <v>68.77</v>
       </c>
       <c r="D132" t="n">
         <v>6</v>
@@ -7254,16 +7249,16 @@
         <v>21344</v>
       </c>
       <c r="J132" t="n">
-        <v>8026</v>
+        <v>1468</v>
       </c>
       <c r="K132" s="3" t="n">
-        <v>417.356</v>
+        <v>76.329</v>
       </c>
       <c r="L132" t="n">
         <v>511</v>
       </c>
       <c r="M132" t="n">
-        <v>73.65</v>
+        <v>13.47</v>
       </c>
       <c r="N132" t="n">
         <v>7</v>
@@ -7277,7 +7272,7 @@
         <v>320</v>
       </c>
       <c r="C133" t="n">
-        <v>474.91</v>
+        <v>86.86</v>
       </c>
       <c r="D133" t="n">
         <v>10</v>
@@ -7298,16 +7293,16 @@
         <v>22753</v>
       </c>
       <c r="J133" t="n">
-        <v>10806</v>
+        <v>1976</v>
       </c>
       <c r="K133" s="3" t="n">
-        <v>561.897</v>
+        <v>102.764</v>
       </c>
       <c r="L133" t="n">
         <v>537</v>
       </c>
       <c r="M133" t="n">
-        <v>88.4</v>
+        <v>16.17</v>
       </c>
       <c r="N133" t="n">
         <v>9</v>
@@ -7321,7 +7316,7 @@
         <v>321</v>
       </c>
       <c r="C134" t="n">
-        <v>314.04</v>
+        <v>57.43</v>
       </c>
       <c r="D134" t="n">
         <v>2</v>
@@ -7342,16 +7337,16 @@
         <v>16590</v>
       </c>
       <c r="J134" t="n">
-        <v>5210</v>
+        <v>953</v>
       </c>
       <c r="K134" s="3" t="n">
-        <v>270.914</v>
+        <v>49.547</v>
       </c>
       <c r="L134" t="n">
         <v>441</v>
       </c>
       <c r="M134" t="n">
-        <v>71.16</v>
+        <v>13.01</v>
       </c>
       <c r="N134" t="n">
         <v>6</v>
@@ -7365,7 +7360,7 @@
         <v>322</v>
       </c>
       <c r="C135" t="n">
-        <v>350.25</v>
+        <v>64.06</v>
       </c>
       <c r="D135" t="n">
         <v>5</v>
@@ -7386,16 +7381,16 @@
         <v>38117</v>
       </c>
       <c r="J135" t="n">
-        <v>13350</v>
+        <v>2442</v>
       </c>
       <c r="K135" s="3" t="n">
-        <v>694.217</v>
+        <v>126.964</v>
       </c>
       <c r="L135" t="n">
         <v>548</v>
       </c>
       <c r="M135" t="n">
-        <v>63.96</v>
+        <v>11.7</v>
       </c>
       <c r="N135" t="n">
         <v>4</v>
@@ -7409,7 +7404,7 @@
         <v>323</v>
       </c>
       <c r="C136" t="n">
-        <v>360.55</v>
+        <v>65.94</v>
       </c>
       <c r="D136" t="n">
         <v>5</v>
@@ -7430,16 +7425,16 @@
         <v>16547</v>
       </c>
       <c r="J136" t="n">
-        <v>5966</v>
+        <v>1091</v>
       </c>
       <c r="K136" s="3" t="n">
-        <v>310.231</v>
+        <v>56.738</v>
       </c>
       <c r="L136" t="n">
         <v>536</v>
       </c>
       <c r="M136" t="n">
-        <v>67.28</v>
+        <v>12.3</v>
       </c>
       <c r="N136" t="n">
         <v>5</v>
@@ -7453,7 +7448,7 @@
         <v>324</v>
       </c>
       <c r="C137" t="n">
-        <v>308.36</v>
+        <v>56.4</v>
       </c>
       <c r="D137" t="n">
         <v>2</v>
@@ -7474,16 +7469,16 @@
         <v>45778</v>
       </c>
       <c r="J137" t="n">
-        <v>14116</v>
+        <v>2582</v>
       </c>
       <c r="K137" s="3" t="n">
-        <v>734.048</v>
+        <v>134.249</v>
       </c>
       <c r="L137" t="n">
         <v>508</v>
       </c>
       <c r="M137" t="n">
-        <v>60.73</v>
+        <v>11.11</v>
       </c>
       <c r="N137" t="n">
         <v>4</v>
@@ -7497,7 +7492,7 @@
         <v>325</v>
       </c>
       <c r="C138" t="n">
-        <v>316.75</v>
+        <v>57.93</v>
       </c>
       <c r="D138" t="n">
         <v>3</v>
@@ -7518,16 +7513,16 @@
         <v>32551</v>
       </c>
       <c r="J138" t="n">
-        <v>10310</v>
+        <v>1886</v>
       </c>
       <c r="K138" s="3" t="n">
-        <v>536.146</v>
+        <v>98.055</v>
       </c>
       <c r="L138" t="n">
         <v>442</v>
       </c>
       <c r="M138" t="n">
-        <v>71.6</v>
+        <v>13.09</v>
       </c>
       <c r="N138" t="n">
         <v>6</v>
@@ -7541,7 +7536,7 @@
         <v>326</v>
       </c>
       <c r="C139" t="n">
-        <v>354.35</v>
+        <v>64.81</v>
       </c>
       <c r="D139" t="n">
         <v>5</v>
@@ -7562,16 +7557,16 @@
         <v>33953</v>
       </c>
       <c r="J139" t="n">
-        <v>12031</v>
+        <v>2200</v>
       </c>
       <c r="K139" s="3" t="n">
-        <v>625.629</v>
+        <v>114.42</v>
       </c>
       <c r="L139" t="n">
         <v>573</v>
       </c>
       <c r="M139" t="n">
-        <v>61.86</v>
+        <v>11.31</v>
       </c>
       <c r="N139" t="n">
         <v>4</v>
@@ -7585,7 +7580,7 @@
         <v>327</v>
       </c>
       <c r="C140" t="n">
-        <v>343.12</v>
+        <v>62.75</v>
       </c>
       <c r="D140" t="n">
         <v>4</v>
@@ -7606,16 +7601,16 @@
         <v>35713</v>
       </c>
       <c r="J140" t="n">
-        <v>12254</v>
+        <v>2241</v>
       </c>
       <c r="K140" s="3" t="n">
-        <v>637.204</v>
+        <v>116.537</v>
       </c>
       <c r="L140" t="n">
         <v>690</v>
       </c>
       <c r="M140" t="n">
-        <v>49.73</v>
+        <v>9.09</v>
       </c>
       <c r="N140" t="n">
         <v>1</v>
@@ -7661,7 +7656,7 @@
         <v>329</v>
       </c>
       <c r="C142" t="n">
-        <v>380.59</v>
+        <v>69.6</v>
       </c>
       <c r="D142" t="n">
         <v>7</v>
@@ -7682,16 +7677,16 @@
         <v>61149</v>
       </c>
       <c r="J142" t="n">
-        <v>23273</v>
+        <v>4256</v>
       </c>
       <c r="K142" s="3" t="n">
-        <v>1210.17</v>
+        <v>221.326</v>
       </c>
       <c r="L142" t="n">
         <v>556</v>
       </c>
       <c r="M142" t="n">
-        <v>68.45</v>
+        <v>12.52</v>
       </c>
       <c r="N142" t="n">
         <v>6</v>
@@ -7705,7 +7700,7 @@
         <v>330</v>
       </c>
       <c r="C143" t="n">
-        <v>281.44</v>
+        <v>51.47</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -7726,16 +7721,16 @@
         <v>12712</v>
       </c>
       <c r="J143" t="n">
-        <v>3578</v>
+        <v>654</v>
       </c>
       <c r="K143" s="3" t="n">
-        <v>186.039</v>
+        <v>34.024</v>
       </c>
       <c r="L143" t="n">
         <v>656</v>
       </c>
       <c r="M143" t="n">
-        <v>42.93</v>
+        <v>7.85</v>
       </c>
       <c r="N143" t="n">
         <v>1</v>
@@ -7749,7 +7744,7 @@
         <v>331</v>
       </c>
       <c r="C144" t="n">
-        <v>330.7</v>
+        <v>60.48</v>
       </c>
       <c r="D144" t="n">
         <v>3</v>
@@ -7770,16 +7765,16 @@
         <v>69067</v>
       </c>
       <c r="J144" t="n">
-        <v>22840</v>
+        <v>4177</v>
       </c>
       <c r="K144" s="3" t="n">
-        <v>1187.688</v>
+        <v>217.214</v>
       </c>
       <c r="L144" t="n">
         <v>594</v>
       </c>
       <c r="M144" t="n">
-        <v>55.68</v>
+        <v>10.18</v>
       </c>
       <c r="N144" t="n">
         <v>2</v>
@@ -7793,7 +7788,7 @@
         <v>332</v>
       </c>
       <c r="C145" t="n">
-        <v>345.95</v>
+        <v>63.27</v>
       </c>
       <c r="D145" t="n">
         <v>4</v>
@@ -7814,16 +7809,16 @@
         <v>22254</v>
       </c>
       <c r="J145" t="n">
-        <v>7699</v>
+        <v>1408</v>
       </c>
       <c r="K145" s="3" t="n">
-        <v>400.336</v>
+        <v>73.217</v>
       </c>
       <c r="L145" t="n">
         <v>640</v>
       </c>
       <c r="M145" t="n">
-        <v>54.06</v>
+        <v>9.89</v>
       </c>
       <c r="N145" t="n">
         <v>2</v>
@@ -7837,7 +7832,7 @@
         <v>333</v>
       </c>
       <c r="C146" t="n">
-        <v>452.86</v>
+        <v>82.82</v>
       </c>
       <c r="D146" t="n">
         <v>10</v>
@@ -7858,16 +7853,16 @@
         <v>44173</v>
       </c>
       <c r="J146" t="n">
-        <v>20004</v>
+        <v>3659</v>
       </c>
       <c r="K146" s="3" t="n">
-        <v>1040.222</v>
+        <v>190.245</v>
       </c>
       <c r="L146" t="n">
         <v>484</v>
       </c>
       <c r="M146" t="n">
-        <v>93.49</v>
+        <v>17.1</v>
       </c>
       <c r="N146" t="n">
         <v>9</v>
@@ -7881,7 +7876,7 @@
         <v>334</v>
       </c>
       <c r="C147" t="n">
-        <v>383.48</v>
+        <v>70.13</v>
       </c>
       <c r="D147" t="n">
         <v>7</v>
@@ -7902,16 +7897,16 @@
         <v>57527</v>
       </c>
       <c r="J147" t="n">
-        <v>22061</v>
+        <v>4035</v>
       </c>
       <c r="K147" s="3" t="n">
-        <v>1147.157</v>
+        <v>209.802</v>
       </c>
       <c r="L147" t="n">
         <v>575</v>
       </c>
       <c r="M147" t="n">
-        <v>66.72</v>
+        <v>12.2</v>
       </c>
       <c r="N147" t="n">
         <v>5</v>
@@ -7925,7 +7920,7 @@
         <v>335</v>
       </c>
       <c r="C148" t="n">
-        <v>292.69</v>
+        <v>53.53</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -7946,16 +7941,16 @@
         <v>11445</v>
       </c>
       <c r="J148" t="n">
-        <v>3350</v>
+        <v>613</v>
       </c>
       <c r="K148" s="3" t="n">
-        <v>174.192</v>
+        <v>31.858</v>
       </c>
       <c r="L148" t="n">
         <v>642</v>
       </c>
       <c r="M148" t="n">
-        <v>45.61</v>
+        <v>8.34</v>
       </c>
       <c r="N148" t="n">
         <v>1</v>
@@ -7969,7 +7964,7 @@
         <v>336</v>
       </c>
       <c r="C149" t="n">
-        <v>399.89</v>
+        <v>73.14</v>
       </c>
       <c r="D149" t="n">
         <v>7</v>
@@ -7990,16 +7985,16 @@
         <v>27545</v>
       </c>
       <c r="J149" t="n">
-        <v>11015</v>
+        <v>2015</v>
       </c>
       <c r="K149" s="3" t="n">
-        <v>572.78</v>
+        <v>104.755</v>
       </c>
       <c r="L149" t="n">
         <v>503</v>
       </c>
       <c r="M149" t="n">
-        <v>79.52</v>
+        <v>14.54</v>
       </c>
       <c r="N149" t="n">
         <v>8</v>
@@ -8013,7 +8008,7 @@
         <v>337</v>
       </c>
       <c r="C150" t="n">
-        <v>721.98</v>
+        <v>132.04</v>
       </c>
       <c r="D150" t="n">
         <v>10</v>
@@ -8034,16 +8029,16 @@
         <v>10998</v>
       </c>
       <c r="J150" t="n">
-        <v>7940</v>
+        <v>1452</v>
       </c>
       <c r="K150" s="3" t="n">
-        <v>412.897</v>
+        <v>75.514</v>
       </c>
       <c r="L150" t="n">
         <v>692</v>
       </c>
       <c r="M150" t="n">
-        <v>104.33</v>
+        <v>19.08</v>
       </c>
       <c r="N150" t="n">
         <v>10</v>
@@ -8057,7 +8052,7 @@
         <v>338</v>
       </c>
       <c r="C151" t="n">
-        <v>415.17</v>
+        <v>75.93</v>
       </c>
       <c r="D151" t="n">
         <v>8</v>
@@ -8078,16 +8073,16 @@
         <v>30362</v>
       </c>
       <c r="J151" t="n">
-        <v>12606</v>
+        <v>2305</v>
       </c>
       <c r="K151" s="3" t="n">
-        <v>655.488</v>
+        <v>119.881</v>
       </c>
       <c r="L151" t="n">
         <v>438</v>
       </c>
       <c r="M151" t="n">
-        <v>94.84</v>
+        <v>17.35</v>
       </c>
       <c r="N151" t="n">
         <v>9</v>
@@ -8101,7 +8096,7 @@
         <v>339</v>
       </c>
       <c r="C152" t="n">
-        <v>332.68</v>
+        <v>60.84</v>
       </c>
       <c r="D152" t="n">
         <v>3</v>
@@ -8122,16 +8117,16 @@
         <v>51570</v>
       </c>
       <c r="J152" t="n">
-        <v>17156</v>
+        <v>3138</v>
       </c>
       <c r="K152" s="3" t="n">
-        <v>892.12</v>
+        <v>163.158</v>
       </c>
       <c r="L152" t="n">
         <v>545</v>
       </c>
       <c r="M152" t="n">
-        <v>61.07</v>
+        <v>11.17</v>
       </c>
       <c r="N152" t="n">
         <v>4</v>
@@ -8145,7 +8140,7 @@
         <v>340</v>
       </c>
       <c r="C153" t="n">
-        <v>375.25</v>
+        <v>68.63</v>
       </c>
       <c r="D153" t="n">
         <v>6</v>
@@ -8166,16 +8161,16 @@
         <v>20783</v>
       </c>
       <c r="J153" t="n">
-        <v>7799</v>
+        <v>1426</v>
       </c>
       <c r="K153" s="3" t="n">
-        <v>405.534</v>
+        <v>74.167</v>
       </c>
       <c r="L153" t="n">
         <v>570</v>
       </c>
       <c r="M153" t="n">
-        <v>65.87</v>
+        <v>12.05</v>
       </c>
       <c r="N153" t="n">
         <v>5</v>
@@ -9205,7 +9200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9223,19 +9218,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="3" max="3" width="15.90625" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9243,12 +9238,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="43.5" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" ht="45" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9281,10 +9276,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>67.14</v>
@@ -9292,7 +9287,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>65.24</v>
@@ -9359,23 +9354,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="19" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9383,22 +9378,195 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="44" customHeight="1">
+    <row r="2" ht="44.1" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="D2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" t="n">
+        <v>66.4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D3" s="14" t="n">
+        <v>1954.606</v>
+      </c>
+      <c r="E3" s="14" t="n">
+        <v>1817.784</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" t="n">
+        <v>67.85</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>2287.64</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <v>2127.505</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" t="n">
+        <v>66.65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>3100.434</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>2883.404</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" t="n">
+        <v>75.32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>1226.243</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>1140.406</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" t="n">
+        <v>73.88</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="D7" s="14" t="n">
+        <v>2999.984</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>2789.985</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>2838.278</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>2639.599</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" t="n">
+        <v>57.45</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>1870.281</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>1739.361</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" t="n">
+        <v>69.94</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>2335.178</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>2171.716</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" t="n">
+        <v>65.88</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>2289.154</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>2128.913</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9407,46 +9575,236 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="19" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" ht="44" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="44.1" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="D2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="n">
+        <v>98.38</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D3" s="14" t="n">
+        <v>76.733</v>
+      </c>
+      <c r="E3" s="14" t="n">
+        <v>71.362</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" t="n">
+        <v>88.49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>65.252</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <v>60.684</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>184.931</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>171.986</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="n">
+        <v>88.53</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>85.529</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>79.542</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="D7" s="14" t="n">
+        <v>130.55</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>121.412</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="n">
+        <v>89.95</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>162.654</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>151.268</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" t="n">
+        <v>132.04</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>75.514</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>70.228</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="n">
+        <v>76.95</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>66.751</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>62.078</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" t="n">
+        <v>102.62</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>152.799</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" t="n">
+        <v>73.78</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>144.828</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>134.69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/summary_table_5.xlsx
+++ b/output/summary_table_5.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Inequalities" sheetId="5" state="visible" r:id="rId1"/>
@@ -1073,13 +1073,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;Â£&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,6 +1098,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <b/>
     </font>
   </fonts>
   <fills count="11">
@@ -1174,22 +1183,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1502,7 +1536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1520,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9200,7 +9234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9218,7 +9252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9239,11 +9273,11 @@
       </c>
     </row>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9354,7 +9388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9382,16 +9416,16 @@
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9405,10 +9439,10 @@
       <c r="C3" t="n">
         <v>12.37</v>
       </c>
-      <c r="D3" s="14" t="n">
+      <c r="D3" s="16" t="n">
         <v>1954.606</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="16" t="n">
         <v>1817.784</v>
       </c>
     </row>
@@ -9422,10 +9456,10 @@
       <c r="C4" t="n">
         <v>12.21</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="16" t="n">
         <v>2287.64</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="16" t="n">
         <v>2127.505</v>
       </c>
     </row>
@@ -9439,10 +9473,10 @@
       <c r="C5" t="n">
         <v>11.02</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="16" t="n">
         <v>3100.434</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="16" t="n">
         <v>2883.404</v>
       </c>
     </row>
@@ -9456,10 +9490,10 @@
       <c r="C6" t="n">
         <v>16.12</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="16" t="n">
         <v>1226.243</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="16" t="n">
         <v>1140.406</v>
       </c>
     </row>
@@ -9473,10 +9507,10 @@
       <c r="C7" t="n">
         <v>15.64</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="16" t="n">
         <v>2999.984</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="16" t="n">
         <v>2789.985</v>
       </c>
     </row>
@@ -9490,10 +9524,10 @@
       <c r="C8" t="n">
         <v>11.48</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="16" t="n">
         <v>2838.278</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="16" t="n">
         <v>2639.599</v>
       </c>
     </row>
@@ -9507,10 +9541,10 @@
       <c r="C9" t="n">
         <v>10.85</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="16" t="n">
         <v>1870.281</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="16" t="n">
         <v>1739.361</v>
       </c>
     </row>
@@ -9524,10 +9558,10 @@
       <c r="C10" t="n">
         <v>14.32</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="16" t="n">
         <v>2335.178</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="16" t="n">
         <v>2171.716</v>
       </c>
     </row>
@@ -9541,32 +9575,32 @@
       <c r="C11" t="n">
         <v>13.32</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="16" t="n">
         <v>2289.154</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="16" t="n">
         <v>2128.913</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13">
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14">
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15">
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16">
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9575,13 +9609,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -9603,16 +9637,16 @@
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9626,10 +9660,10 @@
       <c r="C3" t="n">
         <v>21.4</v>
       </c>
-      <c r="D3" s="14" t="n">
+      <c r="D3" s="16" t="n">
         <v>76.733</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="16" t="n">
         <v>71.362</v>
       </c>
     </row>
@@ -9643,10 +9677,10 @@
       <c r="C4" t="n">
         <v>20.99</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="16" t="n">
         <v>65.252</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="16" t="n">
         <v>60.684</v>
       </c>
     </row>
@@ -9660,10 +9694,10 @@
       <c r="C5" t="n">
         <v>20.96</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="16" t="n">
         <v>184.931</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="16" t="n">
         <v>171.986</v>
       </c>
     </row>
@@ -9677,10 +9711,10 @@
       <c r="C6" t="n">
         <v>20.62</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="16" t="n">
         <v>85.529</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="16" t="n">
         <v>79.542</v>
       </c>
     </row>
@@ -9694,10 +9728,10 @@
       <c r="C7" t="n">
         <v>19.45</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="16" t="n">
         <v>130.55</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="16" t="n">
         <v>121.412</v>
       </c>
     </row>
@@ -9711,10 +9745,10 @@
       <c r="C8" t="n">
         <v>19.23</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="16" t="n">
         <v>162.654</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="16" t="n">
         <v>151.268</v>
       </c>
     </row>
@@ -9728,10 +9762,10 @@
       <c r="C9" t="n">
         <v>19.08</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="16" t="n">
         <v>75.514</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="16" t="n">
         <v>70.228</v>
       </c>
     </row>
@@ -9745,10 +9779,10 @@
       <c r="C10" t="n">
         <v>19.07</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="16" t="n">
         <v>66.751</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="16" t="n">
         <v>62.078</v>
       </c>
     </row>
@@ -9762,10 +9796,10 @@
       <c r="C11" t="n">
         <v>18.99</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="16" t="n">
         <v>164.3</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="16" t="n">
         <v>152.799</v>
       </c>
     </row>
@@ -9779,32 +9813,32 @@
       <c r="C12" t="n">
         <v>18.34</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="16" t="n">
         <v>144.828</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="16" t="n">
         <v>134.69</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14">
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15">
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16">
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17">
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/summary_table_5.xlsx
+++ b/output/summary_table_5.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Inequalities" sheetId="5" state="visible" r:id="rId1"/>
+    <sheet name="Upshift Calcs" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="LA data" sheetId="6" state="visible" r:id="rId2"/>
-    <sheet name="Upshift Calcs" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Average Tobacco Spend" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Expenditure % of Income" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Expenditure % of Income LA" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Average Tobacco Spend" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Expenditure % of Income" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Expenditure % of Income LA" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>Table 2. Average weekly spend on tobacco by socio-economic status (SES) and age group</t>
   </si>
@@ -59,9 +58,6 @@
     <t>65+</t>
   </si>
   <si>
-    <t>Table 3. Expenditure of smoking as a proportion of income</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -71,9 +67,6 @@
     <t>% of income spent on tobacco</t>
   </si>
   <si>
-    <t>Table 4. Expenditure of smoking in the local authorities with the highest tobacco expenditure as a proportion of income</t>
-  </si>
-  <si>
     <t>LA</t>
   </si>
   <si>
@@ -135,6 +128,66 @@
   </si>
   <si>
     <t>Annual Smokefree Dividend (£m)</t>
+  </si>
+  <si>
+    <t>Table 4. Expenditure on smoking in the local authorities with the highest tobacco expenditure as a proportion of income</t>
+  </si>
+  <si>
+    <t>Table 3. Expenditure on smoking as a proportion of income</t>
+  </si>
+  <si>
+    <t>HMRC Stats</t>
+  </si>
+  <si>
+    <t>Cigarettes</t>
+  </si>
+  <si>
+    <t>Hand-Rolled</t>
+  </si>
+  <si>
+    <t>Ad-Valorem tax</t>
+  </si>
+  <si>
+    <t>Specific duty</t>
+  </si>
+  <si>
+    <t>Total duties (£m)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total excise per pack</t>
+  </si>
+  <si>
+    <t>Total excise % of price</t>
+  </si>
+  <si>
+    <t>Price per 100g (Dec 2020)</t>
+  </si>
+  <si>
+    <t>Price per 100g (Dec 2018)</t>
+  </si>
+  <si>
+    <t>Price deflator</t>
+  </si>
+  <si>
+    <t>Total cigarette spend (£m)</t>
+  </si>
+  <si>
+    <t>Total HRT spend (£m)</t>
+  </si>
+  <si>
+    <t>Total grossed-up expenditure</t>
+  </si>
+  <si>
+    <t>Upshift Factor:</t>
+  </si>
+  <si>
+    <t>Pack Price (20 cigs)</t>
+  </si>
+  <si>
+    <t>Survey data estimate</t>
   </si>
   <si>
     <t xml:space="preserve">E09000002</t>
@@ -1073,13 +1126,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;Â£&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,29 +1152,37 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <i/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <b/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1143,12 +1211,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,47 +1245,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,25 +1577,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28.7109375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7748</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="n">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="n">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23.46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="n">
+        <v>68.21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11359</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" s="3" t="n">
+        <v>14307</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>5522</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>2.591</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B13:F13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1564,102 +1765,104 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K230" sqref="K230"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="2" max="2" width="33.5703125" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="13" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" ht="54.95" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="6" t="s">
+      <c r="M2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-    </row>
-    <row r="2" ht="54.95" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C3" t="n">
-        <v>62.44</v>
+        <v>60.62</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="n">
         <v>25722.73</v>
       </c>
       <c r="F3" t="n">
@@ -1675,35 +1878,35 @@
         <v>26982</v>
       </c>
       <c r="J3" t="n">
-        <v>1685</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>87.607</v>
+        <v>1636</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>85.048</v>
       </c>
       <c r="L3" t="n">
         <v>495</v>
       </c>
       <c r="M3" t="n">
-        <v>12.62</v>
+        <v>12.25</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C4" t="n">
-        <v>68.68</v>
+        <v>61.4</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>32931.71</v>
       </c>
       <c r="F4" t="n">
@@ -1719,16 +1922,16 @@
         <v>33648</v>
       </c>
       <c r="J4" t="n">
-        <v>2311</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>120.168</v>
+        <v>2066</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>107.432</v>
       </c>
       <c r="L4" t="n">
         <v>633</v>
       </c>
       <c r="M4" t="n">
-        <v>10.84</v>
+        <v>9.7</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
@@ -1736,18 +1939,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C5" t="n">
-        <v>48.8</v>
+        <v>44.14</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="7" t="n">
         <v>26290</v>
       </c>
       <c r="F5" t="n">
@@ -1763,16 +1966,16 @@
         <v>35804</v>
       </c>
       <c r="J5" t="n">
-        <v>1747</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>90.864</v>
+        <v>1581</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>82.187</v>
       </c>
       <c r="L5" t="n">
         <v>506</v>
       </c>
       <c r="M5" t="n">
-        <v>9.65</v>
+        <v>8.73</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
@@ -1780,18 +1983,18 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C6" t="n">
-        <v>50.67</v>
+        <v>42.99</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="7" t="n">
         <v>29866.67</v>
       </c>
       <c r="F6" t="n">
@@ -1807,16 +2010,16 @@
         <v>20484</v>
       </c>
       <c r="J6" t="n">
-        <v>1038</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>53.976</v>
+        <v>881</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>45.79</v>
       </c>
       <c r="L6" t="n">
         <v>574</v>
       </c>
       <c r="M6" t="n">
-        <v>8.82</v>
+        <v>7.48</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -1824,18 +2027,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C7" t="n">
-        <v>50.63</v>
+        <v>43.67</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="7" t="n">
         <v>29835</v>
       </c>
       <c r="F7" t="n">
@@ -1851,16 +2054,16 @@
         <v>14262</v>
       </c>
       <c r="J7" t="n">
-        <v>722</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>37.552</v>
+        <v>623</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>32.386</v>
       </c>
       <c r="L7" t="n">
         <v>574</v>
       </c>
       <c r="M7" t="n">
-        <v>8.83</v>
+        <v>7.61</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -1868,18 +2071,18 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C8" t="n">
         <v>65.55</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>32378.57</v>
       </c>
       <c r="F8" t="n">
@@ -1897,7 +2100,7 @@
       <c r="J8" t="n">
         <v>1775</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="8" t="n">
         <v>92.315</v>
       </c>
       <c r="L8" t="n">
@@ -1907,23 +2110,23 @@
         <v>10.53</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C9" t="n">
-        <v>73.12</v>
+        <v>65.49</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="7" t="n">
         <v>22587.88</v>
       </c>
       <c r="F9" t="n">
@@ -1939,16 +2142,16 @@
         <v>126363</v>
       </c>
       <c r="J9" t="n">
-        <v>9239</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>480.449</v>
+        <v>8276</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>430.356</v>
       </c>
       <c r="L9" t="n">
         <v>434</v>
       </c>
       <c r="M9" t="n">
-        <v>16.83</v>
+        <v>15.08</v>
       </c>
       <c r="N9" t="n">
         <v>9</v>
@@ -1956,18 +2159,18 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C10" t="n">
         <v>67.63</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7" t="n">
         <v>21933.33</v>
       </c>
       <c r="F10" t="n">
@@ -1985,7 +2188,7 @@
       <c r="J10" t="n">
         <v>1163</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="8" t="n">
         <v>60.475</v>
       </c>
       <c r="L10" t="n">
@@ -2000,18 +2203,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C11" t="n">
-        <v>65.17</v>
+        <v>59.82</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="7" t="n">
         <v>19615.79</v>
       </c>
       <c r="F11" t="n">
@@ -2027,16 +2230,16 @@
         <v>25797</v>
       </c>
       <c r="J11" t="n">
-        <v>1681</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>87.422</v>
+        <v>1543</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>80.248</v>
       </c>
       <c r="L11" t="n">
         <v>377</v>
       </c>
       <c r="M11" t="n">
-        <v>17.28</v>
+        <v>15.86</v>
       </c>
       <c r="N11" t="n">
         <v>9</v>
@@ -2044,18 +2247,18 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C12" t="n">
-        <v>89.95</v>
+        <v>83.77</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="7" t="n">
         <v>24328.57</v>
       </c>
       <c r="F12" t="n">
@@ -2071,16 +2274,16 @@
         <v>34774</v>
       </c>
       <c r="J12" t="n">
-        <v>3128</v>
-      </c>
-      <c r="K12" s="3" t="n">
-        <v>162.654</v>
+        <v>2913</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>151.473</v>
       </c>
       <c r="L12" t="n">
         <v>468</v>
       </c>
       <c r="M12" t="n">
-        <v>19.23</v>
+        <v>17.9</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
@@ -2088,18 +2291,18 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C13" t="n">
-        <v>56.54</v>
+        <v>54.77</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="n">
         <v>26429.88</v>
       </c>
       <c r="F13" t="n">
@@ -2115,16 +2318,16 @@
         <v>44330</v>
       </c>
       <c r="J13" t="n">
-        <v>2506</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>130.323</v>
+        <v>2428</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>126.256</v>
       </c>
       <c r="L13" t="n">
         <v>508</v>
       </c>
       <c r="M13" t="n">
-        <v>11.12</v>
+        <v>10.78</v>
       </c>
       <c r="N13" t="n">
         <v>4</v>
@@ -2132,18 +2335,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C14" t="n">
         <v>54.17</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="n">
         <v>31433.33</v>
       </c>
       <c r="F14" t="n">
@@ -2161,7 +2364,7 @@
       <c r="J14" t="n">
         <v>605</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="8" t="n">
         <v>31.463</v>
       </c>
       <c r="L14" t="n">
@@ -2171,23 +2374,23 @@
         <v>8.96</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C15" t="n">
-        <v>70.49</v>
+        <v>65.99</v>
       </c>
       <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="7" t="n">
         <v>22373.77</v>
       </c>
       <c r="F15" t="n">
@@ -2203,16 +2406,16 @@
         <v>65583</v>
       </c>
       <c r="J15" t="n">
-        <v>4623</v>
-      </c>
-      <c r="K15" s="3" t="n">
-        <v>240.399</v>
+        <v>4328</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>225.061</v>
       </c>
       <c r="L15" t="n">
         <v>430</v>
       </c>
       <c r="M15" t="n">
-        <v>16.38</v>
+        <v>15.34</v>
       </c>
       <c r="N15" t="n">
         <v>9</v>
@@ -2220,18 +2423,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C16" t="n">
-        <v>69.37</v>
+        <v>64.15</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="7" t="n">
         <v>27582.35</v>
       </c>
       <c r="F16" t="n">
@@ -2247,16 +2450,16 @@
         <v>26046</v>
       </c>
       <c r="J16" t="n">
-        <v>1807</v>
-      </c>
-      <c r="K16" s="3" t="n">
-        <v>93.958</v>
+        <v>1671</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>86.881</v>
       </c>
       <c r="L16" t="n">
         <v>530</v>
       </c>
       <c r="M16" t="n">
-        <v>13.08</v>
+        <v>12.09</v>
       </c>
       <c r="N16" t="n">
         <v>6</v>
@@ -2264,18 +2467,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C17" t="n">
-        <v>52.58</v>
+        <v>50.06</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="n">
         <v>29896.97</v>
       </c>
       <c r="F17" t="n">
@@ -2291,35 +2494,35 @@
         <v>42107</v>
       </c>
       <c r="J17" t="n">
-        <v>2214</v>
-      </c>
-      <c r="K17" s="3" t="n">
-        <v>115.118</v>
+        <v>2108</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>109.613</v>
       </c>
       <c r="L17" t="n">
         <v>575</v>
       </c>
       <c r="M17" t="n">
-        <v>9.14</v>
+        <v>8.71</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C18" t="n">
-        <v>51.6</v>
+        <v>49.64</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7" t="n">
         <v>27087.27</v>
       </c>
       <c r="F18" t="n">
@@ -2335,35 +2538,35 @@
         <v>66358</v>
       </c>
       <c r="J18" t="n">
-        <v>3424</v>
-      </c>
-      <c r="K18" s="3" t="n">
-        <v>178.068</v>
+        <v>3294</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>171.29</v>
       </c>
       <c r="L18" t="n">
         <v>521</v>
       </c>
       <c r="M18" t="n">
-        <v>9.91</v>
+        <v>9.53</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C19" t="n">
-        <v>69.26</v>
+        <v>60.22</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7" t="n">
         <v>36620.51</v>
       </c>
       <c r="F19" t="n">
@@ -2379,35 +2582,35 @@
         <v>24254</v>
       </c>
       <c r="J19" t="n">
-        <v>1680</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>87.346</v>
+        <v>1461</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>75.946</v>
       </c>
       <c r="L19" t="n">
         <v>704</v>
       </c>
       <c r="M19" t="n">
-        <v>9.83</v>
+        <v>8.55</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="C20" t="n">
-        <v>60.99</v>
+        <v>56.29</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7" t="n">
         <v>33529.07</v>
       </c>
       <c r="F20" t="n">
@@ -2417,12 +2620,12 @@
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="8"/>
       <c r="L20" t="n">
         <v>645</v>
       </c>
       <c r="M20" t="n">
-        <v>9.46</v>
+        <v>8.73</v>
       </c>
       <c r="N20" t="n">
         <v>2</v>
@@ -2430,18 +2633,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C21" t="n">
-        <v>66.59</v>
+        <v>60.4</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="7" t="n">
         <v>26407.69</v>
       </c>
       <c r="F21" t="n">
@@ -2457,35 +2660,35 @@
         <v>18859</v>
       </c>
       <c r="J21" t="n">
-        <v>1256</v>
-      </c>
-      <c r="K21" s="3" t="n">
-        <v>65.305</v>
+        <v>1139</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>59.236</v>
       </c>
       <c r="L21" t="n">
         <v>508</v>
       </c>
       <c r="M21" t="n">
-        <v>13.11</v>
+        <v>11.89</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="C22" t="n">
-        <v>66.54</v>
+        <v>64.4</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" s="7" t="n">
         <v>25077.78</v>
       </c>
       <c r="F22" t="n">
@@ -2501,35 +2704,35 @@
         <v>26598</v>
       </c>
       <c r="J22" t="n">
-        <v>1770</v>
-      </c>
-      <c r="K22" s="3" t="n">
-        <v>92.035</v>
+        <v>1713</v>
+      </c>
+      <c r="K22" s="8" t="n">
+        <v>89.072</v>
       </c>
       <c r="L22" t="n">
         <v>482</v>
       </c>
       <c r="M22" t="n">
-        <v>13.8</v>
+        <v>13.35</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C23" t="n">
-        <v>58.88</v>
+        <v>56.26</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="7" t="n">
         <v>32436.02</v>
       </c>
       <c r="F23" t="n">
@@ -2545,35 +2748,35 @@
         <v>68239</v>
       </c>
       <c r="J23" t="n">
-        <v>4018</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <v>208.945</v>
+        <v>3839</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>199.638</v>
       </c>
       <c r="L23" t="n">
         <v>624</v>
       </c>
       <c r="M23" t="n">
-        <v>9.44</v>
+        <v>9.02</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="C24" t="n">
-        <v>57.42</v>
+        <v>55.81</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7" t="n">
         <v>32492.86</v>
       </c>
       <c r="F24" t="n">
@@ -2589,35 +2792,35 @@
         <v>26219</v>
       </c>
       <c r="J24" t="n">
-        <v>1505</v>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>78.28</v>
+        <v>1463</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>76.084</v>
       </c>
       <c r="L24" t="n">
         <v>625</v>
       </c>
       <c r="M24" t="n">
-        <v>9.19</v>
+        <v>8.93</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C25" t="n">
-        <v>72.57</v>
+        <v>65.73</v>
       </c>
       <c r="D25" t="n">
         <v>7</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="7" t="n">
         <v>32036.36</v>
       </c>
       <c r="F25" t="n">
@@ -2633,16 +2836,16 @@
         <v>30831</v>
       </c>
       <c r="J25" t="n">
-        <v>2237</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>116.342</v>
+        <v>2027</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>105.387</v>
       </c>
       <c r="L25" t="n">
         <v>616</v>
       </c>
       <c r="M25" t="n">
-        <v>11.78</v>
+        <v>10.67</v>
       </c>
       <c r="N25" t="n">
         <v>4</v>
@@ -2650,18 +2853,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="C26" t="n">
-        <v>77.99</v>
+        <v>76.15</v>
       </c>
       <c r="D26" t="n">
         <v>9</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="7" t="n">
         <v>30198.04</v>
       </c>
       <c r="F26" t="n">
@@ -2677,35 +2880,35 @@
         <v>42362</v>
       </c>
       <c r="J26" t="n">
-        <v>3304</v>
-      </c>
-      <c r="K26" s="3" t="n">
-        <v>171.797</v>
+        <v>3226</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>167.737</v>
       </c>
       <c r="L26" t="n">
         <v>581</v>
       </c>
       <c r="M26" t="n">
-        <v>13.43</v>
+        <v>13.11</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C27" t="n">
-        <v>44.05</v>
+        <v>38.88</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="7" t="n">
         <v>29140.43</v>
       </c>
       <c r="F27" t="n">
@@ -2721,16 +2924,16 @@
         <v>31125</v>
       </c>
       <c r="J27" t="n">
-        <v>1371</v>
-      </c>
-      <c r="K27" s="3" t="n">
-        <v>71.288</v>
+        <v>1210</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>62.923</v>
       </c>
       <c r="L27" t="n">
         <v>560</v>
       </c>
       <c r="M27" t="n">
-        <v>7.86</v>
+        <v>6.94</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -2738,14 +2941,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="7" t="n">
         <v>41800</v>
       </c>
       <c r="F28" t="n">
@@ -2755,7 +2958,7 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28" s="3"/>
+      <c r="K28" s="8"/>
       <c r="L28" t="n">
         <v>804</v>
       </c>
@@ -2764,18 +2967,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="C29" t="n">
-        <v>51.57</v>
+        <v>48.55</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="7" t="n">
         <v>25473.97</v>
       </c>
       <c r="F29" t="n">
@@ -2791,16 +2994,16 @@
         <v>69931</v>
       </c>
       <c r="J29" t="n">
-        <v>3606</v>
-      </c>
-      <c r="K29" s="3" t="n">
-        <v>187.519</v>
+        <v>3395</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>176.565</v>
       </c>
       <c r="L29" t="n">
         <v>490</v>
       </c>
       <c r="M29" t="n">
-        <v>10.53</v>
+        <v>9.91</v>
       </c>
       <c r="N29" t="n">
         <v>3</v>
@@ -2808,18 +3011,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C30" t="n">
-        <v>60.69</v>
+        <v>57.55</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7" t="n">
         <v>25237.88</v>
       </c>
       <c r="F30" t="n">
@@ -2835,16 +3038,16 @@
         <v>72875</v>
       </c>
       <c r="J30" t="n">
-        <v>4423</v>
-      </c>
-      <c r="K30" s="3" t="n">
-        <v>229.987</v>
+        <v>4194</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>218.077</v>
       </c>
       <c r="L30" t="n">
         <v>485</v>
       </c>
       <c r="M30" t="n">
-        <v>12.5</v>
+        <v>11.86</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
@@ -2852,18 +3055,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C31" t="n">
-        <v>67.04</v>
+        <v>61.7</v>
       </c>
       <c r="D31" t="n">
         <v>6</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="7" t="n">
         <v>24764.29</v>
       </c>
       <c r="F31" t="n">
@@ -2879,16 +3082,16 @@
         <v>43973</v>
       </c>
       <c r="J31" t="n">
-        <v>2948</v>
-      </c>
-      <c r="K31" s="3" t="n">
-        <v>153.298</v>
+        <v>2713</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>141.081</v>
       </c>
       <c r="L31" t="n">
         <v>476</v>
       </c>
       <c r="M31" t="n">
-        <v>14.08</v>
+        <v>12.96</v>
       </c>
       <c r="N31" t="n">
         <v>7</v>
@@ -2896,18 +3099,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C32" t="n">
-        <v>64.73</v>
+        <v>60.29</v>
       </c>
       <c r="D32" t="n">
         <v>5</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="7" t="n">
         <v>31211.36</v>
       </c>
       <c r="F32" t="n">
@@ -2923,16 +3126,16 @@
         <v>36269</v>
       </c>
       <c r="J32" t="n">
-        <v>2348</v>
-      </c>
-      <c r="K32" s="3" t="n">
-        <v>122.073</v>
+        <v>2187</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>113.711</v>
       </c>
       <c r="L32" t="n">
         <v>600</v>
       </c>
       <c r="M32" t="n">
-        <v>10.78</v>
+        <v>10.05</v>
       </c>
       <c r="N32" t="n">
         <v>3</v>
@@ -2940,18 +3143,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C33" t="n">
-        <v>63.98</v>
+        <v>62</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" s="7" t="n">
         <v>26745.87</v>
       </c>
       <c r="F33" t="n">
@@ -2967,35 +3170,35 @@
         <v>62243</v>
       </c>
       <c r="J33" t="n">
-        <v>3982</v>
-      </c>
-      <c r="K33" s="3" t="n">
-        <v>207.064</v>
+        <v>3859</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>200.679</v>
       </c>
       <c r="L33" t="n">
         <v>514</v>
       </c>
       <c r="M33" t="n">
-        <v>12.44</v>
+        <v>12.05</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C34" t="n">
-        <v>81.85</v>
+        <v>77.41</v>
       </c>
       <c r="D34" t="n">
         <v>9</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="7" t="n">
         <v>24253.33</v>
       </c>
       <c r="F34" t="n">
@@ -3011,16 +3214,16 @@
         <v>11552</v>
       </c>
       <c r="J34" t="n">
-        <v>946</v>
-      </c>
-      <c r="K34" s="3" t="n">
-        <v>49.17</v>
+        <v>894</v>
+      </c>
+      <c r="K34" s="8" t="n">
+        <v>46.503</v>
       </c>
       <c r="L34" t="n">
         <v>466</v>
       </c>
       <c r="M34" t="n">
-        <v>17.55</v>
+        <v>16.6</v>
       </c>
       <c r="N34" t="n">
         <v>10</v>
@@ -3028,18 +3231,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C35" t="n">
-        <v>61.16</v>
+        <v>58.12</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7" t="n">
         <v>27148.39</v>
       </c>
       <c r="F35" t="n">
@@ -3055,35 +3258,35 @@
         <v>33045</v>
       </c>
       <c r="J35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <v>105.087</v>
+        <v>1921</v>
+      </c>
+      <c r="K35" s="8" t="n">
+        <v>99.875</v>
       </c>
       <c r="L35" t="n">
         <v>522</v>
       </c>
       <c r="M35" t="n">
-        <v>11.71</v>
+        <v>11.13</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C36" t="n">
-        <v>69.63</v>
+        <v>63.45</v>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" s="7" t="n">
         <v>28928.41</v>
       </c>
       <c r="F36" t="n">
@@ -3099,35 +3302,35 @@
         <v>81716</v>
       </c>
       <c r="J36" t="n">
-        <v>5690</v>
-      </c>
-      <c r="K36" s="3" t="n">
-        <v>295.864</v>
+        <v>5185</v>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>269.622</v>
       </c>
       <c r="L36" t="n">
         <v>556</v>
       </c>
       <c r="M36" t="n">
-        <v>12.52</v>
+        <v>11.41</v>
       </c>
       <c r="N36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C37" t="n">
-        <v>51.96</v>
+        <v>46.77</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="7" t="n">
         <v>27183.86</v>
       </c>
       <c r="F37" t="n">
@@ -3143,16 +3346,16 @@
         <v>88461</v>
       </c>
       <c r="J37" t="n">
-        <v>4596</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>239.008</v>
+        <v>4137</v>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>215.134</v>
       </c>
       <c r="L37" t="n">
         <v>523</v>
       </c>
       <c r="M37" t="n">
-        <v>9.94</v>
+        <v>8.95</v>
       </c>
       <c r="N37" t="n">
         <v>2</v>
@@ -3160,18 +3363,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C38" t="n">
-        <v>81.79</v>
+        <v>78.79</v>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" s="7" t="n">
         <v>25915.38</v>
       </c>
       <c r="F38" t="n">
@@ -3187,16 +3390,16 @@
         <v>46779</v>
       </c>
       <c r="J38" t="n">
-        <v>3826</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <v>198.96</v>
+        <v>3686</v>
+      </c>
+      <c r="K38" s="8" t="n">
+        <v>191.658</v>
       </c>
       <c r="L38" t="n">
         <v>498</v>
       </c>
       <c r="M38" t="n">
-        <v>16.41</v>
+        <v>15.81</v>
       </c>
       <c r="N38" t="n">
         <v>9</v>
@@ -3204,18 +3407,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C39" t="n">
-        <v>60.17</v>
+        <v>50.36</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7" t="n">
         <v>28697.19</v>
       </c>
       <c r="F39" t="n">
@@ -3231,35 +3434,35 @@
         <v>31530</v>
       </c>
       <c r="J39" t="n">
-        <v>1897</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <v>98.646</v>
+        <v>1588</v>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>82.566</v>
       </c>
       <c r="L39" t="n">
         <v>552</v>
       </c>
       <c r="M39" t="n">
-        <v>10.9</v>
+        <v>9.13</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="C40" t="n">
-        <v>60.05</v>
+        <v>54.06</v>
       </c>
       <c r="D40" t="n">
         <v>3</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="7" t="n">
         <v>24918.6</v>
       </c>
       <c r="F40" t="n">
@@ -3275,35 +3478,35 @@
         <v>34039</v>
       </c>
       <c r="J40" t="n">
-        <v>2044</v>
-      </c>
-      <c r="K40" s="3" t="n">
-        <v>106.294</v>
+        <v>1840</v>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>95.694</v>
       </c>
       <c r="L40" t="n">
         <v>479</v>
       </c>
       <c r="M40" t="n">
-        <v>12.53</v>
+        <v>11.28</v>
       </c>
       <c r="N40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C41" t="n">
-        <v>67.46</v>
+        <v>59.31</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
-      </c>
-      <c r="E41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" s="7" t="n">
         <v>31084.62</v>
       </c>
       <c r="F41" t="n">
@@ -3319,35 +3522,35 @@
         <v>25841</v>
       </c>
       <c r="J41" t="n">
-        <v>1743</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <v>90.643</v>
+        <v>1533</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>79.694</v>
       </c>
       <c r="L41" t="n">
         <v>598</v>
       </c>
       <c r="M41" t="n">
-        <v>11.28</v>
+        <v>9.92</v>
       </c>
       <c r="N41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C42" t="n">
-        <v>74.05</v>
+        <v>67.66</v>
       </c>
       <c r="D42" t="n">
         <v>8</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="7" t="n">
         <v>28239.53</v>
       </c>
       <c r="F42" t="n">
@@ -3363,16 +3566,16 @@
         <v>33682</v>
       </c>
       <c r="J42" t="n">
-        <v>2494</v>
-      </c>
-      <c r="K42" s="3" t="n">
-        <v>129.701</v>
+        <v>2279</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>118.498</v>
       </c>
       <c r="L42" t="n">
         <v>543</v>
       </c>
       <c r="M42" t="n">
-        <v>13.64</v>
+        <v>12.46</v>
       </c>
       <c r="N42" t="n">
         <v>7</v>
@@ -3380,18 +3583,18 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="C43" t="n">
-        <v>57.47</v>
+        <v>53.36</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7" t="n">
         <v>28866.33</v>
       </c>
       <c r="F43" t="n">
@@ -3407,35 +3610,35 @@
         <v>57010</v>
       </c>
       <c r="J43" t="n">
-        <v>3276</v>
-      </c>
-      <c r="K43" s="3" t="n">
-        <v>170.361</v>
+        <v>3042</v>
+      </c>
+      <c r="K43" s="8" t="n">
+        <v>158.179</v>
       </c>
       <c r="L43" t="n">
         <v>555</v>
       </c>
       <c r="M43" t="n">
-        <v>10.35</v>
+        <v>9.61</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="C44" t="n">
-        <v>65.45</v>
+        <v>61.24</v>
       </c>
       <c r="D44" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="7" t="n">
         <v>28469.44</v>
       </c>
       <c r="F44" t="n">
@@ -3451,16 +3654,16 @@
         <v>39424</v>
       </c>
       <c r="J44" t="n">
-        <v>2580</v>
-      </c>
-      <c r="K44" s="3" t="n">
-        <v>134.18</v>
+        <v>2414</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>125.545</v>
       </c>
       <c r="L44" t="n">
         <v>547</v>
       </c>
       <c r="M44" t="n">
-        <v>11.95</v>
+        <v>11.19</v>
       </c>
       <c r="N44" t="n">
         <v>5</v>
@@ -3468,18 +3671,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C45" t="n">
-        <v>71.82</v>
+        <v>68.03</v>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
-      </c>
-      <c r="E45" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" s="7" t="n">
         <v>29986.79</v>
       </c>
       <c r="F45" t="n">
@@ -3495,16 +3698,16 @@
         <v>154954</v>
       </c>
       <c r="J45" t="n">
-        <v>11128</v>
-      </c>
-      <c r="K45" s="3" t="n">
-        <v>578.682</v>
+        <v>10541</v>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>548.131</v>
       </c>
       <c r="L45" t="n">
         <v>577</v>
       </c>
       <c r="M45" t="n">
-        <v>12.45</v>
+        <v>11.8</v>
       </c>
       <c r="N45" t="n">
         <v>6</v>
@@ -3512,18 +3715,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="C46" t="n">
         <v>53.62</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="7" t="n">
         <v>24418.52</v>
       </c>
       <c r="F46" t="n">
@@ -3541,7 +3744,7 @@
       <c r="J46" t="n">
         <v>1491</v>
       </c>
-      <c r="K46" s="3" t="n">
+      <c r="K46" s="8" t="n">
         <v>77.527</v>
       </c>
       <c r="L46" t="n">
@@ -3551,23 +3754,23 @@
         <v>11.42</v>
       </c>
       <c r="N46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="C47" t="n">
-        <v>61.12</v>
+        <v>59.28</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
-      </c>
-      <c r="E47" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" s="7" t="n">
         <v>29223.71</v>
       </c>
       <c r="F47" t="n">
@@ -3583,35 +3786,35 @@
         <v>65858</v>
       </c>
       <c r="J47" t="n">
-        <v>4025</v>
-      </c>
-      <c r="K47" s="3" t="n">
-        <v>209.304</v>
+        <v>3904</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>203.01</v>
       </c>
       <c r="L47" t="n">
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>10.88</v>
+        <v>10.55</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C48" t="n">
-        <v>69.19</v>
+        <v>64.62</v>
       </c>
       <c r="D48" t="n">
         <v>6</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="7" t="n">
         <v>30403.03</v>
       </c>
       <c r="F48" t="n">
@@ -3627,16 +3830,16 @@
         <v>27929</v>
       </c>
       <c r="J48" t="n">
-        <v>1932</v>
-      </c>
-      <c r="K48" s="3" t="n">
-        <v>100.486</v>
+        <v>1805</v>
+      </c>
+      <c r="K48" s="8" t="n">
+        <v>93.854</v>
       </c>
       <c r="L48" t="n">
         <v>585</v>
       </c>
       <c r="M48" t="n">
-        <v>11.83</v>
+        <v>11.05</v>
       </c>
       <c r="N48" t="n">
         <v>5</v>
@@ -3644,18 +3847,18 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="C49" t="n">
-        <v>55.27</v>
+        <v>48.98</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="7" t="n">
         <v>27000</v>
       </c>
       <c r="F49" t="n">
@@ -3671,16 +3874,16 @@
         <v>31381</v>
       </c>
       <c r="J49" t="n">
-        <v>1734</v>
-      </c>
-      <c r="K49" s="3" t="n">
-        <v>90.185</v>
+        <v>1537</v>
+      </c>
+      <c r="K49" s="8" t="n">
+        <v>79.932</v>
       </c>
       <c r="L49" t="n">
         <v>519</v>
       </c>
       <c r="M49" t="n">
-        <v>10.64</v>
+        <v>9.43</v>
       </c>
       <c r="N49" t="n">
         <v>3</v>
@@ -3688,10 +3891,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C50" t="n">
         <v>98.38</v>
@@ -3699,7 +3902,7 @@
       <c r="D50" t="n">
         <v>10</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="7" t="n">
         <v>23906.25</v>
       </c>
       <c r="F50" t="n">
@@ -3717,7 +3920,7 @@
       <c r="J50" t="n">
         <v>1476</v>
       </c>
-      <c r="K50" s="3" t="n">
+      <c r="K50" s="8" t="n">
         <v>76.733</v>
       </c>
       <c r="L50" t="n">
@@ -3732,18 +3935,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="C51" t="n">
-        <v>62.31</v>
+        <v>55.57</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" s="7" t="n">
         <v>31740</v>
       </c>
       <c r="F51" t="n">
@@ -3759,16 +3962,16 @@
         <v>15305</v>
       </c>
       <c r="J51" t="n">
-        <v>954</v>
-      </c>
-      <c r="K51" s="3" t="n">
-        <v>49.591</v>
+        <v>850</v>
+      </c>
+      <c r="K51" s="8" t="n">
+        <v>44.223</v>
       </c>
       <c r="L51" t="n">
         <v>610</v>
       </c>
       <c r="M51" t="n">
-        <v>10.21</v>
+        <v>9.1</v>
       </c>
       <c r="N51" t="n">
         <v>2</v>
@@ -3776,18 +3979,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C52" t="n">
-        <v>71.16</v>
+        <v>65.63</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="7" t="n">
         <v>32746.23</v>
       </c>
       <c r="F52" t="n">
@@ -3803,16 +4006,16 @@
         <v>109694</v>
       </c>
       <c r="J52" t="n">
-        <v>7806</v>
-      </c>
-      <c r="K52" s="3" t="n">
-        <v>405.908</v>
+        <v>7199</v>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>374.373</v>
       </c>
       <c r="L52" t="n">
         <v>630</v>
       </c>
       <c r="M52" t="n">
-        <v>11.3</v>
+        <v>10.42</v>
       </c>
       <c r="N52" t="n">
         <v>4</v>
@@ -3820,18 +4023,18 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C53" t="n">
-        <v>54.8</v>
+        <v>46.21</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7" t="n">
         <v>30000</v>
       </c>
       <c r="F53" t="n">
@@ -3847,35 +4050,35 @@
         <v>31107</v>
       </c>
       <c r="J53" t="n">
-        <v>1705</v>
-      </c>
-      <c r="K53" s="3" t="n">
-        <v>88.638</v>
+        <v>1437</v>
+      </c>
+      <c r="K53" s="8" t="n">
+        <v>74.749</v>
       </c>
       <c r="L53" t="n">
         <v>577</v>
       </c>
       <c r="M53" t="n">
-        <v>9.5</v>
+        <v>8.01</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C54" t="n">
-        <v>81.71</v>
+        <v>69.93</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
-      </c>
-      <c r="E54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" s="7" t="n">
         <v>33486.67</v>
       </c>
       <c r="F54" t="n">
@@ -3891,35 +4094,35 @@
         <v>19875</v>
       </c>
       <c r="J54" t="n">
-        <v>1624</v>
-      </c>
-      <c r="K54" s="3" t="n">
-        <v>84.444</v>
+        <v>1390</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>72.27</v>
       </c>
       <c r="L54" t="n">
         <v>644</v>
       </c>
       <c r="M54" t="n">
-        <v>12.69</v>
+        <v>10.86</v>
       </c>
       <c r="N54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C55" t="n">
-        <v>88.49</v>
+        <v>80.34</v>
       </c>
       <c r="D55" t="n">
         <v>10</v>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="7" t="n">
         <v>21925</v>
       </c>
       <c r="F55" t="n">
@@ -3935,16 +4138,16 @@
         <v>14180</v>
       </c>
       <c r="J55" t="n">
-        <v>1255</v>
-      </c>
-      <c r="K55" s="3" t="n">
-        <v>65.252</v>
+        <v>1139</v>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>59.237</v>
       </c>
       <c r="L55" t="n">
         <v>422</v>
       </c>
       <c r="M55" t="n">
-        <v>20.99</v>
+        <v>19.05</v>
       </c>
       <c r="N55" t="n">
         <v>10</v>
@@ -3952,18 +4155,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="C56" t="n">
-        <v>99.08</v>
+        <v>88.94</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="7" t="n">
         <v>32280</v>
       </c>
       <c r="F56" t="n">
@@ -3979,16 +4182,16 @@
         <v>26524</v>
       </c>
       <c r="J56" t="n">
-        <v>2628</v>
-      </c>
-      <c r="K56" s="3" t="n">
-        <v>136.65</v>
+        <v>2359</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>122.677</v>
       </c>
       <c r="L56" t="n">
         <v>621</v>
       </c>
       <c r="M56" t="n">
-        <v>15.96</v>
+        <v>14.33</v>
       </c>
       <c r="N56" t="n">
         <v>8</v>
@@ -3996,18 +4199,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C57" t="n">
-        <v>76.37</v>
+        <v>67.55</v>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
-      </c>
-      <c r="E57" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E57" s="7" t="n">
         <v>27047.83</v>
       </c>
       <c r="F57" t="n">
@@ -4023,35 +4226,35 @@
         <v>19235</v>
       </c>
       <c r="J57" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K57" s="3" t="n">
-        <v>76.389</v>
+        <v>1299</v>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>67.568</v>
       </c>
       <c r="L57" t="n">
         <v>520</v>
       </c>
       <c r="M57" t="n">
-        <v>14.68</v>
+        <v>12.99</v>
       </c>
       <c r="N57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="C58" t="n">
-        <v>62.53</v>
+        <v>54.73</v>
       </c>
       <c r="D58" t="n">
-        <v>4</v>
-      </c>
-      <c r="E58" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" s="7" t="n">
         <v>31018.53</v>
       </c>
       <c r="F58" t="n">
@@ -4067,16 +4270,16 @@
         <v>100550</v>
       </c>
       <c r="J58" t="n">
-        <v>6287</v>
-      </c>
-      <c r="K58" s="3" t="n">
-        <v>326.942</v>
+        <v>5503</v>
+      </c>
+      <c r="K58" s="8" t="n">
+        <v>286.145</v>
       </c>
       <c r="L58" t="n">
         <v>597</v>
       </c>
       <c r="M58" t="n">
-        <v>10.48</v>
+        <v>9.17</v>
       </c>
       <c r="N58" t="n">
         <v>2</v>
@@ -4084,18 +4287,18 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C59" t="n">
-        <v>67.85</v>
+        <v>65.09</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
-      </c>
-      <c r="E59" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E59" s="7" t="n">
         <v>31968.75</v>
       </c>
       <c r="F59" t="n">
@@ -4111,35 +4314,35 @@
         <v>27469</v>
       </c>
       <c r="J59" t="n">
-        <v>1864</v>
-      </c>
-      <c r="K59" s="3" t="n">
-        <v>96.912</v>
+        <v>1788</v>
+      </c>
+      <c r="K59" s="8" t="n">
+        <v>92.973</v>
       </c>
       <c r="L59" t="n">
         <v>615</v>
       </c>
       <c r="M59" t="n">
-        <v>11.04</v>
+        <v>10.59</v>
       </c>
       <c r="N59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="C60" t="n">
-        <v>71.88</v>
+        <v>64.14</v>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
-      </c>
-      <c r="E60" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" s="7" t="n">
         <v>30850</v>
       </c>
       <c r="F60" t="n">
@@ -4155,16 +4358,16 @@
         <v>29395</v>
       </c>
       <c r="J60" t="n">
-        <v>2113</v>
-      </c>
-      <c r="K60" s="3" t="n">
-        <v>109.868</v>
+        <v>1885</v>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>98.042</v>
       </c>
       <c r="L60" t="n">
         <v>593</v>
       </c>
       <c r="M60" t="n">
-        <v>12.12</v>
+        <v>10.81</v>
       </c>
       <c r="N60" t="n">
         <v>5</v>
@@ -4172,18 +4375,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="C61" t="n">
-        <v>76.97</v>
+        <v>69.24</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
-      </c>
-      <c r="E61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" s="7" t="n">
         <v>27144.44</v>
       </c>
       <c r="F61" t="n">
@@ -4199,16 +4402,16 @@
         <v>16896</v>
       </c>
       <c r="J61" t="n">
-        <v>1300</v>
-      </c>
-      <c r="K61" s="3" t="n">
-        <v>67.625</v>
+        <v>1170</v>
+      </c>
+      <c r="K61" s="8" t="n">
+        <v>60.835</v>
       </c>
       <c r="L61" t="n">
         <v>522</v>
       </c>
       <c r="M61" t="n">
-        <v>14.74</v>
+        <v>13.26</v>
       </c>
       <c r="N61" t="n">
         <v>8</v>
@@ -4216,14 +4419,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="7" t="n">
         <v>22700</v>
       </c>
       <c r="F62" t="n">
@@ -4233,7 +4436,7 @@
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
-      <c r="K62" s="3"/>
+      <c r="K62" s="8"/>
       <c r="L62" t="n">
         <v>437</v>
       </c>
@@ -4242,18 +4445,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="C63" t="n">
-        <v>60.24</v>
+        <v>56.58</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
-      </c>
-      <c r="E63" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E63" s="7" t="n">
         <v>29604.35</v>
       </c>
       <c r="F63" t="n">
@@ -4269,16 +4472,16 @@
         <v>24714</v>
       </c>
       <c r="J63" t="n">
-        <v>1489</v>
-      </c>
-      <c r="K63" s="3" t="n">
-        <v>77.411</v>
+        <v>1398</v>
+      </c>
+      <c r="K63" s="8" t="n">
+        <v>72.71</v>
       </c>
       <c r="L63" t="n">
         <v>569</v>
       </c>
       <c r="M63" t="n">
-        <v>10.58</v>
+        <v>9.94</v>
       </c>
       <c r="N63" t="n">
         <v>3</v>
@@ -4286,18 +4489,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="C64" t="n">
-        <v>78.72</v>
+        <v>58.94</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
-      </c>
-      <c r="E64" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" s="7" t="n">
         <v>34028.57</v>
       </c>
       <c r="F64" t="n">
@@ -4313,35 +4516,35 @@
         <v>18999</v>
       </c>
       <c r="J64" t="n">
-        <v>1496</v>
-      </c>
-      <c r="K64" s="3" t="n">
-        <v>77.771</v>
+        <v>1120</v>
+      </c>
+      <c r="K64" s="8" t="n">
+        <v>58.233</v>
       </c>
       <c r="L64" t="n">
         <v>654</v>
       </c>
       <c r="M64" t="n">
-        <v>12.03</v>
+        <v>9.01</v>
       </c>
       <c r="N64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="C65" t="n">
-        <v>66.17</v>
+        <v>60.79</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
       </c>
-      <c r="E65" s="2"/>
+      <c r="E65" s="7"/>
       <c r="F65"/>
       <c r="G65" t="n">
         <v>13.69</v>
@@ -4353,10 +4556,10 @@
         <v>169384</v>
       </c>
       <c r="J65" t="n">
-        <v>11207</v>
-      </c>
-      <c r="K65" s="3" t="n">
-        <v>582.784</v>
+        <v>10297</v>
+      </c>
+      <c r="K65" s="8" t="n">
+        <v>535.452</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
@@ -4364,18 +4567,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C66" t="n">
-        <v>75.02</v>
+        <v>68.63</v>
       </c>
       <c r="D66" t="n">
         <v>8</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="7" t="n">
         <v>22446.88</v>
       </c>
       <c r="F66" t="n">
@@ -4391,35 +4594,35 @@
         <v>44979</v>
       </c>
       <c r="J66" t="n">
-        <v>3374</v>
-      </c>
-      <c r="K66" s="3" t="n">
-        <v>175.472</v>
+        <v>3087</v>
+      </c>
+      <c r="K66" s="8" t="n">
+        <v>160.527</v>
       </c>
       <c r="L66" t="n">
         <v>432</v>
       </c>
       <c r="M66" t="n">
-        <v>17.38</v>
+        <v>15.9</v>
       </c>
       <c r="N66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="C67" t="n">
-        <v>48.35</v>
+        <v>43.26</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="7" t="n">
         <v>38760</v>
       </c>
       <c r="F67" t="n">
@@ -4435,16 +4638,16 @@
         <v>12722</v>
       </c>
       <c r="J67" t="n">
-        <v>615</v>
-      </c>
-      <c r="K67" s="3" t="n">
-        <v>31.985</v>
+        <v>550</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>28.621</v>
       </c>
       <c r="L67" t="n">
         <v>745</v>
       </c>
       <c r="M67" t="n">
-        <v>6.49</v>
+        <v>5.8</v>
       </c>
       <c r="N67" t="n">
         <v>1</v>
@@ -4452,18 +4655,18 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C68" t="n">
-        <v>62.55</v>
+        <v>59.07</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="7" t="n">
         <v>24350.85</v>
       </c>
       <c r="F68" t="n">
@@ -4479,16 +4682,16 @@
         <v>48497</v>
       </c>
       <c r="J68" t="n">
-        <v>3033</v>
-      </c>
-      <c r="K68" s="3" t="n">
-        <v>157.733</v>
+        <v>2865</v>
+      </c>
+      <c r="K68" s="8" t="n">
+        <v>148.97</v>
       </c>
       <c r="L68" t="n">
         <v>468</v>
       </c>
       <c r="M68" t="n">
-        <v>13.36</v>
+        <v>12.61</v>
       </c>
       <c r="N68" t="n">
         <v>7</v>
@@ -4496,18 +4699,18 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="C69" t="n">
-        <v>76.95</v>
+        <v>69</v>
       </c>
       <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="7" t="n">
         <v>20985</v>
       </c>
       <c r="F69" t="n">
@@ -4523,16 +4726,16 @@
         <v>16682</v>
       </c>
       <c r="J69" t="n">
-        <v>1284</v>
-      </c>
-      <c r="K69" s="3" t="n">
-        <v>66.751</v>
+        <v>1151</v>
+      </c>
+      <c r="K69" s="8" t="n">
+        <v>59.856</v>
       </c>
       <c r="L69" t="n">
         <v>404</v>
       </c>
       <c r="M69" t="n">
-        <v>19.07</v>
+        <v>17.1</v>
       </c>
       <c r="N69" t="n">
         <v>10</v>
@@ -4540,18 +4743,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B70" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="C70" t="n">
-        <v>64.03</v>
+        <v>56.71</v>
       </c>
       <c r="D70" t="n">
         <v>4</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="7" t="n">
         <v>30728.57</v>
       </c>
       <c r="F70" t="n">
@@ -4567,16 +4770,16 @@
         <v>35272</v>
       </c>
       <c r="J70" t="n">
-        <v>2258</v>
-      </c>
-      <c r="K70" s="3" t="n">
-        <v>117.436</v>
+        <v>2000</v>
+      </c>
+      <c r="K70" s="8" t="n">
+        <v>104.019</v>
       </c>
       <c r="L70" t="n">
         <v>591</v>
       </c>
       <c r="M70" t="n">
-        <v>10.84</v>
+        <v>9.6</v>
       </c>
       <c r="N70" t="n">
         <v>3</v>
@@ -4584,18 +4787,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B71" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="C71" t="n">
-        <v>64.83</v>
+        <v>60.87</v>
       </c>
       <c r="D71" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="7" t="n">
         <v>25636.48</v>
       </c>
       <c r="F71" t="n">
@@ -4611,16 +4814,16 @@
         <v>134164</v>
       </c>
       <c r="J71" t="n">
-        <v>8697</v>
-      </c>
-      <c r="K71" s="3" t="n">
-        <v>452.255</v>
+        <v>8166</v>
+      </c>
+      <c r="K71" s="8" t="n">
+        <v>424.639</v>
       </c>
       <c r="L71" t="n">
         <v>493</v>
       </c>
       <c r="M71" t="n">
-        <v>13.15</v>
+        <v>12.35</v>
       </c>
       <c r="N71" t="n">
         <v>7</v>
@@ -4628,18 +4831,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B72" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="C72" t="n">
-        <v>53.49</v>
+        <v>50.21</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="7" t="n">
         <v>25265.42</v>
       </c>
       <c r="F72" t="n">
@@ -4655,35 +4858,35 @@
         <v>95184</v>
       </c>
       <c r="J72" t="n">
-        <v>5091</v>
-      </c>
-      <c r="K72" s="3" t="n">
-        <v>264.754</v>
+        <v>4779</v>
+      </c>
+      <c r="K72" s="8" t="n">
+        <v>248.521</v>
       </c>
       <c r="L72" t="n">
         <v>486</v>
       </c>
       <c r="M72" t="n">
-        <v>11.01</v>
+        <v>10.33</v>
       </c>
       <c r="N72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B73" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C73" t="n">
-        <v>54.03</v>
+        <v>51.98</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="7" t="n">
         <v>20843.24</v>
       </c>
       <c r="F73" t="n">
@@ -4699,16 +4902,16 @@
         <v>41728</v>
       </c>
       <c r="J73" t="n">
-        <v>2255</v>
-      </c>
-      <c r="K73" s="3" t="n">
-        <v>117.243</v>
+        <v>2169</v>
+      </c>
+      <c r="K73" s="8" t="n">
+        <v>112.792</v>
       </c>
       <c r="L73" t="n">
         <v>401</v>
       </c>
       <c r="M73" t="n">
-        <v>13.48</v>
+        <v>12.97</v>
       </c>
       <c r="N73" t="n">
         <v>7</v>
@@ -4716,18 +4919,18 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="C74" t="n">
-        <v>75.18</v>
+        <v>72.53</v>
       </c>
       <c r="D74" t="n">
-        <v>8</v>
-      </c>
-      <c r="E74" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E74" s="7" t="n">
         <v>31161.77</v>
       </c>
       <c r="F74" t="n">
@@ -4743,16 +4946,16 @@
         <v>67615</v>
       </c>
       <c r="J74" t="n">
-        <v>5084</v>
-      </c>
-      <c r="K74" s="3" t="n">
-        <v>264.348</v>
+        <v>4904</v>
+      </c>
+      <c r="K74" s="8" t="n">
+        <v>255.027</v>
       </c>
       <c r="L74" t="n">
         <v>599</v>
       </c>
       <c r="M74" t="n">
-        <v>12.55</v>
+        <v>12.1</v>
       </c>
       <c r="N74" t="n">
         <v>6</v>
@@ -4760,18 +4963,18 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C75" t="n">
-        <v>62.79</v>
+        <v>54.94</v>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
-      </c>
-      <c r="E75" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" s="7" t="n">
         <v>30763.89</v>
       </c>
       <c r="F75" t="n">
@@ -4787,35 +4990,35 @@
         <v>34483</v>
       </c>
       <c r="J75" t="n">
-        <v>2165</v>
-      </c>
-      <c r="K75" s="3" t="n">
-        <v>112.584</v>
+        <v>1894</v>
+      </c>
+      <c r="K75" s="8" t="n">
+        <v>98.51</v>
       </c>
       <c r="L75" t="n">
         <v>592</v>
       </c>
       <c r="M75" t="n">
-        <v>10.61</v>
+        <v>9.29</v>
       </c>
       <c r="N75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="C76" t="n">
-        <v>57.39</v>
+        <v>55.27</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
-      </c>
-      <c r="E76" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" s="7" t="n">
         <v>27021.75</v>
       </c>
       <c r="F76" t="n">
@@ -4831,16 +5034,16 @@
         <v>94175</v>
       </c>
       <c r="J76" t="n">
-        <v>5405</v>
-      </c>
-      <c r="K76" s="3" t="n">
-        <v>281.059</v>
+        <v>5205</v>
+      </c>
+      <c r="K76" s="8" t="n">
+        <v>270.668</v>
       </c>
       <c r="L76" t="n">
         <v>520</v>
       </c>
       <c r="M76" t="n">
-        <v>11.04</v>
+        <v>10.64</v>
       </c>
       <c r="N76" t="n">
         <v>4</v>
@@ -4848,18 +5051,18 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C77" t="n">
-        <v>66.99</v>
+        <v>63.45</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="7" t="n">
         <v>21895.08</v>
       </c>
       <c r="F77" t="n">
@@ -4875,35 +5078,35 @@
         <v>56803</v>
       </c>
       <c r="J77" t="n">
-        <v>3805</v>
-      </c>
-      <c r="K77" s="3" t="n">
-        <v>197.859</v>
+        <v>3604</v>
+      </c>
+      <c r="K77" s="8" t="n">
+        <v>187.428</v>
       </c>
       <c r="L77" t="n">
         <v>421</v>
       </c>
       <c r="M77" t="n">
-        <v>15.91</v>
+        <v>15.07</v>
       </c>
       <c r="N77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="C78" t="n">
-        <v>95.81</v>
+        <v>77.21</v>
       </c>
       <c r="D78" t="n">
-        <v>10</v>
-      </c>
-      <c r="E78" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E78" s="7" t="n">
         <v>25614.29</v>
       </c>
       <c r="F78" t="n">
@@ -4919,35 +5122,35 @@
         <v>26204</v>
       </c>
       <c r="J78" t="n">
-        <v>2511</v>
-      </c>
-      <c r="K78" s="3" t="n">
-        <v>130.55</v>
+        <v>2023</v>
+      </c>
+      <c r="K78" s="8" t="n">
+        <v>105.203</v>
       </c>
       <c r="L78" t="n">
         <v>493</v>
       </c>
       <c r="M78" t="n">
-        <v>19.45</v>
+        <v>15.67</v>
       </c>
       <c r="N78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C79" t="n">
-        <v>40.37</v>
+        <v>37.67</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="7" t="n">
         <v>21901.75</v>
       </c>
       <c r="F79" t="n">
@@ -4963,16 +5166,16 @@
         <v>77467</v>
       </c>
       <c r="J79" t="n">
-        <v>3128</v>
-      </c>
-      <c r="K79" s="3" t="n">
-        <v>162.634</v>
+        <v>2918</v>
+      </c>
+      <c r="K79" s="8" t="n">
+        <v>151.729</v>
       </c>
       <c r="L79" t="n">
         <v>421</v>
       </c>
       <c r="M79" t="n">
-        <v>9.59</v>
+        <v>8.94</v>
       </c>
       <c r="N79" t="n">
         <v>2</v>
@@ -4980,18 +5183,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C80" t="n">
-        <v>79.72</v>
+        <v>73.56</v>
       </c>
       <c r="D80" t="n">
         <v>9</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="7" t="n">
         <v>28457.89</v>
       </c>
       <c r="F80" t="n">
@@ -5007,16 +5210,16 @@
         <v>30036</v>
       </c>
       <c r="J80" t="n">
-        <v>2394</v>
-      </c>
-      <c r="K80" s="3" t="n">
-        <v>124.506</v>
+        <v>2209</v>
+      </c>
+      <c r="K80" s="8" t="n">
+        <v>114.886</v>
       </c>
       <c r="L80" t="n">
         <v>547</v>
       </c>
       <c r="M80" t="n">
-        <v>14.57</v>
+        <v>13.44</v>
       </c>
       <c r="N80" t="n">
         <v>8</v>
@@ -5024,18 +5227,18 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="C81" t="n">
-        <v>55.26</v>
+        <v>48.73</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="7" t="n">
         <v>35368</v>
       </c>
       <c r="F81" t="n">
@@ -5051,16 +5254,16 @@
         <v>21559</v>
       </c>
       <c r="J81" t="n">
-        <v>1191</v>
-      </c>
-      <c r="K81" s="3" t="n">
-        <v>61.953</v>
+        <v>1051</v>
+      </c>
+      <c r="K81" s="8" t="n">
+        <v>54.627</v>
       </c>
       <c r="L81" t="n">
         <v>680</v>
       </c>
       <c r="M81" t="n">
-        <v>8.12</v>
+        <v>7.16</v>
       </c>
       <c r="N81" t="n">
         <v>1</v>
@@ -5068,18 +5271,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C82" t="n">
-        <v>88.53</v>
+        <v>79.89</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="7" t="n">
         <v>22326.32</v>
       </c>
       <c r="F82" t="n">
@@ -5095,16 +5298,16 @@
         <v>18578</v>
       </c>
       <c r="J82" t="n">
-        <v>1645</v>
-      </c>
-      <c r="K82" s="3" t="n">
-        <v>85.529</v>
+        <v>1484</v>
+      </c>
+      <c r="K82" s="8" t="n">
+        <v>77.178</v>
       </c>
       <c r="L82" t="n">
         <v>429</v>
       </c>
       <c r="M82" t="n">
-        <v>20.62</v>
+        <v>18.61</v>
       </c>
       <c r="N82" t="n">
         <v>10</v>
@@ -5112,18 +5315,18 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="C83" t="n">
-        <v>67.34</v>
+        <v>64.7</v>
       </c>
       <c r="D83" t="n">
         <v>6</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="7" t="n">
         <v>29484.38</v>
       </c>
       <c r="F83" t="n">
@@ -5139,16 +5342,16 @@
         <v>30202</v>
       </c>
       <c r="J83" t="n">
-        <v>2034</v>
-      </c>
-      <c r="K83" s="3" t="n">
-        <v>105.756</v>
+        <v>1954</v>
+      </c>
+      <c r="K83" s="8" t="n">
+        <v>101.611</v>
       </c>
       <c r="L83" t="n">
         <v>567</v>
       </c>
       <c r="M83" t="n">
-        <v>11.88</v>
+        <v>11.41</v>
       </c>
       <c r="N83" t="n">
         <v>5</v>
@@ -5156,18 +5359,18 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B84" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="C84" t="n">
-        <v>84.37</v>
+        <v>77.7</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="7" t="n">
         <v>24086.21</v>
       </c>
       <c r="F84" t="n">
@@ -5183,16 +5386,16 @@
         <v>31804</v>
       </c>
       <c r="J84" t="n">
-        <v>2683</v>
-      </c>
-      <c r="K84" s="3" t="n">
-        <v>139.537</v>
+        <v>2471</v>
+      </c>
+      <c r="K84" s="8" t="n">
+        <v>128.508</v>
       </c>
       <c r="L84" t="n">
         <v>463</v>
       </c>
       <c r="M84" t="n">
-        <v>18.22</v>
+        <v>16.78</v>
       </c>
       <c r="N84" t="n">
         <v>10</v>
@@ -5200,18 +5403,18 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C85" t="n">
-        <v>76.13</v>
+        <v>72.8</v>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
-      </c>
-      <c r="E85" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E85" s="7" t="n">
         <v>26275.68</v>
       </c>
       <c r="F85" t="n">
@@ -5227,16 +5430,16 @@
         <v>36891</v>
       </c>
       <c r="J85" t="n">
-        <v>2808</v>
-      </c>
-      <c r="K85" s="3" t="n">
-        <v>146.033</v>
+        <v>2686</v>
+      </c>
+      <c r="K85" s="8" t="n">
+        <v>139.649</v>
       </c>
       <c r="L85" t="n">
         <v>505</v>
       </c>
       <c r="M85" t="n">
-        <v>15.07</v>
+        <v>14.41</v>
       </c>
       <c r="N85" t="n">
         <v>8</v>
@@ -5244,18 +5447,18 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C86" t="n">
-        <v>55.18</v>
+        <v>52.74</v>
       </c>
       <c r="D86" t="n">
         <v>2</v>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="7" t="n">
         <v>28364.07</v>
       </c>
       <c r="F86" t="n">
@@ -5271,35 +5474,35 @@
         <v>106988</v>
       </c>
       <c r="J86" t="n">
-        <v>5904</v>
-      </c>
-      <c r="K86" s="3" t="n">
-        <v>306.993</v>
+        <v>5643</v>
+      </c>
+      <c r="K86" s="8" t="n">
+        <v>293.418</v>
       </c>
       <c r="L86" t="n">
         <v>545</v>
       </c>
       <c r="M86" t="n">
-        <v>10.12</v>
+        <v>9.67</v>
       </c>
       <c r="N86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C87" t="n">
-        <v>66.14</v>
+        <v>63.9</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
-      </c>
-      <c r="E87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E87" s="7" t="n">
         <v>23526.09</v>
       </c>
       <c r="F87" t="n">
@@ -5315,16 +5518,16 @@
         <v>27763</v>
       </c>
       <c r="J87" t="n">
-        <v>1836</v>
-      </c>
-      <c r="K87" s="3" t="n">
-        <v>95.484</v>
+        <v>1774</v>
+      </c>
+      <c r="K87" s="8" t="n">
+        <v>92.249</v>
       </c>
       <c r="L87" t="n">
         <v>452</v>
       </c>
       <c r="M87" t="n">
-        <v>14.62</v>
+        <v>14.12</v>
       </c>
       <c r="N87" t="n">
         <v>8</v>
@@ -5332,18 +5535,18 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B88" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C88" t="n">
-        <v>70.53</v>
+        <v>65.66</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
       </c>
-      <c r="E88" s="2" t="n">
+      <c r="E88" s="7" t="n">
         <v>26817.39</v>
       </c>
       <c r="F88" t="n">
@@ -5359,16 +5562,16 @@
         <v>24374</v>
       </c>
       <c r="J88" t="n">
-        <v>1719</v>
-      </c>
-      <c r="K88" s="3" t="n">
-        <v>89.399</v>
+        <v>1600</v>
+      </c>
+      <c r="K88" s="8" t="n">
+        <v>83.217</v>
       </c>
       <c r="L88" t="n">
         <v>516</v>
       </c>
       <c r="M88" t="n">
-        <v>13.68</v>
+        <v>12.73</v>
       </c>
       <c r="N88" t="n">
         <v>7</v>
@@ -5376,18 +5579,18 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="C89" t="n">
-        <v>51.4</v>
+        <v>42.37</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
       </c>
-      <c r="E89" s="2" t="n">
+      <c r="E89" s="7" t="n">
         <v>28900</v>
       </c>
       <c r="F89" t="n">
@@ -5403,16 +5606,16 @@
         <v>19276</v>
       </c>
       <c r="J89" t="n">
-        <v>991</v>
-      </c>
-      <c r="K89" s="3" t="n">
-        <v>51.518</v>
+        <v>817</v>
+      </c>
+      <c r="K89" s="8" t="n">
+        <v>42.467</v>
       </c>
       <c r="L89" t="n">
         <v>556</v>
       </c>
       <c r="M89" t="n">
-        <v>9.25</v>
+        <v>7.62</v>
       </c>
       <c r="N89" t="n">
         <v>1</v>
@@ -5420,18 +5623,18 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C90" t="n">
-        <v>79.87</v>
+        <v>70.05</v>
       </c>
       <c r="D90" t="n">
-        <v>9</v>
-      </c>
-      <c r="E90" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" s="7" t="n">
         <v>26016.67</v>
       </c>
       <c r="F90" t="n">
@@ -5447,16 +5650,16 @@
         <v>23140</v>
       </c>
       <c r="J90" t="n">
-        <v>1848</v>
-      </c>
-      <c r="K90" s="3" t="n">
-        <v>96.107</v>
+        <v>1621</v>
+      </c>
+      <c r="K90" s="8" t="n">
+        <v>84.29</v>
       </c>
       <c r="L90" t="n">
         <v>500</v>
       </c>
       <c r="M90" t="n">
-        <v>15.96</v>
+        <v>14</v>
       </c>
       <c r="N90" t="n">
         <v>8</v>
@@ -5464,18 +5667,18 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="C91" t="n">
-        <v>67.26</v>
+        <v>62.87</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
       </c>
-      <c r="E91" s="2" t="n">
+      <c r="E91" s="7" t="n">
         <v>28621.17</v>
       </c>
       <c r="F91" t="n">
@@ -5491,35 +5694,35 @@
         <v>59798</v>
       </c>
       <c r="J91" t="n">
-        <v>4022</v>
-      </c>
-      <c r="K91" s="3" t="n">
-        <v>209.154</v>
+        <v>3760</v>
+      </c>
+      <c r="K91" s="8" t="n">
+        <v>195.502</v>
       </c>
       <c r="L91" t="n">
         <v>550</v>
       </c>
       <c r="M91" t="n">
-        <v>12.22</v>
+        <v>11.42</v>
       </c>
       <c r="N91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C92" t="n">
-        <v>69.78</v>
+        <v>67.17</v>
       </c>
       <c r="D92" t="n">
         <v>7</v>
       </c>
-      <c r="E92" s="2" t="n">
+      <c r="E92" s="7" t="n">
         <v>29037.4</v>
       </c>
       <c r="F92" t="n">
@@ -5535,16 +5738,16 @@
         <v>95181</v>
       </c>
       <c r="J92" t="n">
-        <v>6642</v>
-      </c>
-      <c r="K92" s="3" t="n">
-        <v>345.373</v>
+        <v>6393</v>
+      </c>
+      <c r="K92" s="8" t="n">
+        <v>332.437</v>
       </c>
       <c r="L92" t="n">
         <v>558</v>
       </c>
       <c r="M92" t="n">
-        <v>12.5</v>
+        <v>12.03</v>
       </c>
       <c r="N92" t="n">
         <v>6</v>
@@ -5552,18 +5755,18 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="C93" t="n">
-        <v>72.95</v>
+        <v>68.67</v>
       </c>
       <c r="D93" t="n">
-        <v>7</v>
-      </c>
-      <c r="E93" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" s="7" t="n">
         <v>26652.5</v>
       </c>
       <c r="F93" t="n">
@@ -5579,16 +5782,16 @@
         <v>33849</v>
       </c>
       <c r="J93" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K93" s="3" t="n">
-        <v>128.409</v>
+        <v>2325</v>
+      </c>
+      <c r="K93" s="8" t="n">
+        <v>120.874</v>
       </c>
       <c r="L93" t="n">
         <v>513</v>
       </c>
       <c r="M93" t="n">
-        <v>14.23</v>
+        <v>13.4</v>
       </c>
       <c r="N93" t="n">
         <v>8</v>
@@ -5596,18 +5799,18 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C94" t="n">
-        <v>64.56</v>
+        <v>62.86</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
-      </c>
-      <c r="E94" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E94" s="7" t="n">
         <v>23686.84</v>
       </c>
       <c r="F94" t="n">
@@ -5623,16 +5826,16 @@
         <v>55121</v>
       </c>
       <c r="J94" t="n">
-        <v>3559</v>
-      </c>
-      <c r="K94" s="3" t="n">
-        <v>185.045</v>
+        <v>3465</v>
+      </c>
+      <c r="K94" s="8" t="n">
+        <v>180.184</v>
       </c>
       <c r="L94" t="n">
         <v>456</v>
       </c>
       <c r="M94" t="n">
-        <v>14.17</v>
+        <v>13.8</v>
       </c>
       <c r="N94" t="n">
         <v>8</v>
@@ -5640,18 +5843,18 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="C95" t="n">
-        <v>70.4</v>
+        <v>67.4</v>
       </c>
       <c r="D95" t="n">
         <v>7</v>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="E95" s="7" t="n">
         <v>30664.52</v>
       </c>
       <c r="F95" t="n">
@@ -5667,35 +5870,35 @@
         <v>95012</v>
       </c>
       <c r="J95" t="n">
-        <v>6688</v>
-      </c>
-      <c r="K95" s="3" t="n">
-        <v>347.798</v>
+        <v>6404</v>
+      </c>
+      <c r="K95" s="8" t="n">
+        <v>333.019</v>
       </c>
       <c r="L95" t="n">
         <v>590</v>
       </c>
       <c r="M95" t="n">
-        <v>11.94</v>
+        <v>11.43</v>
       </c>
       <c r="N95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="C96" t="n">
-        <v>82.55</v>
+        <v>77.39</v>
       </c>
       <c r="D96" t="n">
         <v>9</v>
       </c>
-      <c r="E96" s="2" t="n">
+      <c r="E96" s="7" t="n">
         <v>24087.88</v>
       </c>
       <c r="F96" t="n">
@@ -5711,16 +5914,16 @@
         <v>31764</v>
       </c>
       <c r="J96" t="n">
-        <v>2622</v>
-      </c>
-      <c r="K96" s="3" t="n">
-        <v>136.357</v>
+        <v>2458</v>
+      </c>
+      <c r="K96" s="8" t="n">
+        <v>127.827</v>
       </c>
       <c r="L96" t="n">
         <v>463</v>
       </c>
       <c r="M96" t="n">
-        <v>17.82</v>
+        <v>16.71</v>
       </c>
       <c r="N96" t="n">
         <v>10</v>
@@ -5728,18 +5931,18 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="C97" t="n">
-        <v>62.04</v>
+        <v>60.62</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
-      </c>
-      <c r="E97" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" s="7" t="n">
         <v>33310.03</v>
       </c>
       <c r="F97" t="n">
@@ -5755,35 +5958,35 @@
         <v>65455</v>
       </c>
       <c r="J97" t="n">
-        <v>4061</v>
-      </c>
-      <c r="K97" s="3" t="n">
-        <v>211.165</v>
+        <v>3968</v>
+      </c>
+      <c r="K97" s="8" t="n">
+        <v>206.333</v>
       </c>
       <c r="L97" t="n">
         <v>641</v>
       </c>
       <c r="M97" t="n">
-        <v>9.69</v>
+        <v>9.46</v>
       </c>
       <c r="N97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C98" t="n">
-        <v>56.32</v>
+        <v>44.75</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
-      </c>
-      <c r="E98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" s="7" t="n">
         <v>26936.36</v>
       </c>
       <c r="F98" t="n">
@@ -5799,35 +6002,35 @@
         <v>28328</v>
       </c>
       <c r="J98" t="n">
-        <v>1595</v>
-      </c>
-      <c r="K98" s="3" t="n">
-        <v>82.965</v>
+        <v>1268</v>
+      </c>
+      <c r="K98" s="8" t="n">
+        <v>65.925</v>
       </c>
       <c r="L98" t="n">
         <v>518</v>
       </c>
       <c r="M98" t="n">
-        <v>10.87</v>
+        <v>8.64</v>
       </c>
       <c r="N98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C99" t="n">
-        <v>57.06</v>
+        <v>49.73</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
       </c>
-      <c r="E99" s="2" t="n">
+      <c r="E99" s="7" t="n">
         <v>26246.88</v>
       </c>
       <c r="F99" t="n">
@@ -5843,35 +6046,35 @@
         <v>38738</v>
       </c>
       <c r="J99" t="n">
-        <v>2210</v>
-      </c>
-      <c r="K99" s="3" t="n">
-        <v>114.936</v>
+        <v>1927</v>
+      </c>
+      <c r="K99" s="8" t="n">
+        <v>100.179</v>
       </c>
       <c r="L99" t="n">
         <v>505</v>
       </c>
       <c r="M99" t="n">
-        <v>11.3</v>
+        <v>9.85</v>
       </c>
       <c r="N99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B100" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="C100" t="n">
-        <v>75.25</v>
+        <v>71.57</v>
       </c>
       <c r="D100" t="n">
         <v>8</v>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="E100" s="7" t="n">
         <v>29028</v>
       </c>
       <c r="F100" t="n">
@@ -5887,16 +6090,16 @@
         <v>28148</v>
       </c>
       <c r="J100" t="n">
-        <v>2118</v>
-      </c>
-      <c r="K100" s="3" t="n">
-        <v>110.136</v>
+        <v>2014</v>
+      </c>
+      <c r="K100" s="8" t="n">
+        <v>104.751</v>
       </c>
       <c r="L100" t="n">
         <v>558</v>
       </c>
       <c r="M100" t="n">
-        <v>13.48</v>
+        <v>12.82</v>
       </c>
       <c r="N100" t="n">
         <v>7</v>
@@ -5904,14 +6107,18 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B101" t="s">
-        <v>288</v>
-      </c>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101" s="2" t="n">
+        <v>306</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" s="7" t="n">
         <v>31094.44</v>
       </c>
       <c r="F101" t="n">
@@ -5926,28 +6133,36 @@
       <c r="I101" t="n">
         <v>17404</v>
       </c>
-      <c r="J101"/>
-      <c r="K101" s="3"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="L101" t="n">
         <v>598</v>
       </c>
-      <c r="M101"/>
-      <c r="N101"/>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="C102" t="n">
-        <v>74.42</v>
+        <v>63.52</v>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
-      </c>
-      <c r="E102" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E102" s="7" t="n">
         <v>30845.16</v>
       </c>
       <c r="F102" t="n">
@@ -5963,35 +6178,35 @@
         <v>30605</v>
       </c>
       <c r="J102" t="n">
-        <v>2278</v>
-      </c>
-      <c r="K102" s="3" t="n">
-        <v>118.435</v>
+        <v>1944</v>
+      </c>
+      <c r="K102" s="8" t="n">
+        <v>101.096</v>
       </c>
       <c r="L102" t="n">
         <v>593</v>
       </c>
       <c r="M102" t="n">
-        <v>12.55</v>
+        <v>10.71</v>
       </c>
       <c r="N102" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="C103" t="n">
-        <v>74.82</v>
+        <v>71.79</v>
       </c>
       <c r="D103" t="n">
         <v>8</v>
       </c>
-      <c r="E103" s="2" t="n">
+      <c r="E103" s="7" t="n">
         <v>24326.32</v>
       </c>
       <c r="F103" t="n">
@@ -6007,16 +6222,16 @@
         <v>16942</v>
       </c>
       <c r="J103" t="n">
-        <v>1268</v>
-      </c>
-      <c r="K103" s="3" t="n">
-        <v>65.917</v>
+        <v>1216</v>
+      </c>
+      <c r="K103" s="8" t="n">
+        <v>63.245</v>
       </c>
       <c r="L103" t="n">
         <v>468</v>
       </c>
       <c r="M103" t="n">
-        <v>15.99</v>
+        <v>15.35</v>
       </c>
       <c r="N103" t="n">
         <v>9</v>
@@ -6024,18 +6239,18 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="C104" t="n">
-        <v>68.69</v>
+        <v>58.78</v>
       </c>
       <c r="D104" t="n">
-        <v>6</v>
-      </c>
-      <c r="E104" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" s="7" t="n">
         <v>40526.09</v>
       </c>
       <c r="F104" t="n">
@@ -6051,16 +6266,16 @@
         <v>12172</v>
       </c>
       <c r="J104" t="n">
-        <v>836</v>
-      </c>
-      <c r="K104" s="3" t="n">
-        <v>43.476</v>
+        <v>715</v>
+      </c>
+      <c r="K104" s="8" t="n">
+        <v>37.204</v>
       </c>
       <c r="L104" t="n">
         <v>779</v>
       </c>
       <c r="M104" t="n">
-        <v>8.81</v>
+        <v>7.54</v>
       </c>
       <c r="N104" t="n">
         <v>1</v>
@@ -6068,18 +6283,18 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="C105" t="n">
-        <v>63.13</v>
+        <v>56.28</v>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
-      </c>
-      <c r="E105" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E105" s="7" t="n">
         <v>23664</v>
       </c>
       <c r="F105" t="n">
@@ -6095,16 +6310,16 @@
         <v>25632</v>
       </c>
       <c r="J105" t="n">
-        <v>1618</v>
-      </c>
-      <c r="K105" s="3" t="n">
-        <v>84.142</v>
+        <v>1443</v>
+      </c>
+      <c r="K105" s="8" t="n">
+        <v>75.016</v>
       </c>
       <c r="L105" t="n">
         <v>455</v>
       </c>
       <c r="M105" t="n">
-        <v>13.87</v>
+        <v>12.37</v>
       </c>
       <c r="N105" t="n">
         <v>7</v>
@@ -6112,18 +6327,18 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C106" t="n">
-        <v>62.42</v>
+        <v>56.06</v>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
-      </c>
-      <c r="E106" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E106" s="7" t="n">
         <v>26457.58</v>
       </c>
       <c r="F106" t="n">
@@ -6139,16 +6354,16 @@
         <v>37100</v>
       </c>
       <c r="J106" t="n">
-        <v>2316</v>
-      </c>
-      <c r="K106" s="3" t="n">
-        <v>120.425</v>
+        <v>2080</v>
+      </c>
+      <c r="K106" s="8" t="n">
+        <v>108.158</v>
       </c>
       <c r="L106" t="n">
         <v>509</v>
       </c>
       <c r="M106" t="n">
-        <v>12.27</v>
+        <v>11.02</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6156,18 +6371,18 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C107" t="n">
         <v>75.49</v>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
-      </c>
-      <c r="E107" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E107" s="7" t="n">
         <v>34400</v>
       </c>
       <c r="F107" t="n">
@@ -6185,7 +6400,7 @@
       <c r="J107" t="n">
         <v>246</v>
       </c>
-      <c r="K107" s="3" t="n">
+      <c r="K107" s="8" t="n">
         <v>12.789</v>
       </c>
       <c r="L107" t="n">
@@ -6195,23 +6410,23 @@
         <v>11.41</v>
       </c>
       <c r="N107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B108" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="C108" t="n">
-        <v>92.52</v>
+        <v>87.9</v>
       </c>
       <c r="D108" t="n">
         <v>10</v>
       </c>
-      <c r="E108" s="2" t="n">
+      <c r="E108" s="7" t="n">
         <v>22953.33</v>
       </c>
       <c r="F108" t="n">
@@ -6227,16 +6442,16 @@
         <v>38440</v>
       </c>
       <c r="J108" t="n">
-        <v>3556</v>
-      </c>
-      <c r="K108" s="3" t="n">
-        <v>184.931</v>
+        <v>3379</v>
+      </c>
+      <c r="K108" s="8" t="n">
+        <v>175.692</v>
       </c>
       <c r="L108" t="n">
         <v>441</v>
       </c>
       <c r="M108" t="n">
-        <v>20.96</v>
+        <v>19.91</v>
       </c>
       <c r="N108" t="n">
         <v>10</v>
@@ -6244,18 +6459,18 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B109" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="C109" t="n">
-        <v>73.78</v>
+        <v>72.03</v>
       </c>
       <c r="D109" t="n">
-        <v>8</v>
-      </c>
-      <c r="E109" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E109" s="7" t="n">
         <v>20923.68</v>
       </c>
       <c r="F109" t="n">
@@ -6271,16 +6486,16 @@
         <v>37750</v>
       </c>
       <c r="J109" t="n">
-        <v>2785</v>
-      </c>
-      <c r="K109" s="3" t="n">
-        <v>144.828</v>
+        <v>2719</v>
+      </c>
+      <c r="K109" s="8" t="n">
+        <v>141.401</v>
       </c>
       <c r="L109" t="n">
         <v>402</v>
       </c>
       <c r="M109" t="n">
-        <v>18.34</v>
+        <v>17.9</v>
       </c>
       <c r="N109" t="n">
         <v>10</v>
@@ -6288,18 +6503,18 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B110" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="C110" t="n">
-        <v>83.91</v>
+        <v>80.34</v>
       </c>
       <c r="D110" t="n">
         <v>10</v>
       </c>
-      <c r="E110" s="2" t="n">
+      <c r="E110" s="7" t="n">
         <v>25771.05</v>
       </c>
       <c r="F110" t="n">
@@ -6315,16 +6530,16 @@
         <v>21157</v>
       </c>
       <c r="J110" t="n">
-        <v>1775</v>
-      </c>
-      <c r="K110" s="3" t="n">
-        <v>92.315</v>
+        <v>1700</v>
+      </c>
+      <c r="K110" s="8" t="n">
+        <v>88.382</v>
       </c>
       <c r="L110" t="n">
         <v>496</v>
       </c>
       <c r="M110" t="n">
-        <v>16.93</v>
+        <v>16.21</v>
       </c>
       <c r="N110" t="n">
         <v>9</v>
@@ -6332,18 +6547,18 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="C111" t="n">
-        <v>64.04</v>
+        <v>53.77</v>
       </c>
       <c r="D111" t="n">
-        <v>4</v>
-      </c>
-      <c r="E111" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" s="7" t="n">
         <v>27158.57</v>
       </c>
       <c r="F111" t="n">
@@ -6359,35 +6574,35 @@
         <v>64968</v>
       </c>
       <c r="J111" t="n">
-        <v>4161</v>
-      </c>
-      <c r="K111" s="3" t="n">
-        <v>216.358</v>
+        <v>3493</v>
+      </c>
+      <c r="K111" s="8" t="n">
+        <v>181.637</v>
       </c>
       <c r="L111" t="n">
         <v>522</v>
       </c>
       <c r="M111" t="n">
-        <v>12.26</v>
+        <v>10.29</v>
       </c>
       <c r="N111" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B112" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="C112" t="n">
-        <v>81.94</v>
+        <v>65.74</v>
       </c>
       <c r="D112" t="n">
-        <v>9</v>
-      </c>
-      <c r="E112" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E112" s="7" t="n">
         <v>27856.41</v>
       </c>
       <c r="F112" t="n">
@@ -6403,35 +6618,35 @@
         <v>36082</v>
       </c>
       <c r="J112" t="n">
-        <v>2957</v>
-      </c>
-      <c r="K112" s="3" t="n">
-        <v>153.744</v>
+        <v>2372</v>
+      </c>
+      <c r="K112" s="8" t="n">
+        <v>123.342</v>
       </c>
       <c r="L112" t="n">
         <v>536</v>
       </c>
       <c r="M112" t="n">
-        <v>15.3</v>
+        <v>12.27</v>
       </c>
       <c r="N112" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B113" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="C113" t="n">
-        <v>63.77</v>
+        <v>59.59</v>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
-      </c>
-      <c r="E113" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E113" s="7" t="n">
         <v>25914.29</v>
       </c>
       <c r="F113" t="n">
@@ -6447,16 +6662,16 @@
         <v>17192</v>
       </c>
       <c r="J113" t="n">
-        <v>1096</v>
-      </c>
-      <c r="K113" s="3" t="n">
-        <v>57.012</v>
+        <v>1025</v>
+      </c>
+      <c r="K113" s="8" t="n">
+        <v>53.275</v>
       </c>
       <c r="L113" t="n">
         <v>498</v>
       </c>
       <c r="M113" t="n">
-        <v>12.8</v>
+        <v>11.96</v>
       </c>
       <c r="N113" t="n">
         <v>6</v>
@@ -6464,18 +6679,18 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B114" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C114" t="n">
-        <v>86.02</v>
+        <v>78.68</v>
       </c>
       <c r="D114" t="n">
         <v>10</v>
       </c>
-      <c r="E114" s="2" t="n">
+      <c r="E114" s="7" t="n">
         <v>29434.48</v>
       </c>
       <c r="F114" t="n">
@@ -6491,16 +6706,16 @@
         <v>21225</v>
       </c>
       <c r="J114" t="n">
-        <v>1826</v>
-      </c>
-      <c r="K114" s="3" t="n">
-        <v>94.943</v>
+        <v>1670</v>
+      </c>
+      <c r="K114" s="8" t="n">
+        <v>86.837</v>
       </c>
       <c r="L114" t="n">
         <v>566</v>
       </c>
       <c r="M114" t="n">
-        <v>15.2</v>
+        <v>13.9</v>
       </c>
       <c r="N114" t="n">
         <v>8</v>
@@ -6508,18 +6723,18 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B115" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C115" t="n">
-        <v>55.65</v>
+        <v>50.24</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="E115" s="7" t="n">
         <v>27074.5</v>
       </c>
       <c r="F115" t="n">
@@ -6535,16 +6750,16 @@
         <v>64912</v>
       </c>
       <c r="J115" t="n">
-        <v>3612</v>
-      </c>
-      <c r="K115" s="3" t="n">
-        <v>187.828</v>
+        <v>3261</v>
+      </c>
+      <c r="K115" s="8" t="n">
+        <v>169.575</v>
       </c>
       <c r="L115" t="n">
         <v>521</v>
       </c>
       <c r="M115" t="n">
-        <v>10.69</v>
+        <v>9.65</v>
       </c>
       <c r="N115" t="n">
         <v>3</v>
@@ -6552,18 +6767,18 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B116" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="C116" t="n">
-        <v>60.42</v>
+        <v>58.63</v>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
-      </c>
-      <c r="E116" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E116" s="7" t="n">
         <v>30287.5</v>
       </c>
       <c r="F116" t="n">
@@ -6579,35 +6794,35 @@
         <v>25299</v>
       </c>
       <c r="J116" t="n">
-        <v>1529</v>
-      </c>
-      <c r="K116" s="3" t="n">
-        <v>79.485</v>
+        <v>1483</v>
+      </c>
+      <c r="K116" s="8" t="n">
+        <v>77.124</v>
       </c>
       <c r="L116" t="n">
         <v>582</v>
       </c>
       <c r="M116" t="n">
-        <v>10.37</v>
+        <v>10.07</v>
       </c>
       <c r="N116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B117" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="C117" t="n">
-        <v>64.54</v>
+        <v>54.74</v>
       </c>
       <c r="D117" t="n">
-        <v>5</v>
-      </c>
-      <c r="E117" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E117" s="7" t="n">
         <v>24521.74</v>
       </c>
       <c r="F117" t="n">
@@ -6623,35 +6838,35 @@
         <v>19723</v>
       </c>
       <c r="J117" t="n">
-        <v>1273</v>
-      </c>
-      <c r="K117" s="3" t="n">
-        <v>66.195</v>
+        <v>1080</v>
+      </c>
+      <c r="K117" s="8" t="n">
+        <v>56.137</v>
       </c>
       <c r="L117" t="n">
         <v>472</v>
       </c>
       <c r="M117" t="n">
-        <v>13.69</v>
+        <v>11.61</v>
       </c>
       <c r="N117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B118" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C118" t="n">
-        <v>58.03</v>
+        <v>54.97</v>
       </c>
       <c r="D118" t="n">
         <v>3</v>
       </c>
-      <c r="E118" s="2" t="n">
+      <c r="E118" s="7" t="n">
         <v>27565.62</v>
       </c>
       <c r="F118" t="n">
@@ -6667,35 +6882,35 @@
         <v>33803</v>
       </c>
       <c r="J118" t="n">
-        <v>1962</v>
-      </c>
-      <c r="K118" s="3" t="n">
-        <v>102.002</v>
+        <v>1858</v>
+      </c>
+      <c r="K118" s="8" t="n">
+        <v>96.625</v>
       </c>
       <c r="L118" t="n">
         <v>530</v>
       </c>
       <c r="M118" t="n">
-        <v>10.95</v>
+        <v>10.37</v>
       </c>
       <c r="N118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C119" t="n">
-        <v>71.83</v>
+        <v>68.74</v>
       </c>
       <c r="D119" t="n">
-        <v>7</v>
-      </c>
-      <c r="E119" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" s="7" t="n">
         <v>28000</v>
       </c>
       <c r="F119" t="n">
@@ -6711,16 +6926,16 @@
         <v>18976</v>
       </c>
       <c r="J119" t="n">
-        <v>1363</v>
-      </c>
-      <c r="K119" s="3" t="n">
-        <v>70.882</v>
+        <v>1304</v>
+      </c>
+      <c r="K119" s="8" t="n">
+        <v>67.828</v>
       </c>
       <c r="L119" t="n">
         <v>538</v>
       </c>
       <c r="M119" t="n">
-        <v>13.34</v>
+        <v>12.77</v>
       </c>
       <c r="N119" t="n">
         <v>7</v>
@@ -6728,18 +6943,18 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B120" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="C120" t="n">
-        <v>54.33</v>
+        <v>47.69</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
-      </c>
-      <c r="E120" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="7" t="n">
         <v>30700</v>
       </c>
       <c r="F120" t="n">
@@ -6755,16 +6970,16 @@
         <v>39445</v>
       </c>
       <c r="J120" t="n">
-        <v>2143</v>
-      </c>
-      <c r="K120" s="3" t="n">
-        <v>111.441</v>
+        <v>1881</v>
+      </c>
+      <c r="K120" s="8" t="n">
+        <v>97.812</v>
       </c>
       <c r="L120" t="n">
         <v>590</v>
       </c>
       <c r="M120" t="n">
-        <v>9.2</v>
+        <v>8.08</v>
       </c>
       <c r="N120" t="n">
         <v>1</v>
@@ -6772,18 +6987,18 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B121" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C121" t="n">
-        <v>79.73</v>
+        <v>75.68</v>
       </c>
       <c r="D121" t="n">
         <v>9</v>
       </c>
-      <c r="E121" s="2" t="n">
+      <c r="E121" s="7" t="n">
         <v>25352.17</v>
       </c>
       <c r="F121" t="n">
@@ -6799,16 +7014,16 @@
         <v>18748</v>
       </c>
       <c r="J121" t="n">
-        <v>1495</v>
-      </c>
-      <c r="K121" s="3" t="n">
-        <v>77.733</v>
+        <v>1419</v>
+      </c>
+      <c r="K121" s="8" t="n">
+        <v>73.778</v>
       </c>
       <c r="L121" t="n">
         <v>488</v>
       </c>
       <c r="M121" t="n">
-        <v>16.35</v>
+        <v>15.52</v>
       </c>
       <c r="N121" t="n">
         <v>9</v>
@@ -6816,18 +7031,18 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B122" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C122" t="n">
-        <v>63.62</v>
+        <v>56.38</v>
       </c>
       <c r="D122" t="n">
         <v>4</v>
       </c>
-      <c r="E122" s="2" t="n">
+      <c r="E122" s="7" t="n">
         <v>28082.17</v>
       </c>
       <c r="F122" t="n">
@@ -6843,16 +7058,16 @@
         <v>98437</v>
       </c>
       <c r="J122" t="n">
-        <v>6262</v>
-      </c>
-      <c r="K122" s="3" t="n">
-        <v>325.64</v>
+        <v>5550</v>
+      </c>
+      <c r="K122" s="8" t="n">
+        <v>288.591</v>
       </c>
       <c r="L122" t="n">
         <v>540</v>
       </c>
       <c r="M122" t="n">
-        <v>11.78</v>
+        <v>10.44</v>
       </c>
       <c r="N122" t="n">
         <v>4</v>
@@ -6860,18 +7075,18 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B123" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="C123" t="n">
-        <v>102.62</v>
+        <v>88.7</v>
       </c>
       <c r="D123" t="n">
         <v>10</v>
       </c>
-      <c r="E123" s="2" t="n">
+      <c r="E123" s="7" t="n">
         <v>28107.14</v>
       </c>
       <c r="F123" t="n">
@@ -6887,16 +7102,16 @@
         <v>30789</v>
       </c>
       <c r="J123" t="n">
-        <v>3160</v>
-      </c>
-      <c r="K123" s="3" t="n">
-        <v>164.3</v>
+        <v>2731</v>
+      </c>
+      <c r="K123" s="8" t="n">
+        <v>142.005</v>
       </c>
       <c r="L123" t="n">
         <v>541</v>
       </c>
       <c r="M123" t="n">
-        <v>18.99</v>
+        <v>16.41</v>
       </c>
       <c r="N123" t="n">
         <v>10</v>
@@ -6904,18 +7119,18 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B124" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="C124" t="n">
-        <v>79.14</v>
+        <v>73.66</v>
       </c>
       <c r="D124" t="n">
         <v>9</v>
       </c>
-      <c r="E124" s="2" t="n">
+      <c r="E124" s="7" t="n">
         <v>25450</v>
       </c>
       <c r="F124" t="n">
@@ -6931,35 +7146,35 @@
         <v>20294</v>
       </c>
       <c r="J124" t="n">
-        <v>1606</v>
-      </c>
-      <c r="K124" s="3" t="n">
-        <v>83.515</v>
+        <v>1495</v>
+      </c>
+      <c r="K124" s="8" t="n">
+        <v>77.73</v>
       </c>
       <c r="L124" t="n">
         <v>489</v>
       </c>
       <c r="M124" t="n">
-        <v>16.17</v>
+        <v>15.05</v>
       </c>
       <c r="N124" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B125" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="C125" t="n">
-        <v>64.17</v>
+        <v>61.01</v>
       </c>
       <c r="D125" t="n">
         <v>5</v>
       </c>
-      <c r="E125" s="2" t="n">
+      <c r="E125" s="7" t="n">
         <v>23550</v>
       </c>
       <c r="F125" t="n">
@@ -6975,16 +7190,16 @@
         <v>36216</v>
       </c>
       <c r="J125" t="n">
-        <v>2324</v>
-      </c>
-      <c r="K125" s="3" t="n">
-        <v>120.844</v>
+        <v>2209</v>
+      </c>
+      <c r="K125" s="8" t="n">
+        <v>114.894</v>
       </c>
       <c r="L125" t="n">
         <v>453</v>
       </c>
       <c r="M125" t="n">
-        <v>14.17</v>
+        <v>13.47</v>
       </c>
       <c r="N125" t="n">
         <v>8</v>
@@ -6992,18 +7207,18 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B126" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C126" t="n">
-        <v>63.94</v>
+        <v>61.49</v>
       </c>
       <c r="D126" t="n">
-        <v>4</v>
-      </c>
-      <c r="E126" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E126" s="7" t="n">
         <v>29087.56</v>
       </c>
       <c r="F126" t="n">
@@ -7019,35 +7234,35 @@
         <v>97749</v>
       </c>
       <c r="J126" t="n">
-        <v>6250</v>
-      </c>
-      <c r="K126" s="3" t="n">
-        <v>325.023</v>
+        <v>6011</v>
+      </c>
+      <c r="K126" s="8" t="n">
+        <v>312.565</v>
       </c>
       <c r="L126" t="n">
         <v>559</v>
       </c>
       <c r="M126" t="n">
-        <v>11.43</v>
+        <v>10.99</v>
       </c>
       <c r="N126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B127" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="C127" t="n">
-        <v>74.93</v>
+        <v>72</v>
       </c>
       <c r="D127" t="n">
         <v>8</v>
       </c>
-      <c r="E127" s="2" t="n">
+      <c r="E127" s="7" t="n">
         <v>24250</v>
       </c>
       <c r="F127" t="n">
@@ -7063,16 +7278,16 @@
         <v>35699</v>
       </c>
       <c r="J127" t="n">
-        <v>2675</v>
-      </c>
-      <c r="K127" s="3" t="n">
-        <v>139.098</v>
+        <v>2570</v>
+      </c>
+      <c r="K127" s="8" t="n">
+        <v>133.658</v>
       </c>
       <c r="L127" t="n">
         <v>466</v>
       </c>
       <c r="M127" t="n">
-        <v>16.07</v>
+        <v>15.44</v>
       </c>
       <c r="N127" t="n">
         <v>9</v>
@@ -7080,18 +7295,18 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B128" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C128" t="n">
-        <v>81.23</v>
+        <v>73.88</v>
       </c>
       <c r="D128" t="n">
         <v>9</v>
       </c>
-      <c r="E128" s="2" t="n">
+      <c r="E128" s="7" t="n">
         <v>34224.48</v>
       </c>
       <c r="F128" t="n">
@@ -7107,16 +7322,16 @@
         <v>93710</v>
       </c>
       <c r="J128" t="n">
-        <v>7612</v>
-      </c>
-      <c r="K128" s="3" t="n">
-        <v>395.832</v>
+        <v>6924</v>
+      </c>
+      <c r="K128" s="8" t="n">
+        <v>360.031</v>
       </c>
       <c r="L128" t="n">
         <v>658</v>
       </c>
       <c r="M128" t="n">
-        <v>12.34</v>
+        <v>11.23</v>
       </c>
       <c r="N128" t="n">
         <v>5</v>
@@ -7124,18 +7339,18 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B129" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="C129" t="n">
-        <v>82.68</v>
+        <v>74.85</v>
       </c>
       <c r="D129" t="n">
         <v>9</v>
       </c>
-      <c r="E129" s="2" t="n">
+      <c r="E129" s="7" t="n">
         <v>35245.83</v>
       </c>
       <c r="F129" t="n">
@@ -7151,16 +7366,16 @@
         <v>24988</v>
       </c>
       <c r="J129" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K129" s="3" t="n">
-        <v>107.427</v>
+        <v>1870</v>
+      </c>
+      <c r="K129" s="8" t="n">
+        <v>97.263</v>
       </c>
       <c r="L129" t="n">
         <v>678</v>
       </c>
       <c r="M129" t="n">
-        <v>12.2</v>
+        <v>11.04</v>
       </c>
       <c r="N129" t="n">
         <v>5</v>
@@ -7168,18 +7383,18 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="B130" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="C130" t="n">
-        <v>68.63</v>
+        <v>66.98</v>
       </c>
       <c r="D130" t="n">
-        <v>6</v>
-      </c>
-      <c r="E130" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E130" s="7" t="n">
         <v>27385.19</v>
       </c>
       <c r="F130" t="n">
@@ -7195,35 +7410,35 @@
         <v>22505</v>
       </c>
       <c r="J130" t="n">
-        <v>1545</v>
-      </c>
-      <c r="K130" s="3" t="n">
-        <v>80.321</v>
+        <v>1507</v>
+      </c>
+      <c r="K130" s="8" t="n">
+        <v>78.382</v>
       </c>
       <c r="L130" t="n">
         <v>527</v>
       </c>
       <c r="M130" t="n">
-        <v>13.03</v>
+        <v>12.72</v>
       </c>
       <c r="N130" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B131" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C131" t="n">
-        <v>76.07</v>
+        <v>70.96</v>
       </c>
       <c r="D131" t="n">
         <v>8</v>
       </c>
-      <c r="E131" s="2" t="n">
+      <c r="E131" s="7" t="n">
         <v>23670</v>
       </c>
       <c r="F131" t="n">
@@ -7239,16 +7454,16 @@
         <v>31913</v>
       </c>
       <c r="J131" t="n">
-        <v>2428</v>
-      </c>
-      <c r="K131" s="3" t="n">
-        <v>126.231</v>
+        <v>2264</v>
+      </c>
+      <c r="K131" s="8" t="n">
+        <v>117.75</v>
       </c>
       <c r="L131" t="n">
         <v>455</v>
       </c>
       <c r="M131" t="n">
-        <v>16.71</v>
+        <v>15.59</v>
       </c>
       <c r="N131" t="n">
         <v>9</v>
@@ -7256,18 +7471,18 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B132" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C132" t="n">
-        <v>68.77</v>
+        <v>61.62</v>
       </c>
       <c r="D132" t="n">
         <v>6</v>
       </c>
-      <c r="E132" s="2" t="n">
+      <c r="E132" s="7" t="n">
         <v>26547.83</v>
       </c>
       <c r="F132" t="n">
@@ -7283,35 +7498,35 @@
         <v>21344</v>
       </c>
       <c r="J132" t="n">
-        <v>1468</v>
-      </c>
-      <c r="K132" s="3" t="n">
-        <v>76.329</v>
+        <v>1315</v>
+      </c>
+      <c r="K132" s="8" t="n">
+        <v>68.396</v>
       </c>
       <c r="L132" t="n">
         <v>511</v>
       </c>
       <c r="M132" t="n">
-        <v>13.47</v>
+        <v>12.07</v>
       </c>
       <c r="N132" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B133" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C133" t="n">
-        <v>86.86</v>
+        <v>81.12</v>
       </c>
       <c r="D133" t="n">
         <v>10</v>
       </c>
-      <c r="E133" s="2" t="n">
+      <c r="E133" s="7" t="n">
         <v>27936.84</v>
       </c>
       <c r="F133" t="n">
@@ -7327,16 +7542,16 @@
         <v>22753</v>
       </c>
       <c r="J133" t="n">
-        <v>1976</v>
-      </c>
-      <c r="K133" s="3" t="n">
-        <v>102.764</v>
+        <v>1846</v>
+      </c>
+      <c r="K133" s="8" t="n">
+        <v>95.976</v>
       </c>
       <c r="L133" t="n">
         <v>537</v>
       </c>
       <c r="M133" t="n">
-        <v>16.17</v>
+        <v>15.1</v>
       </c>
       <c r="N133" t="n">
         <v>9</v>
@@ -7344,18 +7559,18 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B134" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="C134" t="n">
         <v>57.43</v>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
-      </c>
-      <c r="E134" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E134" s="7" t="n">
         <v>22947.06</v>
       </c>
       <c r="F134" t="n">
@@ -7373,7 +7588,7 @@
       <c r="J134" t="n">
         <v>953</v>
       </c>
-      <c r="K134" s="3" t="n">
+      <c r="K134" s="8" t="n">
         <v>49.547</v>
       </c>
       <c r="L134" t="n">
@@ -7383,23 +7598,23 @@
         <v>13.01</v>
       </c>
       <c r="N134" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B135" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C135" t="n">
-        <v>64.06</v>
+        <v>57.45</v>
       </c>
       <c r="D135" t="n">
-        <v>5</v>
-      </c>
-      <c r="E135" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E135" s="7" t="n">
         <v>28475</v>
       </c>
       <c r="F135" t="n">
@@ -7415,16 +7630,16 @@
         <v>38117</v>
       </c>
       <c r="J135" t="n">
-        <v>2442</v>
-      </c>
-      <c r="K135" s="3" t="n">
-        <v>126.964</v>
+        <v>2190</v>
+      </c>
+      <c r="K135" s="8" t="n">
+        <v>113.863</v>
       </c>
       <c r="L135" t="n">
         <v>548</v>
       </c>
       <c r="M135" t="n">
-        <v>11.7</v>
+        <v>10.49</v>
       </c>
       <c r="N135" t="n">
         <v>4</v>
@@ -7432,18 +7647,18 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B136" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C136" t="n">
         <v>65.94</v>
       </c>
       <c r="D136" t="n">
-        <v>5</v>
-      </c>
-      <c r="E136" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" s="7" t="n">
         <v>27867.86</v>
       </c>
       <c r="F136" t="n">
@@ -7461,7 +7676,7 @@
       <c r="J136" t="n">
         <v>1091</v>
       </c>
-      <c r="K136" s="3" t="n">
+      <c r="K136" s="8" t="n">
         <v>56.738</v>
       </c>
       <c r="L136" t="n">
@@ -7471,23 +7686,23 @@
         <v>12.3</v>
       </c>
       <c r="N136" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B137" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="C137" t="n">
-        <v>56.4</v>
+        <v>54.46</v>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
-      </c>
-      <c r="E137" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E137" s="7" t="n">
         <v>26402.22</v>
       </c>
       <c r="F137" t="n">
@@ -7503,16 +7718,16 @@
         <v>45778</v>
       </c>
       <c r="J137" t="n">
-        <v>2582</v>
-      </c>
-      <c r="K137" s="3" t="n">
-        <v>134.249</v>
+        <v>2493</v>
+      </c>
+      <c r="K137" s="8" t="n">
+        <v>129.645</v>
       </c>
       <c r="L137" t="n">
         <v>508</v>
       </c>
       <c r="M137" t="n">
-        <v>11.11</v>
+        <v>10.73</v>
       </c>
       <c r="N137" t="n">
         <v>4</v>
@@ -7520,18 +7735,18 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="C138" t="n">
-        <v>57.93</v>
+        <v>48.11</v>
       </c>
       <c r="D138" t="n">
-        <v>3</v>
-      </c>
-      <c r="E138" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" s="7" t="n">
         <v>23005.13</v>
       </c>
       <c r="F138" t="n">
@@ -7547,35 +7762,35 @@
         <v>32551</v>
       </c>
       <c r="J138" t="n">
-        <v>1886</v>
-      </c>
-      <c r="K138" s="3" t="n">
-        <v>98.055</v>
+        <v>1566</v>
+      </c>
+      <c r="K138" s="8" t="n">
+        <v>81.44</v>
       </c>
       <c r="L138" t="n">
         <v>442</v>
       </c>
       <c r="M138" t="n">
-        <v>13.09</v>
+        <v>10.88</v>
       </c>
       <c r="N138" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B139" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="C139" t="n">
-        <v>64.81</v>
+        <v>58.36</v>
       </c>
       <c r="D139" t="n">
-        <v>5</v>
-      </c>
-      <c r="E139" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E139" s="7" t="n">
         <v>29785.71</v>
       </c>
       <c r="F139" t="n">
@@ -7591,35 +7806,35 @@
         <v>33953</v>
       </c>
       <c r="J139" t="n">
-        <v>2200</v>
-      </c>
-      <c r="K139" s="3" t="n">
-        <v>114.42</v>
+        <v>1982</v>
+      </c>
+      <c r="K139" s="8" t="n">
+        <v>103.044</v>
       </c>
       <c r="L139" t="n">
         <v>573</v>
       </c>
       <c r="M139" t="n">
-        <v>11.31</v>
+        <v>10.19</v>
       </c>
       <c r="N139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B140" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="C140" t="n">
-        <v>62.75</v>
+        <v>47.74</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
-      </c>
-      <c r="E140" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" s="7" t="n">
         <v>35881.08</v>
       </c>
       <c r="F140" t="n">
@@ -7635,16 +7850,16 @@
         <v>35713</v>
       </c>
       <c r="J140" t="n">
-        <v>2241</v>
-      </c>
-      <c r="K140" s="3" t="n">
-        <v>116.537</v>
+        <v>1705</v>
+      </c>
+      <c r="K140" s="8" t="n">
+        <v>88.66</v>
       </c>
       <c r="L140" t="n">
         <v>690</v>
       </c>
       <c r="M140" t="n">
-        <v>9.09</v>
+        <v>6.92</v>
       </c>
       <c r="N140" t="n">
         <v>1</v>
@@ -7652,14 +7867,14 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B141" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
-      <c r="E141" s="2" t="n">
+      <c r="E141" s="7" t="n">
         <v>28268</v>
       </c>
       <c r="F141" t="n">
@@ -7675,7 +7890,7 @@
         <v>18634</v>
       </c>
       <c r="J141"/>
-      <c r="K141" s="3"/>
+      <c r="K141" s="8"/>
       <c r="L141" t="n">
         <v>544</v>
       </c>
@@ -7684,18 +7899,18 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B142" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C142" t="n">
-        <v>69.6</v>
+        <v>67.68</v>
       </c>
       <c r="D142" t="n">
-        <v>7</v>
-      </c>
-      <c r="E142" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E142" s="7" t="n">
         <v>28910.92</v>
       </c>
       <c r="F142" t="n">
@@ -7711,16 +7926,16 @@
         <v>61149</v>
       </c>
       <c r="J142" t="n">
-        <v>4256</v>
-      </c>
-      <c r="K142" s="3" t="n">
-        <v>221.326</v>
+        <v>4138</v>
+      </c>
+      <c r="K142" s="8" t="n">
+        <v>215.193</v>
       </c>
       <c r="L142" t="n">
         <v>556</v>
       </c>
       <c r="M142" t="n">
-        <v>12.52</v>
+        <v>12.17</v>
       </c>
       <c r="N142" t="n">
         <v>6</v>
@@ -7728,18 +7943,18 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B143" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="C143" t="n">
         <v>51.47</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
-      </c>
-      <c r="E143" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E143" s="7" t="n">
         <v>34086.36</v>
       </c>
       <c r="F143" t="n">
@@ -7757,7 +7972,7 @@
       <c r="J143" t="n">
         <v>654</v>
       </c>
-      <c r="K143" s="3" t="n">
+      <c r="K143" s="8" t="n">
         <v>34.024</v>
       </c>
       <c r="L143" t="n">
@@ -7772,18 +7987,18 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B144" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="C144" t="n">
-        <v>60.48</v>
+        <v>55.29</v>
       </c>
       <c r="D144" t="n">
         <v>3</v>
       </c>
-      <c r="E144" s="2" t="n">
+      <c r="E144" s="7" t="n">
         <v>30881.63</v>
       </c>
       <c r="F144" t="n">
@@ -7799,16 +8014,16 @@
         <v>69067</v>
       </c>
       <c r="J144" t="n">
-        <v>4177</v>
-      </c>
-      <c r="K144" s="3" t="n">
-        <v>217.214</v>
+        <v>3819</v>
+      </c>
+      <c r="K144" s="8" t="n">
+        <v>198.571</v>
       </c>
       <c r="L144" t="n">
         <v>594</v>
       </c>
       <c r="M144" t="n">
-        <v>10.18</v>
+        <v>9.31</v>
       </c>
       <c r="N144" t="n">
         <v>2</v>
@@ -7816,18 +8031,18 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B145" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="C145" t="n">
-        <v>63.27</v>
+        <v>56.3</v>
       </c>
       <c r="D145" t="n">
         <v>4</v>
       </c>
-      <c r="E145" s="2" t="n">
+      <c r="E145" s="7" t="n">
         <v>33279.17</v>
       </c>
       <c r="F145" t="n">
@@ -7843,16 +8058,16 @@
         <v>22254</v>
       </c>
       <c r="J145" t="n">
-        <v>1408</v>
-      </c>
-      <c r="K145" s="3" t="n">
-        <v>73.217</v>
+        <v>1253</v>
+      </c>
+      <c r="K145" s="8" t="n">
+        <v>65.152</v>
       </c>
       <c r="L145" t="n">
         <v>640</v>
       </c>
       <c r="M145" t="n">
-        <v>9.89</v>
+        <v>8.8</v>
       </c>
       <c r="N145" t="n">
         <v>2</v>
@@ -7860,18 +8075,18 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B146" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="C146" t="n">
-        <v>82.82</v>
+        <v>80.23</v>
       </c>
       <c r="D146" t="n">
         <v>10</v>
       </c>
-      <c r="E146" s="2" t="n">
+      <c r="E146" s="7" t="n">
         <v>25187.5</v>
       </c>
       <c r="F146" t="n">
@@ -7887,35 +8102,35 @@
         <v>44173</v>
       </c>
       <c r="J146" t="n">
-        <v>3659</v>
-      </c>
-      <c r="K146" s="3" t="n">
-        <v>190.245</v>
+        <v>3544</v>
+      </c>
+      <c r="K146" s="8" t="n">
+        <v>184.295</v>
       </c>
       <c r="L146" t="n">
         <v>484</v>
       </c>
       <c r="M146" t="n">
-        <v>17.1</v>
+        <v>16.56</v>
       </c>
       <c r="N146" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B147" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="C147" t="n">
-        <v>70.13</v>
+        <v>64.85</v>
       </c>
       <c r="D147" t="n">
-        <v>7</v>
-      </c>
-      <c r="E147" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E147" s="7" t="n">
         <v>29887.1</v>
       </c>
       <c r="F147" t="n">
@@ -7931,16 +8146,16 @@
         <v>57527</v>
       </c>
       <c r="J147" t="n">
-        <v>4035</v>
-      </c>
-      <c r="K147" s="3" t="n">
-        <v>209.802</v>
+        <v>3731</v>
+      </c>
+      <c r="K147" s="8" t="n">
+        <v>193.994</v>
       </c>
       <c r="L147" t="n">
         <v>575</v>
       </c>
       <c r="M147" t="n">
-        <v>12.2</v>
+        <v>11.28</v>
       </c>
       <c r="N147" t="n">
         <v>5</v>
@@ -7948,18 +8163,18 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B148" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="C148" t="n">
         <v>53.53</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
-      </c>
-      <c r="E148" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E148" s="7" t="n">
         <v>33372.22</v>
       </c>
       <c r="F148" t="n">
@@ -7977,7 +8192,7 @@
       <c r="J148" t="n">
         <v>613</v>
       </c>
-      <c r="K148" s="3" t="n">
+      <c r="K148" s="8" t="n">
         <v>31.858</v>
       </c>
       <c r="L148" t="n">
@@ -7992,18 +8207,18 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="B149" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C149" t="n">
-        <v>73.14</v>
+        <v>66.15</v>
       </c>
       <c r="D149" t="n">
         <v>7</v>
       </c>
-      <c r="E149" s="2" t="n">
+      <c r="E149" s="7" t="n">
         <v>26150</v>
       </c>
       <c r="F149" t="n">
@@ -8019,16 +8234,16 @@
         <v>27545</v>
       </c>
       <c r="J149" t="n">
-        <v>2015</v>
-      </c>
-      <c r="K149" s="3" t="n">
-        <v>104.755</v>
+        <v>1822</v>
+      </c>
+      <c r="K149" s="8" t="n">
+        <v>94.755</v>
       </c>
       <c r="L149" t="n">
         <v>503</v>
       </c>
       <c r="M149" t="n">
-        <v>14.54</v>
+        <v>13.15</v>
       </c>
       <c r="N149" t="n">
         <v>8</v>
@@ -8036,10 +8251,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B150" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C150" t="n">
         <v>132.04</v>
@@ -8047,7 +8262,7 @@
       <c r="D150" t="n">
         <v>10</v>
       </c>
-      <c r="E150" s="2" t="n">
+      <c r="E150" s="7" t="n">
         <v>35985</v>
       </c>
       <c r="F150" t="n">
@@ -8065,7 +8280,7 @@
       <c r="J150" t="n">
         <v>1452</v>
       </c>
-      <c r="K150" s="3" t="n">
+      <c r="K150" s="8" t="n">
         <v>75.514</v>
       </c>
       <c r="L150" t="n">
@@ -8080,18 +8295,18 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="B151" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="C151" t="n">
-        <v>75.93</v>
+        <v>72.74</v>
       </c>
       <c r="D151" t="n">
-        <v>8</v>
-      </c>
-      <c r="E151" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E151" s="7" t="n">
         <v>22763.64</v>
       </c>
       <c r="F151" t="n">
@@ -8107,35 +8322,35 @@
         <v>30362</v>
       </c>
       <c r="J151" t="n">
-        <v>2305</v>
-      </c>
-      <c r="K151" s="3" t="n">
-        <v>119.881</v>
+        <v>2209</v>
+      </c>
+      <c r="K151" s="8" t="n">
+        <v>114.843</v>
       </c>
       <c r="L151" t="n">
         <v>438</v>
       </c>
       <c r="M151" t="n">
-        <v>17.35</v>
+        <v>16.62</v>
       </c>
       <c r="N151" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B152" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="C152" t="n">
-        <v>60.84</v>
+        <v>58.12</v>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
-      </c>
-      <c r="E152" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E152" s="7" t="n">
         <v>28328.42</v>
       </c>
       <c r="F152" t="n">
@@ -8151,16 +8366,16 @@
         <v>51570</v>
       </c>
       <c r="J152" t="n">
-        <v>3138</v>
-      </c>
-      <c r="K152" s="3" t="n">
-        <v>163.158</v>
+        <v>2997</v>
+      </c>
+      <c r="K152" s="8" t="n">
+        <v>155.868</v>
       </c>
       <c r="L152" t="n">
         <v>545</v>
       </c>
       <c r="M152" t="n">
-        <v>11.17</v>
+        <v>10.67</v>
       </c>
       <c r="N152" t="n">
         <v>4</v>
@@ -8168,18 +8383,18 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B153" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="C153" t="n">
         <v>68.63</v>
       </c>
       <c r="D153" t="n">
-        <v>6</v>
-      </c>
-      <c r="E153" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E153" s="7" t="n">
         <v>29625</v>
       </c>
       <c r="F153" t="n">
@@ -8197,7 +8412,7 @@
       <c r="J153" t="n">
         <v>1426</v>
       </c>
-      <c r="K153" s="3" t="n">
+      <c r="K153" s="8" t="n">
         <v>74.167</v>
       </c>
       <c r="L153" t="n">
@@ -8207,1020 +8422,1020 @@
         <v>12.05</v>
       </c>
       <c r="N153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154">
-      <c r="E154" s="2"/>
-      <c r="K154" s="3"/>
+      <c r="E154" s="7"/>
+      <c r="K154" s="8"/>
     </row>
     <row r="155">
-      <c r="E155" s="2"/>
-      <c r="K155" s="3"/>
+      <c r="E155" s="7"/>
+      <c r="K155" s="8"/>
     </row>
     <row r="156">
-      <c r="E156" s="2"/>
-      <c r="K156" s="3"/>
+      <c r="E156" s="7"/>
+      <c r="K156" s="8"/>
     </row>
     <row r="157">
-      <c r="E157" s="2"/>
-      <c r="K157" s="3"/>
+      <c r="E157" s="7"/>
+      <c r="K157" s="8"/>
     </row>
     <row r="158">
-      <c r="E158" s="2"/>
-      <c r="K158" s="3"/>
+      <c r="E158" s="7"/>
+      <c r="K158" s="8"/>
     </row>
     <row r="159">
-      <c r="E159" s="2"/>
-      <c r="K159" s="3"/>
+      <c r="E159" s="7"/>
+      <c r="K159" s="8"/>
     </row>
     <row r="160">
-      <c r="E160" s="2"/>
-      <c r="K160" s="3"/>
+      <c r="E160" s="7"/>
+      <c r="K160" s="8"/>
     </row>
     <row r="161">
-      <c r="E161" s="2"/>
-      <c r="K161" s="3"/>
+      <c r="E161" s="7"/>
+      <c r="K161" s="8"/>
     </row>
     <row r="162">
-      <c r="E162" s="2"/>
-      <c r="K162" s="3"/>
+      <c r="E162" s="7"/>
+      <c r="K162" s="8"/>
     </row>
     <row r="163">
-      <c r="E163" s="2"/>
-      <c r="K163" s="3"/>
+      <c r="E163" s="7"/>
+      <c r="K163" s="8"/>
     </row>
     <row r="164">
-      <c r="E164" s="2"/>
-      <c r="K164" s="3"/>
+      <c r="E164" s="7"/>
+      <c r="K164" s="8"/>
     </row>
     <row r="165">
-      <c r="E165" s="2"/>
-      <c r="K165" s="3"/>
+      <c r="E165" s="7"/>
+      <c r="K165" s="8"/>
     </row>
     <row r="166">
-      <c r="E166" s="2"/>
-      <c r="K166" s="3"/>
+      <c r="E166" s="7"/>
+      <c r="K166" s="8"/>
     </row>
     <row r="167">
-      <c r="E167" s="2"/>
-      <c r="K167" s="3"/>
+      <c r="E167" s="7"/>
+      <c r="K167" s="8"/>
     </row>
     <row r="168">
-      <c r="E168" s="2"/>
-      <c r="K168" s="3"/>
+      <c r="E168" s="7"/>
+      <c r="K168" s="8"/>
     </row>
     <row r="169">
-      <c r="E169" s="2"/>
-      <c r="K169" s="3"/>
+      <c r="E169" s="7"/>
+      <c r="K169" s="8"/>
     </row>
     <row r="170">
-      <c r="E170" s="2"/>
-      <c r="K170" s="3"/>
+      <c r="E170" s="7"/>
+      <c r="K170" s="8"/>
     </row>
     <row r="171">
-      <c r="E171" s="2"/>
-      <c r="K171" s="3"/>
+      <c r="E171" s="7"/>
+      <c r="K171" s="8"/>
     </row>
     <row r="172">
-      <c r="E172" s="2"/>
-      <c r="K172" s="3"/>
+      <c r="E172" s="7"/>
+      <c r="K172" s="8"/>
     </row>
     <row r="173">
-      <c r="E173" s="2"/>
-      <c r="K173" s="3"/>
+      <c r="E173" s="7"/>
+      <c r="K173" s="8"/>
     </row>
     <row r="174">
-      <c r="E174" s="2"/>
-      <c r="K174" s="3"/>
+      <c r="E174" s="7"/>
+      <c r="K174" s="8"/>
     </row>
     <row r="175">
-      <c r="E175" s="2"/>
-      <c r="K175" s="3"/>
+      <c r="E175" s="7"/>
+      <c r="K175" s="8"/>
     </row>
     <row r="176">
-      <c r="E176" s="2"/>
-      <c r="K176" s="3"/>
+      <c r="E176" s="7"/>
+      <c r="K176" s="8"/>
     </row>
     <row r="177">
-      <c r="E177" s="2"/>
-      <c r="K177" s="3"/>
+      <c r="E177" s="7"/>
+      <c r="K177" s="8"/>
     </row>
     <row r="178">
-      <c r="E178" s="2"/>
-      <c r="K178" s="3"/>
+      <c r="E178" s="7"/>
+      <c r="K178" s="8"/>
     </row>
     <row r="179">
-      <c r="E179" s="2"/>
-      <c r="K179" s="3"/>
+      <c r="E179" s="7"/>
+      <c r="K179" s="8"/>
     </row>
     <row r="180">
-      <c r="E180" s="2"/>
-      <c r="K180" s="3"/>
+      <c r="E180" s="7"/>
+      <c r="K180" s="8"/>
     </row>
     <row r="181">
-      <c r="E181" s="2"/>
-      <c r="K181" s="3"/>
+      <c r="E181" s="7"/>
+      <c r="K181" s="8"/>
     </row>
     <row r="182">
-      <c r="E182" s="2"/>
-      <c r="K182" s="3"/>
+      <c r="E182" s="7"/>
+      <c r="K182" s="8"/>
     </row>
     <row r="183">
-      <c r="E183" s="2"/>
-      <c r="K183" s="3"/>
+      <c r="E183" s="7"/>
+      <c r="K183" s="8"/>
     </row>
     <row r="184">
-      <c r="E184" s="2"/>
-      <c r="K184" s="3"/>
+      <c r="E184" s="7"/>
+      <c r="K184" s="8"/>
     </row>
     <row r="185">
-      <c r="E185" s="2"/>
-      <c r="K185" s="3"/>
+      <c r="E185" s="7"/>
+      <c r="K185" s="8"/>
     </row>
     <row r="186">
-      <c r="E186" s="2"/>
-      <c r="K186" s="3"/>
+      <c r="E186" s="7"/>
+      <c r="K186" s="8"/>
     </row>
     <row r="187">
-      <c r="E187" s="2"/>
-      <c r="K187" s="3"/>
+      <c r="E187" s="7"/>
+      <c r="K187" s="8"/>
     </row>
     <row r="188">
-      <c r="E188" s="2"/>
-      <c r="K188" s="3"/>
+      <c r="E188" s="7"/>
+      <c r="K188" s="8"/>
     </row>
     <row r="189">
-      <c r="E189" s="2"/>
-      <c r="K189" s="3"/>
+      <c r="E189" s="7"/>
+      <c r="K189" s="8"/>
     </row>
     <row r="190">
-      <c r="E190" s="2"/>
-      <c r="K190" s="3"/>
+      <c r="E190" s="7"/>
+      <c r="K190" s="8"/>
     </row>
     <row r="191">
-      <c r="E191" s="2"/>
-      <c r="K191" s="3"/>
+      <c r="E191" s="7"/>
+      <c r="K191" s="8"/>
     </row>
     <row r="192">
-      <c r="E192" s="2"/>
-      <c r="K192" s="3"/>
+      <c r="E192" s="7"/>
+      <c r="K192" s="8"/>
     </row>
     <row r="193">
-      <c r="E193" s="2"/>
-      <c r="K193" s="3"/>
+      <c r="E193" s="7"/>
+      <c r="K193" s="8"/>
     </row>
     <row r="194">
-      <c r="E194" s="2"/>
-      <c r="K194" s="3"/>
+      <c r="E194" s="7"/>
+      <c r="K194" s="8"/>
     </row>
     <row r="195">
-      <c r="E195" s="2"/>
-      <c r="K195" s="3"/>
+      <c r="E195" s="7"/>
+      <c r="K195" s="8"/>
     </row>
     <row r="196">
-      <c r="E196" s="2"/>
-      <c r="K196" s="3"/>
+      <c r="E196" s="7"/>
+      <c r="K196" s="8"/>
     </row>
     <row r="197">
-      <c r="E197" s="2"/>
-      <c r="K197" s="3"/>
+      <c r="E197" s="7"/>
+      <c r="K197" s="8"/>
     </row>
     <row r="198">
-      <c r="E198" s="2"/>
-      <c r="K198" s="3"/>
+      <c r="E198" s="7"/>
+      <c r="K198" s="8"/>
     </row>
     <row r="199">
-      <c r="E199" s="2"/>
-      <c r="K199" s="3"/>
+      <c r="E199" s="7"/>
+      <c r="K199" s="8"/>
     </row>
     <row r="200">
-      <c r="E200" s="2"/>
-      <c r="K200" s="3"/>
+      <c r="E200" s="7"/>
+      <c r="K200" s="8"/>
     </row>
     <row r="201">
-      <c r="E201" s="2"/>
-      <c r="K201" s="3"/>
+      <c r="E201" s="7"/>
+      <c r="K201" s="8"/>
     </row>
     <row r="202">
-      <c r="E202" s="2"/>
-      <c r="K202" s="3"/>
+      <c r="E202" s="7"/>
+      <c r="K202" s="8"/>
     </row>
     <row r="203">
-      <c r="E203" s="2"/>
-      <c r="K203" s="3"/>
+      <c r="E203" s="7"/>
+      <c r="K203" s="8"/>
     </row>
     <row r="204">
-      <c r="E204" s="2"/>
-      <c r="K204" s="3"/>
+      <c r="E204" s="7"/>
+      <c r="K204" s="8"/>
     </row>
     <row r="205">
-      <c r="E205" s="2"/>
-      <c r="K205" s="3"/>
+      <c r="E205" s="7"/>
+      <c r="K205" s="8"/>
     </row>
     <row r="206">
-      <c r="E206" s="2"/>
-      <c r="K206" s="3"/>
+      <c r="E206" s="7"/>
+      <c r="K206" s="8"/>
     </row>
     <row r="207">
-      <c r="E207" s="2"/>
-      <c r="K207" s="3"/>
+      <c r="E207" s="7"/>
+      <c r="K207" s="8"/>
     </row>
     <row r="208">
-      <c r="E208" s="2"/>
-      <c r="K208" s="3"/>
+      <c r="E208" s="7"/>
+      <c r="K208" s="8"/>
     </row>
     <row r="209">
-      <c r="E209" s="2"/>
-      <c r="K209" s="3"/>
+      <c r="E209" s="7"/>
+      <c r="K209" s="8"/>
     </row>
     <row r="210">
-      <c r="E210" s="2"/>
-      <c r="K210" s="3"/>
+      <c r="E210" s="7"/>
+      <c r="K210" s="8"/>
     </row>
     <row r="211">
-      <c r="E211" s="2"/>
-      <c r="K211" s="3"/>
+      <c r="E211" s="7"/>
+      <c r="K211" s="8"/>
     </row>
     <row r="212">
-      <c r="E212" s="2"/>
-      <c r="K212" s="3"/>
+      <c r="E212" s="7"/>
+      <c r="K212" s="8"/>
     </row>
     <row r="213">
-      <c r="E213" s="2"/>
-      <c r="K213" s="3"/>
+      <c r="E213" s="7"/>
+      <c r="K213" s="8"/>
     </row>
     <row r="214">
-      <c r="E214" s="2"/>
-      <c r="K214" s="3"/>
+      <c r="E214" s="7"/>
+      <c r="K214" s="8"/>
     </row>
     <row r="215">
-      <c r="E215" s="2"/>
-      <c r="K215" s="3"/>
+      <c r="E215" s="7"/>
+      <c r="K215" s="8"/>
     </row>
     <row r="216">
-      <c r="E216" s="2"/>
-      <c r="K216" s="3"/>
+      <c r="E216" s="7"/>
+      <c r="K216" s="8"/>
     </row>
     <row r="217">
-      <c r="E217" s="2"/>
-      <c r="K217" s="3"/>
+      <c r="E217" s="7"/>
+      <c r="K217" s="8"/>
     </row>
     <row r="218">
-      <c r="E218" s="2"/>
-      <c r="K218" s="3"/>
+      <c r="E218" s="7"/>
+      <c r="K218" s="8"/>
     </row>
     <row r="219">
-      <c r="E219" s="2"/>
-      <c r="K219" s="3"/>
+      <c r="E219" s="7"/>
+      <c r="K219" s="8"/>
     </row>
     <row r="220">
-      <c r="E220" s="2"/>
-      <c r="K220" s="3"/>
+      <c r="E220" s="7"/>
+      <c r="K220" s="8"/>
     </row>
     <row r="221">
-      <c r="E221" s="2"/>
-      <c r="K221" s="3"/>
+      <c r="E221" s="7"/>
+      <c r="K221" s="8"/>
     </row>
     <row r="222">
-      <c r="E222" s="2"/>
-      <c r="K222" s="3"/>
+      <c r="E222" s="7"/>
+      <c r="K222" s="8"/>
     </row>
     <row r="223">
-      <c r="E223" s="2"/>
-      <c r="K223" s="3"/>
+      <c r="E223" s="7"/>
+      <c r="K223" s="8"/>
     </row>
     <row r="224">
-      <c r="E224" s="2"/>
-      <c r="K224" s="3"/>
+      <c r="E224" s="7"/>
+      <c r="K224" s="8"/>
     </row>
     <row r="225">
-      <c r="E225" s="2"/>
-      <c r="K225" s="3"/>
+      <c r="E225" s="7"/>
+      <c r="K225" s="8"/>
     </row>
     <row r="226">
-      <c r="E226" s="2"/>
-      <c r="K226" s="3"/>
+      <c r="E226" s="7"/>
+      <c r="K226" s="8"/>
     </row>
     <row r="227">
-      <c r="E227" s="2"/>
-      <c r="K227" s="3"/>
+      <c r="E227" s="7"/>
+      <c r="K227" s="8"/>
     </row>
     <row r="228">
-      <c r="E228" s="2"/>
-      <c r="K228" s="3"/>
+      <c r="E228" s="7"/>
+      <c r="K228" s="8"/>
     </row>
     <row r="229">
-      <c r="E229" s="2"/>
-      <c r="K229" s="3"/>
+      <c r="E229" s="7"/>
+      <c r="K229" s="8"/>
     </row>
     <row r="230">
-      <c r="E230" s="2"/>
-      <c r="K230" s="3"/>
+      <c r="E230" s="7"/>
+      <c r="K230" s="8"/>
     </row>
     <row r="231">
-      <c r="E231" s="2"/>
-      <c r="K231" s="3"/>
+      <c r="E231" s="7"/>
+      <c r="K231" s="8"/>
     </row>
     <row r="232">
-      <c r="E232" s="2"/>
-      <c r="K232" s="3"/>
+      <c r="E232" s="7"/>
+      <c r="K232" s="8"/>
     </row>
     <row r="233">
-      <c r="E233" s="2"/>
+      <c r="E233" s="7"/>
     </row>
     <row r="234">
-      <c r="E234" s="2"/>
+      <c r="E234" s="7"/>
     </row>
     <row r="235">
-      <c r="E235" s="2"/>
+      <c r="E235" s="7"/>
     </row>
     <row r="236">
-      <c r="E236" s="2"/>
+      <c r="E236" s="7"/>
     </row>
     <row r="237">
-      <c r="E237" s="2"/>
+      <c r="E237" s="7"/>
     </row>
     <row r="238">
-      <c r="E238" s="2"/>
+      <c r="E238" s="7"/>
     </row>
     <row r="239">
-      <c r="E239" s="2"/>
+      <c r="E239" s="7"/>
     </row>
     <row r="240">
-      <c r="E240" s="2"/>
+      <c r="E240" s="7"/>
     </row>
     <row r="241">
-      <c r="E241" s="1"/>
+      <c r="E241" s="6"/>
     </row>
     <row r="242">
-      <c r="E242" s="1"/>
+      <c r="E242" s="6"/>
     </row>
     <row r="243">
-      <c r="E243" s="1"/>
+      <c r="E243" s="6"/>
     </row>
     <row r="244">
-      <c r="E244" s="1"/>
+      <c r="E244" s="6"/>
     </row>
     <row r="245">
-      <c r="E245" s="1"/>
+      <c r="E245" s="6"/>
     </row>
     <row r="246">
-      <c r="E246" s="1"/>
+      <c r="E246" s="6"/>
     </row>
     <row r="247">
-      <c r="E247" s="1"/>
+      <c r="E247" s="6"/>
     </row>
     <row r="248">
-      <c r="E248" s="1"/>
+      <c r="E248" s="6"/>
     </row>
     <row r="249">
-      <c r="E249" s="1"/>
+      <c r="E249" s="6"/>
     </row>
     <row r="250">
-      <c r="E250" s="1"/>
+      <c r="E250" s="6"/>
     </row>
     <row r="251">
-      <c r="E251" s="1"/>
+      <c r="E251" s="6"/>
     </row>
     <row r="252">
-      <c r="E252" s="1"/>
+      <c r="E252" s="6"/>
     </row>
     <row r="253">
-      <c r="E253" s="1"/>
+      <c r="E253" s="6"/>
     </row>
     <row r="254">
-      <c r="E254" s="1"/>
+      <c r="E254" s="6"/>
     </row>
     <row r="255">
-      <c r="E255" s="1"/>
+      <c r="E255" s="6"/>
     </row>
     <row r="256">
-      <c r="E256" s="1"/>
+      <c r="E256" s="6"/>
     </row>
     <row r="257">
-      <c r="E257" s="1"/>
+      <c r="E257" s="6"/>
     </row>
     <row r="258">
-      <c r="E258" s="1"/>
+      <c r="E258" s="6"/>
     </row>
     <row r="259">
-      <c r="E259" s="1"/>
+      <c r="E259" s="6"/>
     </row>
     <row r="260">
-      <c r="E260" s="1"/>
+      <c r="E260" s="6"/>
     </row>
     <row r="261">
-      <c r="E261" s="1"/>
+      <c r="E261" s="6"/>
     </row>
     <row r="262">
-      <c r="E262" s="1"/>
+      <c r="E262" s="6"/>
     </row>
     <row r="263">
-      <c r="E263" s="1"/>
+      <c r="E263" s="6"/>
     </row>
     <row r="264">
-      <c r="E264" s="1"/>
+      <c r="E264" s="6"/>
     </row>
     <row r="265">
-      <c r="E265" s="1"/>
+      <c r="E265" s="6"/>
     </row>
     <row r="266">
-      <c r="E266" s="1"/>
+      <c r="E266" s="6"/>
     </row>
     <row r="267">
-      <c r="E267" s="1"/>
+      <c r="E267" s="6"/>
     </row>
     <row r="268">
-      <c r="E268" s="1"/>
+      <c r="E268" s="6"/>
     </row>
     <row r="269">
-      <c r="E269" s="1"/>
+      <c r="E269" s="6"/>
     </row>
     <row r="270">
-      <c r="E270" s="1"/>
+      <c r="E270" s="6"/>
     </row>
     <row r="271">
-      <c r="E271" s="1"/>
+      <c r="E271" s="6"/>
     </row>
     <row r="272">
-      <c r="E272" s="1"/>
+      <c r="E272" s="6"/>
     </row>
     <row r="273">
-      <c r="E273" s="1"/>
+      <c r="E273" s="6"/>
     </row>
     <row r="274">
-      <c r="E274" s="1"/>
+      <c r="E274" s="6"/>
     </row>
     <row r="275">
-      <c r="E275" s="1"/>
+      <c r="E275" s="6"/>
     </row>
     <row r="276">
-      <c r="E276" s="1"/>
+      <c r="E276" s="6"/>
     </row>
     <row r="277">
-      <c r="E277" s="1"/>
+      <c r="E277" s="6"/>
     </row>
     <row r="278">
-      <c r="E278" s="1"/>
+      <c r="E278" s="6"/>
     </row>
     <row r="279">
-      <c r="E279" s="1"/>
+      <c r="E279" s="6"/>
     </row>
     <row r="280">
-      <c r="E280" s="1"/>
+      <c r="E280" s="6"/>
     </row>
     <row r="281">
-      <c r="E281" s="1"/>
+      <c r="E281" s="6"/>
     </row>
     <row r="282">
-      <c r="E282" s="1"/>
+      <c r="E282" s="6"/>
     </row>
     <row r="283">
-      <c r="E283" s="1"/>
+      <c r="E283" s="6"/>
     </row>
     <row r="284">
-      <c r="E284" s="1"/>
+      <c r="E284" s="6"/>
     </row>
     <row r="285">
-      <c r="E285" s="1"/>
+      <c r="E285" s="6"/>
     </row>
     <row r="286">
-      <c r="E286" s="1"/>
+      <c r="E286" s="6"/>
     </row>
     <row r="287">
-      <c r="E287" s="1"/>
+      <c r="E287" s="6"/>
     </row>
     <row r="288">
-      <c r="E288" s="1"/>
+      <c r="E288" s="6"/>
     </row>
     <row r="289">
-      <c r="E289" s="1"/>
+      <c r="E289" s="6"/>
     </row>
     <row r="290">
-      <c r="E290" s="1"/>
+      <c r="E290" s="6"/>
     </row>
     <row r="291">
-      <c r="E291" s="1"/>
+      <c r="E291" s="6"/>
     </row>
     <row r="292">
-      <c r="E292" s="1"/>
+      <c r="E292" s="6"/>
     </row>
     <row r="293">
-      <c r="E293" s="1"/>
+      <c r="E293" s="6"/>
     </row>
     <row r="294">
-      <c r="E294" s="1"/>
+      <c r="E294" s="6"/>
     </row>
     <row r="295">
-      <c r="E295" s="1"/>
+      <c r="E295" s="6"/>
     </row>
     <row r="296">
-      <c r="E296" s="1"/>
+      <c r="E296" s="6"/>
     </row>
     <row r="297">
-      <c r="E297" s="1"/>
+      <c r="E297" s="6"/>
     </row>
     <row r="298">
-      <c r="E298" s="1"/>
+      <c r="E298" s="6"/>
     </row>
     <row r="299">
-      <c r="E299" s="1"/>
+      <c r="E299" s="6"/>
     </row>
     <row r="300">
-      <c r="E300" s="1"/>
+      <c r="E300" s="6"/>
     </row>
     <row r="301">
-      <c r="E301" s="1"/>
+      <c r="E301" s="6"/>
     </row>
     <row r="302">
-      <c r="E302" s="1"/>
+      <c r="E302" s="6"/>
     </row>
     <row r="303">
-      <c r="E303" s="1"/>
+      <c r="E303" s="6"/>
     </row>
     <row r="304">
-      <c r="E304" s="1"/>
+      <c r="E304" s="6"/>
     </row>
     <row r="305">
-      <c r="E305" s="1"/>
+      <c r="E305" s="6"/>
     </row>
     <row r="306">
-      <c r="E306" s="1"/>
+      <c r="E306" s="6"/>
     </row>
     <row r="307">
-      <c r="E307" s="1"/>
+      <c r="E307" s="6"/>
     </row>
     <row r="308">
-      <c r="E308" s="1"/>
+      <c r="E308" s="6"/>
     </row>
     <row r="309">
-      <c r="E309" s="1"/>
+      <c r="E309" s="6"/>
     </row>
     <row r="310">
-      <c r="E310" s="1"/>
+      <c r="E310" s="6"/>
     </row>
     <row r="311">
-      <c r="E311" s="1"/>
+      <c r="E311" s="6"/>
     </row>
     <row r="312">
-      <c r="E312" s="1"/>
+      <c r="E312" s="6"/>
     </row>
     <row r="313">
-      <c r="E313" s="1"/>
+      <c r="E313" s="6"/>
     </row>
     <row r="314">
-      <c r="E314" s="1"/>
+      <c r="E314" s="6"/>
     </row>
     <row r="315">
-      <c r="E315" s="1"/>
+      <c r="E315" s="6"/>
     </row>
     <row r="316">
-      <c r="E316" s="1"/>
+      <c r="E316" s="6"/>
     </row>
     <row r="317">
-      <c r="E317" s="1"/>
+      <c r="E317" s="6"/>
     </row>
     <row r="318">
-      <c r="E318" s="1"/>
+      <c r="E318" s="6"/>
     </row>
     <row r="319">
-      <c r="E319" s="1"/>
+      <c r="E319" s="6"/>
     </row>
     <row r="320">
-      <c r="E320" s="1"/>
+      <c r="E320" s="6"/>
     </row>
     <row r="321">
-      <c r="E321" s="1"/>
+      <c r="E321" s="6"/>
     </row>
     <row r="322">
-      <c r="E322" s="1"/>
+      <c r="E322" s="6"/>
     </row>
     <row r="323">
-      <c r="E323" s="1"/>
+      <c r="E323" s="6"/>
     </row>
     <row r="324">
-      <c r="E324" s="1"/>
+      <c r="E324" s="6"/>
     </row>
     <row r="325">
-      <c r="E325" s="1"/>
+      <c r="E325" s="6"/>
     </row>
     <row r="326">
-      <c r="E326" s="1"/>
+      <c r="E326" s="6"/>
     </row>
     <row r="327">
-      <c r="E327" s="1"/>
+      <c r="E327" s="6"/>
     </row>
     <row r="328">
-      <c r="E328" s="1"/>
+      <c r="E328" s="6"/>
     </row>
     <row r="329">
-      <c r="E329" s="1"/>
+      <c r="E329" s="6"/>
     </row>
     <row r="330">
-      <c r="E330" s="1"/>
+      <c r="E330" s="6"/>
     </row>
     <row r="331">
-      <c r="E331" s="1"/>
+      <c r="E331" s="6"/>
     </row>
     <row r="332">
-      <c r="E332" s="1"/>
+      <c r="E332" s="6"/>
     </row>
     <row r="333">
-      <c r="E333" s="1"/>
+      <c r="E333" s="6"/>
     </row>
     <row r="334">
-      <c r="E334" s="1"/>
+      <c r="E334" s="6"/>
     </row>
     <row r="335">
-      <c r="E335" s="1"/>
+      <c r="E335" s="6"/>
     </row>
     <row r="336">
-      <c r="E336" s="1"/>
+      <c r="E336" s="6"/>
     </row>
     <row r="337">
-      <c r="E337" s="1"/>
+      <c r="E337" s="6"/>
     </row>
     <row r="338">
-      <c r="E338" s="1"/>
+      <c r="E338" s="6"/>
     </row>
     <row r="339">
-      <c r="E339" s="1"/>
+      <c r="E339" s="6"/>
     </row>
     <row r="340">
-      <c r="E340" s="1"/>
+      <c r="E340" s="6"/>
     </row>
     <row r="341">
-      <c r="E341" s="1"/>
+      <c r="E341" s="6"/>
     </row>
     <row r="342">
-      <c r="E342" s="1"/>
+      <c r="E342" s="6"/>
     </row>
     <row r="343">
-      <c r="E343" s="1"/>
+      <c r="E343" s="6"/>
     </row>
     <row r="344">
-      <c r="E344" s="1"/>
+      <c r="E344" s="6"/>
     </row>
     <row r="345">
-      <c r="E345" s="1"/>
+      <c r="E345" s="6"/>
     </row>
     <row r="346">
-      <c r="E346" s="1"/>
+      <c r="E346" s="6"/>
     </row>
     <row r="347">
-      <c r="E347" s="1"/>
+      <c r="E347" s="6"/>
     </row>
     <row r="348">
-      <c r="E348" s="1"/>
+      <c r="E348" s="6"/>
     </row>
     <row r="349">
-      <c r="E349" s="1"/>
+      <c r="E349" s="6"/>
     </row>
     <row r="350">
-      <c r="E350" s="1"/>
+      <c r="E350" s="6"/>
     </row>
     <row r="351">
-      <c r="E351" s="1"/>
+      <c r="E351" s="6"/>
     </row>
     <row r="352">
-      <c r="E352" s="1"/>
+      <c r="E352" s="6"/>
     </row>
     <row r="353">
-      <c r="E353" s="1"/>
+      <c r="E353" s="6"/>
     </row>
     <row r="354">
-      <c r="E354" s="1"/>
+      <c r="E354" s="6"/>
     </row>
     <row r="355">
-      <c r="E355" s="1"/>
+      <c r="E355" s="6"/>
     </row>
     <row r="356">
-      <c r="E356" s="1"/>
+      <c r="E356" s="6"/>
     </row>
     <row r="357">
-      <c r="E357" s="1"/>
+      <c r="E357" s="6"/>
     </row>
     <row r="358">
-      <c r="E358" s="1"/>
+      <c r="E358" s="6"/>
     </row>
     <row r="359">
-      <c r="E359" s="1"/>
+      <c r="E359" s="6"/>
     </row>
     <row r="360">
-      <c r="E360" s="1"/>
+      <c r="E360" s="6"/>
     </row>
     <row r="361">
-      <c r="E361" s="1"/>
+      <c r="E361" s="6"/>
     </row>
     <row r="362">
-      <c r="E362" s="1"/>
+      <c r="E362" s="6"/>
     </row>
     <row r="363">
-      <c r="E363" s="1"/>
+      <c r="E363" s="6"/>
     </row>
     <row r="364">
-      <c r="E364" s="1"/>
+      <c r="E364" s="6"/>
     </row>
     <row r="365">
-      <c r="E365" s="1"/>
+      <c r="E365" s="6"/>
     </row>
     <row r="366">
-      <c r="E366" s="1"/>
+      <c r="E366" s="6"/>
     </row>
     <row r="367">
-      <c r="E367" s="1"/>
+      <c r="E367" s="6"/>
     </row>
     <row r="368">
-      <c r="E368" s="1"/>
+      <c r="E368" s="6"/>
     </row>
     <row r="369">
-      <c r="E369" s="1"/>
+      <c r="E369" s="6"/>
     </row>
     <row r="370">
-      <c r="E370" s="1"/>
+      <c r="E370" s="6"/>
     </row>
     <row r="371">
-      <c r="E371" s="1"/>
+      <c r="E371" s="6"/>
     </row>
     <row r="372">
-      <c r="E372" s="1"/>
+      <c r="E372" s="6"/>
     </row>
     <row r="373">
-      <c r="E373" s="1"/>
+      <c r="E373" s="6"/>
     </row>
     <row r="374">
-      <c r="E374" s="1"/>
+      <c r="E374" s="6"/>
     </row>
     <row r="375">
-      <c r="E375" s="1"/>
+      <c r="E375" s="6"/>
     </row>
     <row r="376">
-      <c r="E376" s="1"/>
+      <c r="E376" s="6"/>
     </row>
     <row r="377">
-      <c r="E377" s="1"/>
+      <c r="E377" s="6"/>
     </row>
     <row r="378">
-      <c r="E378" s="1"/>
+      <c r="E378" s="6"/>
     </row>
     <row r="379">
-      <c r="E379" s="1"/>
+      <c r="E379" s="6"/>
     </row>
     <row r="380">
-      <c r="E380" s="1"/>
+      <c r="E380" s="6"/>
     </row>
     <row r="381">
-      <c r="E381" s="1"/>
+      <c r="E381" s="6"/>
     </row>
     <row r="382">
-      <c r="E382" s="1"/>
+      <c r="E382" s="6"/>
     </row>
     <row r="383">
-      <c r="E383" s="1"/>
+      <c r="E383" s="6"/>
     </row>
     <row r="384">
-      <c r="E384" s="1"/>
+      <c r="E384" s="6"/>
     </row>
     <row r="385">
-      <c r="E385" s="1"/>
+      <c r="E385" s="6"/>
     </row>
     <row r="386">
-      <c r="E386" s="1"/>
+      <c r="E386" s="6"/>
     </row>
     <row r="387">
-      <c r="E387" s="1"/>
+      <c r="E387" s="6"/>
     </row>
     <row r="388">
-      <c r="E388" s="1"/>
+      <c r="E388" s="6"/>
     </row>
     <row r="389">
-      <c r="E389" s="1"/>
+      <c r="E389" s="6"/>
     </row>
     <row r="390">
-      <c r="E390" s="1"/>
+      <c r="E390" s="6"/>
     </row>
     <row r="391">
-      <c r="E391" s="1"/>
+      <c r="E391" s="6"/>
     </row>
     <row r="392">
-      <c r="E392" s="1"/>
+      <c r="E392" s="6"/>
     </row>
     <row r="393">
-      <c r="E393" s="1"/>
+      <c r="E393" s="6"/>
     </row>
     <row r="394">
-      <c r="E394" s="1"/>
+      <c r="E394" s="6"/>
     </row>
     <row r="395">
-      <c r="E395" s="1"/>
+      <c r="E395" s="6"/>
     </row>
     <row r="396">
-      <c r="E396" s="1"/>
+      <c r="E396" s="6"/>
     </row>
     <row r="397">
-      <c r="E397" s="1"/>
+      <c r="E397" s="6"/>
     </row>
     <row r="398">
-      <c r="E398" s="1"/>
+      <c r="E398" s="6"/>
     </row>
     <row r="399">
-      <c r="E399" s="1"/>
+      <c r="E399" s="6"/>
     </row>
     <row r="400">
-      <c r="E400" s="1"/>
+      <c r="E400" s="6"/>
     </row>
     <row r="401">
-      <c r="E401" s="1"/>
+      <c r="E401" s="6"/>
     </row>
     <row r="402">
-      <c r="E402" s="1"/>
+      <c r="E402" s="6"/>
     </row>
     <row r="403">
-      <c r="E403" s="1"/>
+      <c r="E403" s="6"/>
     </row>
     <row r="404">
-      <c r="E404" s="1"/>
+      <c r="E404" s="6"/>
     </row>
     <row r="405">
-      <c r="E405" s="1"/>
+      <c r="E405" s="6"/>
     </row>
     <row r="406">
-      <c r="E406" s="1"/>
+      <c r="E406" s="6"/>
     </row>
     <row r="407">
-      <c r="E407" s="1"/>
+      <c r="E407" s="6"/>
     </row>
     <row r="408">
-      <c r="E408" s="1"/>
+      <c r="E408" s="6"/>
     </row>
     <row r="409">
-      <c r="E409" s="1"/>
+      <c r="E409" s="6"/>
     </row>
     <row r="410">
-      <c r="E410" s="1"/>
+      <c r="E410" s="6"/>
     </row>
     <row r="411">
-      <c r="E411" s="1"/>
+      <c r="E411" s="6"/>
     </row>
     <row r="412">
-      <c r="E412" s="1"/>
+      <c r="E412" s="6"/>
     </row>
     <row r="413">
-      <c r="E413" s="1"/>
+      <c r="E413" s="6"/>
     </row>
     <row r="414">
-      <c r="E414" s="1"/>
+      <c r="E414" s="6"/>
     </row>
     <row r="415">
-      <c r="E415" s="1"/>
+      <c r="E415" s="6"/>
     </row>
     <row r="416">
-      <c r="E416" s="1"/>
+      <c r="E416" s="6"/>
     </row>
     <row r="417">
-      <c r="E417" s="1"/>
+      <c r="E417" s="6"/>
     </row>
     <row r="418">
-      <c r="E418" s="1"/>
+      <c r="E418" s="6"/>
     </row>
     <row r="419">
-      <c r="E419" s="1"/>
+      <c r="E419" s="6"/>
     </row>
     <row r="420">
-      <c r="E420" s="1"/>
+      <c r="E420" s="6"/>
     </row>
     <row r="421">
-      <c r="E421" s="1"/>
+      <c r="E421" s="6"/>
     </row>
     <row r="422">
-      <c r="E422" s="1"/>
+      <c r="E422" s="6"/>
     </row>
     <row r="423">
-      <c r="E423" s="1"/>
+      <c r="E423" s="6"/>
     </row>
     <row r="424">
-      <c r="E424" s="1"/>
+      <c r="E424" s="6"/>
     </row>
     <row r="425">
-      <c r="E425" s="1"/>
+      <c r="E425" s="6"/>
     </row>
     <row r="426">
-      <c r="E426" s="1"/>
+      <c r="E426" s="6"/>
     </row>
     <row r="427">
-      <c r="E427" s="1"/>
+      <c r="E427" s="6"/>
     </row>
     <row r="428">
-      <c r="E428" s="1"/>
+      <c r="E428" s="6"/>
     </row>
     <row r="429">
-      <c r="E429" s="1"/>
+      <c r="E429" s="6"/>
     </row>
     <row r="430">
-      <c r="E430" s="1"/>
+      <c r="E430" s="6"/>
     </row>
     <row r="431">
-      <c r="E431" s="1"/>
+      <c r="E431" s="6"/>
     </row>
     <row r="432">
-      <c r="E432" s="1"/>
+      <c r="E432" s="6"/>
     </row>
     <row r="433">
-      <c r="E433" s="1"/>
+      <c r="E433" s="6"/>
     </row>
     <row r="434">
-      <c r="E434" s="1"/>
+      <c r="E434" s="6"/>
     </row>
     <row r="435">
-      <c r="E435" s="1"/>
+      <c r="E435" s="6"/>
     </row>
     <row r="436">
-      <c r="E436" s="1"/>
+      <c r="E436" s="6"/>
     </row>
     <row r="437">
-      <c r="E437" s="1"/>
+      <c r="E437" s="6"/>
     </row>
     <row r="438">
-      <c r="E438" s="1"/>
+      <c r="E438" s="6"/>
     </row>
     <row r="439">
-      <c r="E439" s="1"/>
+      <c r="E439" s="6"/>
     </row>
     <row r="440">
-      <c r="E440" s="1"/>
+      <c r="E440" s="6"/>
     </row>
     <row r="441">
-      <c r="E441" s="1"/>
+      <c r="E441" s="6"/>
     </row>
     <row r="442">
-      <c r="E442" s="1"/>
+      <c r="E442" s="6"/>
     </row>
     <row r="443">
-      <c r="E443" s="1"/>
+      <c r="E443" s="6"/>
     </row>
     <row r="444">
-      <c r="E444" s="1"/>
+      <c r="E444" s="6"/>
     </row>
     <row r="445">
-      <c r="E445" s="1"/>
+      <c r="E445" s="6"/>
     </row>
     <row r="446">
-      <c r="E446" s="1"/>
+      <c r="E446" s="6"/>
     </row>
     <row r="447">
-      <c r="E447" s="1"/>
+      <c r="E447" s="6"/>
     </row>
     <row r="448">
-      <c r="E448" s="1"/>
+      <c r="E448" s="6"/>
     </row>
     <row r="449">
-      <c r="E449" s="1"/>
+      <c r="E449" s="6"/>
     </row>
     <row r="450">
-      <c r="E450" s="1"/>
+      <c r="E450" s="6"/>
     </row>
     <row r="451">
-      <c r="E451" s="1"/>
+      <c r="E451" s="6"/>
     </row>
     <row r="452">
-      <c r="E452" s="1"/>
+      <c r="E452" s="6"/>
     </row>
     <row r="453">
-      <c r="E453" s="1"/>
+      <c r="E453" s="6"/>
     </row>
     <row r="454">
-      <c r="E454" s="1"/>
+      <c r="E454" s="6"/>
     </row>
     <row r="455">
-      <c r="E455" s="1"/>
+      <c r="E455" s="6"/>
     </row>
     <row r="456">
-      <c r="E456" s="1"/>
+      <c r="E456" s="6"/>
     </row>
     <row r="457">
-      <c r="E457" s="1"/>
+      <c r="E457" s="6"/>
     </row>
     <row r="458">
-      <c r="E458" s="1"/>
+      <c r="E458" s="6"/>
     </row>
     <row r="459">
-      <c r="E459" s="1"/>
+      <c r="E459" s="6"/>
     </row>
     <row r="460">
-      <c r="E460" s="1"/>
+      <c r="E460" s="6"/>
     </row>
     <row r="461">
-      <c r="E461" s="1"/>
+      <c r="E461" s="6"/>
     </row>
     <row r="462">
-      <c r="E462" s="1"/>
+      <c r="E462" s="6"/>
     </row>
     <row r="463">
-      <c r="E463" s="1"/>
+      <c r="E463" s="6"/>
     </row>
     <row r="464">
-      <c r="E464" s="1"/>
+      <c r="E464" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9234,51 +9449,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
-        <v>15</v>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -9286,7 +9485,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>66.24</v>
+        <v>61.69</v>
       </c>
     </row>
     <row r="4">
@@ -9297,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>65.55</v>
+        <v>60.03</v>
       </c>
     </row>
     <row r="5">
@@ -9305,26 +9504,26 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>66.65</v>
+        <v>62.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>67.14</v>
+        <v>61.87</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>65.24</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="8">
@@ -9335,7 +9534,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>50.8</v>
+        <v>47.64</v>
       </c>
     </row>
     <row r="9">
@@ -9343,7 +9542,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>62.82</v>
+        <v>59.44</v>
       </c>
     </row>
     <row r="10">
@@ -9351,7 +9550,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>68.76</v>
+        <v>64.73</v>
       </c>
     </row>
     <row r="11">
@@ -9359,7 +9558,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>72.19</v>
+        <v>67.75</v>
       </c>
     </row>
     <row r="12">
@@ -9367,7 +9566,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>74.21</v>
+        <v>68.61</v>
       </c>
     </row>
     <row r="13">
@@ -9375,7 +9574,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>75.88</v>
+        <v>66.46</v>
       </c>
     </row>
   </sheetData>
@@ -9387,220 +9586,220 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="19" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="44.1" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="44.1" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="B3" t="n">
-        <v>66.4</v>
+        <v>63.81</v>
       </c>
       <c r="C3" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="D3" s="16" t="n">
-        <v>1954.606</v>
-      </c>
-      <c r="E3" s="16" t="n">
-        <v>1817.784</v>
+        <v>11.88</v>
+      </c>
+      <c r="D3" s="18" t="n">
+        <v>1866.413</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>1735.764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="B4" t="n">
-        <v>67.85</v>
+        <v>61.32</v>
       </c>
       <c r="C4" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="D4" s="16" t="n">
-        <v>2287.64</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>2127.505</v>
+        <v>11.01</v>
+      </c>
+      <c r="D4" s="18" t="n">
+        <v>2112.602</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <v>1964.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B5" t="n">
-        <v>66.65</v>
+        <v>59.65</v>
       </c>
       <c r="C5" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="D5" s="16" t="n">
-        <v>3100.434</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>2883.404</v>
+        <v>9.89</v>
+      </c>
+      <c r="D5" s="18" t="n">
+        <v>2781.839</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>2587.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="B6" t="n">
-        <v>75.32</v>
+        <v>69.78</v>
       </c>
       <c r="C6" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="D6" s="16" t="n">
-        <v>1226.243</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>1140.406</v>
+        <v>14.93</v>
+      </c>
+      <c r="D6" s="18" t="n">
+        <v>1142.964</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>1062.957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="B7" t="n">
-        <v>73.88</v>
+        <v>69.43</v>
       </c>
       <c r="C7" t="n">
-        <v>15.64</v>
-      </c>
-      <c r="D7" s="16" t="n">
-        <v>2999.984</v>
-      </c>
-      <c r="E7" s="16" t="n">
-        <v>2789.985</v>
+        <v>14.7</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <v>2819.394</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>2622.036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B8" t="n">
-        <v>68.02</v>
+        <v>61.09</v>
       </c>
       <c r="C8" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>2838.278</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>2639.599</v>
+        <v>10.28</v>
+      </c>
+      <c r="D8" s="18" t="n">
+        <v>2647.394</v>
+      </c>
+      <c r="E8" s="18" t="n">
+        <v>2462.076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="B9" t="n">
-        <v>57.45</v>
+        <v>53.04</v>
       </c>
       <c r="C9" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>1870.281</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>1739.361</v>
+        <v>10.04</v>
+      </c>
+      <c r="D9" s="18" t="n">
+        <v>1731.879</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>1610.647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="B10" t="n">
-        <v>69.94</v>
+        <v>63.64</v>
       </c>
       <c r="C10" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="D10" s="16" t="n">
-        <v>2335.178</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <v>2171.716</v>
+        <v>13.05</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>2125.504</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>1976.719</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="B11" t="n">
-        <v>65.88</v>
+        <v>61.62</v>
       </c>
       <c r="C11" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="D11" s="16" t="n">
-        <v>2289.154</v>
-      </c>
-      <c r="E11" s="16" t="n">
-        <v>2128.913</v>
+        <v>12.46</v>
+      </c>
+      <c r="D11" s="18" t="n">
+        <v>2129.069</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>1980.034</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13">
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14">
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15">
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16">
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9608,51 +9807,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="19" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>17</v>
+      <c r="A1" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="44.1" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B3" t="n">
         <v>98.38</v>
@@ -9660,185 +9859,185 @@
       <c r="C3" t="n">
         <v>21.4</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="18" t="n">
         <v>76.733</v>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="18" t="n">
         <v>71.362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="B4" t="n">
-        <v>88.49</v>
+        <v>87.9</v>
       </c>
       <c r="C4" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="D4" s="16" t="n">
-        <v>65.252</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>60.684</v>
+        <v>19.91</v>
+      </c>
+      <c r="D4" s="18" t="n">
+        <v>175.692</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <v>163.394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="B5" t="n">
-        <v>92.52</v>
+        <v>132.04</v>
       </c>
       <c r="C5" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="D5" s="16" t="n">
-        <v>184.931</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>171.986</v>
+        <v>19.08</v>
+      </c>
+      <c r="D5" s="18" t="n">
+        <v>75.514</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>70.228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B6" t="n">
-        <v>88.53</v>
+        <v>80.34</v>
       </c>
       <c r="C6" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="D6" s="16" t="n">
-        <v>85.529</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>79.542</v>
+        <v>19.05</v>
+      </c>
+      <c r="D6" s="18" t="n">
+        <v>59.237</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>55.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="B7" t="n">
-        <v>95.81</v>
+        <v>79.89</v>
       </c>
       <c r="C7" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="D7" s="16" t="n">
-        <v>130.55</v>
-      </c>
-      <c r="E7" s="16" t="n">
-        <v>121.412</v>
+        <v>18.61</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <v>77.178</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>71.776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B8" t="n">
-        <v>89.95</v>
+        <v>83.77</v>
       </c>
       <c r="C8" t="n">
-        <v>19.23</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>162.654</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>151.268</v>
+        <v>17.9</v>
+      </c>
+      <c r="D8" s="18" t="n">
+        <v>151.473</v>
+      </c>
+      <c r="E8" s="18" t="n">
+        <v>140.87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="B9" t="n">
-        <v>132.04</v>
+        <v>72.03</v>
       </c>
       <c r="C9" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>75.514</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>70.228</v>
+        <v>17.9</v>
+      </c>
+      <c r="D9" s="18" t="n">
+        <v>141.401</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>131.503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="B10" t="n">
-        <v>76.95</v>
+        <v>69</v>
       </c>
       <c r="C10" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="D10" s="16" t="n">
-        <v>66.751</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <v>62.078</v>
+        <v>17.1</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>59.856</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>55.666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B11" t="n">
-        <v>102.62</v>
+        <v>77.7</v>
       </c>
       <c r="C11" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="D11" s="16" t="n">
-        <v>164.3</v>
-      </c>
-      <c r="E11" s="16" t="n">
-        <v>152.799</v>
+        <v>16.78</v>
+      </c>
+      <c r="D11" s="18" t="n">
+        <v>128.508</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>119.512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B12" t="n">
-        <v>73.78</v>
+        <v>77.39</v>
       </c>
       <c r="C12" t="n">
-        <v>18.34</v>
-      </c>
-      <c r="D12" s="16" t="n">
-        <v>144.828</v>
-      </c>
-      <c r="E12" s="16" t="n">
-        <v>134.69</v>
+        <v>16.71</v>
+      </c>
+      <c r="D12" s="18" t="n">
+        <v>127.827</v>
+      </c>
+      <c r="E12" s="18" t="n">
+        <v>118.879</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14">
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15">
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16">
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17">
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/summary_table_5.xlsx
+++ b/output/summary_table_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Upshift Calcs" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
   <si>
     <t>Table 2. Average weekly spend on tobacco by socio-economic status (SES) and age group</t>
   </si>
@@ -145,49 +145,94 @@
     <t>Hand-Rolled</t>
   </si>
   <si>
-    <t>Ad-Valorem tax</t>
-  </si>
-  <si>
-    <t>Specific duty</t>
-  </si>
-  <si>
-    <t>Total duties (£m)</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total excise per pack</t>
-  </si>
-  <si>
-    <t>Total excise % of price</t>
-  </si>
-  <si>
-    <t>Price per 100g (Dec 2020)</t>
-  </si>
-  <si>
-    <t>Price per 100g (Dec 2018)</t>
-  </si>
-  <si>
-    <t>Price deflator</t>
-  </si>
-  <si>
-    <t>Total cigarette spend (£m)</t>
-  </si>
-  <si>
-    <t>Total HRT spend (£m)</t>
-  </si>
-  <si>
     <t>Total grossed-up expenditure</t>
   </si>
   <si>
     <t>Upshift Factor:</t>
   </si>
   <si>
-    <t>Pack Price (20 cigs)</t>
-  </si>
-  <si>
     <t>Survey data estimate</t>
+  </si>
+  <si>
+    <t>(2) Pack Price (20 cigs)</t>
+  </si>
+  <si>
+    <t>(4) Ad-Valorem tax (per pack)</t>
+  </si>
+  <si>
+    <t>(5) Specific duty (per 1000 cigs)</t>
+  </si>
+  <si>
+    <t>(6) Specific duty (per pack)</t>
+  </si>
+  <si>
+    <t>(7) Total excise per pack</t>
+  </si>
+  <si>
+    <t>(8) Total excise % of price</t>
+  </si>
+  <si>
+    <t>(9) Total cigarette spend (£m)</t>
+  </si>
+  <si>
+    <t>(1) Total duty receipts (£m)</t>
+  </si>
+  <si>
+    <t>(2) * (3)</t>
+  </si>
+  <si>
+    <t>(3) Ad-Valorem tax rate</t>
+  </si>
+  <si>
+    <t>(5) / 20</t>
+  </si>
+  <si>
+    <t>(4) + (6)</t>
+  </si>
+  <si>
+    <t>Dataset :</t>
+  </si>
+  <si>
+    <t>(7) / (2)</t>
+  </si>
+  <si>
+    <t>(1) / (8)</t>
+  </si>
+  <si>
+    <t>(2) Price per 100g (Dec 2020)</t>
+  </si>
+  <si>
+    <t>(3) Price deflator</t>
+  </si>
+  <si>
+    <t>(4) Price per 100g (Dec 2018)</t>
+  </si>
+  <si>
+    <t>(5) Specific duty (per kg)</t>
+  </si>
+  <si>
+    <t>(6) Specific duty (per 100g)</t>
+  </si>
+  <si>
+    <t>(7) Total excise % of price</t>
+  </si>
+  <si>
+    <t>(8) Total HRT spend (£m)</t>
+  </si>
+  <si>
+    <t>(5) / 10</t>
+  </si>
+  <si>
+    <t>(6) / (4)</t>
+  </si>
+  <si>
+    <t>(1) / (7)</t>
+  </si>
+  <si>
+    <t>Totals (£m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCFS</t>
   </si>
   <si>
     <t xml:space="preserve">E09000002</t>
@@ -1127,8 +1172,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
@@ -1168,6 +1214,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1175,12 +1233,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,12 +1268,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1245,22 +1291,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1583,171 +1635,241 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="2" max="2" width="28.7109375" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" s="7" t="n">
         <v>7748</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="7" t="n">
         <v>1444</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8" t="n">
         <v>8.83</v>
       </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="8" t="n">
         <v>51.6</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="n">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="9" t="n">
         <v>47.9</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>228.29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>234.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="9" t="n">
         <v>23.46</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="n">
-        <v>68.21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="n">
-        <v>48.98</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.4898</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.6821</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="11" t="n">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="11" t="n">
         <v>11359</v>
       </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2948</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="F11" s="3" t="n">
+    </row>
+    <row r="13">
+      <c r="H13" s="11" t="n">
         <v>14307</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="3" t="n">
+    <row r="15">
+      <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="11" t="n">
         <v>5522</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="4" t="n">
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>2.591</v>
       </c>
+      <c r="D19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1786,75 +1908,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" ht="54.95" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C3" t="n">
         <v>60.62</v>
@@ -1862,7 +1984,7 @@
       <c r="D3" t="n">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="13" t="n">
         <v>25722.73</v>
       </c>
       <c r="F3" t="n">
@@ -1880,7 +2002,7 @@
       <c r="J3" t="n">
         <v>1636</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="14" t="n">
         <v>85.048</v>
       </c>
       <c r="L3" t="n">
@@ -1895,10 +2017,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C4" t="n">
         <v>61.4</v>
@@ -1906,7 +2028,7 @@
       <c r="D4" t="n">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="13" t="n">
         <v>32931.71</v>
       </c>
       <c r="F4" t="n">
@@ -1924,7 +2046,7 @@
       <c r="J4" t="n">
         <v>2066</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="14" t="n">
         <v>107.432</v>
       </c>
       <c r="L4" t="n">
@@ -1939,10 +2061,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C5" t="n">
         <v>44.14</v>
@@ -1950,7 +2072,7 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="13" t="n">
         <v>26290</v>
       </c>
       <c r="F5" t="n">
@@ -1968,7 +2090,7 @@
       <c r="J5" t="n">
         <v>1581</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="14" t="n">
         <v>82.187</v>
       </c>
       <c r="L5" t="n">
@@ -1983,10 +2105,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C6" t="n">
         <v>42.99</v>
@@ -1994,7 +2116,7 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="13" t="n">
         <v>29866.67</v>
       </c>
       <c r="F6" t="n">
@@ -2012,7 +2134,7 @@
       <c r="J6" t="n">
         <v>881</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="14" t="n">
         <v>45.79</v>
       </c>
       <c r="L6" t="n">
@@ -2027,10 +2149,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C7" t="n">
         <v>43.67</v>
@@ -2038,7 +2160,7 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="13" t="n">
         <v>29835</v>
       </c>
       <c r="F7" t="n">
@@ -2056,7 +2178,7 @@
       <c r="J7" t="n">
         <v>623</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="14" t="n">
         <v>32.386</v>
       </c>
       <c r="L7" t="n">
@@ -2071,10 +2193,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C8" t="n">
         <v>65.55</v>
@@ -2082,7 +2204,7 @@
       <c r="D8" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="13" t="n">
         <v>32378.57</v>
       </c>
       <c r="F8" t="n">
@@ -2100,7 +2222,7 @@
       <c r="J8" t="n">
         <v>1775</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="14" t="n">
         <v>92.315</v>
       </c>
       <c r="L8" t="n">
@@ -2115,10 +2237,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C9" t="n">
         <v>65.49</v>
@@ -2126,7 +2248,7 @@
       <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="13" t="n">
         <v>22587.88</v>
       </c>
       <c r="F9" t="n">
@@ -2144,7 +2266,7 @@
       <c r="J9" t="n">
         <v>8276</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="14" t="n">
         <v>430.356</v>
       </c>
       <c r="L9" t="n">
@@ -2159,10 +2281,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C10" t="n">
         <v>67.63</v>
@@ -2170,7 +2292,7 @@
       <c r="D10" t="n">
         <v>7</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="13" t="n">
         <v>21933.33</v>
       </c>
       <c r="F10" t="n">
@@ -2188,7 +2310,7 @@
       <c r="J10" t="n">
         <v>1163</v>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="14" t="n">
         <v>60.475</v>
       </c>
       <c r="L10" t="n">
@@ -2203,10 +2325,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C11" t="n">
         <v>59.82</v>
@@ -2214,7 +2336,7 @@
       <c r="D11" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="13" t="n">
         <v>19615.79</v>
       </c>
       <c r="F11" t="n">
@@ -2232,7 +2354,7 @@
       <c r="J11" t="n">
         <v>1543</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="14" t="n">
         <v>80.248</v>
       </c>
       <c r="L11" t="n">
@@ -2247,10 +2369,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C12" t="n">
         <v>83.77</v>
@@ -2258,7 +2380,7 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="13" t="n">
         <v>24328.57</v>
       </c>
       <c r="F12" t="n">
@@ -2276,7 +2398,7 @@
       <c r="J12" t="n">
         <v>2913</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="14" t="n">
         <v>151.473</v>
       </c>
       <c r="L12" t="n">
@@ -2291,10 +2413,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C13" t="n">
         <v>54.77</v>
@@ -2302,7 +2424,7 @@
       <c r="D13" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="13" t="n">
         <v>26429.88</v>
       </c>
       <c r="F13" t="n">
@@ -2320,7 +2442,7 @@
       <c r="J13" t="n">
         <v>2428</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="14" t="n">
         <v>126.256</v>
       </c>
       <c r="L13" t="n">
@@ -2335,10 +2457,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C14" t="n">
         <v>54.17</v>
@@ -2346,7 +2468,7 @@
       <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="13" t="n">
         <v>31433.33</v>
       </c>
       <c r="F14" t="n">
@@ -2364,7 +2486,7 @@
       <c r="J14" t="n">
         <v>605</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="14" t="n">
         <v>31.463</v>
       </c>
       <c r="L14" t="n">
@@ -2379,10 +2501,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C15" t="n">
         <v>65.99</v>
@@ -2390,7 +2512,7 @@
       <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="13" t="n">
         <v>22373.77</v>
       </c>
       <c r="F15" t="n">
@@ -2408,7 +2530,7 @@
       <c r="J15" t="n">
         <v>4328</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="14" t="n">
         <v>225.061</v>
       </c>
       <c r="L15" t="n">
@@ -2423,10 +2545,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C16" t="n">
         <v>64.15</v>
@@ -2434,7 +2556,7 @@
       <c r="D16" t="n">
         <v>6</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="13" t="n">
         <v>27582.35</v>
       </c>
       <c r="F16" t="n">
@@ -2452,7 +2574,7 @@
       <c r="J16" t="n">
         <v>1671</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="14" t="n">
         <v>86.881</v>
       </c>
       <c r="L16" t="n">
@@ -2467,10 +2589,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C17" t="n">
         <v>50.06</v>
@@ -2478,7 +2600,7 @@
       <c r="D17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="13" t="n">
         <v>29896.97</v>
       </c>
       <c r="F17" t="n">
@@ -2496,7 +2618,7 @@
       <c r="J17" t="n">
         <v>2108</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="14" t="n">
         <v>109.613</v>
       </c>
       <c r="L17" t="n">
@@ -2511,10 +2633,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C18" t="n">
         <v>49.64</v>
@@ -2522,7 +2644,7 @@
       <c r="D18" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="13" t="n">
         <v>27087.27</v>
       </c>
       <c r="F18" t="n">
@@ -2540,7 +2662,7 @@
       <c r="J18" t="n">
         <v>3294</v>
       </c>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="14" t="n">
         <v>171.29</v>
       </c>
       <c r="L18" t="n">
@@ -2555,10 +2677,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C19" t="n">
         <v>60.22</v>
@@ -2566,7 +2688,7 @@
       <c r="D19" t="n">
         <v>5</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="13" t="n">
         <v>36620.51</v>
       </c>
       <c r="F19" t="n">
@@ -2584,7 +2706,7 @@
       <c r="J19" t="n">
         <v>1461</v>
       </c>
-      <c r="K19" s="8" t="n">
+      <c r="K19" s="14" t="n">
         <v>75.946</v>
       </c>
       <c r="L19" t="n">
@@ -2599,10 +2721,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C20" t="n">
         <v>56.29</v>
@@ -2610,7 +2732,7 @@
       <c r="D20" t="n">
         <v>4</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="13" t="n">
         <v>33529.07</v>
       </c>
       <c r="F20" t="n">
@@ -2620,7 +2742,7 @@
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="14"/>
       <c r="L20" t="n">
         <v>645</v>
       </c>
@@ -2633,10 +2755,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C21" t="n">
         <v>60.4</v>
@@ -2644,7 +2766,7 @@
       <c r="D21" t="n">
         <v>5</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="13" t="n">
         <v>26407.69</v>
       </c>
       <c r="F21" t="n">
@@ -2662,7 +2784,7 @@
       <c r="J21" t="n">
         <v>1139</v>
       </c>
-      <c r="K21" s="8" t="n">
+      <c r="K21" s="14" t="n">
         <v>59.236</v>
       </c>
       <c r="L21" t="n">
@@ -2677,10 +2799,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C22" t="n">
         <v>64.4</v>
@@ -2688,7 +2810,7 @@
       <c r="D22" t="n">
         <v>6</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="13" t="n">
         <v>25077.78</v>
       </c>
       <c r="F22" t="n">
@@ -2706,7 +2828,7 @@
       <c r="J22" t="n">
         <v>1713</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="K22" s="14" t="n">
         <v>89.072</v>
       </c>
       <c r="L22" t="n">
@@ -2721,10 +2843,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C23" t="n">
         <v>56.26</v>
@@ -2732,7 +2854,7 @@
       <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="13" t="n">
         <v>32436.02</v>
       </c>
       <c r="F23" t="n">
@@ -2750,7 +2872,7 @@
       <c r="J23" t="n">
         <v>3839</v>
       </c>
-      <c r="K23" s="8" t="n">
+      <c r="K23" s="14" t="n">
         <v>199.638</v>
       </c>
       <c r="L23" t="n">
@@ -2765,10 +2887,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C24" t="n">
         <v>55.81</v>
@@ -2776,7 +2898,7 @@
       <c r="D24" t="n">
         <v>3</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="13" t="n">
         <v>32492.86</v>
       </c>
       <c r="F24" t="n">
@@ -2794,7 +2916,7 @@
       <c r="J24" t="n">
         <v>1463</v>
       </c>
-      <c r="K24" s="8" t="n">
+      <c r="K24" s="14" t="n">
         <v>76.084</v>
       </c>
       <c r="L24" t="n">
@@ -2809,10 +2931,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C25" t="n">
         <v>65.73</v>
@@ -2820,7 +2942,7 @@
       <c r="D25" t="n">
         <v>7</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="13" t="n">
         <v>32036.36</v>
       </c>
       <c r="F25" t="n">
@@ -2838,7 +2960,7 @@
       <c r="J25" t="n">
         <v>2027</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K25" s="14" t="n">
         <v>105.387</v>
       </c>
       <c r="L25" t="n">
@@ -2853,10 +2975,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C26" t="n">
         <v>76.15</v>
@@ -2864,7 +2986,7 @@
       <c r="D26" t="n">
         <v>9</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="13" t="n">
         <v>30198.04</v>
       </c>
       <c r="F26" t="n">
@@ -2882,7 +3004,7 @@
       <c r="J26" t="n">
         <v>3226</v>
       </c>
-      <c r="K26" s="8" t="n">
+      <c r="K26" s="14" t="n">
         <v>167.737</v>
       </c>
       <c r="L26" t="n">
@@ -2897,10 +3019,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C27" t="n">
         <v>38.88</v>
@@ -2908,7 +3030,7 @@
       <c r="D27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="13" t="n">
         <v>29140.43</v>
       </c>
       <c r="F27" t="n">
@@ -2926,7 +3048,7 @@
       <c r="J27" t="n">
         <v>1210</v>
       </c>
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="14" t="n">
         <v>62.923</v>
       </c>
       <c r="L27" t="n">
@@ -2941,14 +3063,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="13" t="n">
         <v>41800</v>
       </c>
       <c r="F28" t="n">
@@ -2958,7 +3080,7 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28" s="8"/>
+      <c r="K28" s="14"/>
       <c r="L28" t="n">
         <v>804</v>
       </c>
@@ -2967,10 +3089,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C29" t="n">
         <v>48.55</v>
@@ -2978,7 +3100,7 @@
       <c r="D29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="E29" s="13" t="n">
         <v>25473.97</v>
       </c>
       <c r="F29" t="n">
@@ -2996,7 +3118,7 @@
       <c r="J29" t="n">
         <v>3395</v>
       </c>
-      <c r="K29" s="8" t="n">
+      <c r="K29" s="14" t="n">
         <v>176.565</v>
       </c>
       <c r="L29" t="n">
@@ -3011,10 +3133,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C30" t="n">
         <v>57.55</v>
@@ -3022,7 +3144,7 @@
       <c r="D30" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="13" t="n">
         <v>25237.88</v>
       </c>
       <c r="F30" t="n">
@@ -3040,7 +3162,7 @@
       <c r="J30" t="n">
         <v>4194</v>
       </c>
-      <c r="K30" s="8" t="n">
+      <c r="K30" s="14" t="n">
         <v>218.077</v>
       </c>
       <c r="L30" t="n">
@@ -3055,10 +3177,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C31" t="n">
         <v>61.7</v>
@@ -3066,7 +3188,7 @@
       <c r="D31" t="n">
         <v>6</v>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="13" t="n">
         <v>24764.29</v>
       </c>
       <c r="F31" t="n">
@@ -3084,7 +3206,7 @@
       <c r="J31" t="n">
         <v>2713</v>
       </c>
-      <c r="K31" s="8" t="n">
+      <c r="K31" s="14" t="n">
         <v>141.081</v>
       </c>
       <c r="L31" t="n">
@@ -3099,10 +3221,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C32" t="n">
         <v>60.29</v>
@@ -3110,7 +3232,7 @@
       <c r="D32" t="n">
         <v>5</v>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="E32" s="13" t="n">
         <v>31211.36</v>
       </c>
       <c r="F32" t="n">
@@ -3128,7 +3250,7 @@
       <c r="J32" t="n">
         <v>2187</v>
       </c>
-      <c r="K32" s="8" t="n">
+      <c r="K32" s="14" t="n">
         <v>113.711</v>
       </c>
       <c r="L32" t="n">
@@ -3143,10 +3265,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C33" t="n">
         <v>62</v>
@@ -3154,7 +3276,7 @@
       <c r="D33" t="n">
         <v>6</v>
       </c>
-      <c r="E33" s="7" t="n">
+      <c r="E33" s="13" t="n">
         <v>26745.87</v>
       </c>
       <c r="F33" t="n">
@@ -3172,7 +3294,7 @@
       <c r="J33" t="n">
         <v>3859</v>
       </c>
-      <c r="K33" s="8" t="n">
+      <c r="K33" s="14" t="n">
         <v>200.679</v>
       </c>
       <c r="L33" t="n">
@@ -3187,10 +3309,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C34" t="n">
         <v>77.41</v>
@@ -3198,7 +3320,7 @@
       <c r="D34" t="n">
         <v>9</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="13" t="n">
         <v>24253.33</v>
       </c>
       <c r="F34" t="n">
@@ -3216,7 +3338,7 @@
       <c r="J34" t="n">
         <v>894</v>
       </c>
-      <c r="K34" s="8" t="n">
+      <c r="K34" s="14" t="n">
         <v>46.503</v>
       </c>
       <c r="L34" t="n">
@@ -3231,10 +3353,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C35" t="n">
         <v>58.12</v>
@@ -3242,7 +3364,7 @@
       <c r="D35" t="n">
         <v>4</v>
       </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="13" t="n">
         <v>27148.39</v>
       </c>
       <c r="F35" t="n">
@@ -3260,7 +3382,7 @@
       <c r="J35" t="n">
         <v>1921</v>
       </c>
-      <c r="K35" s="8" t="n">
+      <c r="K35" s="14" t="n">
         <v>99.875</v>
       </c>
       <c r="L35" t="n">
@@ -3275,10 +3397,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C36" t="n">
         <v>63.45</v>
@@ -3286,7 +3408,7 @@
       <c r="D36" t="n">
         <v>6</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="13" t="n">
         <v>28928.41</v>
       </c>
       <c r="F36" t="n">
@@ -3304,7 +3426,7 @@
       <c r="J36" t="n">
         <v>5185</v>
       </c>
-      <c r="K36" s="8" t="n">
+      <c r="K36" s="14" t="n">
         <v>269.622</v>
       </c>
       <c r="L36" t="n">
@@ -3319,10 +3441,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="C37" t="n">
         <v>46.77</v>
@@ -3330,7 +3452,7 @@
       <c r="D37" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="7" t="n">
+      <c r="E37" s="13" t="n">
         <v>27183.86</v>
       </c>
       <c r="F37" t="n">
@@ -3348,7 +3470,7 @@
       <c r="J37" t="n">
         <v>4137</v>
       </c>
-      <c r="K37" s="8" t="n">
+      <c r="K37" s="14" t="n">
         <v>215.134</v>
       </c>
       <c r="L37" t="n">
@@ -3363,10 +3485,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C38" t="n">
         <v>78.79</v>
@@ -3374,7 +3496,7 @@
       <c r="D38" t="n">
         <v>10</v>
       </c>
-      <c r="E38" s="7" t="n">
+      <c r="E38" s="13" t="n">
         <v>25915.38</v>
       </c>
       <c r="F38" t="n">
@@ -3392,7 +3514,7 @@
       <c r="J38" t="n">
         <v>3686</v>
       </c>
-      <c r="K38" s="8" t="n">
+      <c r="K38" s="14" t="n">
         <v>191.658</v>
       </c>
       <c r="L38" t="n">
@@ -3407,10 +3529,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C39" t="n">
         <v>50.36</v>
@@ -3418,7 +3540,7 @@
       <c r="D39" t="n">
         <v>2</v>
       </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="13" t="n">
         <v>28697.19</v>
       </c>
       <c r="F39" t="n">
@@ -3436,7 +3558,7 @@
       <c r="J39" t="n">
         <v>1588</v>
       </c>
-      <c r="K39" s="8" t="n">
+      <c r="K39" s="14" t="n">
         <v>82.566</v>
       </c>
       <c r="L39" t="n">
@@ -3451,10 +3573,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C40" t="n">
         <v>54.06</v>
@@ -3462,7 +3584,7 @@
       <c r="D40" t="n">
         <v>3</v>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E40" s="13" t="n">
         <v>24918.6</v>
       </c>
       <c r="F40" t="n">
@@ -3480,7 +3602,7 @@
       <c r="J40" t="n">
         <v>1840</v>
       </c>
-      <c r="K40" s="8" t="n">
+      <c r="K40" s="14" t="n">
         <v>95.694</v>
       </c>
       <c r="L40" t="n">
@@ -3495,10 +3617,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C41" t="n">
         <v>59.31</v>
@@ -3506,7 +3628,7 @@
       <c r="D41" t="n">
         <v>5</v>
       </c>
-      <c r="E41" s="7" t="n">
+      <c r="E41" s="13" t="n">
         <v>31084.62</v>
       </c>
       <c r="F41" t="n">
@@ -3524,7 +3646,7 @@
       <c r="J41" t="n">
         <v>1533</v>
       </c>
-      <c r="K41" s="8" t="n">
+      <c r="K41" s="14" t="n">
         <v>79.694</v>
       </c>
       <c r="L41" t="n">
@@ -3539,10 +3661,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C42" t="n">
         <v>67.66</v>
@@ -3550,7 +3672,7 @@
       <c r="D42" t="n">
         <v>8</v>
       </c>
-      <c r="E42" s="7" t="n">
+      <c r="E42" s="13" t="n">
         <v>28239.53</v>
       </c>
       <c r="F42" t="n">
@@ -3568,7 +3690,7 @@
       <c r="J42" t="n">
         <v>2279</v>
       </c>
-      <c r="K42" s="8" t="n">
+      <c r="K42" s="14" t="n">
         <v>118.498</v>
       </c>
       <c r="L42" t="n">
@@ -3583,10 +3705,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C43" t="n">
         <v>53.36</v>
@@ -3594,7 +3716,7 @@
       <c r="D43" t="n">
         <v>2</v>
       </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="13" t="n">
         <v>28866.33</v>
       </c>
       <c r="F43" t="n">
@@ -3612,7 +3734,7 @@
       <c r="J43" t="n">
         <v>3042</v>
       </c>
-      <c r="K43" s="8" t="n">
+      <c r="K43" s="14" t="n">
         <v>158.179</v>
       </c>
       <c r="L43" t="n">
@@ -3627,10 +3749,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C44" t="n">
         <v>61.24</v>
@@ -3638,7 +3760,7 @@
       <c r="D44" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="13" t="n">
         <v>28469.44</v>
       </c>
       <c r="F44" t="n">
@@ -3656,7 +3778,7 @@
       <c r="J44" t="n">
         <v>2414</v>
       </c>
-      <c r="K44" s="8" t="n">
+      <c r="K44" s="14" t="n">
         <v>125.545</v>
       </c>
       <c r="L44" t="n">
@@ -3671,10 +3793,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C45" t="n">
         <v>68.03</v>
@@ -3682,7 +3804,7 @@
       <c r="D45" t="n">
         <v>8</v>
       </c>
-      <c r="E45" s="7" t="n">
+      <c r="E45" s="13" t="n">
         <v>29986.79</v>
       </c>
       <c r="F45" t="n">
@@ -3700,7 +3822,7 @@
       <c r="J45" t="n">
         <v>10541</v>
       </c>
-      <c r="K45" s="8" t="n">
+      <c r="K45" s="14" t="n">
         <v>548.131</v>
       </c>
       <c r="L45" t="n">
@@ -3715,10 +3837,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C46" t="n">
         <v>53.62</v>
@@ -3726,7 +3848,7 @@
       <c r="D46" t="n">
         <v>2</v>
       </c>
-      <c r="E46" s="7" t="n">
+      <c r="E46" s="13" t="n">
         <v>24418.52</v>
       </c>
       <c r="F46" t="n">
@@ -3744,7 +3866,7 @@
       <c r="J46" t="n">
         <v>1491</v>
       </c>
-      <c r="K46" s="8" t="n">
+      <c r="K46" s="14" t="n">
         <v>77.527</v>
       </c>
       <c r="L46" t="n">
@@ -3759,10 +3881,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C47" t="n">
         <v>59.28</v>
@@ -3770,7 +3892,7 @@
       <c r="D47" t="n">
         <v>5</v>
       </c>
-      <c r="E47" s="7" t="n">
+      <c r="E47" s="13" t="n">
         <v>29223.71</v>
       </c>
       <c r="F47" t="n">
@@ -3788,7 +3910,7 @@
       <c r="J47" t="n">
         <v>3904</v>
       </c>
-      <c r="K47" s="8" t="n">
+      <c r="K47" s="14" t="n">
         <v>203.01</v>
       </c>
       <c r="L47" t="n">
@@ -3803,10 +3925,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C48" t="n">
         <v>64.62</v>
@@ -3814,7 +3936,7 @@
       <c r="D48" t="n">
         <v>6</v>
       </c>
-      <c r="E48" s="7" t="n">
+      <c r="E48" s="13" t="n">
         <v>30403.03</v>
       </c>
       <c r="F48" t="n">
@@ -3832,7 +3954,7 @@
       <c r="J48" t="n">
         <v>1805</v>
       </c>
-      <c r="K48" s="8" t="n">
+      <c r="K48" s="14" t="n">
         <v>93.854</v>
       </c>
       <c r="L48" t="n">
@@ -3847,10 +3969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C49" t="n">
         <v>48.98</v>
@@ -3858,7 +3980,7 @@
       <c r="D49" t="n">
         <v>2</v>
       </c>
-      <c r="E49" s="7" t="n">
+      <c r="E49" s="13" t="n">
         <v>27000</v>
       </c>
       <c r="F49" t="n">
@@ -3876,7 +3998,7 @@
       <c r="J49" t="n">
         <v>1537</v>
       </c>
-      <c r="K49" s="8" t="n">
+      <c r="K49" s="14" t="n">
         <v>79.932</v>
       </c>
       <c r="L49" t="n">
@@ -3891,10 +4013,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C50" t="n">
         <v>98.38</v>
@@ -3902,7 +4024,7 @@
       <c r="D50" t="n">
         <v>10</v>
       </c>
-      <c r="E50" s="7" t="n">
+      <c r="E50" s="13" t="n">
         <v>23906.25</v>
       </c>
       <c r="F50" t="n">
@@ -3920,7 +4042,7 @@
       <c r="J50" t="n">
         <v>1476</v>
       </c>
-      <c r="K50" s="8" t="n">
+      <c r="K50" s="14" t="n">
         <v>76.733</v>
       </c>
       <c r="L50" t="n">
@@ -3935,10 +4057,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C51" t="n">
         <v>55.57</v>
@@ -3946,7 +4068,7 @@
       <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="7" t="n">
+      <c r="E51" s="13" t="n">
         <v>31740</v>
       </c>
       <c r="F51" t="n">
@@ -3964,7 +4086,7 @@
       <c r="J51" t="n">
         <v>850</v>
       </c>
-      <c r="K51" s="8" t="n">
+      <c r="K51" s="14" t="n">
         <v>44.223</v>
       </c>
       <c r="L51" t="n">
@@ -3979,10 +4101,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C52" t="n">
         <v>65.63</v>
@@ -3990,7 +4112,7 @@
       <c r="D52" t="n">
         <v>7</v>
       </c>
-      <c r="E52" s="7" t="n">
+      <c r="E52" s="13" t="n">
         <v>32746.23</v>
       </c>
       <c r="F52" t="n">
@@ -4008,7 +4130,7 @@
       <c r="J52" t="n">
         <v>7199</v>
       </c>
-      <c r="K52" s="8" t="n">
+      <c r="K52" s="14" t="n">
         <v>374.373</v>
       </c>
       <c r="L52" t="n">
@@ -4023,10 +4145,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C53" t="n">
         <v>46.21</v>
@@ -4034,7 +4156,7 @@
       <c r="D53" t="n">
         <v>1</v>
       </c>
-      <c r="E53" s="7" t="n">
+      <c r="E53" s="13" t="n">
         <v>30000</v>
       </c>
       <c r="F53" t="n">
@@ -4052,7 +4174,7 @@
       <c r="J53" t="n">
         <v>1437</v>
       </c>
-      <c r="K53" s="8" t="n">
+      <c r="K53" s="14" t="n">
         <v>74.749</v>
       </c>
       <c r="L53" t="n">
@@ -4067,10 +4189,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C54" t="n">
         <v>69.93</v>
@@ -4078,7 +4200,7 @@
       <c r="D54" t="n">
         <v>8</v>
       </c>
-      <c r="E54" s="7" t="n">
+      <c r="E54" s="13" t="n">
         <v>33486.67</v>
       </c>
       <c r="F54" t="n">
@@ -4096,7 +4218,7 @@
       <c r="J54" t="n">
         <v>1390</v>
       </c>
-      <c r="K54" s="8" t="n">
+      <c r="K54" s="14" t="n">
         <v>72.27</v>
       </c>
       <c r="L54" t="n">
@@ -4111,10 +4233,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B55" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C55" t="n">
         <v>80.34</v>
@@ -4122,7 +4244,7 @@
       <c r="D55" t="n">
         <v>10</v>
       </c>
-      <c r="E55" s="7" t="n">
+      <c r="E55" s="13" t="n">
         <v>21925</v>
       </c>
       <c r="F55" t="n">
@@ -4140,7 +4262,7 @@
       <c r="J55" t="n">
         <v>1139</v>
       </c>
-      <c r="K55" s="8" t="n">
+      <c r="K55" s="14" t="n">
         <v>59.237</v>
       </c>
       <c r="L55" t="n">
@@ -4155,10 +4277,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C56" t="n">
         <v>88.94</v>
@@ -4166,7 +4288,7 @@
       <c r="D56" t="n">
         <v>10</v>
       </c>
-      <c r="E56" s="7" t="n">
+      <c r="E56" s="13" t="n">
         <v>32280</v>
       </c>
       <c r="F56" t="n">
@@ -4184,7 +4306,7 @@
       <c r="J56" t="n">
         <v>2359</v>
       </c>
-      <c r="K56" s="8" t="n">
+      <c r="K56" s="14" t="n">
         <v>122.677</v>
       </c>
       <c r="L56" t="n">
@@ -4199,10 +4321,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C57" t="n">
         <v>67.55</v>
@@ -4210,7 +4332,7 @@
       <c r="D57" t="n">
         <v>7</v>
       </c>
-      <c r="E57" s="7" t="n">
+      <c r="E57" s="13" t="n">
         <v>27047.83</v>
       </c>
       <c r="F57" t="n">
@@ -4228,7 +4350,7 @@
       <c r="J57" t="n">
         <v>1299</v>
       </c>
-      <c r="K57" s="8" t="n">
+      <c r="K57" s="14" t="n">
         <v>67.568</v>
       </c>
       <c r="L57" t="n">
@@ -4243,10 +4365,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C58" t="n">
         <v>54.73</v>
@@ -4254,7 +4376,7 @@
       <c r="D58" t="n">
         <v>3</v>
       </c>
-      <c r="E58" s="7" t="n">
+      <c r="E58" s="13" t="n">
         <v>31018.53</v>
       </c>
       <c r="F58" t="n">
@@ -4272,7 +4394,7 @@
       <c r="J58" t="n">
         <v>5503</v>
       </c>
-      <c r="K58" s="8" t="n">
+      <c r="K58" s="14" t="n">
         <v>286.145</v>
       </c>
       <c r="L58" t="n">
@@ -4287,10 +4409,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C59" t="n">
         <v>65.09</v>
@@ -4298,7 +4420,7 @@
       <c r="D59" t="n">
         <v>7</v>
       </c>
-      <c r="E59" s="7" t="n">
+      <c r="E59" s="13" t="n">
         <v>31968.75</v>
       </c>
       <c r="F59" t="n">
@@ -4316,7 +4438,7 @@
       <c r="J59" t="n">
         <v>1788</v>
       </c>
-      <c r="K59" s="8" t="n">
+      <c r="K59" s="14" t="n">
         <v>92.973</v>
       </c>
       <c r="L59" t="n">
@@ -4331,10 +4453,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C60" t="n">
         <v>64.14</v>
@@ -4342,7 +4464,7 @@
       <c r="D60" t="n">
         <v>6</v>
       </c>
-      <c r="E60" s="7" t="n">
+      <c r="E60" s="13" t="n">
         <v>30850</v>
       </c>
       <c r="F60" t="n">
@@ -4360,7 +4482,7 @@
       <c r="J60" t="n">
         <v>1885</v>
       </c>
-      <c r="K60" s="8" t="n">
+      <c r="K60" s="14" t="n">
         <v>98.042</v>
       </c>
       <c r="L60" t="n">
@@ -4375,10 +4497,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C61" t="n">
         <v>69.24</v>
@@ -4386,7 +4508,7 @@
       <c r="D61" t="n">
         <v>8</v>
       </c>
-      <c r="E61" s="7" t="n">
+      <c r="E61" s="13" t="n">
         <v>27144.44</v>
       </c>
       <c r="F61" t="n">
@@ -4404,7 +4526,7 @@
       <c r="J61" t="n">
         <v>1170</v>
       </c>
-      <c r="K61" s="8" t="n">
+      <c r="K61" s="14" t="n">
         <v>60.835</v>
       </c>
       <c r="L61" t="n">
@@ -4419,14 +4541,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="E62" s="7" t="n">
+      <c r="E62" s="13" t="n">
         <v>22700</v>
       </c>
       <c r="F62" t="n">
@@ -4436,7 +4558,7 @@
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
-      <c r="K62" s="8"/>
+      <c r="K62" s="14"/>
       <c r="L62" t="n">
         <v>437</v>
       </c>
@@ -4445,10 +4567,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C63" t="n">
         <v>56.58</v>
@@ -4456,7 +4578,7 @@
       <c r="D63" t="n">
         <v>4</v>
       </c>
-      <c r="E63" s="7" t="n">
+      <c r="E63" s="13" t="n">
         <v>29604.35</v>
       </c>
       <c r="F63" t="n">
@@ -4474,7 +4596,7 @@
       <c r="J63" t="n">
         <v>1398</v>
       </c>
-      <c r="K63" s="8" t="n">
+      <c r="K63" s="14" t="n">
         <v>72.71</v>
       </c>
       <c r="L63" t="n">
@@ -4489,10 +4611,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C64" t="n">
         <v>58.94</v>
@@ -4500,7 +4622,7 @@
       <c r="D64" t="n">
         <v>4</v>
       </c>
-      <c r="E64" s="7" t="n">
+      <c r="E64" s="13" t="n">
         <v>34028.57</v>
       </c>
       <c r="F64" t="n">
@@ -4518,7 +4640,7 @@
       <c r="J64" t="n">
         <v>1120</v>
       </c>
-      <c r="K64" s="8" t="n">
+      <c r="K64" s="14" t="n">
         <v>58.233</v>
       </c>
       <c r="L64" t="n">
@@ -4533,10 +4655,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C65" t="n">
         <v>60.79</v>
@@ -4544,7 +4666,7 @@
       <c r="D65" t="n">
         <v>5</v>
       </c>
-      <c r="E65" s="7"/>
+      <c r="E65" s="13"/>
       <c r="F65"/>
       <c r="G65" t="n">
         <v>13.69</v>
@@ -4558,7 +4680,7 @@
       <c r="J65" t="n">
         <v>10297</v>
       </c>
-      <c r="K65" s="8" t="n">
+      <c r="K65" s="14" t="n">
         <v>535.452</v>
       </c>
       <c r="L65"/>
@@ -4567,10 +4689,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C66" t="n">
         <v>68.63</v>
@@ -4578,7 +4700,7 @@
       <c r="D66" t="n">
         <v>8</v>
       </c>
-      <c r="E66" s="7" t="n">
+      <c r="E66" s="13" t="n">
         <v>22446.88</v>
       </c>
       <c r="F66" t="n">
@@ -4596,7 +4718,7 @@
       <c r="J66" t="n">
         <v>3087</v>
       </c>
-      <c r="K66" s="8" t="n">
+      <c r="K66" s="14" t="n">
         <v>160.527</v>
       </c>
       <c r="L66" t="n">
@@ -4611,10 +4733,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C67" t="n">
         <v>43.26</v>
@@ -4622,7 +4744,7 @@
       <c r="D67" t="n">
         <v>1</v>
       </c>
-      <c r="E67" s="7" t="n">
+      <c r="E67" s="13" t="n">
         <v>38760</v>
       </c>
       <c r="F67" t="n">
@@ -4640,7 +4762,7 @@
       <c r="J67" t="n">
         <v>550</v>
       </c>
-      <c r="K67" s="8" t="n">
+      <c r="K67" s="14" t="n">
         <v>28.621</v>
       </c>
       <c r="L67" t="n">
@@ -4655,10 +4777,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C68" t="n">
         <v>59.07</v>
@@ -4666,7 +4788,7 @@
       <c r="D68" t="n">
         <v>4</v>
       </c>
-      <c r="E68" s="7" t="n">
+      <c r="E68" s="13" t="n">
         <v>24350.85</v>
       </c>
       <c r="F68" t="n">
@@ -4684,7 +4806,7 @@
       <c r="J68" t="n">
         <v>2865</v>
       </c>
-      <c r="K68" s="8" t="n">
+      <c r="K68" s="14" t="n">
         <v>148.97</v>
       </c>
       <c r="L68" t="n">
@@ -4699,10 +4821,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C69" t="n">
         <v>69</v>
@@ -4710,7 +4832,7 @@
       <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="E69" s="7" t="n">
+      <c r="E69" s="13" t="n">
         <v>20985</v>
       </c>
       <c r="F69" t="n">
@@ -4728,7 +4850,7 @@
       <c r="J69" t="n">
         <v>1151</v>
       </c>
-      <c r="K69" s="8" t="n">
+      <c r="K69" s="14" t="n">
         <v>59.856</v>
       </c>
       <c r="L69" t="n">
@@ -4743,10 +4865,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C70" t="n">
         <v>56.71</v>
@@ -4754,7 +4876,7 @@
       <c r="D70" t="n">
         <v>4</v>
       </c>
-      <c r="E70" s="7" t="n">
+      <c r="E70" s="13" t="n">
         <v>30728.57</v>
       </c>
       <c r="F70" t="n">
@@ -4772,7 +4894,7 @@
       <c r="J70" t="n">
         <v>2000</v>
       </c>
-      <c r="K70" s="8" t="n">
+      <c r="K70" s="14" t="n">
         <v>104.019</v>
       </c>
       <c r="L70" t="n">
@@ -4787,10 +4909,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C71" t="n">
         <v>60.87</v>
@@ -4798,7 +4920,7 @@
       <c r="D71" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="7" t="n">
+      <c r="E71" s="13" t="n">
         <v>25636.48</v>
       </c>
       <c r="F71" t="n">
@@ -4816,7 +4938,7 @@
       <c r="J71" t="n">
         <v>8166</v>
       </c>
-      <c r="K71" s="8" t="n">
+      <c r="K71" s="14" t="n">
         <v>424.639</v>
       </c>
       <c r="L71" t="n">
@@ -4831,10 +4953,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C72" t="n">
         <v>50.21</v>
@@ -4842,7 +4964,7 @@
       <c r="D72" t="n">
         <v>2</v>
       </c>
-      <c r="E72" s="7" t="n">
+      <c r="E72" s="13" t="n">
         <v>25265.42</v>
       </c>
       <c r="F72" t="n">
@@ -4860,7 +4982,7 @@
       <c r="J72" t="n">
         <v>4779</v>
       </c>
-      <c r="K72" s="8" t="n">
+      <c r="K72" s="14" t="n">
         <v>248.521</v>
       </c>
       <c r="L72" t="n">
@@ -4875,10 +4997,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C73" t="n">
         <v>51.98</v>
@@ -4886,7 +5008,7 @@
       <c r="D73" t="n">
         <v>2</v>
       </c>
-      <c r="E73" s="7" t="n">
+      <c r="E73" s="13" t="n">
         <v>20843.24</v>
       </c>
       <c r="F73" t="n">
@@ -4904,7 +5026,7 @@
       <c r="J73" t="n">
         <v>2169</v>
       </c>
-      <c r="K73" s="8" t="n">
+      <c r="K73" s="14" t="n">
         <v>112.792</v>
       </c>
       <c r="L73" t="n">
@@ -4919,10 +5041,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C74" t="n">
         <v>72.53</v>
@@ -4930,7 +5052,7 @@
       <c r="D74" t="n">
         <v>9</v>
       </c>
-      <c r="E74" s="7" t="n">
+      <c r="E74" s="13" t="n">
         <v>31161.77</v>
       </c>
       <c r="F74" t="n">
@@ -4948,7 +5070,7 @@
       <c r="J74" t="n">
         <v>4904</v>
       </c>
-      <c r="K74" s="8" t="n">
+      <c r="K74" s="14" t="n">
         <v>255.027</v>
       </c>
       <c r="L74" t="n">
@@ -4963,10 +5085,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C75" t="n">
         <v>54.94</v>
@@ -4974,7 +5096,7 @@
       <c r="D75" t="n">
         <v>3</v>
       </c>
-      <c r="E75" s="7" t="n">
+      <c r="E75" s="13" t="n">
         <v>30763.89</v>
       </c>
       <c r="F75" t="n">
@@ -4992,7 +5114,7 @@
       <c r="J75" t="n">
         <v>1894</v>
       </c>
-      <c r="K75" s="8" t="n">
+      <c r="K75" s="14" t="n">
         <v>98.51</v>
       </c>
       <c r="L75" t="n">
@@ -5007,10 +5129,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C76" t="n">
         <v>55.27</v>
@@ -5018,7 +5140,7 @@
       <c r="D76" t="n">
         <v>3</v>
       </c>
-      <c r="E76" s="7" t="n">
+      <c r="E76" s="13" t="n">
         <v>27021.75</v>
       </c>
       <c r="F76" t="n">
@@ -5036,7 +5158,7 @@
       <c r="J76" t="n">
         <v>5205</v>
       </c>
-      <c r="K76" s="8" t="n">
+      <c r="K76" s="14" t="n">
         <v>270.668</v>
       </c>
       <c r="L76" t="n">
@@ -5051,10 +5173,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="C77" t="n">
         <v>63.45</v>
@@ -5062,7 +5184,7 @@
       <c r="D77" t="n">
         <v>6</v>
       </c>
-      <c r="E77" s="7" t="n">
+      <c r="E77" s="13" t="n">
         <v>21895.08</v>
       </c>
       <c r="F77" t="n">
@@ -5080,7 +5202,7 @@
       <c r="J77" t="n">
         <v>3604</v>
       </c>
-      <c r="K77" s="8" t="n">
+      <c r="K77" s="14" t="n">
         <v>187.428</v>
       </c>
       <c r="L77" t="n">
@@ -5095,10 +5217,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C78" t="n">
         <v>77.21</v>
@@ -5106,7 +5228,7 @@
       <c r="D78" t="n">
         <v>9</v>
       </c>
-      <c r="E78" s="7" t="n">
+      <c r="E78" s="13" t="n">
         <v>25614.29</v>
       </c>
       <c r="F78" t="n">
@@ -5124,7 +5246,7 @@
       <c r="J78" t="n">
         <v>2023</v>
       </c>
-      <c r="K78" s="8" t="n">
+      <c r="K78" s="14" t="n">
         <v>105.203</v>
       </c>
       <c r="L78" t="n">
@@ -5139,10 +5261,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B79" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C79" t="n">
         <v>37.67</v>
@@ -5150,7 +5272,7 @@
       <c r="D79" t="n">
         <v>1</v>
       </c>
-      <c r="E79" s="7" t="n">
+      <c r="E79" s="13" t="n">
         <v>21901.75</v>
       </c>
       <c r="F79" t="n">
@@ -5168,7 +5290,7 @@
       <c r="J79" t="n">
         <v>2918</v>
       </c>
-      <c r="K79" s="8" t="n">
+      <c r="K79" s="14" t="n">
         <v>151.729</v>
       </c>
       <c r="L79" t="n">
@@ -5183,10 +5305,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C80" t="n">
         <v>73.56</v>
@@ -5194,7 +5316,7 @@
       <c r="D80" t="n">
         <v>9</v>
       </c>
-      <c r="E80" s="7" t="n">
+      <c r="E80" s="13" t="n">
         <v>28457.89</v>
       </c>
       <c r="F80" t="n">
@@ -5212,7 +5334,7 @@
       <c r="J80" t="n">
         <v>2209</v>
       </c>
-      <c r="K80" s="8" t="n">
+      <c r="K80" s="14" t="n">
         <v>114.886</v>
       </c>
       <c r="L80" t="n">
@@ -5227,10 +5349,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C81" t="n">
         <v>48.73</v>
@@ -5238,7 +5360,7 @@
       <c r="D81" t="n">
         <v>2</v>
       </c>
-      <c r="E81" s="7" t="n">
+      <c r="E81" s="13" t="n">
         <v>35368</v>
       </c>
       <c r="F81" t="n">
@@ -5256,7 +5378,7 @@
       <c r="J81" t="n">
         <v>1051</v>
       </c>
-      <c r="K81" s="8" t="n">
+      <c r="K81" s="14" t="n">
         <v>54.627</v>
       </c>
       <c r="L81" t="n">
@@ -5271,10 +5393,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C82" t="n">
         <v>79.89</v>
@@ -5282,7 +5404,7 @@
       <c r="D82" t="n">
         <v>10</v>
       </c>
-      <c r="E82" s="7" t="n">
+      <c r="E82" s="13" t="n">
         <v>22326.32</v>
       </c>
       <c r="F82" t="n">
@@ -5300,7 +5422,7 @@
       <c r="J82" t="n">
         <v>1484</v>
       </c>
-      <c r="K82" s="8" t="n">
+      <c r="K82" s="14" t="n">
         <v>77.178</v>
       </c>
       <c r="L82" t="n">
@@ -5315,10 +5437,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C83" t="n">
         <v>64.7</v>
@@ -5326,7 +5448,7 @@
       <c r="D83" t="n">
         <v>6</v>
       </c>
-      <c r="E83" s="7" t="n">
+      <c r="E83" s="13" t="n">
         <v>29484.38</v>
       </c>
       <c r="F83" t="n">
@@ -5344,7 +5466,7 @@
       <c r="J83" t="n">
         <v>1954</v>
       </c>
-      <c r="K83" s="8" t="n">
+      <c r="K83" s="14" t="n">
         <v>101.611</v>
       </c>
       <c r="L83" t="n">
@@ -5359,10 +5481,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C84" t="n">
         <v>77.7</v>
@@ -5370,7 +5492,7 @@
       <c r="D84" t="n">
         <v>10</v>
       </c>
-      <c r="E84" s="7" t="n">
+      <c r="E84" s="13" t="n">
         <v>24086.21</v>
       </c>
       <c r="F84" t="n">
@@ -5388,7 +5510,7 @@
       <c r="J84" t="n">
         <v>2471</v>
       </c>
-      <c r="K84" s="8" t="n">
+      <c r="K84" s="14" t="n">
         <v>128.508</v>
       </c>
       <c r="L84" t="n">
@@ -5403,10 +5525,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C85" t="n">
         <v>72.8</v>
@@ -5414,7 +5536,7 @@
       <c r="D85" t="n">
         <v>9</v>
       </c>
-      <c r="E85" s="7" t="n">
+      <c r="E85" s="13" t="n">
         <v>26275.68</v>
       </c>
       <c r="F85" t="n">
@@ -5432,7 +5554,7 @@
       <c r="J85" t="n">
         <v>2686</v>
       </c>
-      <c r="K85" s="8" t="n">
+      <c r="K85" s="14" t="n">
         <v>139.649</v>
       </c>
       <c r="L85" t="n">
@@ -5447,10 +5569,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C86" t="n">
         <v>52.74</v>
@@ -5458,7 +5580,7 @@
       <c r="D86" t="n">
         <v>2</v>
       </c>
-      <c r="E86" s="7" t="n">
+      <c r="E86" s="13" t="n">
         <v>28364.07</v>
       </c>
       <c r="F86" t="n">
@@ -5476,7 +5598,7 @@
       <c r="J86" t="n">
         <v>5643</v>
       </c>
-      <c r="K86" s="8" t="n">
+      <c r="K86" s="14" t="n">
         <v>293.418</v>
       </c>
       <c r="L86" t="n">
@@ -5491,10 +5613,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="C87" t="n">
         <v>63.9</v>
@@ -5502,7 +5624,7 @@
       <c r="D87" t="n">
         <v>6</v>
       </c>
-      <c r="E87" s="7" t="n">
+      <c r="E87" s="13" t="n">
         <v>23526.09</v>
       </c>
       <c r="F87" t="n">
@@ -5520,7 +5642,7 @@
       <c r="J87" t="n">
         <v>1774</v>
       </c>
-      <c r="K87" s="8" t="n">
+      <c r="K87" s="14" t="n">
         <v>92.249</v>
       </c>
       <c r="L87" t="n">
@@ -5535,10 +5657,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B88" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C88" t="n">
         <v>65.66</v>
@@ -5546,7 +5668,7 @@
       <c r="D88" t="n">
         <v>7</v>
       </c>
-      <c r="E88" s="7" t="n">
+      <c r="E88" s="13" t="n">
         <v>26817.39</v>
       </c>
       <c r="F88" t="n">
@@ -5564,7 +5686,7 @@
       <c r="J88" t="n">
         <v>1600</v>
       </c>
-      <c r="K88" s="8" t="n">
+      <c r="K88" s="14" t="n">
         <v>83.217</v>
       </c>
       <c r="L88" t="n">
@@ -5579,10 +5701,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B89" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C89" t="n">
         <v>42.37</v>
@@ -5590,7 +5712,7 @@
       <c r="D89" t="n">
         <v>1</v>
       </c>
-      <c r="E89" s="7" t="n">
+      <c r="E89" s="13" t="n">
         <v>28900</v>
       </c>
       <c r="F89" t="n">
@@ -5608,7 +5730,7 @@
       <c r="J89" t="n">
         <v>817</v>
       </c>
-      <c r="K89" s="8" t="n">
+      <c r="K89" s="14" t="n">
         <v>42.467</v>
       </c>
       <c r="L89" t="n">
@@ -5623,10 +5745,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C90" t="n">
         <v>70.05</v>
@@ -5634,7 +5756,7 @@
       <c r="D90" t="n">
         <v>8</v>
       </c>
-      <c r="E90" s="7" t="n">
+      <c r="E90" s="13" t="n">
         <v>26016.67</v>
       </c>
       <c r="F90" t="n">
@@ -5652,7 +5774,7 @@
       <c r="J90" t="n">
         <v>1621</v>
       </c>
-      <c r="K90" s="8" t="n">
+      <c r="K90" s="14" t="n">
         <v>84.29</v>
       </c>
       <c r="L90" t="n">
@@ -5667,10 +5789,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B91" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="C91" t="n">
         <v>62.87</v>
@@ -5678,7 +5800,7 @@
       <c r="D91" t="n">
         <v>6</v>
       </c>
-      <c r="E91" s="7" t="n">
+      <c r="E91" s="13" t="n">
         <v>28621.17</v>
       </c>
       <c r="F91" t="n">
@@ -5696,7 +5818,7 @@
       <c r="J91" t="n">
         <v>3760</v>
       </c>
-      <c r="K91" s="8" t="n">
+      <c r="K91" s="14" t="n">
         <v>195.502</v>
       </c>
       <c r="L91" t="n">
@@ -5711,10 +5833,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C92" t="n">
         <v>67.17</v>
@@ -5722,7 +5844,7 @@
       <c r="D92" t="n">
         <v>7</v>
       </c>
-      <c r="E92" s="7" t="n">
+      <c r="E92" s="13" t="n">
         <v>29037.4</v>
       </c>
       <c r="F92" t="n">
@@ -5740,7 +5862,7 @@
       <c r="J92" t="n">
         <v>6393</v>
       </c>
-      <c r="K92" s="8" t="n">
+      <c r="K92" s="14" t="n">
         <v>332.437</v>
       </c>
       <c r="L92" t="n">
@@ -5755,10 +5877,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B93" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C93" t="n">
         <v>68.67</v>
@@ -5766,7 +5888,7 @@
       <c r="D93" t="n">
         <v>8</v>
       </c>
-      <c r="E93" s="7" t="n">
+      <c r="E93" s="13" t="n">
         <v>26652.5</v>
       </c>
       <c r="F93" t="n">
@@ -5784,7 +5906,7 @@
       <c r="J93" t="n">
         <v>2325</v>
       </c>
-      <c r="K93" s="8" t="n">
+      <c r="K93" s="14" t="n">
         <v>120.874</v>
       </c>
       <c r="L93" t="n">
@@ -5799,10 +5921,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B94" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C94" t="n">
         <v>62.86</v>
@@ -5810,7 +5932,7 @@
       <c r="D94" t="n">
         <v>6</v>
       </c>
-      <c r="E94" s="7" t="n">
+      <c r="E94" s="13" t="n">
         <v>23686.84</v>
       </c>
       <c r="F94" t="n">
@@ -5828,7 +5950,7 @@
       <c r="J94" t="n">
         <v>3465</v>
       </c>
-      <c r="K94" s="8" t="n">
+      <c r="K94" s="14" t="n">
         <v>180.184</v>
       </c>
       <c r="L94" t="n">
@@ -5843,10 +5965,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B95" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C95" t="n">
         <v>67.4</v>
@@ -5854,7 +5976,7 @@
       <c r="D95" t="n">
         <v>7</v>
       </c>
-      <c r="E95" s="7" t="n">
+      <c r="E95" s="13" t="n">
         <v>30664.52</v>
       </c>
       <c r="F95" t="n">
@@ -5872,7 +5994,7 @@
       <c r="J95" t="n">
         <v>6404</v>
       </c>
-      <c r="K95" s="8" t="n">
+      <c r="K95" s="14" t="n">
         <v>333.019</v>
       </c>
       <c r="L95" t="n">
@@ -5887,10 +6009,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B96" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="C96" t="n">
         <v>77.39</v>
@@ -5898,7 +6020,7 @@
       <c r="D96" t="n">
         <v>9</v>
       </c>
-      <c r="E96" s="7" t="n">
+      <c r="E96" s="13" t="n">
         <v>24087.88</v>
       </c>
       <c r="F96" t="n">
@@ -5916,7 +6038,7 @@
       <c r="J96" t="n">
         <v>2458</v>
       </c>
-      <c r="K96" s="8" t="n">
+      <c r="K96" s="14" t="n">
         <v>127.827</v>
       </c>
       <c r="L96" t="n">
@@ -5931,10 +6053,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B97" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C97" t="n">
         <v>60.62</v>
@@ -5942,7 +6064,7 @@
       <c r="D97" t="n">
         <v>5</v>
       </c>
-      <c r="E97" s="7" t="n">
+      <c r="E97" s="13" t="n">
         <v>33310.03</v>
       </c>
       <c r="F97" t="n">
@@ -5960,7 +6082,7 @@
       <c r="J97" t="n">
         <v>3968</v>
       </c>
-      <c r="K97" s="8" t="n">
+      <c r="K97" s="14" t="n">
         <v>206.333</v>
       </c>
       <c r="L97" t="n">
@@ -5975,10 +6097,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B98" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C98" t="n">
         <v>44.75</v>
@@ -5986,7 +6108,7 @@
       <c r="D98" t="n">
         <v>1</v>
       </c>
-      <c r="E98" s="7" t="n">
+      <c r="E98" s="13" t="n">
         <v>26936.36</v>
       </c>
       <c r="F98" t="n">
@@ -6004,7 +6126,7 @@
       <c r="J98" t="n">
         <v>1268</v>
       </c>
-      <c r="K98" s="8" t="n">
+      <c r="K98" s="14" t="n">
         <v>65.925</v>
       </c>
       <c r="L98" t="n">
@@ -6019,10 +6141,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B99" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C99" t="n">
         <v>49.73</v>
@@ -6030,7 +6152,7 @@
       <c r="D99" t="n">
         <v>2</v>
       </c>
-      <c r="E99" s="7" t="n">
+      <c r="E99" s="13" t="n">
         <v>26246.88</v>
       </c>
       <c r="F99" t="n">
@@ -6048,7 +6170,7 @@
       <c r="J99" t="n">
         <v>1927</v>
       </c>
-      <c r="K99" s="8" t="n">
+      <c r="K99" s="14" t="n">
         <v>100.179</v>
       </c>
       <c r="L99" t="n">
@@ -6063,10 +6185,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B100" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C100" t="n">
         <v>71.57</v>
@@ -6074,7 +6196,7 @@
       <c r="D100" t="n">
         <v>8</v>
       </c>
-      <c r="E100" s="7" t="n">
+      <c r="E100" s="13" t="n">
         <v>29028</v>
       </c>
       <c r="F100" t="n">
@@ -6092,7 +6214,7 @@
       <c r="J100" t="n">
         <v>2014</v>
       </c>
-      <c r="K100" s="8" t="n">
+      <c r="K100" s="14" t="n">
         <v>104.751</v>
       </c>
       <c r="L100" t="n">
@@ -6107,10 +6229,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B101" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -6118,7 +6240,7 @@
       <c r="D101" t="n">
         <v>1</v>
       </c>
-      <c r="E101" s="7" t="n">
+      <c r="E101" s="13" t="n">
         <v>31094.44</v>
       </c>
       <c r="F101" t="n">
@@ -6136,7 +6258,7 @@
       <c r="J101" t="n">
         <v>0</v>
       </c>
-      <c r="K101" s="8" t="n">
+      <c r="K101" s="14" t="n">
         <v>0</v>
       </c>
       <c r="L101" t="n">
@@ -6151,10 +6273,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C102" t="n">
         <v>63.52</v>
@@ -6162,7 +6284,7 @@
       <c r="D102" t="n">
         <v>6</v>
       </c>
-      <c r="E102" s="7" t="n">
+      <c r="E102" s="13" t="n">
         <v>30845.16</v>
       </c>
       <c r="F102" t="n">
@@ -6180,7 +6302,7 @@
       <c r="J102" t="n">
         <v>1944</v>
       </c>
-      <c r="K102" s="8" t="n">
+      <c r="K102" s="14" t="n">
         <v>101.096</v>
       </c>
       <c r="L102" t="n">
@@ -6195,10 +6317,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B103" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C103" t="n">
         <v>71.79</v>
@@ -6206,7 +6328,7 @@
       <c r="D103" t="n">
         <v>8</v>
       </c>
-      <c r="E103" s="7" t="n">
+      <c r="E103" s="13" t="n">
         <v>24326.32</v>
       </c>
       <c r="F103" t="n">
@@ -6224,7 +6346,7 @@
       <c r="J103" t="n">
         <v>1216</v>
       </c>
-      <c r="K103" s="8" t="n">
+      <c r="K103" s="14" t="n">
         <v>63.245</v>
       </c>
       <c r="L103" t="n">
@@ -6239,10 +6361,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C104" t="n">
         <v>58.78</v>
@@ -6250,7 +6372,7 @@
       <c r="D104" t="n">
         <v>4</v>
       </c>
-      <c r="E104" s="7" t="n">
+      <c r="E104" s="13" t="n">
         <v>40526.09</v>
       </c>
       <c r="F104" t="n">
@@ -6268,7 +6390,7 @@
       <c r="J104" t="n">
         <v>715</v>
       </c>
-      <c r="K104" s="8" t="n">
+      <c r="K104" s="14" t="n">
         <v>37.204</v>
       </c>
       <c r="L104" t="n">
@@ -6283,10 +6405,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C105" t="n">
         <v>56.28</v>
@@ -6294,7 +6416,7 @@
       <c r="D105" t="n">
         <v>3</v>
       </c>
-      <c r="E105" s="7" t="n">
+      <c r="E105" s="13" t="n">
         <v>23664</v>
       </c>
       <c r="F105" t="n">
@@ -6312,7 +6434,7 @@
       <c r="J105" t="n">
         <v>1443</v>
       </c>
-      <c r="K105" s="8" t="n">
+      <c r="K105" s="14" t="n">
         <v>75.016</v>
       </c>
       <c r="L105" t="n">
@@ -6327,10 +6449,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B106" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C106" t="n">
         <v>56.06</v>
@@ -6338,7 +6460,7 @@
       <c r="D106" t="n">
         <v>3</v>
       </c>
-      <c r="E106" s="7" t="n">
+      <c r="E106" s="13" t="n">
         <v>26457.58</v>
       </c>
       <c r="F106" t="n">
@@ -6356,7 +6478,7 @@
       <c r="J106" t="n">
         <v>2080</v>
       </c>
-      <c r="K106" s="8" t="n">
+      <c r="K106" s="14" t="n">
         <v>108.158</v>
       </c>
       <c r="L106" t="n">
@@ -6371,10 +6493,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B107" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C107" t="n">
         <v>75.49</v>
@@ -6382,7 +6504,7 @@
       <c r="D107" t="n">
         <v>9</v>
       </c>
-      <c r="E107" s="7" t="n">
+      <c r="E107" s="13" t="n">
         <v>34400</v>
       </c>
       <c r="F107" t="n">
@@ -6400,7 +6522,7 @@
       <c r="J107" t="n">
         <v>246</v>
       </c>
-      <c r="K107" s="8" t="n">
+      <c r="K107" s="14" t="n">
         <v>12.789</v>
       </c>
       <c r="L107" t="n">
@@ -6415,10 +6537,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B108" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C108" t="n">
         <v>87.9</v>
@@ -6426,7 +6548,7 @@
       <c r="D108" t="n">
         <v>10</v>
       </c>
-      <c r="E108" s="7" t="n">
+      <c r="E108" s="13" t="n">
         <v>22953.33</v>
       </c>
       <c r="F108" t="n">
@@ -6444,7 +6566,7 @@
       <c r="J108" t="n">
         <v>3379</v>
       </c>
-      <c r="K108" s="8" t="n">
+      <c r="K108" s="14" t="n">
         <v>175.692</v>
       </c>
       <c r="L108" t="n">
@@ -6459,10 +6581,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B109" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C109" t="n">
         <v>72.03</v>
@@ -6470,7 +6592,7 @@
       <c r="D109" t="n">
         <v>9</v>
       </c>
-      <c r="E109" s="7" t="n">
+      <c r="E109" s="13" t="n">
         <v>20923.68</v>
       </c>
       <c r="F109" t="n">
@@ -6488,7 +6610,7 @@
       <c r="J109" t="n">
         <v>2719</v>
       </c>
-      <c r="K109" s="8" t="n">
+      <c r="K109" s="14" t="n">
         <v>141.401</v>
       </c>
       <c r="L109" t="n">
@@ -6503,10 +6625,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B110" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C110" t="n">
         <v>80.34</v>
@@ -6514,7 +6636,7 @@
       <c r="D110" t="n">
         <v>10</v>
       </c>
-      <c r="E110" s="7" t="n">
+      <c r="E110" s="13" t="n">
         <v>25771.05</v>
       </c>
       <c r="F110" t="n">
@@ -6532,7 +6654,7 @@
       <c r="J110" t="n">
         <v>1700</v>
       </c>
-      <c r="K110" s="8" t="n">
+      <c r="K110" s="14" t="n">
         <v>88.382</v>
       </c>
       <c r="L110" t="n">
@@ -6547,10 +6669,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B111" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="C111" t="n">
         <v>53.77</v>
@@ -6558,7 +6680,7 @@
       <c r="D111" t="n">
         <v>2</v>
       </c>
-      <c r="E111" s="7" t="n">
+      <c r="E111" s="13" t="n">
         <v>27158.57</v>
       </c>
       <c r="F111" t="n">
@@ -6576,7 +6698,7 @@
       <c r="J111" t="n">
         <v>3493</v>
       </c>
-      <c r="K111" s="8" t="n">
+      <c r="K111" s="14" t="n">
         <v>181.637</v>
       </c>
       <c r="L111" t="n">
@@ -6591,10 +6713,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B112" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="C112" t="n">
         <v>65.74</v>
@@ -6602,7 +6724,7 @@
       <c r="D112" t="n">
         <v>7</v>
       </c>
-      <c r="E112" s="7" t="n">
+      <c r="E112" s="13" t="n">
         <v>27856.41</v>
       </c>
       <c r="F112" t="n">
@@ -6620,7 +6742,7 @@
       <c r="J112" t="n">
         <v>2372</v>
       </c>
-      <c r="K112" s="8" t="n">
+      <c r="K112" s="14" t="n">
         <v>123.342</v>
       </c>
       <c r="L112" t="n">
@@ -6635,10 +6757,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B113" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C113" t="n">
         <v>59.59</v>
@@ -6646,7 +6768,7 @@
       <c r="D113" t="n">
         <v>5</v>
       </c>
-      <c r="E113" s="7" t="n">
+      <c r="E113" s="13" t="n">
         <v>25914.29</v>
       </c>
       <c r="F113" t="n">
@@ -6664,7 +6786,7 @@
       <c r="J113" t="n">
         <v>1025</v>
       </c>
-      <c r="K113" s="8" t="n">
+      <c r="K113" s="14" t="n">
         <v>53.275</v>
       </c>
       <c r="L113" t="n">
@@ -6679,10 +6801,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B114" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C114" t="n">
         <v>78.68</v>
@@ -6690,7 +6812,7 @@
       <c r="D114" t="n">
         <v>10</v>
       </c>
-      <c r="E114" s="7" t="n">
+      <c r="E114" s="13" t="n">
         <v>29434.48</v>
       </c>
       <c r="F114" t="n">
@@ -6708,7 +6830,7 @@
       <c r="J114" t="n">
         <v>1670</v>
       </c>
-      <c r="K114" s="8" t="n">
+      <c r="K114" s="14" t="n">
         <v>86.837</v>
       </c>
       <c r="L114" t="n">
@@ -6723,10 +6845,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B115" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C115" t="n">
         <v>50.24</v>
@@ -6734,7 +6856,7 @@
       <c r="D115" t="n">
         <v>2</v>
       </c>
-      <c r="E115" s="7" t="n">
+      <c r="E115" s="13" t="n">
         <v>27074.5</v>
       </c>
       <c r="F115" t="n">
@@ -6752,7 +6874,7 @@
       <c r="J115" t="n">
         <v>3261</v>
       </c>
-      <c r="K115" s="8" t="n">
+      <c r="K115" s="14" t="n">
         <v>169.575</v>
       </c>
       <c r="L115" t="n">
@@ -6767,10 +6889,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C116" t="n">
         <v>58.63</v>
@@ -6778,7 +6900,7 @@
       <c r="D116" t="n">
         <v>4</v>
       </c>
-      <c r="E116" s="7" t="n">
+      <c r="E116" s="13" t="n">
         <v>30287.5</v>
       </c>
       <c r="F116" t="n">
@@ -6796,7 +6918,7 @@
       <c r="J116" t="n">
         <v>1483</v>
       </c>
-      <c r="K116" s="8" t="n">
+      <c r="K116" s="14" t="n">
         <v>77.124</v>
       </c>
       <c r="L116" t="n">
@@ -6811,10 +6933,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B117" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C117" t="n">
         <v>54.74</v>
@@ -6822,7 +6944,7 @@
       <c r="D117" t="n">
         <v>3</v>
       </c>
-      <c r="E117" s="7" t="n">
+      <c r="E117" s="13" t="n">
         <v>24521.74</v>
       </c>
       <c r="F117" t="n">
@@ -6840,7 +6962,7 @@
       <c r="J117" t="n">
         <v>1080</v>
       </c>
-      <c r="K117" s="8" t="n">
+      <c r="K117" s="14" t="n">
         <v>56.137</v>
       </c>
       <c r="L117" t="n">
@@ -6855,10 +6977,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B118" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="C118" t="n">
         <v>54.97</v>
@@ -6866,7 +6988,7 @@
       <c r="D118" t="n">
         <v>3</v>
       </c>
-      <c r="E118" s="7" t="n">
+      <c r="E118" s="13" t="n">
         <v>27565.62</v>
       </c>
       <c r="F118" t="n">
@@ -6884,7 +7006,7 @@
       <c r="J118" t="n">
         <v>1858</v>
       </c>
-      <c r="K118" s="8" t="n">
+      <c r="K118" s="14" t="n">
         <v>96.625</v>
       </c>
       <c r="L118" t="n">
@@ -6899,10 +7021,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B119" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C119" t="n">
         <v>68.74</v>
@@ -6910,7 +7032,7 @@
       <c r="D119" t="n">
         <v>8</v>
       </c>
-      <c r="E119" s="7" t="n">
+      <c r="E119" s="13" t="n">
         <v>28000</v>
       </c>
       <c r="F119" t="n">
@@ -6928,7 +7050,7 @@
       <c r="J119" t="n">
         <v>1304</v>
       </c>
-      <c r="K119" s="8" t="n">
+      <c r="K119" s="14" t="n">
         <v>67.828</v>
       </c>
       <c r="L119" t="n">
@@ -6943,10 +7065,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B120" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C120" t="n">
         <v>47.69</v>
@@ -6954,7 +7076,7 @@
       <c r="D120" t="n">
         <v>1</v>
       </c>
-      <c r="E120" s="7" t="n">
+      <c r="E120" s="13" t="n">
         <v>30700</v>
       </c>
       <c r="F120" t="n">
@@ -6972,7 +7094,7 @@
       <c r="J120" t="n">
         <v>1881</v>
       </c>
-      <c r="K120" s="8" t="n">
+      <c r="K120" s="14" t="n">
         <v>97.812</v>
       </c>
       <c r="L120" t="n">
@@ -6987,10 +7109,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B121" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C121" t="n">
         <v>75.68</v>
@@ -6998,7 +7120,7 @@
       <c r="D121" t="n">
         <v>9</v>
       </c>
-      <c r="E121" s="7" t="n">
+      <c r="E121" s="13" t="n">
         <v>25352.17</v>
       </c>
       <c r="F121" t="n">
@@ -7016,7 +7138,7 @@
       <c r="J121" t="n">
         <v>1419</v>
       </c>
-      <c r="K121" s="8" t="n">
+      <c r="K121" s="14" t="n">
         <v>73.778</v>
       </c>
       <c r="L121" t="n">
@@ -7031,10 +7153,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B122" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C122" t="n">
         <v>56.38</v>
@@ -7042,7 +7164,7 @@
       <c r="D122" t="n">
         <v>4</v>
       </c>
-      <c r="E122" s="7" t="n">
+      <c r="E122" s="13" t="n">
         <v>28082.17</v>
       </c>
       <c r="F122" t="n">
@@ -7060,7 +7182,7 @@
       <c r="J122" t="n">
         <v>5550</v>
       </c>
-      <c r="K122" s="8" t="n">
+      <c r="K122" s="14" t="n">
         <v>288.591</v>
       </c>
       <c r="L122" t="n">
@@ -7075,10 +7197,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B123" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="C123" t="n">
         <v>88.7</v>
@@ -7086,7 +7208,7 @@
       <c r="D123" t="n">
         <v>10</v>
       </c>
-      <c r="E123" s="7" t="n">
+      <c r="E123" s="13" t="n">
         <v>28107.14</v>
       </c>
       <c r="F123" t="n">
@@ -7104,7 +7226,7 @@
       <c r="J123" t="n">
         <v>2731</v>
       </c>
-      <c r="K123" s="8" t="n">
+      <c r="K123" s="14" t="n">
         <v>142.005</v>
       </c>
       <c r="L123" t="n">
@@ -7119,10 +7241,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B124" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C124" t="n">
         <v>73.66</v>
@@ -7130,7 +7252,7 @@
       <c r="D124" t="n">
         <v>9</v>
       </c>
-      <c r="E124" s="7" t="n">
+      <c r="E124" s="13" t="n">
         <v>25450</v>
       </c>
       <c r="F124" t="n">
@@ -7148,7 +7270,7 @@
       <c r="J124" t="n">
         <v>1495</v>
       </c>
-      <c r="K124" s="8" t="n">
+      <c r="K124" s="14" t="n">
         <v>77.73</v>
       </c>
       <c r="L124" t="n">
@@ -7163,10 +7285,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B125" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C125" t="n">
         <v>61.01</v>
@@ -7174,7 +7296,7 @@
       <c r="D125" t="n">
         <v>5</v>
       </c>
-      <c r="E125" s="7" t="n">
+      <c r="E125" s="13" t="n">
         <v>23550</v>
       </c>
       <c r="F125" t="n">
@@ -7192,7 +7314,7 @@
       <c r="J125" t="n">
         <v>2209</v>
       </c>
-      <c r="K125" s="8" t="n">
+      <c r="K125" s="14" t="n">
         <v>114.894</v>
       </c>
       <c r="L125" t="n">
@@ -7207,10 +7329,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B126" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C126" t="n">
         <v>61.49</v>
@@ -7218,7 +7340,7 @@
       <c r="D126" t="n">
         <v>5</v>
       </c>
-      <c r="E126" s="7" t="n">
+      <c r="E126" s="13" t="n">
         <v>29087.56</v>
       </c>
       <c r="F126" t="n">
@@ -7236,7 +7358,7 @@
       <c r="J126" t="n">
         <v>6011</v>
       </c>
-      <c r="K126" s="8" t="n">
+      <c r="K126" s="14" t="n">
         <v>312.565</v>
       </c>
       <c r="L126" t="n">
@@ -7251,10 +7373,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B127" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C127" t="n">
         <v>72</v>
@@ -7262,7 +7384,7 @@
       <c r="D127" t="n">
         <v>8</v>
       </c>
-      <c r="E127" s="7" t="n">
+      <c r="E127" s="13" t="n">
         <v>24250</v>
       </c>
       <c r="F127" t="n">
@@ -7280,7 +7402,7 @@
       <c r="J127" t="n">
         <v>2570</v>
       </c>
-      <c r="K127" s="8" t="n">
+      <c r="K127" s="14" t="n">
         <v>133.658</v>
       </c>
       <c r="L127" t="n">
@@ -7295,10 +7417,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B128" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="C128" t="n">
         <v>73.88</v>
@@ -7306,7 +7428,7 @@
       <c r="D128" t="n">
         <v>9</v>
       </c>
-      <c r="E128" s="7" t="n">
+      <c r="E128" s="13" t="n">
         <v>34224.48</v>
       </c>
       <c r="F128" t="n">
@@ -7324,7 +7446,7 @@
       <c r="J128" t="n">
         <v>6924</v>
       </c>
-      <c r="K128" s="8" t="n">
+      <c r="K128" s="14" t="n">
         <v>360.031</v>
       </c>
       <c r="L128" t="n">
@@ -7339,10 +7461,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B129" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C129" t="n">
         <v>74.85</v>
@@ -7350,7 +7472,7 @@
       <c r="D129" t="n">
         <v>9</v>
       </c>
-      <c r="E129" s="7" t="n">
+      <c r="E129" s="13" t="n">
         <v>35245.83</v>
       </c>
       <c r="F129" t="n">
@@ -7368,7 +7490,7 @@
       <c r="J129" t="n">
         <v>1870</v>
       </c>
-      <c r="K129" s="8" t="n">
+      <c r="K129" s="14" t="n">
         <v>97.263</v>
       </c>
       <c r="L129" t="n">
@@ -7383,10 +7505,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B130" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="C130" t="n">
         <v>66.98</v>
@@ -7394,7 +7516,7 @@
       <c r="D130" t="n">
         <v>7</v>
       </c>
-      <c r="E130" s="7" t="n">
+      <c r="E130" s="13" t="n">
         <v>27385.19</v>
       </c>
       <c r="F130" t="n">
@@ -7412,7 +7534,7 @@
       <c r="J130" t="n">
         <v>1507</v>
       </c>
-      <c r="K130" s="8" t="n">
+      <c r="K130" s="14" t="n">
         <v>78.382</v>
       </c>
       <c r="L130" t="n">
@@ -7427,10 +7549,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B131" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C131" t="n">
         <v>70.96</v>
@@ -7438,7 +7560,7 @@
       <c r="D131" t="n">
         <v>8</v>
       </c>
-      <c r="E131" s="7" t="n">
+      <c r="E131" s="13" t="n">
         <v>23670</v>
       </c>
       <c r="F131" t="n">
@@ -7456,7 +7578,7 @@
       <c r="J131" t="n">
         <v>2264</v>
       </c>
-      <c r="K131" s="8" t="n">
+      <c r="K131" s="14" t="n">
         <v>117.75</v>
       </c>
       <c r="L131" t="n">
@@ -7471,10 +7593,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B132" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C132" t="n">
         <v>61.62</v>
@@ -7482,7 +7604,7 @@
       <c r="D132" t="n">
         <v>6</v>
       </c>
-      <c r="E132" s="7" t="n">
+      <c r="E132" s="13" t="n">
         <v>26547.83</v>
       </c>
       <c r="F132" t="n">
@@ -7500,7 +7622,7 @@
       <c r="J132" t="n">
         <v>1315</v>
       </c>
-      <c r="K132" s="8" t="n">
+      <c r="K132" s="14" t="n">
         <v>68.396</v>
       </c>
       <c r="L132" t="n">
@@ -7515,10 +7637,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B133" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C133" t="n">
         <v>81.12</v>
@@ -7526,7 +7648,7 @@
       <c r="D133" t="n">
         <v>10</v>
       </c>
-      <c r="E133" s="7" t="n">
+      <c r="E133" s="13" t="n">
         <v>27936.84</v>
       </c>
       <c r="F133" t="n">
@@ -7544,7 +7666,7 @@
       <c r="J133" t="n">
         <v>1846</v>
       </c>
-      <c r="K133" s="8" t="n">
+      <c r="K133" s="14" t="n">
         <v>95.976</v>
       </c>
       <c r="L133" t="n">
@@ -7559,10 +7681,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B134" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C134" t="n">
         <v>57.43</v>
@@ -7570,7 +7692,7 @@
       <c r="D134" t="n">
         <v>4</v>
       </c>
-      <c r="E134" s="7" t="n">
+      <c r="E134" s="13" t="n">
         <v>22947.06</v>
       </c>
       <c r="F134" t="n">
@@ -7588,7 +7710,7 @@
       <c r="J134" t="n">
         <v>953</v>
       </c>
-      <c r="K134" s="8" t="n">
+      <c r="K134" s="14" t="n">
         <v>49.547</v>
       </c>
       <c r="L134" t="n">
@@ -7603,10 +7725,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B135" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="C135" t="n">
         <v>57.45</v>
@@ -7614,7 +7736,7 @@
       <c r="D135" t="n">
         <v>4</v>
       </c>
-      <c r="E135" s="7" t="n">
+      <c r="E135" s="13" t="n">
         <v>28475</v>
       </c>
       <c r="F135" t="n">
@@ -7632,7 +7754,7 @@
       <c r="J135" t="n">
         <v>2190</v>
       </c>
-      <c r="K135" s="8" t="n">
+      <c r="K135" s="14" t="n">
         <v>113.863</v>
       </c>
       <c r="L135" t="n">
@@ -7647,10 +7769,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B136" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="C136" t="n">
         <v>65.94</v>
@@ -7658,7 +7780,7 @@
       <c r="D136" t="n">
         <v>7</v>
       </c>
-      <c r="E136" s="7" t="n">
+      <c r="E136" s="13" t="n">
         <v>27867.86</v>
       </c>
       <c r="F136" t="n">
@@ -7676,7 +7798,7 @@
       <c r="J136" t="n">
         <v>1091</v>
       </c>
-      <c r="K136" s="8" t="n">
+      <c r="K136" s="14" t="n">
         <v>56.738</v>
       </c>
       <c r="L136" t="n">
@@ -7691,10 +7813,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B137" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C137" t="n">
         <v>54.46</v>
@@ -7702,7 +7824,7 @@
       <c r="D137" t="n">
         <v>3</v>
       </c>
-      <c r="E137" s="7" t="n">
+      <c r="E137" s="13" t="n">
         <v>26402.22</v>
       </c>
       <c r="F137" t="n">
@@ -7720,7 +7842,7 @@
       <c r="J137" t="n">
         <v>2493</v>
       </c>
-      <c r="K137" s="8" t="n">
+      <c r="K137" s="14" t="n">
         <v>129.645</v>
       </c>
       <c r="L137" t="n">
@@ -7735,10 +7857,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B138" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C138" t="n">
         <v>48.11</v>
@@ -7746,7 +7868,7 @@
       <c r="D138" t="n">
         <v>1</v>
       </c>
-      <c r="E138" s="7" t="n">
+      <c r="E138" s="13" t="n">
         <v>23005.13</v>
       </c>
       <c r="F138" t="n">
@@ -7764,7 +7886,7 @@
       <c r="J138" t="n">
         <v>1566</v>
       </c>
-      <c r="K138" s="8" t="n">
+      <c r="K138" s="14" t="n">
         <v>81.44</v>
       </c>
       <c r="L138" t="n">
@@ -7779,10 +7901,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B139" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="C139" t="n">
         <v>58.36</v>
@@ -7790,7 +7912,7 @@
       <c r="D139" t="n">
         <v>4</v>
       </c>
-      <c r="E139" s="7" t="n">
+      <c r="E139" s="13" t="n">
         <v>29785.71</v>
       </c>
       <c r="F139" t="n">
@@ -7808,7 +7930,7 @@
       <c r="J139" t="n">
         <v>1982</v>
       </c>
-      <c r="K139" s="8" t="n">
+      <c r="K139" s="14" t="n">
         <v>103.044</v>
       </c>
       <c r="L139" t="n">
@@ -7823,10 +7945,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="B140" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="C140" t="n">
         <v>47.74</v>
@@ -7834,7 +7956,7 @@
       <c r="D140" t="n">
         <v>1</v>
       </c>
-      <c r="E140" s="7" t="n">
+      <c r="E140" s="13" t="n">
         <v>35881.08</v>
       </c>
       <c r="F140" t="n">
@@ -7852,7 +7974,7 @@
       <c r="J140" t="n">
         <v>1705</v>
       </c>
-      <c r="K140" s="8" t="n">
+      <c r="K140" s="14" t="n">
         <v>88.66</v>
       </c>
       <c r="L140" t="n">
@@ -7867,14 +7989,14 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B141" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
-      <c r="E141" s="7" t="n">
+      <c r="E141" s="13" t="n">
         <v>28268</v>
       </c>
       <c r="F141" t="n">
@@ -7890,7 +8012,7 @@
         <v>18634</v>
       </c>
       <c r="J141"/>
-      <c r="K141" s="8"/>
+      <c r="K141" s="14"/>
       <c r="L141" t="n">
         <v>544</v>
       </c>
@@ -7899,10 +8021,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B142" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C142" t="n">
         <v>67.68</v>
@@ -7910,7 +8032,7 @@
       <c r="D142" t="n">
         <v>8</v>
       </c>
-      <c r="E142" s="7" t="n">
+      <c r="E142" s="13" t="n">
         <v>28910.92</v>
       </c>
       <c r="F142" t="n">
@@ -7928,7 +8050,7 @@
       <c r="J142" t="n">
         <v>4138</v>
       </c>
-      <c r="K142" s="8" t="n">
+      <c r="K142" s="14" t="n">
         <v>215.193</v>
       </c>
       <c r="L142" t="n">
@@ -7943,10 +8065,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B143" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="C143" t="n">
         <v>51.47</v>
@@ -7954,7 +8076,7 @@
       <c r="D143" t="n">
         <v>2</v>
       </c>
-      <c r="E143" s="7" t="n">
+      <c r="E143" s="13" t="n">
         <v>34086.36</v>
       </c>
       <c r="F143" t="n">
@@ -7972,7 +8094,7 @@
       <c r="J143" t="n">
         <v>654</v>
       </c>
-      <c r="K143" s="8" t="n">
+      <c r="K143" s="14" t="n">
         <v>34.024</v>
       </c>
       <c r="L143" t="n">
@@ -7987,10 +8109,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C144" t="n">
         <v>55.29</v>
@@ -7998,7 +8120,7 @@
       <c r="D144" t="n">
         <v>3</v>
       </c>
-      <c r="E144" s="7" t="n">
+      <c r="E144" s="13" t="n">
         <v>30881.63</v>
       </c>
       <c r="F144" t="n">
@@ -8016,7 +8138,7 @@
       <c r="J144" t="n">
         <v>3819</v>
       </c>
-      <c r="K144" s="8" t="n">
+      <c r="K144" s="14" t="n">
         <v>198.571</v>
       </c>
       <c r="L144" t="n">
@@ -8031,10 +8153,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B145" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C145" t="n">
         <v>56.3</v>
@@ -8042,7 +8164,7 @@
       <c r="D145" t="n">
         <v>4</v>
       </c>
-      <c r="E145" s="7" t="n">
+      <c r="E145" s="13" t="n">
         <v>33279.17</v>
       </c>
       <c r="F145" t="n">
@@ -8060,7 +8182,7 @@
       <c r="J145" t="n">
         <v>1253</v>
       </c>
-      <c r="K145" s="8" t="n">
+      <c r="K145" s="14" t="n">
         <v>65.152</v>
       </c>
       <c r="L145" t="n">
@@ -8075,10 +8197,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B146" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="C146" t="n">
         <v>80.23</v>
@@ -8086,7 +8208,7 @@
       <c r="D146" t="n">
         <v>10</v>
       </c>
-      <c r="E146" s="7" t="n">
+      <c r="E146" s="13" t="n">
         <v>25187.5</v>
       </c>
       <c r="F146" t="n">
@@ -8104,7 +8226,7 @@
       <c r="J146" t="n">
         <v>3544</v>
       </c>
-      <c r="K146" s="8" t="n">
+      <c r="K146" s="14" t="n">
         <v>184.295</v>
       </c>
       <c r="L146" t="n">
@@ -8119,10 +8241,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B147" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="C147" t="n">
         <v>64.85</v>
@@ -8130,7 +8252,7 @@
       <c r="D147" t="n">
         <v>6</v>
       </c>
-      <c r="E147" s="7" t="n">
+      <c r="E147" s="13" t="n">
         <v>29887.1</v>
       </c>
       <c r="F147" t="n">
@@ -8148,7 +8270,7 @@
       <c r="J147" t="n">
         <v>3731</v>
       </c>
-      <c r="K147" s="8" t="n">
+      <c r="K147" s="14" t="n">
         <v>193.994</v>
       </c>
       <c r="L147" t="n">
@@ -8163,10 +8285,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="B148" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="C148" t="n">
         <v>53.53</v>
@@ -8174,7 +8296,7 @@
       <c r="D148" t="n">
         <v>2</v>
       </c>
-      <c r="E148" s="7" t="n">
+      <c r="E148" s="13" t="n">
         <v>33372.22</v>
       </c>
       <c r="F148" t="n">
@@ -8192,7 +8314,7 @@
       <c r="J148" t="n">
         <v>613</v>
       </c>
-      <c r="K148" s="8" t="n">
+      <c r="K148" s="14" t="n">
         <v>31.858</v>
       </c>
       <c r="L148" t="n">
@@ -8207,10 +8329,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B149" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="C149" t="n">
         <v>66.15</v>
@@ -8218,7 +8340,7 @@
       <c r="D149" t="n">
         <v>7</v>
       </c>
-      <c r="E149" s="7" t="n">
+      <c r="E149" s="13" t="n">
         <v>26150</v>
       </c>
       <c r="F149" t="n">
@@ -8236,7 +8358,7 @@
       <c r="J149" t="n">
         <v>1822</v>
       </c>
-      <c r="K149" s="8" t="n">
+      <c r="K149" s="14" t="n">
         <v>94.755</v>
       </c>
       <c r="L149" t="n">
@@ -8251,10 +8373,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B150" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C150" t="n">
         <v>132.04</v>
@@ -8262,7 +8384,7 @@
       <c r="D150" t="n">
         <v>10</v>
       </c>
-      <c r="E150" s="7" t="n">
+      <c r="E150" s="13" t="n">
         <v>35985</v>
       </c>
       <c r="F150" t="n">
@@ -8280,7 +8402,7 @@
       <c r="J150" t="n">
         <v>1452</v>
       </c>
-      <c r="K150" s="8" t="n">
+      <c r="K150" s="14" t="n">
         <v>75.514</v>
       </c>
       <c r="L150" t="n">
@@ -8295,10 +8417,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B151" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="C151" t="n">
         <v>72.74</v>
@@ -8306,7 +8428,7 @@
       <c r="D151" t="n">
         <v>9</v>
       </c>
-      <c r="E151" s="7" t="n">
+      <c r="E151" s="13" t="n">
         <v>22763.64</v>
       </c>
       <c r="F151" t="n">
@@ -8324,7 +8446,7 @@
       <c r="J151" t="n">
         <v>2209</v>
       </c>
-      <c r="K151" s="8" t="n">
+      <c r="K151" s="14" t="n">
         <v>114.843</v>
       </c>
       <c r="L151" t="n">
@@ -8339,10 +8461,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B152" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="C152" t="n">
         <v>58.12</v>
@@ -8350,7 +8472,7 @@
       <c r="D152" t="n">
         <v>4</v>
       </c>
-      <c r="E152" s="7" t="n">
+      <c r="E152" s="13" t="n">
         <v>28328.42</v>
       </c>
       <c r="F152" t="n">
@@ -8368,7 +8490,7 @@
       <c r="J152" t="n">
         <v>2997</v>
       </c>
-      <c r="K152" s="8" t="n">
+      <c r="K152" s="14" t="n">
         <v>155.868</v>
       </c>
       <c r="L152" t="n">
@@ -8383,10 +8505,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="B153" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="C153" t="n">
         <v>68.63</v>
@@ -8394,7 +8516,7 @@
       <c r="D153" t="n">
         <v>8</v>
       </c>
-      <c r="E153" s="7" t="n">
+      <c r="E153" s="13" t="n">
         <v>29625</v>
       </c>
       <c r="F153" t="n">
@@ -8412,7 +8534,7 @@
       <c r="J153" t="n">
         <v>1426</v>
       </c>
-      <c r="K153" s="8" t="n">
+      <c r="K153" s="14" t="n">
         <v>74.167</v>
       </c>
       <c r="L153" t="n">
@@ -8426,1016 +8548,1016 @@
       </c>
     </row>
     <row r="154">
-      <c r="E154" s="7"/>
-      <c r="K154" s="8"/>
+      <c r="E154" s="13"/>
+      <c r="K154" s="14"/>
     </row>
     <row r="155">
-      <c r="E155" s="7"/>
-      <c r="K155" s="8"/>
+      <c r="E155" s="13"/>
+      <c r="K155" s="14"/>
     </row>
     <row r="156">
-      <c r="E156" s="7"/>
-      <c r="K156" s="8"/>
+      <c r="E156" s="13"/>
+      <c r="K156" s="14"/>
     </row>
     <row r="157">
-      <c r="E157" s="7"/>
-      <c r="K157" s="8"/>
+      <c r="E157" s="13"/>
+      <c r="K157" s="14"/>
     </row>
     <row r="158">
-      <c r="E158" s="7"/>
-      <c r="K158" s="8"/>
+      <c r="E158" s="13"/>
+      <c r="K158" s="14"/>
     </row>
     <row r="159">
-      <c r="E159" s="7"/>
-      <c r="K159" s="8"/>
+      <c r="E159" s="13"/>
+      <c r="K159" s="14"/>
     </row>
     <row r="160">
-      <c r="E160" s="7"/>
-      <c r="K160" s="8"/>
+      <c r="E160" s="13"/>
+      <c r="K160" s="14"/>
     </row>
     <row r="161">
-      <c r="E161" s="7"/>
-      <c r="K161" s="8"/>
+      <c r="E161" s="13"/>
+      <c r="K161" s="14"/>
     </row>
     <row r="162">
-      <c r="E162" s="7"/>
-      <c r="K162" s="8"/>
+      <c r="E162" s="13"/>
+      <c r="K162" s="14"/>
     </row>
     <row r="163">
-      <c r="E163" s="7"/>
-      <c r="K163" s="8"/>
+      <c r="E163" s="13"/>
+      <c r="K163" s="14"/>
     </row>
     <row r="164">
-      <c r="E164" s="7"/>
-      <c r="K164" s="8"/>
+      <c r="E164" s="13"/>
+      <c r="K164" s="14"/>
     </row>
     <row r="165">
-      <c r="E165" s="7"/>
-      <c r="K165" s="8"/>
+      <c r="E165" s="13"/>
+      <c r="K165" s="14"/>
     </row>
     <row r="166">
-      <c r="E166" s="7"/>
-      <c r="K166" s="8"/>
+      <c r="E166" s="13"/>
+      <c r="K166" s="14"/>
     </row>
     <row r="167">
-      <c r="E167" s="7"/>
-      <c r="K167" s="8"/>
+      <c r="E167" s="13"/>
+      <c r="K167" s="14"/>
     </row>
     <row r="168">
-      <c r="E168" s="7"/>
-      <c r="K168" s="8"/>
+      <c r="E168" s="13"/>
+      <c r="K168" s="14"/>
     </row>
     <row r="169">
-      <c r="E169" s="7"/>
-      <c r="K169" s="8"/>
+      <c r="E169" s="13"/>
+      <c r="K169" s="14"/>
     </row>
     <row r="170">
-      <c r="E170" s="7"/>
-      <c r="K170" s="8"/>
+      <c r="E170" s="13"/>
+      <c r="K170" s="14"/>
     </row>
     <row r="171">
-      <c r="E171" s="7"/>
-      <c r="K171" s="8"/>
+      <c r="E171" s="13"/>
+      <c r="K171" s="14"/>
     </row>
     <row r="172">
-      <c r="E172" s="7"/>
-      <c r="K172" s="8"/>
+      <c r="E172" s="13"/>
+      <c r="K172" s="14"/>
     </row>
     <row r="173">
-      <c r="E173" s="7"/>
-      <c r="K173" s="8"/>
+      <c r="E173" s="13"/>
+      <c r="K173" s="14"/>
     </row>
     <row r="174">
-      <c r="E174" s="7"/>
-      <c r="K174" s="8"/>
+      <c r="E174" s="13"/>
+      <c r="K174" s="14"/>
     </row>
     <row r="175">
-      <c r="E175" s="7"/>
-      <c r="K175" s="8"/>
+      <c r="E175" s="13"/>
+      <c r="K175" s="14"/>
     </row>
     <row r="176">
-      <c r="E176" s="7"/>
-      <c r="K176" s="8"/>
+      <c r="E176" s="13"/>
+      <c r="K176" s="14"/>
     </row>
     <row r="177">
-      <c r="E177" s="7"/>
-      <c r="K177" s="8"/>
+      <c r="E177" s="13"/>
+      <c r="K177" s="14"/>
     </row>
     <row r="178">
-      <c r="E178" s="7"/>
-      <c r="K178" s="8"/>
+      <c r="E178" s="13"/>
+      <c r="K178" s="14"/>
     </row>
     <row r="179">
-      <c r="E179" s="7"/>
-      <c r="K179" s="8"/>
+      <c r="E179" s="13"/>
+      <c r="K179" s="14"/>
     </row>
     <row r="180">
-      <c r="E180" s="7"/>
-      <c r="K180" s="8"/>
+      <c r="E180" s="13"/>
+      <c r="K180" s="14"/>
     </row>
     <row r="181">
-      <c r="E181" s="7"/>
-      <c r="K181" s="8"/>
+      <c r="E181" s="13"/>
+      <c r="K181" s="14"/>
     </row>
     <row r="182">
-      <c r="E182" s="7"/>
-      <c r="K182" s="8"/>
+      <c r="E182" s="13"/>
+      <c r="K182" s="14"/>
     </row>
     <row r="183">
-      <c r="E183" s="7"/>
-      <c r="K183" s="8"/>
+      <c r="E183" s="13"/>
+      <c r="K183" s="14"/>
     </row>
     <row r="184">
-      <c r="E184" s="7"/>
-      <c r="K184" s="8"/>
+      <c r="E184" s="13"/>
+      <c r="K184" s="14"/>
     </row>
     <row r="185">
-      <c r="E185" s="7"/>
-      <c r="K185" s="8"/>
+      <c r="E185" s="13"/>
+      <c r="K185" s="14"/>
     </row>
     <row r="186">
-      <c r="E186" s="7"/>
-      <c r="K186" s="8"/>
+      <c r="E186" s="13"/>
+      <c r="K186" s="14"/>
     </row>
     <row r="187">
-      <c r="E187" s="7"/>
-      <c r="K187" s="8"/>
+      <c r="E187" s="13"/>
+      <c r="K187" s="14"/>
     </row>
     <row r="188">
-      <c r="E188" s="7"/>
-      <c r="K188" s="8"/>
+      <c r="E188" s="13"/>
+      <c r="K188" s="14"/>
     </row>
     <row r="189">
-      <c r="E189" s="7"/>
-      <c r="K189" s="8"/>
+      <c r="E189" s="13"/>
+      <c r="K189" s="14"/>
     </row>
     <row r="190">
-      <c r="E190" s="7"/>
-      <c r="K190" s="8"/>
+      <c r="E190" s="13"/>
+      <c r="K190" s="14"/>
     </row>
     <row r="191">
-      <c r="E191" s="7"/>
-      <c r="K191" s="8"/>
+      <c r="E191" s="13"/>
+      <c r="K191" s="14"/>
     </row>
     <row r="192">
-      <c r="E192" s="7"/>
-      <c r="K192" s="8"/>
+      <c r="E192" s="13"/>
+      <c r="K192" s="14"/>
     </row>
     <row r="193">
-      <c r="E193" s="7"/>
-      <c r="K193" s="8"/>
+      <c r="E193" s="13"/>
+      <c r="K193" s="14"/>
     </row>
     <row r="194">
-      <c r="E194" s="7"/>
-      <c r="K194" s="8"/>
+      <c r="E194" s="13"/>
+      <c r="K194" s="14"/>
     </row>
     <row r="195">
-      <c r="E195" s="7"/>
-      <c r="K195" s="8"/>
+      <c r="E195" s="13"/>
+      <c r="K195" s="14"/>
     </row>
     <row r="196">
-      <c r="E196" s="7"/>
-      <c r="K196" s="8"/>
+      <c r="E196" s="13"/>
+      <c r="K196" s="14"/>
     </row>
     <row r="197">
-      <c r="E197" s="7"/>
-      <c r="K197" s="8"/>
+      <c r="E197" s="13"/>
+      <c r="K197" s="14"/>
     </row>
     <row r="198">
-      <c r="E198" s="7"/>
-      <c r="K198" s="8"/>
+      <c r="E198" s="13"/>
+      <c r="K198" s="14"/>
     </row>
     <row r="199">
-      <c r="E199" s="7"/>
-      <c r="K199" s="8"/>
+      <c r="E199" s="13"/>
+      <c r="K199" s="14"/>
     </row>
     <row r="200">
-      <c r="E200" s="7"/>
-      <c r="K200" s="8"/>
+      <c r="E200" s="13"/>
+      <c r="K200" s="14"/>
     </row>
     <row r="201">
-      <c r="E201" s="7"/>
-      <c r="K201" s="8"/>
+      <c r="E201" s="13"/>
+      <c r="K201" s="14"/>
     </row>
     <row r="202">
-      <c r="E202" s="7"/>
-      <c r="K202" s="8"/>
+      <c r="E202" s="13"/>
+      <c r="K202" s="14"/>
     </row>
     <row r="203">
-      <c r="E203" s="7"/>
-      <c r="K203" s="8"/>
+      <c r="E203" s="13"/>
+      <c r="K203" s="14"/>
     </row>
     <row r="204">
-      <c r="E204" s="7"/>
-      <c r="K204" s="8"/>
+      <c r="E204" s="13"/>
+      <c r="K204" s="14"/>
     </row>
     <row r="205">
-      <c r="E205" s="7"/>
-      <c r="K205" s="8"/>
+      <c r="E205" s="13"/>
+      <c r="K205" s="14"/>
     </row>
     <row r="206">
-      <c r="E206" s="7"/>
-      <c r="K206" s="8"/>
+      <c r="E206" s="13"/>
+      <c r="K206" s="14"/>
     </row>
     <row r="207">
-      <c r="E207" s="7"/>
-      <c r="K207" s="8"/>
+      <c r="E207" s="13"/>
+      <c r="K207" s="14"/>
     </row>
     <row r="208">
-      <c r="E208" s="7"/>
-      <c r="K208" s="8"/>
+      <c r="E208" s="13"/>
+      <c r="K208" s="14"/>
     </row>
     <row r="209">
-      <c r="E209" s="7"/>
-      <c r="K209" s="8"/>
+      <c r="E209" s="13"/>
+      <c r="K209" s="14"/>
     </row>
     <row r="210">
-      <c r="E210" s="7"/>
-      <c r="K210" s="8"/>
+      <c r="E210" s="13"/>
+      <c r="K210" s="14"/>
     </row>
     <row r="211">
-      <c r="E211" s="7"/>
-      <c r="K211" s="8"/>
+      <c r="E211" s="13"/>
+      <c r="K211" s="14"/>
     </row>
     <row r="212">
-      <c r="E212" s="7"/>
-      <c r="K212" s="8"/>
+      <c r="E212" s="13"/>
+      <c r="K212" s="14"/>
     </row>
     <row r="213">
-      <c r="E213" s="7"/>
-      <c r="K213" s="8"/>
+      <c r="E213" s="13"/>
+      <c r="K213" s="14"/>
     </row>
     <row r="214">
-      <c r="E214" s="7"/>
-      <c r="K214" s="8"/>
+      <c r="E214" s="13"/>
+      <c r="K214" s="14"/>
     </row>
     <row r="215">
-      <c r="E215" s="7"/>
-      <c r="K215" s="8"/>
+      <c r="E215" s="13"/>
+      <c r="K215" s="14"/>
     </row>
     <row r="216">
-      <c r="E216" s="7"/>
-      <c r="K216" s="8"/>
+      <c r="E216" s="13"/>
+      <c r="K216" s="14"/>
     </row>
     <row r="217">
-      <c r="E217" s="7"/>
-      <c r="K217" s="8"/>
+      <c r="E217" s="13"/>
+      <c r="K217" s="14"/>
     </row>
     <row r="218">
-      <c r="E218" s="7"/>
-      <c r="K218" s="8"/>
+      <c r="E218" s="13"/>
+      <c r="K218" s="14"/>
     </row>
     <row r="219">
-      <c r="E219" s="7"/>
-      <c r="K219" s="8"/>
+      <c r="E219" s="13"/>
+      <c r="K219" s="14"/>
     </row>
     <row r="220">
-      <c r="E220" s="7"/>
-      <c r="K220" s="8"/>
+      <c r="E220" s="13"/>
+      <c r="K220" s="14"/>
     </row>
     <row r="221">
-      <c r="E221" s="7"/>
-      <c r="K221" s="8"/>
+      <c r="E221" s="13"/>
+      <c r="K221" s="14"/>
     </row>
     <row r="222">
-      <c r="E222" s="7"/>
-      <c r="K222" s="8"/>
+      <c r="E222" s="13"/>
+      <c r="K222" s="14"/>
     </row>
     <row r="223">
-      <c r="E223" s="7"/>
-      <c r="K223" s="8"/>
+      <c r="E223" s="13"/>
+      <c r="K223" s="14"/>
     </row>
     <row r="224">
-      <c r="E224" s="7"/>
-      <c r="K224" s="8"/>
+      <c r="E224" s="13"/>
+      <c r="K224" s="14"/>
     </row>
     <row r="225">
-      <c r="E225" s="7"/>
-      <c r="K225" s="8"/>
+      <c r="E225" s="13"/>
+      <c r="K225" s="14"/>
     </row>
     <row r="226">
-      <c r="E226" s="7"/>
-      <c r="K226" s="8"/>
+      <c r="E226" s="13"/>
+      <c r="K226" s="14"/>
     </row>
     <row r="227">
-      <c r="E227" s="7"/>
-      <c r="K227" s="8"/>
+      <c r="E227" s="13"/>
+      <c r="K227" s="14"/>
     </row>
     <row r="228">
-      <c r="E228" s="7"/>
-      <c r="K228" s="8"/>
+      <c r="E228" s="13"/>
+      <c r="K228" s="14"/>
     </row>
     <row r="229">
-      <c r="E229" s="7"/>
-      <c r="K229" s="8"/>
+      <c r="E229" s="13"/>
+      <c r="K229" s="14"/>
     </row>
     <row r="230">
-      <c r="E230" s="7"/>
-      <c r="K230" s="8"/>
+      <c r="E230" s="13"/>
+      <c r="K230" s="14"/>
     </row>
     <row r="231">
-      <c r="E231" s="7"/>
-      <c r="K231" s="8"/>
+      <c r="E231" s="13"/>
+      <c r="K231" s="14"/>
     </row>
     <row r="232">
-      <c r="E232" s="7"/>
-      <c r="K232" s="8"/>
+      <c r="E232" s="13"/>
+      <c r="K232" s="14"/>
     </row>
     <row r="233">
-      <c r="E233" s="7"/>
+      <c r="E233" s="13"/>
     </row>
     <row r="234">
-      <c r="E234" s="7"/>
+      <c r="E234" s="13"/>
     </row>
     <row r="235">
-      <c r="E235" s="7"/>
+      <c r="E235" s="13"/>
     </row>
     <row r="236">
-      <c r="E236" s="7"/>
+      <c r="E236" s="13"/>
     </row>
     <row r="237">
-      <c r="E237" s="7"/>
+      <c r="E237" s="13"/>
     </row>
     <row r="238">
-      <c r="E238" s="7"/>
+      <c r="E238" s="13"/>
     </row>
     <row r="239">
-      <c r="E239" s="7"/>
+      <c r="E239" s="13"/>
     </row>
     <row r="240">
-      <c r="E240" s="7"/>
+      <c r="E240" s="13"/>
     </row>
     <row r="241">
-      <c r="E241" s="6"/>
+      <c r="E241" s="12"/>
     </row>
     <row r="242">
-      <c r="E242" s="6"/>
+      <c r="E242" s="12"/>
     </row>
     <row r="243">
-      <c r="E243" s="6"/>
+      <c r="E243" s="12"/>
     </row>
     <row r="244">
-      <c r="E244" s="6"/>
+      <c r="E244" s="12"/>
     </row>
     <row r="245">
-      <c r="E245" s="6"/>
+      <c r="E245" s="12"/>
     </row>
     <row r="246">
-      <c r="E246" s="6"/>
+      <c r="E246" s="12"/>
     </row>
     <row r="247">
-      <c r="E247" s="6"/>
+      <c r="E247" s="12"/>
     </row>
     <row r="248">
-      <c r="E248" s="6"/>
+      <c r="E248" s="12"/>
     </row>
     <row r="249">
-      <c r="E249" s="6"/>
+      <c r="E249" s="12"/>
     </row>
     <row r="250">
-      <c r="E250" s="6"/>
+      <c r="E250" s="12"/>
     </row>
     <row r="251">
-      <c r="E251" s="6"/>
+      <c r="E251" s="12"/>
     </row>
     <row r="252">
-      <c r="E252" s="6"/>
+      <c r="E252" s="12"/>
     </row>
     <row r="253">
-      <c r="E253" s="6"/>
+      <c r="E253" s="12"/>
     </row>
     <row r="254">
-      <c r="E254" s="6"/>
+      <c r="E254" s="12"/>
     </row>
     <row r="255">
-      <c r="E255" s="6"/>
+      <c r="E255" s="12"/>
     </row>
     <row r="256">
-      <c r="E256" s="6"/>
+      <c r="E256" s="12"/>
     </row>
     <row r="257">
-      <c r="E257" s="6"/>
+      <c r="E257" s="12"/>
     </row>
     <row r="258">
-      <c r="E258" s="6"/>
+      <c r="E258" s="12"/>
     </row>
     <row r="259">
-      <c r="E259" s="6"/>
+      <c r="E259" s="12"/>
     </row>
     <row r="260">
-      <c r="E260" s="6"/>
+      <c r="E260" s="12"/>
     </row>
     <row r="261">
-      <c r="E261" s="6"/>
+      <c r="E261" s="12"/>
     </row>
     <row r="262">
-      <c r="E262" s="6"/>
+      <c r="E262" s="12"/>
     </row>
     <row r="263">
-      <c r="E263" s="6"/>
+      <c r="E263" s="12"/>
     </row>
     <row r="264">
-      <c r="E264" s="6"/>
+      <c r="E264" s="12"/>
     </row>
     <row r="265">
-      <c r="E265" s="6"/>
+      <c r="E265" s="12"/>
     </row>
     <row r="266">
-      <c r="E266" s="6"/>
+      <c r="E266" s="12"/>
     </row>
     <row r="267">
-      <c r="E267" s="6"/>
+      <c r="E267" s="12"/>
     </row>
     <row r="268">
-      <c r="E268" s="6"/>
+      <c r="E268" s="12"/>
     </row>
     <row r="269">
-      <c r="E269" s="6"/>
+      <c r="E269" s="12"/>
     </row>
     <row r="270">
-      <c r="E270" s="6"/>
+      <c r="E270" s="12"/>
     </row>
     <row r="271">
-      <c r="E271" s="6"/>
+      <c r="E271" s="12"/>
     </row>
     <row r="272">
-      <c r="E272" s="6"/>
+      <c r="E272" s="12"/>
     </row>
     <row r="273">
-      <c r="E273" s="6"/>
+      <c r="E273" s="12"/>
     </row>
     <row r="274">
-      <c r="E274" s="6"/>
+      <c r="E274" s="12"/>
     </row>
     <row r="275">
-      <c r="E275" s="6"/>
+      <c r="E275" s="12"/>
     </row>
     <row r="276">
-      <c r="E276" s="6"/>
+      <c r="E276" s="12"/>
     </row>
     <row r="277">
-      <c r="E277" s="6"/>
+      <c r="E277" s="12"/>
     </row>
     <row r="278">
-      <c r="E278" s="6"/>
+      <c r="E278" s="12"/>
     </row>
     <row r="279">
-      <c r="E279" s="6"/>
+      <c r="E279" s="12"/>
     </row>
     <row r="280">
-      <c r="E280" s="6"/>
+      <c r="E280" s="12"/>
     </row>
     <row r="281">
-      <c r="E281" s="6"/>
+      <c r="E281" s="12"/>
     </row>
     <row r="282">
-      <c r="E282" s="6"/>
+      <c r="E282" s="12"/>
     </row>
     <row r="283">
-      <c r="E283" s="6"/>
+      <c r="E283" s="12"/>
     </row>
     <row r="284">
-      <c r="E284" s="6"/>
+      <c r="E284" s="12"/>
     </row>
     <row r="285">
-      <c r="E285" s="6"/>
+      <c r="E285" s="12"/>
     </row>
     <row r="286">
-      <c r="E286" s="6"/>
+      <c r="E286" s="12"/>
     </row>
     <row r="287">
-      <c r="E287" s="6"/>
+      <c r="E287" s="12"/>
     </row>
     <row r="288">
-      <c r="E288" s="6"/>
+      <c r="E288" s="12"/>
     </row>
     <row r="289">
-      <c r="E289" s="6"/>
+      <c r="E289" s="12"/>
     </row>
     <row r="290">
-      <c r="E290" s="6"/>
+      <c r="E290" s="12"/>
     </row>
     <row r="291">
-      <c r="E291" s="6"/>
+      <c r="E291" s="12"/>
     </row>
     <row r="292">
-      <c r="E292" s="6"/>
+      <c r="E292" s="12"/>
     </row>
     <row r="293">
-      <c r="E293" s="6"/>
+      <c r="E293" s="12"/>
     </row>
     <row r="294">
-      <c r="E294" s="6"/>
+      <c r="E294" s="12"/>
     </row>
     <row r="295">
-      <c r="E295" s="6"/>
+      <c r="E295" s="12"/>
     </row>
     <row r="296">
-      <c r="E296" s="6"/>
+      <c r="E296" s="12"/>
     </row>
     <row r="297">
-      <c r="E297" s="6"/>
+      <c r="E297" s="12"/>
     </row>
     <row r="298">
-      <c r="E298" s="6"/>
+      <c r="E298" s="12"/>
     </row>
     <row r="299">
-      <c r="E299" s="6"/>
+      <c r="E299" s="12"/>
     </row>
     <row r="300">
-      <c r="E300" s="6"/>
+      <c r="E300" s="12"/>
     </row>
     <row r="301">
-      <c r="E301" s="6"/>
+      <c r="E301" s="12"/>
     </row>
     <row r="302">
-      <c r="E302" s="6"/>
+      <c r="E302" s="12"/>
     </row>
     <row r="303">
-      <c r="E303" s="6"/>
+      <c r="E303" s="12"/>
     </row>
     <row r="304">
-      <c r="E304" s="6"/>
+      <c r="E304" s="12"/>
     </row>
     <row r="305">
-      <c r="E305" s="6"/>
+      <c r="E305" s="12"/>
     </row>
     <row r="306">
-      <c r="E306" s="6"/>
+      <c r="E306" s="12"/>
     </row>
     <row r="307">
-      <c r="E307" s="6"/>
+      <c r="E307" s="12"/>
     </row>
     <row r="308">
-      <c r="E308" s="6"/>
+      <c r="E308" s="12"/>
     </row>
     <row r="309">
-      <c r="E309" s="6"/>
+      <c r="E309" s="12"/>
     </row>
     <row r="310">
-      <c r="E310" s="6"/>
+      <c r="E310" s="12"/>
     </row>
     <row r="311">
-      <c r="E311" s="6"/>
+      <c r="E311" s="12"/>
     </row>
     <row r="312">
-      <c r="E312" s="6"/>
+      <c r="E312" s="12"/>
     </row>
     <row r="313">
-      <c r="E313" s="6"/>
+      <c r="E313" s="12"/>
     </row>
     <row r="314">
-      <c r="E314" s="6"/>
+      <c r="E314" s="12"/>
     </row>
     <row r="315">
-      <c r="E315" s="6"/>
+      <c r="E315" s="12"/>
     </row>
     <row r="316">
-      <c r="E316" s="6"/>
+      <c r="E316" s="12"/>
     </row>
     <row r="317">
-      <c r="E317" s="6"/>
+      <c r="E317" s="12"/>
     </row>
     <row r="318">
-      <c r="E318" s="6"/>
+      <c r="E318" s="12"/>
     </row>
     <row r="319">
-      <c r="E319" s="6"/>
+      <c r="E319" s="12"/>
     </row>
     <row r="320">
-      <c r="E320" s="6"/>
+      <c r="E320" s="12"/>
     </row>
     <row r="321">
-      <c r="E321" s="6"/>
+      <c r="E321" s="12"/>
     </row>
     <row r="322">
-      <c r="E322" s="6"/>
+      <c r="E322" s="12"/>
     </row>
     <row r="323">
-      <c r="E323" s="6"/>
+      <c r="E323" s="12"/>
     </row>
     <row r="324">
-      <c r="E324" s="6"/>
+      <c r="E324" s="12"/>
     </row>
     <row r="325">
-      <c r="E325" s="6"/>
+      <c r="E325" s="12"/>
     </row>
     <row r="326">
-      <c r="E326" s="6"/>
+      <c r="E326" s="12"/>
     </row>
     <row r="327">
-      <c r="E327" s="6"/>
+      <c r="E327" s="12"/>
     </row>
     <row r="328">
-      <c r="E328" s="6"/>
+      <c r="E328" s="12"/>
     </row>
     <row r="329">
-      <c r="E329" s="6"/>
+      <c r="E329" s="12"/>
     </row>
     <row r="330">
-      <c r="E330" s="6"/>
+      <c r="E330" s="12"/>
     </row>
     <row r="331">
-      <c r="E331" s="6"/>
+      <c r="E331" s="12"/>
     </row>
     <row r="332">
-      <c r="E332" s="6"/>
+      <c r="E332" s="12"/>
     </row>
     <row r="333">
-      <c r="E333" s="6"/>
+      <c r="E333" s="12"/>
     </row>
     <row r="334">
-      <c r="E334" s="6"/>
+      <c r="E334" s="12"/>
     </row>
     <row r="335">
-      <c r="E335" s="6"/>
+      <c r="E335" s="12"/>
     </row>
     <row r="336">
-      <c r="E336" s="6"/>
+      <c r="E336" s="12"/>
     </row>
     <row r="337">
-      <c r="E337" s="6"/>
+      <c r="E337" s="12"/>
     </row>
     <row r="338">
-      <c r="E338" s="6"/>
+      <c r="E338" s="12"/>
     </row>
     <row r="339">
-      <c r="E339" s="6"/>
+      <c r="E339" s="12"/>
     </row>
     <row r="340">
-      <c r="E340" s="6"/>
+      <c r="E340" s="12"/>
     </row>
     <row r="341">
-      <c r="E341" s="6"/>
+      <c r="E341" s="12"/>
     </row>
     <row r="342">
-      <c r="E342" s="6"/>
+      <c r="E342" s="12"/>
     </row>
     <row r="343">
-      <c r="E343" s="6"/>
+      <c r="E343" s="12"/>
     </row>
     <row r="344">
-      <c r="E344" s="6"/>
+      <c r="E344" s="12"/>
     </row>
     <row r="345">
-      <c r="E345" s="6"/>
+      <c r="E345" s="12"/>
     </row>
     <row r="346">
-      <c r="E346" s="6"/>
+      <c r="E346" s="12"/>
     </row>
     <row r="347">
-      <c r="E347" s="6"/>
+      <c r="E347" s="12"/>
     </row>
     <row r="348">
-      <c r="E348" s="6"/>
+      <c r="E348" s="12"/>
     </row>
     <row r="349">
-      <c r="E349" s="6"/>
+      <c r="E349" s="12"/>
     </row>
     <row r="350">
-      <c r="E350" s="6"/>
+      <c r="E350" s="12"/>
     </row>
     <row r="351">
-      <c r="E351" s="6"/>
+      <c r="E351" s="12"/>
     </row>
     <row r="352">
-      <c r="E352" s="6"/>
+      <c r="E352" s="12"/>
     </row>
     <row r="353">
-      <c r="E353" s="6"/>
+      <c r="E353" s="12"/>
     </row>
     <row r="354">
-      <c r="E354" s="6"/>
+      <c r="E354" s="12"/>
     </row>
     <row r="355">
-      <c r="E355" s="6"/>
+      <c r="E355" s="12"/>
     </row>
     <row r="356">
-      <c r="E356" s="6"/>
+      <c r="E356" s="12"/>
     </row>
     <row r="357">
-      <c r="E357" s="6"/>
+      <c r="E357" s="12"/>
     </row>
     <row r="358">
-      <c r="E358" s="6"/>
+      <c r="E358" s="12"/>
     </row>
     <row r="359">
-      <c r="E359" s="6"/>
+      <c r="E359" s="12"/>
     </row>
     <row r="360">
-      <c r="E360" s="6"/>
+      <c r="E360" s="12"/>
     </row>
     <row r="361">
-      <c r="E361" s="6"/>
+      <c r="E361" s="12"/>
     </row>
     <row r="362">
-      <c r="E362" s="6"/>
+      <c r="E362" s="12"/>
     </row>
     <row r="363">
-      <c r="E363" s="6"/>
+      <c r="E363" s="12"/>
     </row>
     <row r="364">
-      <c r="E364" s="6"/>
+      <c r="E364" s="12"/>
     </row>
     <row r="365">
-      <c r="E365" s="6"/>
+      <c r="E365" s="12"/>
     </row>
     <row r="366">
-      <c r="E366" s="6"/>
+      <c r="E366" s="12"/>
     </row>
     <row r="367">
-      <c r="E367" s="6"/>
+      <c r="E367" s="12"/>
     </row>
     <row r="368">
-      <c r="E368" s="6"/>
+      <c r="E368" s="12"/>
     </row>
     <row r="369">
-      <c r="E369" s="6"/>
+      <c r="E369" s="12"/>
     </row>
     <row r="370">
-      <c r="E370" s="6"/>
+      <c r="E370" s="12"/>
     </row>
     <row r="371">
-      <c r="E371" s="6"/>
+      <c r="E371" s="12"/>
     </row>
     <row r="372">
-      <c r="E372" s="6"/>
+      <c r="E372" s="12"/>
     </row>
     <row r="373">
-      <c r="E373" s="6"/>
+      <c r="E373" s="12"/>
     </row>
     <row r="374">
-      <c r="E374" s="6"/>
+      <c r="E374" s="12"/>
     </row>
     <row r="375">
-      <c r="E375" s="6"/>
+      <c r="E375" s="12"/>
     </row>
     <row r="376">
-      <c r="E376" s="6"/>
+      <c r="E376" s="12"/>
     </row>
     <row r="377">
-      <c r="E377" s="6"/>
+      <c r="E377" s="12"/>
     </row>
     <row r="378">
-      <c r="E378" s="6"/>
+      <c r="E378" s="12"/>
     </row>
     <row r="379">
-      <c r="E379" s="6"/>
+      <c r="E379" s="12"/>
     </row>
     <row r="380">
-      <c r="E380" s="6"/>
+      <c r="E380" s="12"/>
     </row>
     <row r="381">
-      <c r="E381" s="6"/>
+      <c r="E381" s="12"/>
     </row>
     <row r="382">
-      <c r="E382" s="6"/>
+      <c r="E382" s="12"/>
     </row>
     <row r="383">
-      <c r="E383" s="6"/>
+      <c r="E383" s="12"/>
     </row>
     <row r="384">
-      <c r="E384" s="6"/>
+      <c r="E384" s="12"/>
     </row>
     <row r="385">
-      <c r="E385" s="6"/>
+      <c r="E385" s="12"/>
     </row>
     <row r="386">
-      <c r="E386" s="6"/>
+      <c r="E386" s="12"/>
     </row>
     <row r="387">
-      <c r="E387" s="6"/>
+      <c r="E387" s="12"/>
     </row>
     <row r="388">
-      <c r="E388" s="6"/>
+      <c r="E388" s="12"/>
     </row>
     <row r="389">
-      <c r="E389" s="6"/>
+      <c r="E389" s="12"/>
     </row>
     <row r="390">
-      <c r="E390" s="6"/>
+      <c r="E390" s="12"/>
     </row>
     <row r="391">
-      <c r="E391" s="6"/>
+      <c r="E391" s="12"/>
     </row>
     <row r="392">
-      <c r="E392" s="6"/>
+      <c r="E392" s="12"/>
     </row>
     <row r="393">
-      <c r="E393" s="6"/>
+      <c r="E393" s="12"/>
     </row>
     <row r="394">
-      <c r="E394" s="6"/>
+      <c r="E394" s="12"/>
     </row>
     <row r="395">
-      <c r="E395" s="6"/>
+      <c r="E395" s="12"/>
     </row>
     <row r="396">
-      <c r="E396" s="6"/>
+      <c r="E396" s="12"/>
     </row>
     <row r="397">
-      <c r="E397" s="6"/>
+      <c r="E397" s="12"/>
     </row>
     <row r="398">
-      <c r="E398" s="6"/>
+      <c r="E398" s="12"/>
     </row>
     <row r="399">
-      <c r="E399" s="6"/>
+      <c r="E399" s="12"/>
     </row>
     <row r="400">
-      <c r="E400" s="6"/>
+      <c r="E400" s="12"/>
     </row>
     <row r="401">
-      <c r="E401" s="6"/>
+      <c r="E401" s="12"/>
     </row>
     <row r="402">
-      <c r="E402" s="6"/>
+      <c r="E402" s="12"/>
     </row>
     <row r="403">
-      <c r="E403" s="6"/>
+      <c r="E403" s="12"/>
     </row>
     <row r="404">
-      <c r="E404" s="6"/>
+      <c r="E404" s="12"/>
     </row>
     <row r="405">
-      <c r="E405" s="6"/>
+      <c r="E405" s="12"/>
     </row>
     <row r="406">
-      <c r="E406" s="6"/>
+      <c r="E406" s="12"/>
     </row>
     <row r="407">
-      <c r="E407" s="6"/>
+      <c r="E407" s="12"/>
     </row>
     <row r="408">
-      <c r="E408" s="6"/>
+      <c r="E408" s="12"/>
     </row>
     <row r="409">
-      <c r="E409" s="6"/>
+      <c r="E409" s="12"/>
     </row>
     <row r="410">
-      <c r="E410" s="6"/>
+      <c r="E410" s="12"/>
     </row>
     <row r="411">
-      <c r="E411" s="6"/>
+      <c r="E411" s="12"/>
     </row>
     <row r="412">
-      <c r="E412" s="6"/>
+      <c r="E412" s="12"/>
     </row>
     <row r="413">
-      <c r="E413" s="6"/>
+      <c r="E413" s="12"/>
     </row>
     <row r="414">
-      <c r="E414" s="6"/>
+      <c r="E414" s="12"/>
     </row>
     <row r="415">
-      <c r="E415" s="6"/>
+      <c r="E415" s="12"/>
     </row>
     <row r="416">
-      <c r="E416" s="6"/>
+      <c r="E416" s="12"/>
     </row>
     <row r="417">
-      <c r="E417" s="6"/>
+      <c r="E417" s="12"/>
     </row>
     <row r="418">
-      <c r="E418" s="6"/>
+      <c r="E418" s="12"/>
     </row>
     <row r="419">
-      <c r="E419" s="6"/>
+      <c r="E419" s="12"/>
     </row>
     <row r="420">
-      <c r="E420" s="6"/>
+      <c r="E420" s="12"/>
     </row>
     <row r="421">
-      <c r="E421" s="6"/>
+      <c r="E421" s="12"/>
     </row>
     <row r="422">
-      <c r="E422" s="6"/>
+      <c r="E422" s="12"/>
     </row>
     <row r="423">
-      <c r="E423" s="6"/>
+      <c r="E423" s="12"/>
     </row>
     <row r="424">
-      <c r="E424" s="6"/>
+      <c r="E424" s="12"/>
     </row>
     <row r="425">
-      <c r="E425" s="6"/>
+      <c r="E425" s="12"/>
     </row>
     <row r="426">
-      <c r="E426" s="6"/>
+      <c r="E426" s="12"/>
     </row>
     <row r="427">
-      <c r="E427" s="6"/>
+      <c r="E427" s="12"/>
     </row>
     <row r="428">
-      <c r="E428" s="6"/>
+      <c r="E428" s="12"/>
     </row>
     <row r="429">
-      <c r="E429" s="6"/>
+      <c r="E429" s="12"/>
     </row>
     <row r="430">
-      <c r="E430" s="6"/>
+      <c r="E430" s="12"/>
     </row>
     <row r="431">
-      <c r="E431" s="6"/>
+      <c r="E431" s="12"/>
     </row>
     <row r="432">
-      <c r="E432" s="6"/>
+      <c r="E432" s="12"/>
     </row>
     <row r="433">
-      <c r="E433" s="6"/>
+      <c r="E433" s="12"/>
     </row>
     <row r="434">
-      <c r="E434" s="6"/>
+      <c r="E434" s="12"/>
     </row>
     <row r="435">
-      <c r="E435" s="6"/>
+      <c r="E435" s="12"/>
     </row>
     <row r="436">
-      <c r="E436" s="6"/>
+      <c r="E436" s="12"/>
     </row>
     <row r="437">
-      <c r="E437" s="6"/>
+      <c r="E437" s="12"/>
     </row>
     <row r="438">
-      <c r="E438" s="6"/>
+      <c r="E438" s="12"/>
     </row>
     <row r="439">
-      <c r="E439" s="6"/>
+      <c r="E439" s="12"/>
     </row>
     <row r="440">
-      <c r="E440" s="6"/>
+      <c r="E440" s="12"/>
     </row>
     <row r="441">
-      <c r="E441" s="6"/>
+      <c r="E441" s="12"/>
     </row>
     <row r="442">
-      <c r="E442" s="6"/>
+      <c r="E442" s="12"/>
     </row>
     <row r="443">
-      <c r="E443" s="6"/>
+      <c r="E443" s="12"/>
     </row>
     <row r="444">
-      <c r="E444" s="6"/>
+      <c r="E444" s="12"/>
     </row>
     <row r="445">
-      <c r="E445" s="6"/>
+      <c r="E445" s="12"/>
     </row>
     <row r="446">
-      <c r="E446" s="6"/>
+      <c r="E446" s="12"/>
     </row>
     <row r="447">
-      <c r="E447" s="6"/>
+      <c r="E447" s="12"/>
     </row>
     <row r="448">
-      <c r="E448" s="6"/>
+      <c r="E448" s="12"/>
     </row>
     <row r="449">
-      <c r="E449" s="6"/>
+      <c r="E449" s="12"/>
     </row>
     <row r="450">
-      <c r="E450" s="6"/>
+      <c r="E450" s="12"/>
     </row>
     <row r="451">
-      <c r="E451" s="6"/>
+      <c r="E451" s="12"/>
     </row>
     <row r="452">
-      <c r="E452" s="6"/>
+      <c r="E452" s="12"/>
     </row>
     <row r="453">
-      <c r="E453" s="6"/>
+      <c r="E453" s="12"/>
     </row>
     <row r="454">
-      <c r="E454" s="6"/>
+      <c r="E454" s="12"/>
     </row>
     <row r="455">
-      <c r="E455" s="6"/>
+      <c r="E455" s="12"/>
     </row>
     <row r="456">
-      <c r="E456" s="6"/>
+      <c r="E456" s="12"/>
     </row>
     <row r="457">
-      <c r="E457" s="6"/>
+      <c r="E457" s="12"/>
     </row>
     <row r="458">
-      <c r="E458" s="6"/>
+      <c r="E458" s="12"/>
     </row>
     <row r="459">
-      <c r="E459" s="6"/>
+      <c r="E459" s="12"/>
     </row>
     <row r="460">
-      <c r="E460" s="6"/>
+      <c r="E460" s="12"/>
     </row>
     <row r="461">
-      <c r="E461" s="6"/>
+      <c r="E461" s="12"/>
     </row>
     <row r="462">
-      <c r="E462" s="6"/>
+      <c r="E462" s="12"/>
     </row>
     <row r="463">
-      <c r="E463" s="6"/>
+      <c r="E463" s="12"/>
     </row>
     <row r="464">
-      <c r="E464" s="6"/>
+      <c r="E464" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9467,16 +9589,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9607,30 +9729,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" ht="44.1" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="B3" t="n">
         <v>63.81</v>
@@ -9638,16 +9760,16 @@
       <c r="C3" t="n">
         <v>11.88</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="24" t="n">
         <v>1866.413</v>
       </c>
-      <c r="E3" s="18" t="n">
+      <c r="E3" s="24" t="n">
         <v>1735.764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="B4" t="n">
         <v>61.32</v>
@@ -9655,16 +9777,16 @@
       <c r="C4" t="n">
         <v>11.01</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="24" t="n">
         <v>2112.602</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="24" t="n">
         <v>1964.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B5" t="n">
         <v>59.65</v>
@@ -9672,16 +9794,16 @@
       <c r="C5" t="n">
         <v>9.89</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="24" t="n">
         <v>2781.839</v>
       </c>
-      <c r="E5" s="18" t="n">
+      <c r="E5" s="24" t="n">
         <v>2587.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B6" t="n">
         <v>69.78</v>
@@ -9689,16 +9811,16 @@
       <c r="C6" t="n">
         <v>14.93</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="24" t="n">
         <v>1142.964</v>
       </c>
-      <c r="E6" s="18" t="n">
+      <c r="E6" s="24" t="n">
         <v>1062.957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="B7" t="n">
         <v>69.43</v>
@@ -9706,16 +9828,16 @@
       <c r="C7" t="n">
         <v>14.7</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="24" t="n">
         <v>2819.394</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="24" t="n">
         <v>2622.036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="B8" t="n">
         <v>61.09</v>
@@ -9723,16 +9845,16 @@
       <c r="C8" t="n">
         <v>10.28</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="24" t="n">
         <v>2647.394</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="24" t="n">
         <v>2462.076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B9" t="n">
         <v>53.04</v>
@@ -9740,16 +9862,16 @@
       <c r="C9" t="n">
         <v>10.04</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="24" t="n">
         <v>1731.879</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="24" t="n">
         <v>1610.647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B10" t="n">
         <v>63.64</v>
@@ -9757,16 +9879,16 @@
       <c r="C10" t="n">
         <v>13.05</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="24" t="n">
         <v>2125.504</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E10" s="24" t="n">
         <v>1976.719</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B11" t="n">
         <v>61.62</v>
@@ -9774,32 +9896,32 @@
       <c r="C11" t="n">
         <v>12.46</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="24" t="n">
         <v>2129.069</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="24" t="n">
         <v>1980.034</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13">
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14">
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15">
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16">
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9814,7 +9936,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -9828,30 +9950,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" ht="44.1" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B3" t="n">
         <v>98.38</v>
@@ -9859,16 +9981,16 @@
       <c r="C3" t="n">
         <v>21.4</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="24" t="n">
         <v>76.733</v>
       </c>
-      <c r="E3" s="18" t="n">
+      <c r="E3" s="24" t="n">
         <v>71.362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B4" t="n">
         <v>87.9</v>
@@ -9876,16 +9998,16 @@
       <c r="C4" t="n">
         <v>19.91</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="24" t="n">
         <v>175.692</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="24" t="n">
         <v>163.394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B5" t="n">
         <v>132.04</v>
@@ -9893,16 +10015,16 @@
       <c r="C5" t="n">
         <v>19.08</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="24" t="n">
         <v>75.514</v>
       </c>
-      <c r="E5" s="18" t="n">
+      <c r="E5" s="24" t="n">
         <v>70.228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B6" t="n">
         <v>80.34</v>
@@ -9910,16 +10032,16 @@
       <c r="C6" t="n">
         <v>19.05</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="24" t="n">
         <v>59.237</v>
       </c>
-      <c r="E6" s="18" t="n">
+      <c r="E6" s="24" t="n">
         <v>55.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B7" t="n">
         <v>79.89</v>
@@ -9927,16 +10049,16 @@
       <c r="C7" t="n">
         <v>18.61</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="24" t="n">
         <v>77.178</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="24" t="n">
         <v>71.776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B8" t="n">
         <v>83.77</v>
@@ -9944,16 +10066,16 @@
       <c r="C8" t="n">
         <v>17.9</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="24" t="n">
         <v>151.473</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="24" t="n">
         <v>140.87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B9" t="n">
         <v>72.03</v>
@@ -9961,16 +10083,16 @@
       <c r="C9" t="n">
         <v>17.9</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="24" t="n">
         <v>141.401</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="24" t="n">
         <v>131.503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B10" t="n">
         <v>69</v>
@@ -9978,16 +10100,16 @@
       <c r="C10" t="n">
         <v>17.1</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="24" t="n">
         <v>59.856</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E10" s="24" t="n">
         <v>55.666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="B11" t="n">
         <v>77.7</v>
@@ -9995,16 +10117,16 @@
       <c r="C11" t="n">
         <v>16.78</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="24" t="n">
         <v>128.508</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="24" t="n">
         <v>119.512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="B12" t="n">
         <v>77.39</v>
@@ -10012,32 +10134,32 @@
       <c r="C12" t="n">
         <v>16.71</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D12" s="24" t="n">
         <v>127.827</v>
       </c>
-      <c r="E12" s="18" t="n">
+      <c r="E12" s="24" t="n">
         <v>118.879</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14">
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15">
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16">
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17">
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/summary_table_5.xlsx
+++ b/output/summary_table_5.xlsx
@@ -1681,13 +1681,13 @@
         <v>52</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>7748</v>
+        <v>7747.83530833</v>
       </c>
       <c r="E4" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>1444</v>
+        <v>1444.07959085</v>
       </c>
     </row>
     <row r="5">
@@ -1715,7 +1715,7 @@
         <v>61</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1735,7 +1735,7 @@
         <v>53</v>
       </c>
       <c r="G7" s="9" t="n">
-        <v>47.9</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="8">
@@ -1789,7 +1789,7 @@
         <v>68</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4898</v>
+        <v>0.4547</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1809,7 @@
         <v>69</v>
       </c>
       <c r="G11" s="11" t="n">
-        <v>2948</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="12">
@@ -1825,7 +1825,7 @@
     </row>
     <row r="13">
       <c r="H13" s="11" t="n">
-        <v>14307</v>
+        <v>14535</v>
       </c>
     </row>
     <row r="15">
@@ -1860,7 +1860,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>2.591</v>
+        <v>2.632</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -1979,7 +1979,7 @@
         <v>223</v>
       </c>
       <c r="C3" t="n">
-        <v>60.62</v>
+        <v>61.58</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -2000,16 +2000,16 @@
         <v>26982</v>
       </c>
       <c r="J3" t="n">
-        <v>1636</v>
+        <v>1662</v>
       </c>
       <c r="K3" s="14" t="n">
-        <v>85.048</v>
+        <v>86.404</v>
       </c>
       <c r="L3" t="n">
         <v>495</v>
       </c>
       <c r="M3" t="n">
-        <v>12.25</v>
+        <v>12.45</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
@@ -2023,7 +2023,7 @@
         <v>224</v>
       </c>
       <c r="C4" t="n">
-        <v>61.4</v>
+        <v>62.38</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
@@ -2044,16 +2044,16 @@
         <v>33648</v>
       </c>
       <c r="J4" t="n">
-        <v>2066</v>
+        <v>2099</v>
       </c>
       <c r="K4" s="14" t="n">
-        <v>107.432</v>
+        <v>109.144</v>
       </c>
       <c r="L4" t="n">
         <v>633</v>
       </c>
       <c r="M4" t="n">
-        <v>9.7</v>
+        <v>9.85</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
@@ -2067,7 +2067,7 @@
         <v>225</v>
       </c>
       <c r="C5" t="n">
-        <v>44.14</v>
+        <v>44.85</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -2088,16 +2088,16 @@
         <v>35804</v>
       </c>
       <c r="J5" t="n">
-        <v>1581</v>
+        <v>1606</v>
       </c>
       <c r="K5" s="14" t="n">
-        <v>82.187</v>
+        <v>83.497</v>
       </c>
       <c r="L5" t="n">
         <v>506</v>
       </c>
       <c r="M5" t="n">
-        <v>8.73</v>
+        <v>8.87</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
@@ -2111,7 +2111,7 @@
         <v>226</v>
       </c>
       <c r="C6" t="n">
-        <v>42.99</v>
+        <v>43.67</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -2132,16 +2132,16 @@
         <v>20484</v>
       </c>
       <c r="J6" t="n">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="K6" s="14" t="n">
-        <v>45.79</v>
+        <v>46.52</v>
       </c>
       <c r="L6" t="n">
         <v>574</v>
       </c>
       <c r="M6" t="n">
-        <v>7.48</v>
+        <v>7.6</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -2155,7 +2155,7 @@
         <v>227</v>
       </c>
       <c r="C7" t="n">
-        <v>43.67</v>
+        <v>44.36</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -2176,16 +2176,16 @@
         <v>14262</v>
       </c>
       <c r="J7" t="n">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="K7" s="14" t="n">
-        <v>32.386</v>
+        <v>32.902</v>
       </c>
       <c r="L7" t="n">
         <v>574</v>
       </c>
       <c r="M7" t="n">
-        <v>7.61</v>
+        <v>7.73</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -2199,7 +2199,7 @@
         <v>228</v>
       </c>
       <c r="C8" t="n">
-        <v>65.55</v>
+        <v>66.59</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -2220,16 +2220,16 @@
         <v>27084</v>
       </c>
       <c r="J8" t="n">
-        <v>1775</v>
+        <v>1804</v>
       </c>
       <c r="K8" s="14" t="n">
-        <v>92.315</v>
+        <v>93.786</v>
       </c>
       <c r="L8" t="n">
         <v>623</v>
       </c>
       <c r="M8" t="n">
-        <v>10.53</v>
+        <v>10.69</v>
       </c>
       <c r="N8" t="n">
         <v>4</v>
@@ -2243,7 +2243,7 @@
         <v>229</v>
       </c>
       <c r="C9" t="n">
-        <v>65.49</v>
+        <v>66.54</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -2264,16 +2264,16 @@
         <v>126363</v>
       </c>
       <c r="J9" t="n">
-        <v>8276</v>
+        <v>8408</v>
       </c>
       <c r="K9" s="14" t="n">
-        <v>430.356</v>
+        <v>437.214</v>
       </c>
       <c r="L9" t="n">
         <v>434</v>
       </c>
       <c r="M9" t="n">
-        <v>15.08</v>
+        <v>15.32</v>
       </c>
       <c r="N9" t="n">
         <v>9</v>
@@ -2287,7 +2287,7 @@
         <v>230</v>
       </c>
       <c r="C10" t="n">
-        <v>67.63</v>
+        <v>68.71</v>
       </c>
       <c r="D10" t="n">
         <v>7</v>
@@ -2308,16 +2308,16 @@
         <v>17197</v>
       </c>
       <c r="J10" t="n">
-        <v>1163</v>
+        <v>1182</v>
       </c>
       <c r="K10" s="14" t="n">
-        <v>60.475</v>
+        <v>61.439</v>
       </c>
       <c r="L10" t="n">
         <v>422</v>
       </c>
       <c r="M10" t="n">
-        <v>16.03</v>
+        <v>16.29</v>
       </c>
       <c r="N10" t="n">
         <v>9</v>
@@ -2331,7 +2331,7 @@
         <v>231</v>
       </c>
       <c r="C11" t="n">
-        <v>59.82</v>
+        <v>60.78</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -2352,16 +2352,16 @@
         <v>25797</v>
       </c>
       <c r="J11" t="n">
-        <v>1543</v>
+        <v>1568</v>
       </c>
       <c r="K11" s="14" t="n">
-        <v>80.248</v>
+        <v>81.526</v>
       </c>
       <c r="L11" t="n">
         <v>377</v>
       </c>
       <c r="M11" t="n">
-        <v>15.86</v>
+        <v>16.11</v>
       </c>
       <c r="N11" t="n">
         <v>9</v>
@@ -2375,7 +2375,7 @@
         <v>232</v>
       </c>
       <c r="C12" t="n">
-        <v>83.77</v>
+        <v>85.1</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
@@ -2396,16 +2396,16 @@
         <v>34774</v>
       </c>
       <c r="J12" t="n">
-        <v>2913</v>
+        <v>2959</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>151.473</v>
+        <v>153.887</v>
       </c>
       <c r="L12" t="n">
         <v>468</v>
       </c>
       <c r="M12" t="n">
-        <v>17.9</v>
+        <v>18.19</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
@@ -2419,7 +2419,7 @@
         <v>233</v>
       </c>
       <c r="C13" t="n">
-        <v>54.77</v>
+        <v>55.64</v>
       </c>
       <c r="D13" t="n">
         <v>3</v>
@@ -2440,16 +2440,16 @@
         <v>44330</v>
       </c>
       <c r="J13" t="n">
-        <v>2428</v>
+        <v>2467</v>
       </c>
       <c r="K13" s="14" t="n">
-        <v>126.256</v>
+        <v>128.268</v>
       </c>
       <c r="L13" t="n">
         <v>508</v>
       </c>
       <c r="M13" t="n">
-        <v>10.78</v>
+        <v>10.95</v>
       </c>
       <c r="N13" t="n">
         <v>4</v>
@@ -2463,7 +2463,7 @@
         <v>234</v>
       </c>
       <c r="C14" t="n">
-        <v>54.17</v>
+        <v>55.03</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -2484,16 +2484,16 @@
         <v>11170</v>
       </c>
       <c r="J14" t="n">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="K14" s="14" t="n">
-        <v>31.463</v>
+        <v>31.964</v>
       </c>
       <c r="L14" t="n">
         <v>604</v>
       </c>
       <c r="M14" t="n">
-        <v>8.96</v>
+        <v>9.1</v>
       </c>
       <c r="N14" t="n">
         <v>2</v>
@@ -2507,7 +2507,7 @@
         <v>235</v>
       </c>
       <c r="C15" t="n">
-        <v>65.99</v>
+        <v>67.05</v>
       </c>
       <c r="D15" t="n">
         <v>7</v>
@@ -2528,16 +2528,16 @@
         <v>65583</v>
       </c>
       <c r="J15" t="n">
-        <v>4328</v>
+        <v>4397</v>
       </c>
       <c r="K15" s="14" t="n">
-        <v>225.061</v>
+        <v>228.648</v>
       </c>
       <c r="L15" t="n">
         <v>430</v>
       </c>
       <c r="M15" t="n">
-        <v>15.34</v>
+        <v>15.58</v>
       </c>
       <c r="N15" t="n">
         <v>9</v>
@@ -2551,7 +2551,7 @@
         <v>236</v>
       </c>
       <c r="C16" t="n">
-        <v>64.15</v>
+        <v>65.17</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -2572,16 +2572,16 @@
         <v>26046</v>
       </c>
       <c r="J16" t="n">
-        <v>1671</v>
+        <v>1697</v>
       </c>
       <c r="K16" s="14" t="n">
-        <v>86.881</v>
+        <v>88.266</v>
       </c>
       <c r="L16" t="n">
         <v>530</v>
       </c>
       <c r="M16" t="n">
-        <v>12.09</v>
+        <v>12.29</v>
       </c>
       <c r="N16" t="n">
         <v>6</v>
@@ -2595,7 +2595,7 @@
         <v>237</v>
       </c>
       <c r="C17" t="n">
-        <v>50.06</v>
+        <v>50.86</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -2616,16 +2616,16 @@
         <v>42107</v>
       </c>
       <c r="J17" t="n">
-        <v>2108</v>
+        <v>2142</v>
       </c>
       <c r="K17" s="14" t="n">
-        <v>109.613</v>
+        <v>111.359</v>
       </c>
       <c r="L17" t="n">
         <v>575</v>
       </c>
       <c r="M17" t="n">
-        <v>8.71</v>
+        <v>8.85</v>
       </c>
       <c r="N17" t="n">
         <v>2</v>
@@ -2639,7 +2639,7 @@
         <v>238</v>
       </c>
       <c r="C18" t="n">
-        <v>49.64</v>
+        <v>50.43</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -2660,16 +2660,16 @@
         <v>66358</v>
       </c>
       <c r="J18" t="n">
-        <v>3294</v>
+        <v>3347</v>
       </c>
       <c r="K18" s="14" t="n">
-        <v>171.29</v>
+        <v>174.02</v>
       </c>
       <c r="L18" t="n">
         <v>521</v>
       </c>
       <c r="M18" t="n">
-        <v>9.53</v>
+        <v>9.68</v>
       </c>
       <c r="N18" t="n">
         <v>3</v>
@@ -2683,7 +2683,7 @@
         <v>239</v>
       </c>
       <c r="C19" t="n">
-        <v>60.22</v>
+        <v>61.18</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
@@ -2704,16 +2704,16 @@
         <v>24254</v>
       </c>
       <c r="J19" t="n">
-        <v>1461</v>
+        <v>1484</v>
       </c>
       <c r="K19" s="14" t="n">
-        <v>75.946</v>
+        <v>77.157</v>
       </c>
       <c r="L19" t="n">
         <v>704</v>
       </c>
       <c r="M19" t="n">
-        <v>8.55</v>
+        <v>8.69</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>240</v>
       </c>
       <c r="C20" t="n">
-        <v>56.29</v>
+        <v>57.19</v>
       </c>
       <c r="D20" t="n">
         <v>4</v>
@@ -2747,7 +2747,7 @@
         <v>645</v>
       </c>
       <c r="M20" t="n">
-        <v>8.73</v>
+        <v>8.87</v>
       </c>
       <c r="N20" t="n">
         <v>2</v>
@@ -2761,7 +2761,7 @@
         <v>241</v>
       </c>
       <c r="C21" t="n">
-        <v>60.4</v>
+        <v>61.37</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
@@ -2782,16 +2782,16 @@
         <v>18859</v>
       </c>
       <c r="J21" t="n">
-        <v>1139</v>
+        <v>1157</v>
       </c>
       <c r="K21" s="14" t="n">
-        <v>59.236</v>
+        <v>60.18</v>
       </c>
       <c r="L21" t="n">
         <v>508</v>
       </c>
       <c r="M21" t="n">
-        <v>11.89</v>
+        <v>12.08</v>
       </c>
       <c r="N21" t="n">
         <v>6</v>
@@ -2805,7 +2805,7 @@
         <v>242</v>
       </c>
       <c r="C22" t="n">
-        <v>64.4</v>
+        <v>65.43</v>
       </c>
       <c r="D22" t="n">
         <v>6</v>
@@ -2826,16 +2826,16 @@
         <v>26598</v>
       </c>
       <c r="J22" t="n">
-        <v>1713</v>
+        <v>1740</v>
       </c>
       <c r="K22" s="14" t="n">
-        <v>89.072</v>
+        <v>90.492</v>
       </c>
       <c r="L22" t="n">
         <v>482</v>
       </c>
       <c r="M22" t="n">
-        <v>13.35</v>
+        <v>13.57</v>
       </c>
       <c r="N22" t="n">
         <v>8</v>
@@ -2849,7 +2849,7 @@
         <v>243</v>
       </c>
       <c r="C23" t="n">
-        <v>56.26</v>
+        <v>57.16</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
@@ -2870,16 +2870,16 @@
         <v>68239</v>
       </c>
       <c r="J23" t="n">
-        <v>3839</v>
+        <v>3900</v>
       </c>
       <c r="K23" s="14" t="n">
-        <v>199.638</v>
+        <v>202.819</v>
       </c>
       <c r="L23" t="n">
         <v>624</v>
       </c>
       <c r="M23" t="n">
-        <v>9.02</v>
+        <v>9.16</v>
       </c>
       <c r="N23" t="n">
         <v>2</v>
@@ -2893,7 +2893,7 @@
         <v>244</v>
       </c>
       <c r="C24" t="n">
-        <v>55.81</v>
+        <v>56.69</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -2914,16 +2914,16 @@
         <v>26219</v>
       </c>
       <c r="J24" t="n">
-        <v>1463</v>
+        <v>1486</v>
       </c>
       <c r="K24" s="14" t="n">
-        <v>76.084</v>
+        <v>77.297</v>
       </c>
       <c r="L24" t="n">
         <v>625</v>
       </c>
       <c r="M24" t="n">
-        <v>8.93</v>
+        <v>9.07</v>
       </c>
       <c r="N24" t="n">
         <v>2</v>
@@ -2937,7 +2937,7 @@
         <v>245</v>
       </c>
       <c r="C25" t="n">
-        <v>65.73</v>
+        <v>66.78</v>
       </c>
       <c r="D25" t="n">
         <v>7</v>
@@ -2958,16 +2958,16 @@
         <v>30831</v>
       </c>
       <c r="J25" t="n">
-        <v>2027</v>
+        <v>2059</v>
       </c>
       <c r="K25" s="14" t="n">
-        <v>105.387</v>
+        <v>107.066</v>
       </c>
       <c r="L25" t="n">
         <v>616</v>
       </c>
       <c r="M25" t="n">
-        <v>10.67</v>
+        <v>10.84</v>
       </c>
       <c r="N25" t="n">
         <v>4</v>
@@ -2981,7 +2981,7 @@
         <v>246</v>
       </c>
       <c r="C26" t="n">
-        <v>76.15</v>
+        <v>77.36</v>
       </c>
       <c r="D26" t="n">
         <v>9</v>
@@ -3002,16 +3002,16 @@
         <v>42362</v>
       </c>
       <c r="J26" t="n">
-        <v>3226</v>
+        <v>3277</v>
       </c>
       <c r="K26" s="14" t="n">
-        <v>167.737</v>
+        <v>170.41</v>
       </c>
       <c r="L26" t="n">
         <v>581</v>
       </c>
       <c r="M26" t="n">
-        <v>13.11</v>
+        <v>13.32</v>
       </c>
       <c r="N26" t="n">
         <v>8</v>
@@ -3025,7 +3025,7 @@
         <v>247</v>
       </c>
       <c r="C27" t="n">
-        <v>38.88</v>
+        <v>39.5</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -3046,16 +3046,16 @@
         <v>31125</v>
       </c>
       <c r="J27" t="n">
-        <v>1210</v>
+        <v>1229</v>
       </c>
       <c r="K27" s="14" t="n">
-        <v>62.923</v>
+        <v>63.926</v>
       </c>
       <c r="L27" t="n">
         <v>560</v>
       </c>
       <c r="M27" t="n">
-        <v>6.94</v>
+        <v>7.05</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -3095,7 +3095,7 @@
         <v>249</v>
       </c>
       <c r="C29" t="n">
-        <v>48.55</v>
+        <v>49.33</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -3116,16 +3116,16 @@
         <v>69931</v>
       </c>
       <c r="J29" t="n">
-        <v>3395</v>
+        <v>3450</v>
       </c>
       <c r="K29" s="14" t="n">
-        <v>176.565</v>
+        <v>179.379</v>
       </c>
       <c r="L29" t="n">
         <v>490</v>
       </c>
       <c r="M29" t="n">
-        <v>9.91</v>
+        <v>10.07</v>
       </c>
       <c r="N29" t="n">
         <v>3</v>
@@ -3139,7 +3139,7 @@
         <v>250</v>
       </c>
       <c r="C30" t="n">
-        <v>57.55</v>
+        <v>58.46</v>
       </c>
       <c r="D30" t="n">
         <v>4</v>
@@ -3160,16 +3160,16 @@
         <v>72875</v>
       </c>
       <c r="J30" t="n">
-        <v>4194</v>
+        <v>4261</v>
       </c>
       <c r="K30" s="14" t="n">
-        <v>218.077</v>
+        <v>221.552</v>
       </c>
       <c r="L30" t="n">
         <v>485</v>
       </c>
       <c r="M30" t="n">
-        <v>11.86</v>
+        <v>12.05</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
@@ -3183,7 +3183,7 @@
         <v>251</v>
       </c>
       <c r="C31" t="n">
-        <v>61.7</v>
+        <v>62.68</v>
       </c>
       <c r="D31" t="n">
         <v>6</v>
@@ -3204,16 +3204,16 @@
         <v>43973</v>
       </c>
       <c r="J31" t="n">
-        <v>2713</v>
+        <v>2756</v>
       </c>
       <c r="K31" s="14" t="n">
-        <v>141.081</v>
+        <v>143.329</v>
       </c>
       <c r="L31" t="n">
         <v>476</v>
       </c>
       <c r="M31" t="n">
-        <v>12.96</v>
+        <v>13.16</v>
       </c>
       <c r="N31" t="n">
         <v>7</v>
@@ -3227,7 +3227,7 @@
         <v>252</v>
       </c>
       <c r="C32" t="n">
-        <v>60.29</v>
+        <v>61.25</v>
       </c>
       <c r="D32" t="n">
         <v>5</v>
@@ -3248,16 +3248,16 @@
         <v>36269</v>
       </c>
       <c r="J32" t="n">
-        <v>2187</v>
+        <v>2222</v>
       </c>
       <c r="K32" s="14" t="n">
-        <v>113.711</v>
+        <v>115.523</v>
       </c>
       <c r="L32" t="n">
         <v>600</v>
       </c>
       <c r="M32" t="n">
-        <v>10.05</v>
+        <v>10.21</v>
       </c>
       <c r="N32" t="n">
         <v>3</v>
@@ -3271,7 +3271,7 @@
         <v>253</v>
       </c>
       <c r="C33" t="n">
-        <v>62</v>
+        <v>62.99</v>
       </c>
       <c r="D33" t="n">
         <v>6</v>
@@ -3292,16 +3292,16 @@
         <v>62243</v>
       </c>
       <c r="J33" t="n">
-        <v>3859</v>
+        <v>3921</v>
       </c>
       <c r="K33" s="14" t="n">
-        <v>200.679</v>
+        <v>203.877</v>
       </c>
       <c r="L33" t="n">
         <v>514</v>
       </c>
       <c r="M33" t="n">
-        <v>12.05</v>
+        <v>12.25</v>
       </c>
       <c r="N33" t="n">
         <v>6</v>
@@ -3315,7 +3315,7 @@
         <v>254</v>
       </c>
       <c r="C34" t="n">
-        <v>77.41</v>
+        <v>78.65</v>
       </c>
       <c r="D34" t="n">
         <v>9</v>
@@ -3336,16 +3336,16 @@
         <v>11552</v>
       </c>
       <c r="J34" t="n">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="K34" s="14" t="n">
-        <v>46.503</v>
+        <v>47.244</v>
       </c>
       <c r="L34" t="n">
         <v>466</v>
       </c>
       <c r="M34" t="n">
-        <v>16.6</v>
+        <v>16.86</v>
       </c>
       <c r="N34" t="n">
         <v>10</v>
@@ -3359,7 +3359,7 @@
         <v>255</v>
       </c>
       <c r="C35" t="n">
-        <v>58.12</v>
+        <v>59.05</v>
       </c>
       <c r="D35" t="n">
         <v>4</v>
@@ -3380,16 +3380,16 @@
         <v>33045</v>
       </c>
       <c r="J35" t="n">
-        <v>1921</v>
+        <v>1951</v>
       </c>
       <c r="K35" s="14" t="n">
-        <v>99.875</v>
+        <v>101.467</v>
       </c>
       <c r="L35" t="n">
         <v>522</v>
       </c>
       <c r="M35" t="n">
-        <v>11.13</v>
+        <v>11.31</v>
       </c>
       <c r="N35" t="n">
         <v>5</v>
@@ -3403,7 +3403,7 @@
         <v>256</v>
       </c>
       <c r="C36" t="n">
-        <v>63.45</v>
+        <v>64.46</v>
       </c>
       <c r="D36" t="n">
         <v>6</v>
@@ -3424,16 +3424,16 @@
         <v>81716</v>
       </c>
       <c r="J36" t="n">
-        <v>5185</v>
+        <v>5268</v>
       </c>
       <c r="K36" s="14" t="n">
-        <v>269.622</v>
+        <v>273.919</v>
       </c>
       <c r="L36" t="n">
         <v>556</v>
       </c>
       <c r="M36" t="n">
-        <v>11.41</v>
+        <v>11.59</v>
       </c>
       <c r="N36" t="n">
         <v>5</v>
@@ -3447,7 +3447,7 @@
         <v>257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.77</v>
+        <v>47.51</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -3468,16 +3468,16 @@
         <v>88461</v>
       </c>
       <c r="J37" t="n">
-        <v>4137</v>
+        <v>4203</v>
       </c>
       <c r="K37" s="14" t="n">
-        <v>215.134</v>
+        <v>218.562</v>
       </c>
       <c r="L37" t="n">
         <v>523</v>
       </c>
       <c r="M37" t="n">
-        <v>8.95</v>
+        <v>9.09</v>
       </c>
       <c r="N37" t="n">
         <v>2</v>
@@ -3491,7 +3491,7 @@
         <v>258</v>
       </c>
       <c r="C38" t="n">
-        <v>78.79</v>
+        <v>80.05</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -3512,16 +3512,16 @@
         <v>46779</v>
       </c>
       <c r="J38" t="n">
-        <v>3686</v>
+        <v>3744</v>
       </c>
       <c r="K38" s="14" t="n">
-        <v>191.658</v>
+        <v>194.712</v>
       </c>
       <c r="L38" t="n">
         <v>498</v>
       </c>
       <c r="M38" t="n">
-        <v>15.81</v>
+        <v>16.06</v>
       </c>
       <c r="N38" t="n">
         <v>9</v>
@@ -3535,7 +3535,7 @@
         <v>259</v>
       </c>
       <c r="C39" t="n">
-        <v>50.36</v>
+        <v>51.16</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
@@ -3556,16 +3556,16 @@
         <v>31530</v>
       </c>
       <c r="J39" t="n">
-        <v>1588</v>
+        <v>1613</v>
       </c>
       <c r="K39" s="14" t="n">
-        <v>82.566</v>
+        <v>83.882</v>
       </c>
       <c r="L39" t="n">
         <v>552</v>
       </c>
       <c r="M39" t="n">
-        <v>9.13</v>
+        <v>9.27</v>
       </c>
       <c r="N39" t="n">
         <v>2</v>
@@ -3579,7 +3579,7 @@
         <v>260</v>
       </c>
       <c r="C40" t="n">
-        <v>54.06</v>
+        <v>54.93</v>
       </c>
       <c r="D40" t="n">
         <v>3</v>
@@ -3600,16 +3600,16 @@
         <v>34039</v>
       </c>
       <c r="J40" t="n">
-        <v>1840</v>
+        <v>1870</v>
       </c>
       <c r="K40" s="14" t="n">
-        <v>95.694</v>
+        <v>97.219</v>
       </c>
       <c r="L40" t="n">
         <v>479</v>
       </c>
       <c r="M40" t="n">
-        <v>11.28</v>
+        <v>11.46</v>
       </c>
       <c r="N40" t="n">
         <v>5</v>
@@ -3623,7 +3623,7 @@
         <v>261</v>
       </c>
       <c r="C41" t="n">
-        <v>59.31</v>
+        <v>60.25</v>
       </c>
       <c r="D41" t="n">
         <v>5</v>
@@ -3644,16 +3644,16 @@
         <v>25841</v>
       </c>
       <c r="J41" t="n">
-        <v>1533</v>
+        <v>1557</v>
       </c>
       <c r="K41" s="14" t="n">
-        <v>79.694</v>
+        <v>80.964</v>
       </c>
       <c r="L41" t="n">
         <v>598</v>
       </c>
       <c r="M41" t="n">
-        <v>9.92</v>
+        <v>10.08</v>
       </c>
       <c r="N41" t="n">
         <v>3</v>
@@ -3667,7 +3667,7 @@
         <v>262</v>
       </c>
       <c r="C42" t="n">
-        <v>67.66</v>
+        <v>68.73</v>
       </c>
       <c r="D42" t="n">
         <v>8</v>
@@ -3688,16 +3688,16 @@
         <v>33682</v>
       </c>
       <c r="J42" t="n">
-        <v>2279</v>
+        <v>2315</v>
       </c>
       <c r="K42" s="14" t="n">
-        <v>118.498</v>
+        <v>120.386</v>
       </c>
       <c r="L42" t="n">
         <v>543</v>
       </c>
       <c r="M42" t="n">
-        <v>12.46</v>
+        <v>12.66</v>
       </c>
       <c r="N42" t="n">
         <v>7</v>
@@ -3711,7 +3711,7 @@
         <v>263</v>
       </c>
       <c r="C43" t="n">
-        <v>53.36</v>
+        <v>54.21</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
@@ -3732,16 +3732,16 @@
         <v>57010</v>
       </c>
       <c r="J43" t="n">
-        <v>3042</v>
+        <v>3090</v>
       </c>
       <c r="K43" s="14" t="n">
-        <v>158.179</v>
+        <v>160.7</v>
       </c>
       <c r="L43" t="n">
         <v>555</v>
       </c>
       <c r="M43" t="n">
-        <v>9.61</v>
+        <v>9.77</v>
       </c>
       <c r="N43" t="n">
         <v>3</v>
@@ -3755,7 +3755,7 @@
         <v>264</v>
       </c>
       <c r="C44" t="n">
-        <v>61.24</v>
+        <v>62.22</v>
       </c>
       <c r="D44" t="n">
         <v>5</v>
@@ -3776,16 +3776,16 @@
         <v>39424</v>
       </c>
       <c r="J44" t="n">
-        <v>2414</v>
+        <v>2453</v>
       </c>
       <c r="K44" s="14" t="n">
-        <v>125.545</v>
+        <v>127.546</v>
       </c>
       <c r="L44" t="n">
         <v>547</v>
       </c>
       <c r="M44" t="n">
-        <v>11.19</v>
+        <v>11.36</v>
       </c>
       <c r="N44" t="n">
         <v>5</v>
@@ -3799,7 +3799,7 @@
         <v>265</v>
       </c>
       <c r="C45" t="n">
-        <v>68.03</v>
+        <v>69.11</v>
       </c>
       <c r="D45" t="n">
         <v>8</v>
@@ -3820,16 +3820,16 @@
         <v>154954</v>
       </c>
       <c r="J45" t="n">
-        <v>10541</v>
+        <v>10709</v>
       </c>
       <c r="K45" s="14" t="n">
-        <v>548.131</v>
+        <v>556.867</v>
       </c>
       <c r="L45" t="n">
         <v>577</v>
       </c>
       <c r="M45" t="n">
-        <v>11.8</v>
+        <v>11.98</v>
       </c>
       <c r="N45" t="n">
         <v>6</v>
@@ -3843,7 +3843,7 @@
         <v>266</v>
       </c>
       <c r="C46" t="n">
-        <v>53.62</v>
+        <v>54.47</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
@@ -3864,16 +3864,16 @@
         <v>27805</v>
       </c>
       <c r="J46" t="n">
-        <v>1491</v>
+        <v>1515</v>
       </c>
       <c r="K46" s="14" t="n">
-        <v>77.527</v>
+        <v>78.762</v>
       </c>
       <c r="L46" t="n">
         <v>470</v>
       </c>
       <c r="M46" t="n">
-        <v>11.42</v>
+        <v>11.6</v>
       </c>
       <c r="N46" t="n">
         <v>6</v>
@@ -3887,7 +3887,7 @@
         <v>267</v>
       </c>
       <c r="C47" t="n">
-        <v>59.28</v>
+        <v>60.22</v>
       </c>
       <c r="D47" t="n">
         <v>5</v>
@@ -3908,16 +3908,16 @@
         <v>65858</v>
       </c>
       <c r="J47" t="n">
-        <v>3904</v>
+        <v>3966</v>
       </c>
       <c r="K47" s="14" t="n">
-        <v>203.01</v>
+        <v>206.246</v>
       </c>
       <c r="L47" t="n">
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>10.55</v>
+        <v>10.72</v>
       </c>
       <c r="N47" t="n">
         <v>4</v>
@@ -3931,7 +3931,7 @@
         <v>268</v>
       </c>
       <c r="C48" t="n">
-        <v>64.62</v>
+        <v>65.65</v>
       </c>
       <c r="D48" t="n">
         <v>6</v>
@@ -3952,16 +3952,16 @@
         <v>27929</v>
       </c>
       <c r="J48" t="n">
-        <v>1805</v>
+        <v>1834</v>
       </c>
       <c r="K48" s="14" t="n">
-        <v>93.854</v>
+        <v>95.349</v>
       </c>
       <c r="L48" t="n">
         <v>585</v>
       </c>
       <c r="M48" t="n">
-        <v>11.05</v>
+        <v>11.23</v>
       </c>
       <c r="N48" t="n">
         <v>5</v>
@@ -3975,7 +3975,7 @@
         <v>269</v>
       </c>
       <c r="C49" t="n">
-        <v>48.98</v>
+        <v>49.76</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -3996,16 +3996,16 @@
         <v>31381</v>
       </c>
       <c r="J49" t="n">
-        <v>1537</v>
+        <v>1562</v>
       </c>
       <c r="K49" s="14" t="n">
-        <v>79.932</v>
+        <v>81.206</v>
       </c>
       <c r="L49" t="n">
         <v>519</v>
       </c>
       <c r="M49" t="n">
-        <v>9.43</v>
+        <v>9.58</v>
       </c>
       <c r="N49" t="n">
         <v>3</v>
@@ -4019,7 +4019,7 @@
         <v>270</v>
       </c>
       <c r="C50" t="n">
-        <v>98.38</v>
+        <v>99.94</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
@@ -4040,16 +4040,16 @@
         <v>15000</v>
       </c>
       <c r="J50" t="n">
-        <v>1476</v>
+        <v>1499</v>
       </c>
       <c r="K50" s="14" t="n">
-        <v>76.733</v>
+        <v>77.956</v>
       </c>
       <c r="L50" t="n">
         <v>460</v>
       </c>
       <c r="M50" t="n">
-        <v>21.4</v>
+        <v>21.74</v>
       </c>
       <c r="N50" t="n">
         <v>10</v>
@@ -4063,7 +4063,7 @@
         <v>271</v>
       </c>
       <c r="C51" t="n">
-        <v>55.57</v>
+        <v>56.45</v>
       </c>
       <c r="D51" t="n">
         <v>3</v>
@@ -4084,16 +4084,16 @@
         <v>15305</v>
       </c>
       <c r="J51" t="n">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="K51" s="14" t="n">
-        <v>44.223</v>
+        <v>44.927</v>
       </c>
       <c r="L51" t="n">
         <v>610</v>
       </c>
       <c r="M51" t="n">
-        <v>9.1</v>
+        <v>9.25</v>
       </c>
       <c r="N51" t="n">
         <v>2</v>
@@ -4107,7 +4107,7 @@
         <v>272</v>
       </c>
       <c r="C52" t="n">
-        <v>65.63</v>
+        <v>66.68</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -4128,16 +4128,16 @@
         <v>109694</v>
       </c>
       <c r="J52" t="n">
-        <v>7199</v>
+        <v>7314</v>
       </c>
       <c r="K52" s="14" t="n">
-        <v>374.373</v>
+        <v>380.339</v>
       </c>
       <c r="L52" t="n">
         <v>630</v>
       </c>
       <c r="M52" t="n">
-        <v>10.42</v>
+        <v>10.59</v>
       </c>
       <c r="N52" t="n">
         <v>4</v>
@@ -4151,7 +4151,7 @@
         <v>273</v>
       </c>
       <c r="C53" t="n">
-        <v>46.21</v>
+        <v>46.95</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -4172,16 +4172,16 @@
         <v>31107</v>
       </c>
       <c r="J53" t="n">
-        <v>1437</v>
+        <v>1460</v>
       </c>
       <c r="K53" s="14" t="n">
-        <v>74.749</v>
+        <v>75.941</v>
       </c>
       <c r="L53" t="n">
         <v>577</v>
       </c>
       <c r="M53" t="n">
-        <v>8.01</v>
+        <v>8.14</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
@@ -4195,7 +4195,7 @@
         <v>274</v>
       </c>
       <c r="C54" t="n">
-        <v>69.93</v>
+        <v>71.04</v>
       </c>
       <c r="D54" t="n">
         <v>8</v>
@@ -4216,16 +4216,16 @@
         <v>19875</v>
       </c>
       <c r="J54" t="n">
-        <v>1390</v>
+        <v>1412</v>
       </c>
       <c r="K54" s="14" t="n">
-        <v>72.27</v>
+        <v>73.421</v>
       </c>
       <c r="L54" t="n">
         <v>644</v>
       </c>
       <c r="M54" t="n">
-        <v>10.86</v>
+        <v>11.03</v>
       </c>
       <c r="N54" t="n">
         <v>5</v>
@@ -4239,7 +4239,7 @@
         <v>275</v>
       </c>
       <c r="C55" t="n">
-        <v>80.34</v>
+        <v>81.62</v>
       </c>
       <c r="D55" t="n">
         <v>10</v>
@@ -4260,16 +4260,16 @@
         <v>14180</v>
       </c>
       <c r="J55" t="n">
-        <v>1139</v>
+        <v>1157</v>
       </c>
       <c r="K55" s="14" t="n">
-        <v>59.237</v>
+        <v>60.181</v>
       </c>
       <c r="L55" t="n">
         <v>422</v>
       </c>
       <c r="M55" t="n">
-        <v>19.05</v>
+        <v>19.36</v>
       </c>
       <c r="N55" t="n">
         <v>10</v>
@@ -4283,7 +4283,7 @@
         <v>276</v>
       </c>
       <c r="C56" t="n">
-        <v>88.94</v>
+        <v>90.36</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
@@ -4304,16 +4304,16 @@
         <v>26524</v>
       </c>
       <c r="J56" t="n">
-        <v>2359</v>
+        <v>2397</v>
       </c>
       <c r="K56" s="14" t="n">
-        <v>122.677</v>
+        <v>124.632</v>
       </c>
       <c r="L56" t="n">
         <v>621</v>
       </c>
       <c r="M56" t="n">
-        <v>14.33</v>
+        <v>14.56</v>
       </c>
       <c r="N56" t="n">
         <v>8</v>
@@ -4327,7 +4327,7 @@
         <v>277</v>
       </c>
       <c r="C57" t="n">
-        <v>67.55</v>
+        <v>68.63</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
@@ -4348,16 +4348,16 @@
         <v>19235</v>
       </c>
       <c r="J57" t="n">
-        <v>1299</v>
+        <v>1320</v>
       </c>
       <c r="K57" s="14" t="n">
-        <v>67.568</v>
+        <v>68.645</v>
       </c>
       <c r="L57" t="n">
         <v>520</v>
       </c>
       <c r="M57" t="n">
-        <v>12.99</v>
+        <v>13.19</v>
       </c>
       <c r="N57" t="n">
         <v>7</v>
@@ -4371,7 +4371,7 @@
         <v>278</v>
       </c>
       <c r="C58" t="n">
-        <v>54.73</v>
+        <v>55.6</v>
       </c>
       <c r="D58" t="n">
         <v>3</v>
@@ -4392,16 +4392,16 @@
         <v>100550</v>
       </c>
       <c r="J58" t="n">
-        <v>5503</v>
+        <v>5590</v>
       </c>
       <c r="K58" s="14" t="n">
-        <v>286.145</v>
+        <v>290.705</v>
       </c>
       <c r="L58" t="n">
         <v>597</v>
       </c>
       <c r="M58" t="n">
-        <v>9.17</v>
+        <v>9.32</v>
       </c>
       <c r="N58" t="n">
         <v>2</v>
@@ -4415,7 +4415,7 @@
         <v>279</v>
       </c>
       <c r="C59" t="n">
-        <v>65.09</v>
+        <v>66.13</v>
       </c>
       <c r="D59" t="n">
         <v>7</v>
@@ -4436,16 +4436,16 @@
         <v>27469</v>
       </c>
       <c r="J59" t="n">
-        <v>1788</v>
+        <v>1816</v>
       </c>
       <c r="K59" s="14" t="n">
-        <v>92.973</v>
+        <v>94.455</v>
       </c>
       <c r="L59" t="n">
         <v>615</v>
       </c>
       <c r="M59" t="n">
-        <v>10.59</v>
+        <v>10.76</v>
       </c>
       <c r="N59" t="n">
         <v>4</v>
@@ -4459,7 +4459,7 @@
         <v>280</v>
       </c>
       <c r="C60" t="n">
-        <v>64.14</v>
+        <v>65.16</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -4480,16 +4480,16 @@
         <v>29395</v>
       </c>
       <c r="J60" t="n">
-        <v>1885</v>
+        <v>1915</v>
       </c>
       <c r="K60" s="14" t="n">
-        <v>98.042</v>
+        <v>99.605</v>
       </c>
       <c r="L60" t="n">
         <v>593</v>
       </c>
       <c r="M60" t="n">
-        <v>10.81</v>
+        <v>10.98</v>
       </c>
       <c r="N60" t="n">
         <v>5</v>
@@ -4503,7 +4503,7 @@
         <v>281</v>
       </c>
       <c r="C61" t="n">
-        <v>69.24</v>
+        <v>70.34</v>
       </c>
       <c r="D61" t="n">
         <v>8</v>
@@ -4524,16 +4524,16 @@
         <v>16896</v>
       </c>
       <c r="J61" t="n">
-        <v>1170</v>
+        <v>1189</v>
       </c>
       <c r="K61" s="14" t="n">
-        <v>60.835</v>
+        <v>61.804</v>
       </c>
       <c r="L61" t="n">
         <v>522</v>
       </c>
       <c r="M61" t="n">
-        <v>13.26</v>
+        <v>13.48</v>
       </c>
       <c r="N61" t="n">
         <v>8</v>
@@ -4573,7 +4573,7 @@
         <v>283</v>
       </c>
       <c r="C63" t="n">
-        <v>56.58</v>
+        <v>57.48</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
@@ -4594,16 +4594,16 @@
         <v>24714</v>
       </c>
       <c r="J63" t="n">
-        <v>1398</v>
+        <v>1421</v>
       </c>
       <c r="K63" s="14" t="n">
-        <v>72.71</v>
+        <v>73.869</v>
       </c>
       <c r="L63" t="n">
         <v>569</v>
       </c>
       <c r="M63" t="n">
-        <v>9.94</v>
+        <v>10.1</v>
       </c>
       <c r="N63" t="n">
         <v>3</v>
@@ -4617,7 +4617,7 @@
         <v>284</v>
       </c>
       <c r="C64" t="n">
-        <v>58.94</v>
+        <v>59.88</v>
       </c>
       <c r="D64" t="n">
         <v>4</v>
@@ -4638,16 +4638,16 @@
         <v>18999</v>
       </c>
       <c r="J64" t="n">
-        <v>1120</v>
+        <v>1138</v>
       </c>
       <c r="K64" s="14" t="n">
-        <v>58.233</v>
+        <v>59.161</v>
       </c>
       <c r="L64" t="n">
         <v>654</v>
       </c>
       <c r="M64" t="n">
-        <v>9.01</v>
+        <v>9.15</v>
       </c>
       <c r="N64" t="n">
         <v>2</v>
@@ -4661,7 +4661,7 @@
         <v>285</v>
       </c>
       <c r="C65" t="n">
-        <v>60.79</v>
+        <v>61.76</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
@@ -4678,10 +4678,10 @@
         <v>169384</v>
       </c>
       <c r="J65" t="n">
-        <v>10297</v>
+        <v>10461</v>
       </c>
       <c r="K65" s="14" t="n">
-        <v>535.452</v>
+        <v>543.985</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
@@ -4695,7 +4695,7 @@
         <v>286</v>
       </c>
       <c r="C66" t="n">
-        <v>68.63</v>
+        <v>69.73</v>
       </c>
       <c r="D66" t="n">
         <v>8</v>
@@ -4716,16 +4716,16 @@
         <v>44979</v>
       </c>
       <c r="J66" t="n">
-        <v>3087</v>
+        <v>3136</v>
       </c>
       <c r="K66" s="14" t="n">
-        <v>160.527</v>
+        <v>163.085</v>
       </c>
       <c r="L66" t="n">
         <v>432</v>
       </c>
       <c r="M66" t="n">
-        <v>15.9</v>
+        <v>16.15</v>
       </c>
       <c r="N66" t="n">
         <v>9</v>
@@ -4739,7 +4739,7 @@
         <v>287</v>
       </c>
       <c r="C67" t="n">
-        <v>43.26</v>
+        <v>43.95</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -4760,16 +4760,16 @@
         <v>12722</v>
       </c>
       <c r="J67" t="n">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="K67" s="14" t="n">
-        <v>28.621</v>
+        <v>29.077</v>
       </c>
       <c r="L67" t="n">
         <v>745</v>
       </c>
       <c r="M67" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="N67" t="n">
         <v>1</v>
@@ -4783,7 +4783,7 @@
         <v>288</v>
       </c>
       <c r="C68" t="n">
-        <v>59.07</v>
+        <v>60.01</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
@@ -4804,16 +4804,16 @@
         <v>48497</v>
       </c>
       <c r="J68" t="n">
-        <v>2865</v>
+        <v>2910</v>
       </c>
       <c r="K68" s="14" t="n">
-        <v>148.97</v>
+        <v>151.344</v>
       </c>
       <c r="L68" t="n">
         <v>468</v>
       </c>
       <c r="M68" t="n">
-        <v>12.61</v>
+        <v>12.82</v>
       </c>
       <c r="N68" t="n">
         <v>7</v>
@@ -4827,7 +4827,7 @@
         <v>289</v>
       </c>
       <c r="C69" t="n">
-        <v>69</v>
+        <v>70.1</v>
       </c>
       <c r="D69" t="n">
         <v>8</v>
@@ -4848,16 +4848,16 @@
         <v>16682</v>
       </c>
       <c r="J69" t="n">
-        <v>1151</v>
+        <v>1169</v>
       </c>
       <c r="K69" s="14" t="n">
-        <v>59.856</v>
+        <v>60.81</v>
       </c>
       <c r="L69" t="n">
         <v>404</v>
       </c>
       <c r="M69" t="n">
-        <v>17.1</v>
+        <v>17.37</v>
       </c>
       <c r="N69" t="n">
         <v>10</v>
@@ -4871,7 +4871,7 @@
         <v>290</v>
       </c>
       <c r="C70" t="n">
-        <v>56.71</v>
+        <v>57.62</v>
       </c>
       <c r="D70" t="n">
         <v>4</v>
@@ -4892,16 +4892,16 @@
         <v>35272</v>
       </c>
       <c r="J70" t="n">
-        <v>2000</v>
+        <v>2032</v>
       </c>
       <c r="K70" s="14" t="n">
-        <v>104.019</v>
+        <v>105.676</v>
       </c>
       <c r="L70" t="n">
         <v>591</v>
       </c>
       <c r="M70" t="n">
-        <v>9.6</v>
+        <v>9.75</v>
       </c>
       <c r="N70" t="n">
         <v>3</v>
@@ -4915,7 +4915,7 @@
         <v>291</v>
       </c>
       <c r="C71" t="n">
-        <v>60.87</v>
+        <v>61.84</v>
       </c>
       <c r="D71" t="n">
         <v>5</v>
@@ -4936,16 +4936,16 @@
         <v>134164</v>
       </c>
       <c r="J71" t="n">
-        <v>8166</v>
+        <v>8296</v>
       </c>
       <c r="K71" s="14" t="n">
-        <v>424.639</v>
+        <v>431.406</v>
       </c>
       <c r="L71" t="n">
         <v>493</v>
       </c>
       <c r="M71" t="n">
-        <v>12.35</v>
+        <v>12.54</v>
       </c>
       <c r="N71" t="n">
         <v>7</v>
@@ -4959,7 +4959,7 @@
         <v>292</v>
       </c>
       <c r="C72" t="n">
-        <v>50.21</v>
+        <v>51.01</v>
       </c>
       <c r="D72" t="n">
         <v>2</v>
@@ -4980,16 +4980,16 @@
         <v>95184</v>
       </c>
       <c r="J72" t="n">
-        <v>4779</v>
+        <v>4855</v>
       </c>
       <c r="K72" s="14" t="n">
-        <v>248.521</v>
+        <v>252.482</v>
       </c>
       <c r="L72" t="n">
         <v>486</v>
       </c>
       <c r="M72" t="n">
-        <v>10.33</v>
+        <v>10.5</v>
       </c>
       <c r="N72" t="n">
         <v>4</v>
@@ -5003,7 +5003,7 @@
         <v>293</v>
       </c>
       <c r="C73" t="n">
-        <v>51.98</v>
+        <v>52.81</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
@@ -5024,16 +5024,16 @@
         <v>41728</v>
       </c>
       <c r="J73" t="n">
-        <v>2169</v>
+        <v>2204</v>
       </c>
       <c r="K73" s="14" t="n">
-        <v>112.792</v>
+        <v>114.589</v>
       </c>
       <c r="L73" t="n">
         <v>401</v>
       </c>
       <c r="M73" t="n">
-        <v>12.97</v>
+        <v>13.18</v>
       </c>
       <c r="N73" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         <v>294</v>
       </c>
       <c r="C74" t="n">
-        <v>72.53</v>
+        <v>73.69</v>
       </c>
       <c r="D74" t="n">
         <v>9</v>
@@ -5068,16 +5068,16 @@
         <v>67615</v>
       </c>
       <c r="J74" t="n">
-        <v>4904</v>
+        <v>4983</v>
       </c>
       <c r="K74" s="14" t="n">
-        <v>255.027</v>
+        <v>259.091</v>
       </c>
       <c r="L74" t="n">
         <v>599</v>
       </c>
       <c r="M74" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="N74" t="n">
         <v>6</v>
@@ -5091,7 +5091,7 @@
         <v>295</v>
       </c>
       <c r="C75" t="n">
-        <v>54.94</v>
+        <v>55.81</v>
       </c>
       <c r="D75" t="n">
         <v>3</v>
@@ -5112,16 +5112,16 @@
         <v>34483</v>
       </c>
       <c r="J75" t="n">
-        <v>1894</v>
+        <v>1925</v>
       </c>
       <c r="K75" s="14" t="n">
-        <v>98.51</v>
+        <v>100.08</v>
       </c>
       <c r="L75" t="n">
         <v>592</v>
       </c>
       <c r="M75" t="n">
-        <v>9.29</v>
+        <v>9.43</v>
       </c>
       <c r="N75" t="n">
         <v>2</v>
@@ -5135,7 +5135,7 @@
         <v>296</v>
       </c>
       <c r="C76" t="n">
-        <v>55.27</v>
+        <v>56.15</v>
       </c>
       <c r="D76" t="n">
         <v>3</v>
@@ -5156,16 +5156,16 @@
         <v>94175</v>
       </c>
       <c r="J76" t="n">
-        <v>5205</v>
+        <v>5288</v>
       </c>
       <c r="K76" s="14" t="n">
-        <v>270.668</v>
+        <v>274.982</v>
       </c>
       <c r="L76" t="n">
         <v>520</v>
       </c>
       <c r="M76" t="n">
-        <v>10.64</v>
+        <v>10.81</v>
       </c>
       <c r="N76" t="n">
         <v>4</v>
@@ -5179,7 +5179,7 @@
         <v>297</v>
       </c>
       <c r="C77" t="n">
-        <v>63.45</v>
+        <v>64.47</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
@@ -5200,16 +5200,16 @@
         <v>56803</v>
       </c>
       <c r="J77" t="n">
-        <v>3604</v>
+        <v>3662</v>
       </c>
       <c r="K77" s="14" t="n">
-        <v>187.428</v>
+        <v>190.414</v>
       </c>
       <c r="L77" t="n">
         <v>421</v>
       </c>
       <c r="M77" t="n">
-        <v>15.07</v>
+        <v>15.31</v>
       </c>
       <c r="N77" t="n">
         <v>9</v>
@@ -5223,7 +5223,7 @@
         <v>298</v>
       </c>
       <c r="C78" t="n">
-        <v>77.21</v>
+        <v>78.44</v>
       </c>
       <c r="D78" t="n">
         <v>9</v>
@@ -5244,16 +5244,16 @@
         <v>26204</v>
       </c>
       <c r="J78" t="n">
-        <v>2023</v>
+        <v>2055</v>
       </c>
       <c r="K78" s="14" t="n">
-        <v>105.203</v>
+        <v>106.88</v>
       </c>
       <c r="L78" t="n">
         <v>493</v>
       </c>
       <c r="M78" t="n">
-        <v>15.67</v>
+        <v>15.92</v>
       </c>
       <c r="N78" t="n">
         <v>9</v>
@@ -5267,7 +5267,7 @@
         <v>299</v>
       </c>
       <c r="C79" t="n">
-        <v>37.67</v>
+        <v>38.27</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -5288,16 +5288,16 @@
         <v>77467</v>
       </c>
       <c r="J79" t="n">
-        <v>2918</v>
+        <v>2964</v>
       </c>
       <c r="K79" s="14" t="n">
-        <v>151.729</v>
+        <v>154.147</v>
       </c>
       <c r="L79" t="n">
         <v>421</v>
       </c>
       <c r="M79" t="n">
-        <v>8.94</v>
+        <v>9.09</v>
       </c>
       <c r="N79" t="n">
         <v>2</v>
@@ -5311,7 +5311,7 @@
         <v>300</v>
       </c>
       <c r="C80" t="n">
-        <v>73.56</v>
+        <v>74.73</v>
       </c>
       <c r="D80" t="n">
         <v>9</v>
@@ -5332,16 +5332,16 @@
         <v>30036</v>
       </c>
       <c r="J80" t="n">
-        <v>2209</v>
+        <v>2245</v>
       </c>
       <c r="K80" s="14" t="n">
-        <v>114.886</v>
+        <v>116.717</v>
       </c>
       <c r="L80" t="n">
         <v>547</v>
       </c>
       <c r="M80" t="n">
-        <v>13.44</v>
+        <v>13.65</v>
       </c>
       <c r="N80" t="n">
         <v>8</v>
@@ -5355,7 +5355,7 @@
         <v>301</v>
       </c>
       <c r="C81" t="n">
-        <v>48.73</v>
+        <v>49.5</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
@@ -5376,16 +5376,16 @@
         <v>21559</v>
       </c>
       <c r="J81" t="n">
-        <v>1051</v>
+        <v>1067</v>
       </c>
       <c r="K81" s="14" t="n">
-        <v>54.627</v>
+        <v>55.498</v>
       </c>
       <c r="L81" t="n">
         <v>680</v>
       </c>
       <c r="M81" t="n">
-        <v>7.16</v>
+        <v>7.28</v>
       </c>
       <c r="N81" t="n">
         <v>1</v>
@@ -5399,7 +5399,7 @@
         <v>302</v>
       </c>
       <c r="C82" t="n">
-        <v>79.89</v>
+        <v>81.16</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
@@ -5420,16 +5420,16 @@
         <v>18578</v>
       </c>
       <c r="J82" t="n">
-        <v>1484</v>
+        <v>1508</v>
       </c>
       <c r="K82" s="14" t="n">
-        <v>77.178</v>
+        <v>78.407</v>
       </c>
       <c r="L82" t="n">
         <v>429</v>
       </c>
       <c r="M82" t="n">
-        <v>18.61</v>
+        <v>18.9</v>
       </c>
       <c r="N82" t="n">
         <v>10</v>
@@ -5443,7 +5443,7 @@
         <v>303</v>
       </c>
       <c r="C83" t="n">
-        <v>64.7</v>
+        <v>65.73</v>
       </c>
       <c r="D83" t="n">
         <v>6</v>
@@ -5464,16 +5464,16 @@
         <v>30202</v>
       </c>
       <c r="J83" t="n">
-        <v>1954</v>
+        <v>1985</v>
       </c>
       <c r="K83" s="14" t="n">
-        <v>101.611</v>
+        <v>103.231</v>
       </c>
       <c r="L83" t="n">
         <v>567</v>
       </c>
       <c r="M83" t="n">
-        <v>11.41</v>
+        <v>11.59</v>
       </c>
       <c r="N83" t="n">
         <v>5</v>
@@ -5487,7 +5487,7 @@
         <v>304</v>
       </c>
       <c r="C84" t="n">
-        <v>77.7</v>
+        <v>78.94</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
@@ -5508,16 +5508,16 @@
         <v>31804</v>
       </c>
       <c r="J84" t="n">
-        <v>2471</v>
+        <v>2511</v>
       </c>
       <c r="K84" s="14" t="n">
-        <v>128.508</v>
+        <v>130.556</v>
       </c>
       <c r="L84" t="n">
         <v>463</v>
       </c>
       <c r="M84" t="n">
-        <v>16.78</v>
+        <v>17.04</v>
       </c>
       <c r="N84" t="n">
         <v>10</v>
@@ -5531,7 +5531,7 @@
         <v>305</v>
       </c>
       <c r="C85" t="n">
-        <v>72.8</v>
+        <v>73.96</v>
       </c>
       <c r="D85" t="n">
         <v>9</v>
@@ -5552,16 +5552,16 @@
         <v>36891</v>
       </c>
       <c r="J85" t="n">
-        <v>2686</v>
+        <v>2728</v>
       </c>
       <c r="K85" s="14" t="n">
-        <v>139.649</v>
+        <v>141.874</v>
       </c>
       <c r="L85" t="n">
         <v>505</v>
       </c>
       <c r="M85" t="n">
-        <v>14.41</v>
+        <v>14.64</v>
       </c>
       <c r="N85" t="n">
         <v>8</v>
@@ -5575,7 +5575,7 @@
         <v>306</v>
       </c>
       <c r="C86" t="n">
-        <v>52.74</v>
+        <v>53.58</v>
       </c>
       <c r="D86" t="n">
         <v>2</v>
@@ -5596,16 +5596,16 @@
         <v>106988</v>
       </c>
       <c r="J86" t="n">
-        <v>5643</v>
+        <v>5733</v>
       </c>
       <c r="K86" s="14" t="n">
-        <v>293.418</v>
+        <v>298.094</v>
       </c>
       <c r="L86" t="n">
         <v>545</v>
       </c>
       <c r="M86" t="n">
-        <v>9.67</v>
+        <v>9.82</v>
       </c>
       <c r="N86" t="n">
         <v>3</v>
@@ -5619,7 +5619,7 @@
         <v>307</v>
       </c>
       <c r="C87" t="n">
-        <v>63.9</v>
+        <v>64.92</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -5640,16 +5640,16 @@
         <v>27763</v>
       </c>
       <c r="J87" t="n">
-        <v>1774</v>
+        <v>1802</v>
       </c>
       <c r="K87" s="14" t="n">
-        <v>92.249</v>
+        <v>93.719</v>
       </c>
       <c r="L87" t="n">
         <v>452</v>
       </c>
       <c r="M87" t="n">
-        <v>14.12</v>
+        <v>14.35</v>
       </c>
       <c r="N87" t="n">
         <v>8</v>
@@ -5663,7 +5663,7 @@
         <v>308</v>
       </c>
       <c r="C88" t="n">
-        <v>65.66</v>
+        <v>66.7</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
@@ -5684,16 +5684,16 @@
         <v>24374</v>
       </c>
       <c r="J88" t="n">
-        <v>1600</v>
+        <v>1626</v>
       </c>
       <c r="K88" s="14" t="n">
-        <v>83.217</v>
+        <v>84.543</v>
       </c>
       <c r="L88" t="n">
         <v>516</v>
       </c>
       <c r="M88" t="n">
-        <v>12.73</v>
+        <v>12.93</v>
       </c>
       <c r="N88" t="n">
         <v>7</v>
@@ -5707,7 +5707,7 @@
         <v>309</v>
       </c>
       <c r="C89" t="n">
-        <v>42.37</v>
+        <v>43.04</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -5728,16 +5728,16 @@
         <v>19276</v>
       </c>
       <c r="J89" t="n">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="K89" s="14" t="n">
-        <v>42.467</v>
+        <v>43.144</v>
       </c>
       <c r="L89" t="n">
         <v>556</v>
       </c>
       <c r="M89" t="n">
-        <v>7.62</v>
+        <v>7.74</v>
       </c>
       <c r="N89" t="n">
         <v>1</v>
@@ -5751,7 +5751,7 @@
         <v>310</v>
       </c>
       <c r="C90" t="n">
-        <v>70.05</v>
+        <v>71.17</v>
       </c>
       <c r="D90" t="n">
         <v>8</v>
@@ -5772,16 +5772,16 @@
         <v>23140</v>
       </c>
       <c r="J90" t="n">
-        <v>1621</v>
+        <v>1647</v>
       </c>
       <c r="K90" s="14" t="n">
-        <v>84.29</v>
+        <v>85.633</v>
       </c>
       <c r="L90" t="n">
         <v>500</v>
       </c>
       <c r="M90" t="n">
-        <v>14</v>
+        <v>14.22</v>
       </c>
       <c r="N90" t="n">
         <v>8</v>
@@ -5795,7 +5795,7 @@
         <v>311</v>
       </c>
       <c r="C91" t="n">
-        <v>62.87</v>
+        <v>63.87</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
@@ -5816,16 +5816,16 @@
         <v>59798</v>
       </c>
       <c r="J91" t="n">
-        <v>3760</v>
+        <v>3820</v>
       </c>
       <c r="K91" s="14" t="n">
-        <v>195.502</v>
+        <v>198.618</v>
       </c>
       <c r="L91" t="n">
         <v>550</v>
       </c>
       <c r="M91" t="n">
-        <v>11.42</v>
+        <v>11.6</v>
       </c>
       <c r="N91" t="n">
         <v>6</v>
@@ -5839,7 +5839,7 @@
         <v>312</v>
       </c>
       <c r="C92" t="n">
-        <v>67.17</v>
+        <v>68.24</v>
       </c>
       <c r="D92" t="n">
         <v>7</v>
@@ -5860,16 +5860,16 @@
         <v>95181</v>
       </c>
       <c r="J92" t="n">
-        <v>6393</v>
+        <v>6495</v>
       </c>
       <c r="K92" s="14" t="n">
-        <v>332.437</v>
+        <v>337.735</v>
       </c>
       <c r="L92" t="n">
         <v>558</v>
       </c>
       <c r="M92" t="n">
-        <v>12.03</v>
+        <v>12.22</v>
       </c>
       <c r="N92" t="n">
         <v>6</v>
@@ -5883,7 +5883,7 @@
         <v>313</v>
       </c>
       <c r="C93" t="n">
-        <v>68.67</v>
+        <v>69.77</v>
       </c>
       <c r="D93" t="n">
         <v>8</v>
@@ -5904,16 +5904,16 @@
         <v>33849</v>
       </c>
       <c r="J93" t="n">
-        <v>2325</v>
+        <v>2362</v>
       </c>
       <c r="K93" s="14" t="n">
-        <v>120.874</v>
+        <v>122.801</v>
       </c>
       <c r="L93" t="n">
         <v>513</v>
       </c>
       <c r="M93" t="n">
-        <v>13.4</v>
+        <v>13.61</v>
       </c>
       <c r="N93" t="n">
         <v>8</v>
@@ -5927,7 +5927,7 @@
         <v>314</v>
       </c>
       <c r="C94" t="n">
-        <v>62.86</v>
+        <v>63.87</v>
       </c>
       <c r="D94" t="n">
         <v>6</v>
@@ -5948,16 +5948,16 @@
         <v>55121</v>
       </c>
       <c r="J94" t="n">
-        <v>3465</v>
+        <v>3520</v>
       </c>
       <c r="K94" s="14" t="n">
-        <v>180.184</v>
+        <v>183.056</v>
       </c>
       <c r="L94" t="n">
         <v>456</v>
       </c>
       <c r="M94" t="n">
-        <v>13.8</v>
+        <v>14.02</v>
       </c>
       <c r="N94" t="n">
         <v>8</v>
@@ -5971,7 +5971,7 @@
         <v>315</v>
       </c>
       <c r="C95" t="n">
-        <v>67.4</v>
+        <v>68.48</v>
       </c>
       <c r="D95" t="n">
         <v>7</v>
@@ -5992,16 +5992,16 @@
         <v>95012</v>
       </c>
       <c r="J95" t="n">
-        <v>6404</v>
+        <v>6506</v>
       </c>
       <c r="K95" s="14" t="n">
-        <v>333.019</v>
+        <v>338.326</v>
       </c>
       <c r="L95" t="n">
         <v>590</v>
       </c>
       <c r="M95" t="n">
-        <v>11.43</v>
+        <v>11.61</v>
       </c>
       <c r="N95" t="n">
         <v>6</v>
@@ -6015,7 +6015,7 @@
         <v>316</v>
       </c>
       <c r="C96" t="n">
-        <v>77.39</v>
+        <v>78.62</v>
       </c>
       <c r="D96" t="n">
         <v>9</v>
@@ -6036,16 +6036,16 @@
         <v>31764</v>
       </c>
       <c r="J96" t="n">
-        <v>2458</v>
+        <v>2497</v>
       </c>
       <c r="K96" s="14" t="n">
-        <v>127.827</v>
+        <v>129.864</v>
       </c>
       <c r="L96" t="n">
         <v>463</v>
       </c>
       <c r="M96" t="n">
-        <v>16.71</v>
+        <v>16.97</v>
       </c>
       <c r="N96" t="n">
         <v>10</v>
@@ -6059,7 +6059,7 @@
         <v>317</v>
       </c>
       <c r="C97" t="n">
-        <v>60.62</v>
+        <v>61.59</v>
       </c>
       <c r="D97" t="n">
         <v>5</v>
@@ -6080,16 +6080,16 @@
         <v>65455</v>
       </c>
       <c r="J97" t="n">
-        <v>3968</v>
+        <v>4031</v>
       </c>
       <c r="K97" s="14" t="n">
-        <v>206.333</v>
+        <v>209.621</v>
       </c>
       <c r="L97" t="n">
         <v>641</v>
       </c>
       <c r="M97" t="n">
-        <v>9.46</v>
+        <v>9.61</v>
       </c>
       <c r="N97" t="n">
         <v>3</v>
@@ -6103,7 +6103,7 @@
         <v>318</v>
       </c>
       <c r="C98" t="n">
-        <v>44.75</v>
+        <v>45.47</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -6124,16 +6124,16 @@
         <v>28328</v>
       </c>
       <c r="J98" t="n">
-        <v>1268</v>
+        <v>1288</v>
       </c>
       <c r="K98" s="14" t="n">
-        <v>65.925</v>
+        <v>66.975</v>
       </c>
       <c r="L98" t="n">
         <v>518</v>
       </c>
       <c r="M98" t="n">
-        <v>8.64</v>
+        <v>8.78</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
@@ -6147,7 +6147,7 @@
         <v>319</v>
       </c>
       <c r="C99" t="n">
-        <v>49.73</v>
+        <v>50.52</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -6168,16 +6168,16 @@
         <v>38738</v>
       </c>
       <c r="J99" t="n">
-        <v>1927</v>
+        <v>1957</v>
       </c>
       <c r="K99" s="14" t="n">
-        <v>100.179</v>
+        <v>101.776</v>
       </c>
       <c r="L99" t="n">
         <v>505</v>
       </c>
       <c r="M99" t="n">
-        <v>9.85</v>
+        <v>10.01</v>
       </c>
       <c r="N99" t="n">
         <v>3</v>
@@ -6191,7 +6191,7 @@
         <v>320</v>
       </c>
       <c r="C100" t="n">
-        <v>71.57</v>
+        <v>72.71</v>
       </c>
       <c r="D100" t="n">
         <v>8</v>
@@ -6212,16 +6212,16 @@
         <v>28148</v>
       </c>
       <c r="J100" t="n">
-        <v>2014</v>
+        <v>2047</v>
       </c>
       <c r="K100" s="14" t="n">
-        <v>104.751</v>
+        <v>106.42</v>
       </c>
       <c r="L100" t="n">
         <v>558</v>
       </c>
       <c r="M100" t="n">
-        <v>12.82</v>
+        <v>13.02</v>
       </c>
       <c r="N100" t="n">
         <v>7</v>
@@ -6279,7 +6279,7 @@
         <v>322</v>
       </c>
       <c r="C102" t="n">
-        <v>63.52</v>
+        <v>64.54</v>
       </c>
       <c r="D102" t="n">
         <v>6</v>
@@ -6300,16 +6300,16 @@
         <v>30605</v>
       </c>
       <c r="J102" t="n">
-        <v>1944</v>
+        <v>1975</v>
       </c>
       <c r="K102" s="14" t="n">
-        <v>101.096</v>
+        <v>102.707</v>
       </c>
       <c r="L102" t="n">
         <v>593</v>
       </c>
       <c r="M102" t="n">
-        <v>10.71</v>
+        <v>10.88</v>
       </c>
       <c r="N102" t="n">
         <v>4</v>
@@ -6323,7 +6323,7 @@
         <v>323</v>
       </c>
       <c r="C103" t="n">
-        <v>71.79</v>
+        <v>72.93</v>
       </c>
       <c r="D103" t="n">
         <v>8</v>
@@ -6344,16 +6344,16 @@
         <v>16942</v>
       </c>
       <c r="J103" t="n">
-        <v>1216</v>
+        <v>1236</v>
       </c>
       <c r="K103" s="14" t="n">
-        <v>63.245</v>
+        <v>64.252</v>
       </c>
       <c r="L103" t="n">
         <v>468</v>
       </c>
       <c r="M103" t="n">
-        <v>15.35</v>
+        <v>15.59</v>
       </c>
       <c r="N103" t="n">
         <v>9</v>
@@ -6367,7 +6367,7 @@
         <v>324</v>
       </c>
       <c r="C104" t="n">
-        <v>58.78</v>
+        <v>59.72</v>
       </c>
       <c r="D104" t="n">
         <v>4</v>
@@ -6388,16 +6388,16 @@
         <v>12172</v>
       </c>
       <c r="J104" t="n">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="K104" s="14" t="n">
-        <v>37.204</v>
+        <v>37.797</v>
       </c>
       <c r="L104" t="n">
         <v>779</v>
       </c>
       <c r="M104" t="n">
-        <v>7.54</v>
+        <v>7.66</v>
       </c>
       <c r="N104" t="n">
         <v>1</v>
@@ -6411,7 +6411,7 @@
         <v>325</v>
       </c>
       <c r="C105" t="n">
-        <v>56.28</v>
+        <v>57.18</v>
       </c>
       <c r="D105" t="n">
         <v>3</v>
@@ -6432,16 +6432,16 @@
         <v>25632</v>
       </c>
       <c r="J105" t="n">
-        <v>1443</v>
+        <v>1466</v>
       </c>
       <c r="K105" s="14" t="n">
-        <v>75.016</v>
+        <v>76.212</v>
       </c>
       <c r="L105" t="n">
         <v>455</v>
       </c>
       <c r="M105" t="n">
-        <v>12.37</v>
+        <v>12.56</v>
       </c>
       <c r="N105" t="n">
         <v>7</v>
@@ -6455,7 +6455,7 @@
         <v>326</v>
       </c>
       <c r="C106" t="n">
-        <v>56.06</v>
+        <v>56.96</v>
       </c>
       <c r="D106" t="n">
         <v>3</v>
@@ -6476,16 +6476,16 @@
         <v>37100</v>
       </c>
       <c r="J106" t="n">
-        <v>2080</v>
+        <v>2113</v>
       </c>
       <c r="K106" s="14" t="n">
-        <v>108.158</v>
+        <v>109.881</v>
       </c>
       <c r="L106" t="n">
         <v>509</v>
       </c>
       <c r="M106" t="n">
-        <v>11.02</v>
+        <v>11.19</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6499,7 +6499,7 @@
         <v>327</v>
       </c>
       <c r="C107" t="n">
-        <v>75.49</v>
+        <v>76.69</v>
       </c>
       <c r="D107" t="n">
         <v>9</v>
@@ -6520,16 +6520,16 @@
         <v>3258</v>
       </c>
       <c r="J107" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K107" s="14" t="n">
-        <v>12.789</v>
+        <v>12.993</v>
       </c>
       <c r="L107" t="n">
         <v>662</v>
       </c>
       <c r="M107" t="n">
-        <v>11.41</v>
+        <v>11.59</v>
       </c>
       <c r="N107" t="n">
         <v>5</v>
@@ -6543,7 +6543,7 @@
         <v>328</v>
       </c>
       <c r="C108" t="n">
-        <v>87.9</v>
+        <v>89.3</v>
       </c>
       <c r="D108" t="n">
         <v>10</v>
@@ -6564,16 +6564,16 @@
         <v>38440</v>
       </c>
       <c r="J108" t="n">
-        <v>3379</v>
+        <v>3433</v>
       </c>
       <c r="K108" s="14" t="n">
-        <v>175.692</v>
+        <v>178.492</v>
       </c>
       <c r="L108" t="n">
         <v>441</v>
       </c>
       <c r="M108" t="n">
-        <v>19.91</v>
+        <v>20.23</v>
       </c>
       <c r="N108" t="n">
         <v>10</v>
@@ -6587,7 +6587,7 @@
         <v>329</v>
       </c>
       <c r="C109" t="n">
-        <v>72.03</v>
+        <v>73.18</v>
       </c>
       <c r="D109" t="n">
         <v>9</v>
@@ -6608,16 +6608,16 @@
         <v>37750</v>
       </c>
       <c r="J109" t="n">
-        <v>2719</v>
+        <v>2763</v>
       </c>
       <c r="K109" s="14" t="n">
-        <v>141.401</v>
+        <v>143.654</v>
       </c>
       <c r="L109" t="n">
         <v>402</v>
       </c>
       <c r="M109" t="n">
-        <v>17.9</v>
+        <v>18.19</v>
       </c>
       <c r="N109" t="n">
         <v>10</v>
@@ -6631,7 +6631,7 @@
         <v>330</v>
       </c>
       <c r="C110" t="n">
-        <v>80.34</v>
+        <v>81.62</v>
       </c>
       <c r="D110" t="n">
         <v>10</v>
@@ -6652,16 +6652,16 @@
         <v>21157</v>
       </c>
       <c r="J110" t="n">
-        <v>1700</v>
+        <v>1727</v>
       </c>
       <c r="K110" s="14" t="n">
-        <v>88.382</v>
+        <v>89.791</v>
       </c>
       <c r="L110" t="n">
         <v>496</v>
       </c>
       <c r="M110" t="n">
-        <v>16.21</v>
+        <v>16.47</v>
       </c>
       <c r="N110" t="n">
         <v>9</v>
@@ -6675,7 +6675,7 @@
         <v>331</v>
       </c>
       <c r="C111" t="n">
-        <v>53.77</v>
+        <v>54.62</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -6696,16 +6696,16 @@
         <v>64968</v>
       </c>
       <c r="J111" t="n">
-        <v>3493</v>
+        <v>3549</v>
       </c>
       <c r="K111" s="14" t="n">
-        <v>181.637</v>
+        <v>184.532</v>
       </c>
       <c r="L111" t="n">
         <v>522</v>
       </c>
       <c r="M111" t="n">
-        <v>10.29</v>
+        <v>10.46</v>
       </c>
       <c r="N111" t="n">
         <v>4</v>
@@ -6719,7 +6719,7 @@
         <v>332</v>
       </c>
       <c r="C112" t="n">
-        <v>65.74</v>
+        <v>66.79</v>
       </c>
       <c r="D112" t="n">
         <v>7</v>
@@ -6740,16 +6740,16 @@
         <v>36082</v>
       </c>
       <c r="J112" t="n">
-        <v>2372</v>
+        <v>2410</v>
       </c>
       <c r="K112" s="14" t="n">
-        <v>123.342</v>
+        <v>125.308</v>
       </c>
       <c r="L112" t="n">
         <v>536</v>
       </c>
       <c r="M112" t="n">
-        <v>12.27</v>
+        <v>12.47</v>
       </c>
       <c r="N112" t="n">
         <v>7</v>
@@ -6763,7 +6763,7 @@
         <v>333</v>
       </c>
       <c r="C113" t="n">
-        <v>59.59</v>
+        <v>60.54</v>
       </c>
       <c r="D113" t="n">
         <v>5</v>
@@ -6784,16 +6784,16 @@
         <v>17192</v>
       </c>
       <c r="J113" t="n">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="K113" s="14" t="n">
-        <v>53.275</v>
+        <v>54.124</v>
       </c>
       <c r="L113" t="n">
         <v>498</v>
       </c>
       <c r="M113" t="n">
-        <v>11.96</v>
+        <v>12.15</v>
       </c>
       <c r="N113" t="n">
         <v>6</v>
@@ -6807,7 +6807,7 @@
         <v>334</v>
       </c>
       <c r="C114" t="n">
-        <v>78.68</v>
+        <v>79.93</v>
       </c>
       <c r="D114" t="n">
         <v>10</v>
@@ -6828,16 +6828,16 @@
         <v>21225</v>
       </c>
       <c r="J114" t="n">
-        <v>1670</v>
+        <v>1697</v>
       </c>
       <c r="K114" s="14" t="n">
-        <v>86.837</v>
+        <v>88.22</v>
       </c>
       <c r="L114" t="n">
         <v>566</v>
       </c>
       <c r="M114" t="n">
-        <v>13.9</v>
+        <v>14.12</v>
       </c>
       <c r="N114" t="n">
         <v>8</v>
@@ -6851,7 +6851,7 @@
         <v>335</v>
       </c>
       <c r="C115" t="n">
-        <v>50.24</v>
+        <v>51.04</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
@@ -6872,16 +6872,16 @@
         <v>64912</v>
       </c>
       <c r="J115" t="n">
-        <v>3261</v>
+        <v>3313</v>
       </c>
       <c r="K115" s="14" t="n">
-        <v>169.575</v>
+        <v>172.277</v>
       </c>
       <c r="L115" t="n">
         <v>521</v>
       </c>
       <c r="M115" t="n">
-        <v>9.65</v>
+        <v>9.8</v>
       </c>
       <c r="N115" t="n">
         <v>3</v>
@@ -6895,7 +6895,7 @@
         <v>336</v>
       </c>
       <c r="C116" t="n">
-        <v>58.63</v>
+        <v>59.56</v>
       </c>
       <c r="D116" t="n">
         <v>4</v>
@@ -6916,16 +6916,16 @@
         <v>25299</v>
       </c>
       <c r="J116" t="n">
-        <v>1483</v>
+        <v>1507</v>
       </c>
       <c r="K116" s="14" t="n">
-        <v>77.124</v>
+        <v>78.353</v>
       </c>
       <c r="L116" t="n">
         <v>582</v>
       </c>
       <c r="M116" t="n">
-        <v>10.07</v>
+        <v>10.23</v>
       </c>
       <c r="N116" t="n">
         <v>3</v>
@@ -6939,7 +6939,7 @@
         <v>337</v>
       </c>
       <c r="C117" t="n">
-        <v>54.74</v>
+        <v>55.61</v>
       </c>
       <c r="D117" t="n">
         <v>3</v>
@@ -6960,16 +6960,16 @@
         <v>19723</v>
       </c>
       <c r="J117" t="n">
-        <v>1080</v>
+        <v>1097</v>
       </c>
       <c r="K117" s="14" t="n">
-        <v>56.137</v>
+        <v>57.032</v>
       </c>
       <c r="L117" t="n">
         <v>472</v>
       </c>
       <c r="M117" t="n">
-        <v>11.61</v>
+        <v>11.79</v>
       </c>
       <c r="N117" t="n">
         <v>6</v>
@@ -6983,7 +6983,7 @@
         <v>338</v>
       </c>
       <c r="C118" t="n">
-        <v>54.97</v>
+        <v>55.85</v>
       </c>
       <c r="D118" t="n">
         <v>3</v>
@@ -7004,16 +7004,16 @@
         <v>33803</v>
       </c>
       <c r="J118" t="n">
-        <v>1858</v>
+        <v>1888</v>
       </c>
       <c r="K118" s="14" t="n">
-        <v>96.625</v>
+        <v>98.165</v>
       </c>
       <c r="L118" t="n">
         <v>530</v>
       </c>
       <c r="M118" t="n">
-        <v>10.37</v>
+        <v>10.54</v>
       </c>
       <c r="N118" t="n">
         <v>4</v>
@@ -7027,7 +7027,7 @@
         <v>339</v>
       </c>
       <c r="C119" t="n">
-        <v>68.74</v>
+        <v>69.83</v>
       </c>
       <c r="D119" t="n">
         <v>8</v>
@@ -7048,16 +7048,16 @@
         <v>18976</v>
       </c>
       <c r="J119" t="n">
-        <v>1304</v>
+        <v>1325</v>
       </c>
       <c r="K119" s="14" t="n">
-        <v>67.828</v>
+        <v>68.909</v>
       </c>
       <c r="L119" t="n">
         <v>538</v>
       </c>
       <c r="M119" t="n">
-        <v>12.77</v>
+        <v>12.97</v>
       </c>
       <c r="N119" t="n">
         <v>7</v>
@@ -7071,7 +7071,7 @@
         <v>340</v>
       </c>
       <c r="C120" t="n">
-        <v>47.69</v>
+        <v>48.45</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -7092,16 +7092,16 @@
         <v>39445</v>
       </c>
       <c r="J120" t="n">
-        <v>1881</v>
+        <v>1911</v>
       </c>
       <c r="K120" s="14" t="n">
-        <v>97.812</v>
+        <v>99.371</v>
       </c>
       <c r="L120" t="n">
         <v>590</v>
       </c>
       <c r="M120" t="n">
-        <v>8.08</v>
+        <v>8.21</v>
       </c>
       <c r="N120" t="n">
         <v>1</v>
@@ -7115,7 +7115,7 @@
         <v>341</v>
       </c>
       <c r="C121" t="n">
-        <v>75.68</v>
+        <v>76.88</v>
       </c>
       <c r="D121" t="n">
         <v>9</v>
@@ -7136,16 +7136,16 @@
         <v>18748</v>
       </c>
       <c r="J121" t="n">
-        <v>1419</v>
+        <v>1441</v>
       </c>
       <c r="K121" s="14" t="n">
-        <v>73.778</v>
+        <v>74.953</v>
       </c>
       <c r="L121" t="n">
         <v>488</v>
       </c>
       <c r="M121" t="n">
-        <v>15.52</v>
+        <v>15.77</v>
       </c>
       <c r="N121" t="n">
         <v>9</v>
@@ -7159,7 +7159,7 @@
         <v>342</v>
       </c>
       <c r="C122" t="n">
-        <v>56.38</v>
+        <v>57.28</v>
       </c>
       <c r="D122" t="n">
         <v>4</v>
@@ -7180,16 +7180,16 @@
         <v>98437</v>
       </c>
       <c r="J122" t="n">
-        <v>5550</v>
+        <v>5638</v>
       </c>
       <c r="K122" s="14" t="n">
-        <v>288.591</v>
+        <v>293.19</v>
       </c>
       <c r="L122" t="n">
         <v>540</v>
       </c>
       <c r="M122" t="n">
-        <v>10.44</v>
+        <v>10.61</v>
       </c>
       <c r="N122" t="n">
         <v>4</v>
@@ -7203,7 +7203,7 @@
         <v>343</v>
       </c>
       <c r="C123" t="n">
-        <v>88.7</v>
+        <v>90.11</v>
       </c>
       <c r="D123" t="n">
         <v>10</v>
@@ -7224,16 +7224,16 @@
         <v>30789</v>
       </c>
       <c r="J123" t="n">
-        <v>2731</v>
+        <v>2774</v>
       </c>
       <c r="K123" s="14" t="n">
-        <v>142.005</v>
+        <v>144.268</v>
       </c>
       <c r="L123" t="n">
         <v>541</v>
       </c>
       <c r="M123" t="n">
-        <v>16.41</v>
+        <v>16.67</v>
       </c>
       <c r="N123" t="n">
         <v>10</v>
@@ -7247,7 +7247,7 @@
         <v>344</v>
       </c>
       <c r="C124" t="n">
-        <v>73.66</v>
+        <v>74.83</v>
       </c>
       <c r="D124" t="n">
         <v>9</v>
@@ -7268,16 +7268,16 @@
         <v>20294</v>
       </c>
       <c r="J124" t="n">
-        <v>1495</v>
+        <v>1519</v>
       </c>
       <c r="K124" s="14" t="n">
-        <v>77.73</v>
+        <v>78.969</v>
       </c>
       <c r="L124" t="n">
         <v>489</v>
       </c>
       <c r="M124" t="n">
-        <v>15.05</v>
+        <v>15.29</v>
       </c>
       <c r="N124" t="n">
         <v>8</v>
@@ -7291,7 +7291,7 @@
         <v>345</v>
       </c>
       <c r="C125" t="n">
-        <v>61.01</v>
+        <v>61.98</v>
       </c>
       <c r="D125" t="n">
         <v>5</v>
@@ -7312,16 +7312,16 @@
         <v>36216</v>
       </c>
       <c r="J125" t="n">
-        <v>2209</v>
+        <v>2245</v>
       </c>
       <c r="K125" s="14" t="n">
-        <v>114.894</v>
+        <v>116.725</v>
       </c>
       <c r="L125" t="n">
         <v>453</v>
       </c>
       <c r="M125" t="n">
-        <v>13.47</v>
+        <v>13.69</v>
       </c>
       <c r="N125" t="n">
         <v>8</v>
@@ -7335,7 +7335,7 @@
         <v>346</v>
       </c>
       <c r="C126" t="n">
-        <v>61.49</v>
+        <v>62.47</v>
       </c>
       <c r="D126" t="n">
         <v>5</v>
@@ -7356,16 +7356,16 @@
         <v>97749</v>
       </c>
       <c r="J126" t="n">
-        <v>6011</v>
+        <v>6107</v>
       </c>
       <c r="K126" s="14" t="n">
-        <v>312.565</v>
+        <v>317.546</v>
       </c>
       <c r="L126" t="n">
         <v>559</v>
       </c>
       <c r="M126" t="n">
-        <v>10.99</v>
+        <v>11.17</v>
       </c>
       <c r="N126" t="n">
         <v>5</v>
@@ -7379,7 +7379,7 @@
         <v>347</v>
       </c>
       <c r="C127" t="n">
-        <v>72</v>
+        <v>73.15</v>
       </c>
       <c r="D127" t="n">
         <v>8</v>
@@ -7400,16 +7400,16 @@
         <v>35699</v>
       </c>
       <c r="J127" t="n">
-        <v>2570</v>
+        <v>2611</v>
       </c>
       <c r="K127" s="14" t="n">
-        <v>133.658</v>
+        <v>135.788</v>
       </c>
       <c r="L127" t="n">
         <v>466</v>
       </c>
       <c r="M127" t="n">
-        <v>15.44</v>
+        <v>15.69</v>
       </c>
       <c r="N127" t="n">
         <v>9</v>
@@ -7423,7 +7423,7 @@
         <v>348</v>
       </c>
       <c r="C128" t="n">
-        <v>73.88</v>
+        <v>75.06</v>
       </c>
       <c r="D128" t="n">
         <v>9</v>
@@ -7444,16 +7444,16 @@
         <v>93710</v>
       </c>
       <c r="J128" t="n">
-        <v>6924</v>
+        <v>7034</v>
       </c>
       <c r="K128" s="14" t="n">
-        <v>360.031</v>
+        <v>365.769</v>
       </c>
       <c r="L128" t="n">
         <v>658</v>
       </c>
       <c r="M128" t="n">
-        <v>11.23</v>
+        <v>11.4</v>
       </c>
       <c r="N128" t="n">
         <v>5</v>
@@ -7467,7 +7467,7 @@
         <v>349</v>
       </c>
       <c r="C129" t="n">
-        <v>74.85</v>
+        <v>76.05</v>
       </c>
       <c r="D129" t="n">
         <v>9</v>
@@ -7488,16 +7488,16 @@
         <v>24988</v>
       </c>
       <c r="J129" t="n">
-        <v>1870</v>
+        <v>1900</v>
       </c>
       <c r="K129" s="14" t="n">
-        <v>97.263</v>
+        <v>98.813</v>
       </c>
       <c r="L129" t="n">
         <v>678</v>
       </c>
       <c r="M129" t="n">
-        <v>11.04</v>
+        <v>11.22</v>
       </c>
       <c r="N129" t="n">
         <v>5</v>
@@ -7511,7 +7511,7 @@
         <v>350</v>
       </c>
       <c r="C130" t="n">
-        <v>66.98</v>
+        <v>68.05</v>
       </c>
       <c r="D130" t="n">
         <v>7</v>
@@ -7532,16 +7532,16 @@
         <v>22505</v>
       </c>
       <c r="J130" t="n">
-        <v>1507</v>
+        <v>1531</v>
       </c>
       <c r="K130" s="14" t="n">
-        <v>78.382</v>
+        <v>79.631</v>
       </c>
       <c r="L130" t="n">
         <v>527</v>
       </c>
       <c r="M130" t="n">
-        <v>12.72</v>
+        <v>12.92</v>
       </c>
       <c r="N130" t="n">
         <v>7</v>
@@ -7555,7 +7555,7 @@
         <v>351</v>
       </c>
       <c r="C131" t="n">
-        <v>70.96</v>
+        <v>72.09</v>
       </c>
       <c r="D131" t="n">
         <v>8</v>
@@ -7576,16 +7576,16 @@
         <v>31913</v>
       </c>
       <c r="J131" t="n">
-        <v>2264</v>
+        <v>2301</v>
       </c>
       <c r="K131" s="14" t="n">
-        <v>117.75</v>
+        <v>119.626</v>
       </c>
       <c r="L131" t="n">
         <v>455</v>
       </c>
       <c r="M131" t="n">
-        <v>15.59</v>
+        <v>15.84</v>
       </c>
       <c r="N131" t="n">
         <v>9</v>
@@ -7599,7 +7599,7 @@
         <v>352</v>
       </c>
       <c r="C132" t="n">
-        <v>61.62</v>
+        <v>62.61</v>
       </c>
       <c r="D132" t="n">
         <v>6</v>
@@ -7620,16 +7620,16 @@
         <v>21344</v>
       </c>
       <c r="J132" t="n">
-        <v>1315</v>
+        <v>1336</v>
       </c>
       <c r="K132" s="14" t="n">
-        <v>68.396</v>
+        <v>69.486</v>
       </c>
       <c r="L132" t="n">
         <v>511</v>
       </c>
       <c r="M132" t="n">
-        <v>12.07</v>
+        <v>12.26</v>
       </c>
       <c r="N132" t="n">
         <v>6</v>
@@ -7643,7 +7643,7 @@
         <v>353</v>
       </c>
       <c r="C133" t="n">
-        <v>81.12</v>
+        <v>82.41</v>
       </c>
       <c r="D133" t="n">
         <v>10</v>
@@ -7664,16 +7664,16 @@
         <v>22753</v>
       </c>
       <c r="J133" t="n">
-        <v>1846</v>
+        <v>1875</v>
       </c>
       <c r="K133" s="14" t="n">
-        <v>95.976</v>
+        <v>97.505</v>
       </c>
       <c r="L133" t="n">
         <v>537</v>
       </c>
       <c r="M133" t="n">
-        <v>15.1</v>
+        <v>15.34</v>
       </c>
       <c r="N133" t="n">
         <v>9</v>
@@ -7687,7 +7687,7 @@
         <v>354</v>
       </c>
       <c r="C134" t="n">
-        <v>57.43</v>
+        <v>58.35</v>
       </c>
       <c r="D134" t="n">
         <v>4</v>
@@ -7708,16 +7708,16 @@
         <v>16590</v>
       </c>
       <c r="J134" t="n">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="K134" s="14" t="n">
-        <v>49.547</v>
+        <v>50.337</v>
       </c>
       <c r="L134" t="n">
         <v>441</v>
       </c>
       <c r="M134" t="n">
-        <v>13.01</v>
+        <v>13.22</v>
       </c>
       <c r="N134" t="n">
         <v>7</v>
@@ -7731,7 +7731,7 @@
         <v>355</v>
       </c>
       <c r="C135" t="n">
-        <v>57.45</v>
+        <v>58.36</v>
       </c>
       <c r="D135" t="n">
         <v>4</v>
@@ -7752,16 +7752,16 @@
         <v>38117</v>
       </c>
       <c r="J135" t="n">
-        <v>2190</v>
+        <v>2225</v>
       </c>
       <c r="K135" s="14" t="n">
-        <v>113.863</v>
+        <v>115.677</v>
       </c>
       <c r="L135" t="n">
         <v>548</v>
       </c>
       <c r="M135" t="n">
-        <v>10.49</v>
+        <v>10.66</v>
       </c>
       <c r="N135" t="n">
         <v>4</v>
@@ -7775,7 +7775,7 @@
         <v>356</v>
       </c>
       <c r="C136" t="n">
-        <v>65.94</v>
+        <v>66.99</v>
       </c>
       <c r="D136" t="n">
         <v>7</v>
@@ -7796,16 +7796,16 @@
         <v>16547</v>
       </c>
       <c r="J136" t="n">
-        <v>1091</v>
+        <v>1108</v>
       </c>
       <c r="K136" s="14" t="n">
-        <v>56.738</v>
+        <v>57.642</v>
       </c>
       <c r="L136" t="n">
         <v>536</v>
       </c>
       <c r="M136" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="N136" t="n">
         <v>7</v>
@@ -7819,7 +7819,7 @@
         <v>357</v>
       </c>
       <c r="C137" t="n">
-        <v>54.46</v>
+        <v>55.33</v>
       </c>
       <c r="D137" t="n">
         <v>3</v>
@@ -7840,16 +7840,16 @@
         <v>45778</v>
       </c>
       <c r="J137" t="n">
-        <v>2493</v>
+        <v>2533</v>
       </c>
       <c r="K137" s="14" t="n">
-        <v>129.645</v>
+        <v>131.711</v>
       </c>
       <c r="L137" t="n">
         <v>508</v>
       </c>
       <c r="M137" t="n">
-        <v>10.73</v>
+        <v>10.9</v>
       </c>
       <c r="N137" t="n">
         <v>4</v>
@@ -7863,7 +7863,7 @@
         <v>358</v>
       </c>
       <c r="C138" t="n">
-        <v>48.11</v>
+        <v>48.88</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -7884,16 +7884,16 @@
         <v>32551</v>
       </c>
       <c r="J138" t="n">
-        <v>1566</v>
+        <v>1591</v>
       </c>
       <c r="K138" s="14" t="n">
-        <v>81.44</v>
+        <v>82.738</v>
       </c>
       <c r="L138" t="n">
         <v>442</v>
       </c>
       <c r="M138" t="n">
-        <v>10.88</v>
+        <v>11.05</v>
       </c>
       <c r="N138" t="n">
         <v>5</v>
@@ -7907,7 +7907,7 @@
         <v>359</v>
       </c>
       <c r="C139" t="n">
-        <v>58.36</v>
+        <v>59.29</v>
       </c>
       <c r="D139" t="n">
         <v>4</v>
@@ -7928,16 +7928,16 @@
         <v>33953</v>
       </c>
       <c r="J139" t="n">
-        <v>1982</v>
+        <v>2013</v>
       </c>
       <c r="K139" s="14" t="n">
-        <v>103.044</v>
+        <v>104.686</v>
       </c>
       <c r="L139" t="n">
         <v>573</v>
       </c>
       <c r="M139" t="n">
-        <v>10.19</v>
+        <v>10.35</v>
       </c>
       <c r="N139" t="n">
         <v>3</v>
@@ -7951,7 +7951,7 @@
         <v>360</v>
       </c>
       <c r="C140" t="n">
-        <v>47.74</v>
+        <v>48.5</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -7972,16 +7972,16 @@
         <v>35713</v>
       </c>
       <c r="J140" t="n">
-        <v>1705</v>
+        <v>1732</v>
       </c>
       <c r="K140" s="14" t="n">
-        <v>88.66</v>
+        <v>90.073</v>
       </c>
       <c r="L140" t="n">
         <v>690</v>
       </c>
       <c r="M140" t="n">
-        <v>6.92</v>
+        <v>7.03</v>
       </c>
       <c r="N140" t="n">
         <v>1</v>
@@ -8027,7 +8027,7 @@
         <v>362</v>
       </c>
       <c r="C142" t="n">
-        <v>67.68</v>
+        <v>68.75</v>
       </c>
       <c r="D142" t="n">
         <v>8</v>
@@ -8048,16 +8048,16 @@
         <v>61149</v>
       </c>
       <c r="J142" t="n">
-        <v>4138</v>
+        <v>4204</v>
       </c>
       <c r="K142" s="14" t="n">
-        <v>215.193</v>
+        <v>218.622</v>
       </c>
       <c r="L142" t="n">
         <v>556</v>
       </c>
       <c r="M142" t="n">
-        <v>12.17</v>
+        <v>12.37</v>
       </c>
       <c r="N142" t="n">
         <v>6</v>
@@ -8071,7 +8071,7 @@
         <v>363</v>
       </c>
       <c r="C143" t="n">
-        <v>51.47</v>
+        <v>52.29</v>
       </c>
       <c r="D143" t="n">
         <v>2</v>
@@ -8092,16 +8092,16 @@
         <v>12712</v>
       </c>
       <c r="J143" t="n">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="K143" s="14" t="n">
-        <v>34.024</v>
+        <v>34.567</v>
       </c>
       <c r="L143" t="n">
         <v>656</v>
       </c>
       <c r="M143" t="n">
-        <v>7.85</v>
+        <v>7.98</v>
       </c>
       <c r="N143" t="n">
         <v>1</v>
@@ -8115,7 +8115,7 @@
         <v>364</v>
       </c>
       <c r="C144" t="n">
-        <v>55.29</v>
+        <v>56.17</v>
       </c>
       <c r="D144" t="n">
         <v>3</v>
@@ -8136,16 +8136,16 @@
         <v>69067</v>
       </c>
       <c r="J144" t="n">
-        <v>3819</v>
+        <v>3880</v>
       </c>
       <c r="K144" s="14" t="n">
-        <v>198.571</v>
+        <v>201.735</v>
       </c>
       <c r="L144" t="n">
         <v>594</v>
       </c>
       <c r="M144" t="n">
-        <v>9.31</v>
+        <v>9.46</v>
       </c>
       <c r="N144" t="n">
         <v>2</v>
@@ -8159,7 +8159,7 @@
         <v>365</v>
       </c>
       <c r="C145" t="n">
-        <v>56.3</v>
+        <v>57.2</v>
       </c>
       <c r="D145" t="n">
         <v>4</v>
@@ -8180,16 +8180,16 @@
         <v>22254</v>
       </c>
       <c r="J145" t="n">
-        <v>1253</v>
+        <v>1273</v>
       </c>
       <c r="K145" s="14" t="n">
-        <v>65.152</v>
+        <v>66.191</v>
       </c>
       <c r="L145" t="n">
         <v>640</v>
       </c>
       <c r="M145" t="n">
-        <v>8.8</v>
+        <v>8.94</v>
       </c>
       <c r="N145" t="n">
         <v>2</v>
@@ -8203,7 +8203,7 @@
         <v>366</v>
       </c>
       <c r="C146" t="n">
-        <v>80.23</v>
+        <v>81.51</v>
       </c>
       <c r="D146" t="n">
         <v>10</v>
@@ -8224,16 +8224,16 @@
         <v>44173</v>
       </c>
       <c r="J146" t="n">
-        <v>3544</v>
+        <v>3601</v>
       </c>
       <c r="K146" s="14" t="n">
-        <v>184.295</v>
+        <v>187.232</v>
       </c>
       <c r="L146" t="n">
         <v>484</v>
       </c>
       <c r="M146" t="n">
-        <v>16.56</v>
+        <v>16.83</v>
       </c>
       <c r="N146" t="n">
         <v>10</v>
@@ -8247,7 +8247,7 @@
         <v>367</v>
       </c>
       <c r="C147" t="n">
-        <v>64.85</v>
+        <v>65.88</v>
       </c>
       <c r="D147" t="n">
         <v>6</v>
@@ -8268,16 +8268,16 @@
         <v>57527</v>
       </c>
       <c r="J147" t="n">
-        <v>3731</v>
+        <v>3790</v>
       </c>
       <c r="K147" s="14" t="n">
-        <v>193.994</v>
+        <v>197.086</v>
       </c>
       <c r="L147" t="n">
         <v>575</v>
       </c>
       <c r="M147" t="n">
-        <v>11.28</v>
+        <v>11.46</v>
       </c>
       <c r="N147" t="n">
         <v>5</v>
@@ -8291,7 +8291,7 @@
         <v>368</v>
       </c>
       <c r="C148" t="n">
-        <v>53.53</v>
+        <v>54.38</v>
       </c>
       <c r="D148" t="n">
         <v>2</v>
@@ -8312,16 +8312,16 @@
         <v>11445</v>
       </c>
       <c r="J148" t="n">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="K148" s="14" t="n">
-        <v>31.858</v>
+        <v>32.365</v>
       </c>
       <c r="L148" t="n">
         <v>642</v>
       </c>
       <c r="M148" t="n">
-        <v>8.34</v>
+        <v>8.47</v>
       </c>
       <c r="N148" t="n">
         <v>1</v>
@@ -8335,7 +8335,7 @@
         <v>369</v>
       </c>
       <c r="C149" t="n">
-        <v>66.15</v>
+        <v>67.21</v>
       </c>
       <c r="D149" t="n">
         <v>7</v>
@@ -8356,16 +8356,16 @@
         <v>27545</v>
       </c>
       <c r="J149" t="n">
-        <v>1822</v>
+        <v>1851</v>
       </c>
       <c r="K149" s="14" t="n">
-        <v>94.755</v>
+        <v>96.265</v>
       </c>
       <c r="L149" t="n">
         <v>503</v>
       </c>
       <c r="M149" t="n">
-        <v>13.15</v>
+        <v>13.36</v>
       </c>
       <c r="N149" t="n">
         <v>8</v>
@@ -8379,7 +8379,7 @@
         <v>370</v>
       </c>
       <c r="C150" t="n">
-        <v>132.04</v>
+        <v>134.15</v>
       </c>
       <c r="D150" t="n">
         <v>10</v>
@@ -8400,16 +8400,16 @@
         <v>10998</v>
       </c>
       <c r="J150" t="n">
-        <v>1452</v>
+        <v>1475</v>
       </c>
       <c r="K150" s="14" t="n">
-        <v>75.514</v>
+        <v>76.717</v>
       </c>
       <c r="L150" t="n">
         <v>692</v>
       </c>
       <c r="M150" t="n">
-        <v>19.08</v>
+        <v>19.38</v>
       </c>
       <c r="N150" t="n">
         <v>10</v>
@@ -8423,7 +8423,7 @@
         <v>371</v>
       </c>
       <c r="C151" t="n">
-        <v>72.74</v>
+        <v>73.9</v>
       </c>
       <c r="D151" t="n">
         <v>9</v>
@@ -8444,16 +8444,16 @@
         <v>30362</v>
       </c>
       <c r="J151" t="n">
-        <v>2209</v>
+        <v>2244</v>
       </c>
       <c r="K151" s="14" t="n">
-        <v>114.843</v>
+        <v>116.673</v>
       </c>
       <c r="L151" t="n">
         <v>438</v>
       </c>
       <c r="M151" t="n">
-        <v>16.62</v>
+        <v>16.88</v>
       </c>
       <c r="N151" t="n">
         <v>10</v>
@@ -8467,7 +8467,7 @@
         <v>372</v>
       </c>
       <c r="C152" t="n">
-        <v>58.12</v>
+        <v>59.05</v>
       </c>
       <c r="D152" t="n">
         <v>4</v>
@@ -8488,16 +8488,16 @@
         <v>51570</v>
       </c>
       <c r="J152" t="n">
-        <v>2997</v>
+        <v>3045</v>
       </c>
       <c r="K152" s="14" t="n">
-        <v>155.868</v>
+        <v>158.352</v>
       </c>
       <c r="L152" t="n">
         <v>545</v>
       </c>
       <c r="M152" t="n">
-        <v>10.67</v>
+        <v>10.84</v>
       </c>
       <c r="N152" t="n">
         <v>4</v>
@@ -8511,7 +8511,7 @@
         <v>373</v>
       </c>
       <c r="C153" t="n">
-        <v>68.63</v>
+        <v>69.72</v>
       </c>
       <c r="D153" t="n">
         <v>8</v>
@@ -8532,16 +8532,16 @@
         <v>20783</v>
       </c>
       <c r="J153" t="n">
-        <v>1426</v>
+        <v>1449</v>
       </c>
       <c r="K153" s="14" t="n">
-        <v>74.167</v>
+        <v>75.349</v>
       </c>
       <c r="L153" t="n">
         <v>570</v>
       </c>
       <c r="M153" t="n">
-        <v>12.05</v>
+        <v>12.24</v>
       </c>
       <c r="N153" t="n">
         <v>6</v>
@@ -9755,16 +9755,16 @@
         <v>374</v>
       </c>
       <c r="B3" t="n">
-        <v>63.81</v>
+        <v>64.83</v>
       </c>
       <c r="C3" t="n">
-        <v>11.88</v>
+        <v>12.07</v>
       </c>
       <c r="D3" s="24" t="n">
-        <v>1866.413</v>
+        <v>1896.158</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>1735.764</v>
+        <v>1763.427</v>
       </c>
     </row>
     <row r="4">
@@ -9772,16 +9772,16 @@
         <v>375</v>
       </c>
       <c r="B4" t="n">
-        <v>61.32</v>
+        <v>62.29</v>
       </c>
       <c r="C4" t="n">
-        <v>11.01</v>
+        <v>11.19</v>
       </c>
       <c r="D4" s="24" t="n">
-        <v>2112.602</v>
+        <v>2146.268</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>1964.72</v>
+        <v>1996.029</v>
       </c>
     </row>
     <row r="5">
@@ -9789,16 +9789,16 @@
         <v>376</v>
       </c>
       <c r="B5" t="n">
-        <v>59.65</v>
+        <v>60.6</v>
       </c>
       <c r="C5" t="n">
-        <v>9.89</v>
+        <v>10.04</v>
       </c>
       <c r="D5" s="24" t="n">
-        <v>2781.839</v>
+        <v>2826.173</v>
       </c>
       <c r="E5" s="24" t="n">
-        <v>2587.11</v>
+        <v>2628.341</v>
       </c>
     </row>
     <row r="6">
@@ -9806,16 +9806,16 @@
         <v>377</v>
       </c>
       <c r="B6" t="n">
-        <v>69.78</v>
+        <v>70.9</v>
       </c>
       <c r="C6" t="n">
-        <v>14.93</v>
+        <v>15.17</v>
       </c>
       <c r="D6" s="24" t="n">
-        <v>1142.964</v>
+        <v>1161.177</v>
       </c>
       <c r="E6" s="24" t="n">
-        <v>1062.957</v>
+        <v>1079.895</v>
       </c>
     </row>
     <row r="7">
@@ -9823,16 +9823,16 @@
         <v>378</v>
       </c>
       <c r="B7" t="n">
-        <v>69.43</v>
+        <v>70.54</v>
       </c>
       <c r="C7" t="n">
-        <v>14.7</v>
+        <v>14.93</v>
       </c>
       <c r="D7" s="24" t="n">
-        <v>2819.394</v>
+        <v>2864.323</v>
       </c>
       <c r="E7" s="24" t="n">
-        <v>2622.036</v>
+        <v>2663.82</v>
       </c>
     </row>
     <row r="8">
@@ -9840,16 +9840,16 @@
         <v>379</v>
       </c>
       <c r="B8" t="n">
-        <v>61.09</v>
+        <v>62.07</v>
       </c>
       <c r="C8" t="n">
-        <v>10.28</v>
+        <v>10.44</v>
       </c>
       <c r="D8" s="24" t="n">
-        <v>2647.394</v>
+        <v>2689.582</v>
       </c>
       <c r="E8" s="24" t="n">
-        <v>2462.076</v>
+        <v>2501.311</v>
       </c>
     </row>
     <row r="9">
@@ -9857,16 +9857,16 @@
         <v>380</v>
       </c>
       <c r="B9" t="n">
-        <v>53.04</v>
+        <v>53.89</v>
       </c>
       <c r="C9" t="n">
-        <v>10.04</v>
+        <v>10.2</v>
       </c>
       <c r="D9" s="24" t="n">
-        <v>1731.879</v>
+        <v>1759.481</v>
       </c>
       <c r="E9" s="24" t="n">
-        <v>1610.647</v>
+        <v>1636.317</v>
       </c>
     </row>
     <row r="10">
@@ -9874,16 +9874,16 @@
         <v>381</v>
       </c>
       <c r="B10" t="n">
-        <v>63.64</v>
+        <v>64.65</v>
       </c>
       <c r="C10" t="n">
-        <v>13.05</v>
+        <v>13.26</v>
       </c>
       <c r="D10" s="24" t="n">
-        <v>2125.504</v>
+        <v>2159.375</v>
       </c>
       <c r="E10" s="24" t="n">
-        <v>1976.719</v>
+        <v>2008.219</v>
       </c>
     </row>
     <row r="11">
@@ -9891,16 +9891,16 @@
         <v>382</v>
       </c>
       <c r="B11" t="n">
-        <v>61.62</v>
+        <v>62.6</v>
       </c>
       <c r="C11" t="n">
-        <v>12.46</v>
+        <v>12.66</v>
       </c>
       <c r="D11" s="24" t="n">
-        <v>2129.069</v>
+        <v>2162.999</v>
       </c>
       <c r="E11" s="24" t="n">
-        <v>1980.034</v>
+        <v>2011.589</v>
       </c>
     </row>
     <row r="12">
@@ -9976,16 +9976,16 @@
         <v>270</v>
       </c>
       <c r="B3" t="n">
-        <v>98.38</v>
+        <v>99.94</v>
       </c>
       <c r="C3" t="n">
-        <v>21.4</v>
+        <v>21.74</v>
       </c>
       <c r="D3" s="24" t="n">
-        <v>76.733</v>
+        <v>77.956</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>71.362</v>
+        <v>72.499</v>
       </c>
     </row>
     <row r="4">
@@ -9993,16 +9993,16 @@
         <v>328</v>
       </c>
       <c r="B4" t="n">
-        <v>87.9</v>
+        <v>89.3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.91</v>
+        <v>20.23</v>
       </c>
       <c r="D4" s="24" t="n">
-        <v>175.692</v>
+        <v>178.492</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>163.394</v>
+        <v>165.998</v>
       </c>
     </row>
     <row r="5">
@@ -10010,16 +10010,16 @@
         <v>370</v>
       </c>
       <c r="B5" t="n">
-        <v>132.04</v>
+        <v>134.15</v>
       </c>
       <c r="C5" t="n">
-        <v>19.08</v>
+        <v>19.38</v>
       </c>
       <c r="D5" s="24" t="n">
-        <v>75.514</v>
+        <v>76.717</v>
       </c>
       <c r="E5" s="24" t="n">
-        <v>70.228</v>
+        <v>71.347</v>
       </c>
     </row>
     <row r="6">
@@ -10027,16 +10027,16 @@
         <v>275</v>
       </c>
       <c r="B6" t="n">
-        <v>80.34</v>
+        <v>81.62</v>
       </c>
       <c r="C6" t="n">
-        <v>19.05</v>
+        <v>19.36</v>
       </c>
       <c r="D6" s="24" t="n">
-        <v>59.237</v>
+        <v>60.181</v>
       </c>
       <c r="E6" s="24" t="n">
-        <v>55.09</v>
+        <v>55.968</v>
       </c>
     </row>
     <row r="7">
@@ -10044,16 +10044,16 @@
         <v>302</v>
       </c>
       <c r="B7" t="n">
-        <v>79.89</v>
+        <v>81.16</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>18.9</v>
       </c>
       <c r="D7" s="24" t="n">
-        <v>77.178</v>
+        <v>78.407</v>
       </c>
       <c r="E7" s="24" t="n">
-        <v>71.776</v>
+        <v>72.919</v>
       </c>
     </row>
     <row r="8">
@@ -10061,16 +10061,16 @@
         <v>232</v>
       </c>
       <c r="B8" t="n">
-        <v>83.77</v>
+        <v>85.1</v>
       </c>
       <c r="C8" t="n">
-        <v>17.9</v>
+        <v>18.19</v>
       </c>
       <c r="D8" s="24" t="n">
-        <v>151.473</v>
+        <v>153.887</v>
       </c>
       <c r="E8" s="24" t="n">
-        <v>140.87</v>
+        <v>143.115</v>
       </c>
     </row>
     <row r="9">
@@ -10078,16 +10078,16 @@
         <v>329</v>
       </c>
       <c r="B9" t="n">
-        <v>72.03</v>
+        <v>73.18</v>
       </c>
       <c r="C9" t="n">
-        <v>17.9</v>
+        <v>18.19</v>
       </c>
       <c r="D9" s="24" t="n">
-        <v>141.401</v>
+        <v>143.654</v>
       </c>
       <c r="E9" s="24" t="n">
-        <v>131.503</v>
+        <v>133.598</v>
       </c>
     </row>
     <row r="10">
@@ -10095,16 +10095,16 @@
         <v>289</v>
       </c>
       <c r="B10" t="n">
-        <v>69</v>
+        <v>70.1</v>
       </c>
       <c r="C10" t="n">
-        <v>17.1</v>
+        <v>17.37</v>
       </c>
       <c r="D10" s="24" t="n">
-        <v>59.856</v>
+        <v>60.81</v>
       </c>
       <c r="E10" s="24" t="n">
-        <v>55.666</v>
+        <v>56.553</v>
       </c>
     </row>
     <row r="11">
@@ -10112,16 +10112,16 @@
         <v>304</v>
       </c>
       <c r="B11" t="n">
-        <v>77.7</v>
+        <v>78.94</v>
       </c>
       <c r="C11" t="n">
-        <v>16.78</v>
+        <v>17.04</v>
       </c>
       <c r="D11" s="24" t="n">
-        <v>128.508</v>
+        <v>130.556</v>
       </c>
       <c r="E11" s="24" t="n">
-        <v>119.512</v>
+        <v>121.417</v>
       </c>
     </row>
     <row r="12">
@@ -10129,16 +10129,16 @@
         <v>316</v>
       </c>
       <c r="B12" t="n">
-        <v>77.39</v>
+        <v>78.62</v>
       </c>
       <c r="C12" t="n">
-        <v>16.71</v>
+        <v>16.97</v>
       </c>
       <c r="D12" s="24" t="n">
-        <v>127.827</v>
+        <v>129.864</v>
       </c>
       <c r="E12" s="24" t="n">
-        <v>118.879</v>
+        <v>120.774</v>
       </c>
     </row>
     <row r="13">

--- a/output/summary_table_5.xlsx
+++ b/output/summary_table_5.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upshift Calcs" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="LA data" sheetId="6" state="visible" r:id="rId2"/>
-    <sheet name="Average Tobacco Spend" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Expenditure % of Income" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Expenditure % of Income LA" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Consumption" sheetId="7" state="visible" r:id="rId3"/>
+    <sheet name="Average Tobacco Spend" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Expenditure % of Income" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Expenditure % of Income LA" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <t>Table 2. Average weekly spend on tobacco by socio-economic status (SES) and age group</t>
   </si>
@@ -230,6 +231,30 @@
   </si>
   <si>
     <t>Totals (£m)</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>STS calculated (smokers only)</t>
+  </si>
+  <si>
+    <t>Average Daily Total Cigarettes</t>
+  </si>
+  <si>
+    <t>Average Daily FM Cigarettes</t>
+  </si>
+  <si>
+    <t>Average Daily RYO Cigarettes</t>
+  </si>
+  <si>
+    <t>Average % of Cigs Roll-Your-Own</t>
+  </si>
+  <si>
+    <t>% of Smokers Consume RYO</t>
+  </si>
+  <si>
+    <t>% of Smokers Consume FM</t>
   </si>
   <si>
     <t xml:space="preserve">LCFS</t>
@@ -1226,13 +1251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,7 +1304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1287,11 +1312,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1302,8 +1335,8 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1315,8 +1348,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1635,7 +1670,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -1651,15 +1686,15 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
@@ -1808,7 +1843,7 @@
       <c r="F11" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="10" t="n">
         <v>3176</v>
       </c>
     </row>
@@ -1819,31 +1854,31 @@
       <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="10" t="n">
         <v>11359</v>
       </c>
     </row>
     <row r="13">
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="10" t="n">
         <v>14535</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16">
       <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="H16" s="10" t="n">
         <v>5522</v>
       </c>
     </row>
@@ -1852,7 +1887,7 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -1884,10 +1919,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1946,19 +1981,19 @@
       <c r="F2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="21" t="s">
@@ -1973,10 +2008,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C3" t="n">
         <v>61.58</v>
@@ -2017,10 +2052,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C4" t="n">
         <v>62.38</v>
@@ -2061,10 +2096,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C5" t="n">
         <v>44.85</v>
@@ -2105,10 +2140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C6" t="n">
         <v>43.67</v>
@@ -2149,10 +2184,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C7" t="n">
         <v>44.36</v>
@@ -2193,10 +2228,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C8" t="n">
         <v>66.59</v>
@@ -2237,10 +2272,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C9" t="n">
         <v>66.54</v>
@@ -2281,10 +2316,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C10" t="n">
         <v>68.71</v>
@@ -2325,10 +2360,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C11" t="n">
         <v>60.78</v>
@@ -2369,10 +2404,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C12" t="n">
         <v>85.1</v>
@@ -2413,10 +2448,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C13" t="n">
         <v>55.64</v>
@@ -2452,15 +2487,15 @@
         <v>10.95</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C14" t="n">
         <v>55.03</v>
@@ -2501,10 +2536,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C15" t="n">
         <v>67.05</v>
@@ -2545,10 +2580,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C16" t="n">
         <v>65.17</v>
@@ -2589,10 +2624,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C17" t="n">
         <v>50.86</v>
@@ -2633,10 +2668,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C18" t="n">
         <v>50.43</v>
@@ -2677,10 +2712,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C19" t="n">
         <v>61.18</v>
@@ -2721,10 +2756,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C20" t="n">
         <v>57.19</v>
@@ -2755,10 +2790,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C21" t="n">
         <v>61.37</v>
@@ -2799,10 +2834,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C22" t="n">
         <v>65.43</v>
@@ -2843,10 +2878,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C23" t="n">
         <v>57.16</v>
@@ -2887,10 +2922,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C24" t="n">
         <v>56.69</v>
@@ -2931,10 +2966,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C25" t="n">
         <v>66.78</v>
@@ -2975,10 +3010,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C26" t="n">
         <v>77.36</v>
@@ -3019,10 +3054,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C27" t="n">
         <v>39.5</v>
@@ -3063,10 +3098,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -3089,10 +3124,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C29" t="n">
         <v>49.33</v>
@@ -3133,10 +3168,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C30" t="n">
         <v>58.46</v>
@@ -3177,10 +3212,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C31" t="n">
         <v>62.68</v>
@@ -3221,10 +3256,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C32" t="n">
         <v>61.25</v>
@@ -3265,10 +3300,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C33" t="n">
         <v>62.99</v>
@@ -3309,10 +3344,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C34" t="n">
         <v>78.65</v>
@@ -3353,10 +3388,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C35" t="n">
         <v>59.05</v>
@@ -3397,10 +3432,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C36" t="n">
         <v>64.46</v>
@@ -3441,10 +3476,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C37" t="n">
         <v>47.51</v>
@@ -3485,10 +3520,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C38" t="n">
         <v>80.05</v>
@@ -3529,10 +3564,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C39" t="n">
         <v>51.16</v>
@@ -3573,10 +3608,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C40" t="n">
         <v>54.93</v>
@@ -3617,10 +3652,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C41" t="n">
         <v>60.25</v>
@@ -3661,10 +3696,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C42" t="n">
         <v>68.73</v>
@@ -3705,10 +3740,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C43" t="n">
         <v>54.21</v>
@@ -3749,10 +3784,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C44" t="n">
         <v>62.22</v>
@@ -3793,10 +3828,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C45" t="n">
         <v>69.11</v>
@@ -3837,10 +3872,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C46" t="n">
         <v>54.47</v>
@@ -3852,7 +3887,7 @@
         <v>24418.52</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
         <v>17.09</v>
@@ -3881,10 +3916,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C47" t="n">
         <v>60.22</v>
@@ -3925,10 +3960,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C48" t="n">
         <v>65.65</v>
@@ -3969,10 +4004,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C49" t="n">
         <v>49.76</v>
@@ -4013,10 +4048,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C50" t="n">
         <v>99.94</v>
@@ -4057,10 +4092,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C51" t="n">
         <v>56.45</v>
@@ -4101,10 +4136,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C52" t="n">
         <v>66.68</v>
@@ -4145,10 +4180,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C53" t="n">
         <v>46.95</v>
@@ -4189,10 +4224,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C54" t="n">
         <v>71.04</v>
@@ -4233,10 +4268,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C55" t="n">
         <v>81.62</v>
@@ -4277,10 +4312,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C56" t="n">
         <v>90.36</v>
@@ -4321,10 +4356,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C57" t="n">
         <v>68.63</v>
@@ -4365,10 +4400,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C58" t="n">
         <v>55.6</v>
@@ -4377,10 +4412,10 @@
         <v>3</v>
       </c>
       <c r="E58" s="13" t="n">
-        <v>31018.53</v>
+        <v>31676.49</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G58" t="n">
         <v>10.97</v>
@@ -4398,10 +4433,10 @@
         <v>290.705</v>
       </c>
       <c r="L58" t="n">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="M58" t="n">
-        <v>9.32</v>
+        <v>9.13</v>
       </c>
       <c r="N58" t="n">
         <v>2</v>
@@ -4409,10 +4444,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C59" t="n">
         <v>66.13</v>
@@ -4453,10 +4488,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C60" t="n">
         <v>65.16</v>
@@ -4497,10 +4532,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B61" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C61" t="n">
         <v>70.34</v>
@@ -4541,10 +4576,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B62" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -4567,10 +4602,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C63" t="n">
         <v>57.48</v>
@@ -4611,10 +4646,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C64" t="n">
         <v>59.88</v>
@@ -4655,10 +4690,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B65" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C65" t="n">
         <v>61.76</v>
@@ -4666,8 +4701,12 @@
       <c r="D65" t="n">
         <v>5</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65"/>
+      <c r="E65" s="13" t="n">
+        <v>29643.43</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7</v>
+      </c>
       <c r="G65" t="n">
         <v>13.69</v>
       </c>
@@ -4683,16 +4722,22 @@
       <c r="K65" s="14" t="n">
         <v>543.985</v>
       </c>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
+      <c r="L65" t="n">
+        <v>570</v>
+      </c>
+      <c r="M65" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C66" t="n">
         <v>69.73</v>
@@ -4733,10 +4778,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C67" t="n">
         <v>43.95</v>
@@ -4777,10 +4822,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B68" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C68" t="n">
         <v>60.01</v>
@@ -4821,10 +4866,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C69" t="n">
         <v>70.1</v>
@@ -4865,10 +4910,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B70" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C70" t="n">
         <v>57.62</v>
@@ -4909,10 +4954,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C71" t="n">
         <v>61.84</v>
@@ -4953,10 +4998,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C72" t="n">
         <v>51.01</v>
@@ -4997,10 +5042,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C73" t="n">
         <v>52.81</v>
@@ -5041,10 +5086,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C74" t="n">
         <v>73.69</v>
@@ -5085,10 +5130,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B75" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C75" t="n">
         <v>55.81</v>
@@ -5129,10 +5174,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C76" t="n">
         <v>56.15</v>
@@ -5173,10 +5218,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C77" t="n">
         <v>64.47</v>
@@ -5217,10 +5262,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C78" t="n">
         <v>78.44</v>
@@ -5261,10 +5306,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C79" t="n">
         <v>38.27</v>
@@ -5305,10 +5350,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C80" t="n">
         <v>74.73</v>
@@ -5349,10 +5394,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C81" t="n">
         <v>49.5</v>
@@ -5393,10 +5438,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C82" t="n">
         <v>81.16</v>
@@ -5437,10 +5482,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C83" t="n">
         <v>65.73</v>
@@ -5481,10 +5526,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B84" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C84" t="n">
         <v>78.94</v>
@@ -5525,10 +5570,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B85" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C85" t="n">
         <v>73.96</v>
@@ -5569,10 +5614,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B86" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C86" t="n">
         <v>53.58</v>
@@ -5613,10 +5658,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C87" t="n">
         <v>64.92</v>
@@ -5657,10 +5702,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C88" t="n">
         <v>66.7</v>
@@ -5701,10 +5746,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C89" t="n">
         <v>43.04</v>
@@ -5745,10 +5790,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C90" t="n">
         <v>71.17</v>
@@ -5789,10 +5834,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C91" t="n">
         <v>63.87</v>
@@ -5833,10 +5878,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C92" t="n">
         <v>68.24</v>
@@ -5877,10 +5922,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B93" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C93" t="n">
         <v>69.77</v>
@@ -5921,10 +5966,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C94" t="n">
         <v>63.87</v>
@@ -5965,10 +6010,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C95" t="n">
         <v>68.48</v>
@@ -6009,10 +6054,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C96" t="n">
         <v>78.62</v>
@@ -6053,10 +6098,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C97" t="n">
         <v>61.59</v>
@@ -6097,10 +6142,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B98" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C98" t="n">
         <v>45.47</v>
@@ -6112,7 +6157,7 @@
         <v>26936.36</v>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G98" t="n">
         <v>18.83</v>
@@ -6141,10 +6186,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B99" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C99" t="n">
         <v>50.52</v>
@@ -6185,10 +6230,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B100" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C100" t="n">
         <v>72.71</v>
@@ -6229,10 +6274,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B101" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -6244,7 +6289,7 @@
         <v>31094.44</v>
       </c>
       <c r="F101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G101" t="n">
         <v>13.95</v>
@@ -6273,10 +6318,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B102" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C102" t="n">
         <v>64.54</v>
@@ -6317,10 +6362,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C103" t="n">
         <v>72.93</v>
@@ -6361,10 +6406,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B104" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C104" t="n">
         <v>59.72</v>
@@ -6405,10 +6450,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B105" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C105" t="n">
         <v>57.18</v>
@@ -6449,10 +6494,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B106" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C106" t="n">
         <v>56.96</v>
@@ -6493,10 +6538,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B107" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C107" t="n">
         <v>76.69</v>
@@ -6532,15 +6577,15 @@
         <v>11.59</v>
       </c>
       <c r="N107" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B108" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C108" t="n">
         <v>89.3</v>
@@ -6552,7 +6597,7 @@
         <v>22953.33</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
         <v>19.09</v>
@@ -6581,10 +6626,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B109" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C109" t="n">
         <v>73.18</v>
@@ -6625,10 +6670,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B110" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C110" t="n">
         <v>81.62</v>
@@ -6669,10 +6714,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B111" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C111" t="n">
         <v>54.62</v>
@@ -6713,10 +6758,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B112" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C112" t="n">
         <v>66.79</v>
@@ -6757,10 +6802,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B113" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C113" t="n">
         <v>60.54</v>
@@ -6772,7 +6817,7 @@
         <v>25914.29</v>
       </c>
       <c r="F113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G113" t="n">
         <v>16.15</v>
@@ -6801,10 +6846,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B114" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C114" t="n">
         <v>79.93</v>
@@ -6845,10 +6890,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B115" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C115" t="n">
         <v>51.04</v>
@@ -6889,10 +6934,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B116" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C116" t="n">
         <v>59.56</v>
@@ -6933,10 +6978,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B117" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C117" t="n">
         <v>55.61</v>
@@ -6977,10 +7022,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B118" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C118" t="n">
         <v>55.85</v>
@@ -7021,10 +7066,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B119" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C119" t="n">
         <v>69.83</v>
@@ -7065,10 +7110,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B120" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C120" t="n">
         <v>48.45</v>
@@ -7109,10 +7154,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B121" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C121" t="n">
         <v>76.88</v>
@@ -7153,10 +7198,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C122" t="n">
         <v>57.28</v>
@@ -7197,10 +7242,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B123" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C123" t="n">
         <v>90.11</v>
@@ -7241,10 +7286,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B124" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C124" t="n">
         <v>74.83</v>
@@ -7285,10 +7330,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B125" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C125" t="n">
         <v>61.98</v>
@@ -7329,10 +7374,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B126" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C126" t="n">
         <v>62.47</v>
@@ -7373,10 +7418,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B127" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C127" t="n">
         <v>73.15</v>
@@ -7417,10 +7462,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B128" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C128" t="n">
         <v>75.06</v>
@@ -7461,10 +7506,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B129" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C129" t="n">
         <v>76.05</v>
@@ -7505,10 +7550,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B130" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C130" t="n">
         <v>68.05</v>
@@ -7549,10 +7594,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B131" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C131" t="n">
         <v>72.09</v>
@@ -7593,10 +7638,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B132" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C132" t="n">
         <v>62.61</v>
@@ -7637,10 +7682,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B133" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C133" t="n">
         <v>82.41</v>
@@ -7652,7 +7697,7 @@
         <v>27936.84</v>
       </c>
       <c r="F133" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G133" t="n">
         <v>17.54</v>
@@ -7681,10 +7726,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B134" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C134" t="n">
         <v>58.35</v>
@@ -7720,15 +7765,15 @@
         <v>13.22</v>
       </c>
       <c r="N134" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B135" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C135" t="n">
         <v>58.36</v>
@@ -7769,10 +7814,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B136" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C136" t="n">
         <v>66.99</v>
@@ -7813,10 +7858,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B137" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C137" t="n">
         <v>55.33</v>
@@ -7857,10 +7902,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B138" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C138" t="n">
         <v>48.88</v>
@@ -7901,10 +7946,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B139" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C139" t="n">
         <v>59.29</v>
@@ -7945,10 +7990,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B140" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C140" t="n">
         <v>48.5</v>
@@ -7989,10 +8034,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B141" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
@@ -8021,10 +8066,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B142" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C142" t="n">
         <v>68.75</v>
@@ -8036,7 +8081,7 @@
         <v>28910.92</v>
       </c>
       <c r="F142" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G142" t="n">
         <v>13.29</v>
@@ -8060,15 +8105,15 @@
         <v>12.37</v>
       </c>
       <c r="N142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B143" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C143" t="n">
         <v>52.29</v>
@@ -8109,10 +8154,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B144" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C144" t="n">
         <v>56.17</v>
@@ -8153,10 +8198,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B145" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C145" t="n">
         <v>57.2</v>
@@ -8197,10 +8242,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B146" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C146" t="n">
         <v>81.51</v>
@@ -8241,10 +8286,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B147" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C147" t="n">
         <v>65.88</v>
@@ -8285,10 +8330,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B148" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C148" t="n">
         <v>54.38</v>
@@ -8329,10 +8374,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C149" t="n">
         <v>67.21</v>
@@ -8373,10 +8418,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B150" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C150" t="n">
         <v>134.15</v>
@@ -8417,10 +8462,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B151" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C151" t="n">
         <v>73.9</v>
@@ -8461,10 +8506,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B152" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C152" t="n">
         <v>59.05</v>
@@ -8505,10 +8550,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B153" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C153" t="n">
         <v>69.72</v>
@@ -9571,6 +9616,6422 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="2" max="2" width="33.5703125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" ht="54.95" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="23" t="n">
+        <v>6.74055871583986</v>
+      </c>
+      <c r="D3" s="23" t="n">
+        <v>3.01694304766569</v>
+      </c>
+      <c r="E3" s="23" t="n">
+        <v>9.75750176350555</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0.289763886620878</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0.733749318343008</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0.308374306857172</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="23" t="n">
+        <v>4.98771488764571</v>
+      </c>
+      <c r="D4" s="23" t="n">
+        <v>3.32734034228919</v>
+      </c>
+      <c r="E4" s="23" t="n">
+        <v>8.3150552299349</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.306211449483097</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.734263913171667</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.365569073570751</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="23" t="n">
+        <v>7.22077656178141</v>
+      </c>
+      <c r="D5" s="23" t="n">
+        <v>6.43291071257707</v>
+      </c>
+      <c r="E5" s="23" t="n">
+        <v>13.6536872743585</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.42307992534782</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.57692007465218</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.42307992534782</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="23" t="n">
+        <v>3.92066121683267</v>
+      </c>
+      <c r="D6" s="23" t="n">
+        <v>5.18258674407503</v>
+      </c>
+      <c r="E6" s="23" t="n">
+        <v>9.1032479609077</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.618043487488765</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.399843946469292</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.635930921446822</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="23" t="n">
+        <v>6.90350039452369</v>
+      </c>
+      <c r="D7" s="23" t="n">
+        <v>0.784694690776522</v>
+      </c>
+      <c r="E7" s="23" t="n">
+        <v>7.68819508530021</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.316113610578207</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.683886389421793</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.316113610578207</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="23" t="n">
+        <v>4.33177466412344</v>
+      </c>
+      <c r="D8" s="23" t="n">
+        <v>4.10780180177316</v>
+      </c>
+      <c r="E8" s="23" t="n">
+        <v>8.4395764658966</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.298400420833117</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.728761262217745</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.358675220497946</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="23" t="n">
+        <v>6.77708434984094</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <v>3.39536911485184</v>
+      </c>
+      <c r="E9" s="23" t="n">
+        <v>10.1724534646928</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.329425485362444</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.69424499306812</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.35595225995672</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="23" t="n">
+        <v>4.23668295501012</v>
+      </c>
+      <c r="D10" s="23" t="n">
+        <v>5.15898122655099</v>
+      </c>
+      <c r="E10" s="23" t="n">
+        <v>9.39566418156111</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.468016573333017</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.57368343633162</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.495816579776109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="23" t="n">
+        <v>6.89265296385742</v>
+      </c>
+      <c r="D11" s="23" t="n">
+        <v>5.05147466032288</v>
+      </c>
+      <c r="E11" s="23" t="n">
+        <v>11.9441276241803</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.464357113627326</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.558936510816595</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.525246366908465</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="23" t="n">
+        <v>8.61991461848964</v>
+      </c>
+      <c r="D12" s="23" t="n">
+        <v>3.86005597155637</v>
+      </c>
+      <c r="E12" s="23" t="n">
+        <v>12.479970590046</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.331349265461321</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.671655150362083</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.349375760401742</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="23" t="n">
+        <v>3.77531994537317</v>
+      </c>
+      <c r="D13" s="23" t="n">
+        <v>6.58533219910287</v>
+      </c>
+      <c r="E13" s="23" t="n">
+        <v>10.360652144476</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.672759765841267</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3357125258927</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.676995911708249</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="23" t="n">
+        <v>6.25360476100292</v>
+      </c>
+      <c r="D15" s="23" t="n">
+        <v>4.18958325744199</v>
+      </c>
+      <c r="E15" s="23" t="n">
+        <v>10.4431880184449</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.327497802077941</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.689213589073922</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.343888319142157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="23" t="n">
+        <v>5.37687923275945</v>
+      </c>
+      <c r="D16" s="23" t="n">
+        <v>2.49085078234371</v>
+      </c>
+      <c r="E16" s="23" t="n">
+        <v>7.86773001510315</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.33284385084286</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.695683433378083</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.362815089246664</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="23" t="n">
+        <v>3.65144461489664</v>
+      </c>
+      <c r="D17" s="23" t="n">
+        <v>6.36549957493661</v>
+      </c>
+      <c r="E17" s="23" t="n">
+        <v>10.0169441898333</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0.611609537229488</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.42101573219007</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.65265839146701</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="23" t="n">
+        <v>3.98054273172026</v>
+      </c>
+      <c r="D18" s="23" t="n">
+        <v>5.54756796174843</v>
+      </c>
+      <c r="E18" s="23" t="n">
+        <v>9.52811069346868</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.638676510469143</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.393905444257372</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.674877097875812</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="23" t="n">
+        <v>7.00929113367312</v>
+      </c>
+      <c r="D19" s="23" t="n">
+        <v>3.0186867099645</v>
+      </c>
+      <c r="E19" s="23" t="n">
+        <v>10.0279778436376</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.273300882374125</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.763323742880392</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.295852775265311</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="23" t="n">
+        <v>5.40412000768522</v>
+      </c>
+      <c r="D20" s="23" t="n">
+        <v>3.89256424845011</v>
+      </c>
+      <c r="E20" s="23" t="n">
+        <v>9.29668425613534</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0.414625221113033</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.620628697841821</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.444716813788152</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="23" t="n">
+        <v>4.47778274783284</v>
+      </c>
+      <c r="D21" s="23" t="n">
+        <v>8.54842032235628</v>
+      </c>
+      <c r="E21" s="23" t="n">
+        <v>13.0262030701891</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.619142493730149</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.409991569846411</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.654357721012746</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="23" t="n">
+        <v>6.48203086557193</v>
+      </c>
+      <c r="D22" s="23" t="n">
+        <v>5.90327804211147</v>
+      </c>
+      <c r="E22" s="23" t="n">
+        <v>12.3853089076834</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.479064534786343</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.533490292005012</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.487837902863939</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="23" t="n">
+        <v>5.51594232773213</v>
+      </c>
+      <c r="D23" s="23" t="n">
+        <v>5.99029399903198</v>
+      </c>
+      <c r="E23" s="23" t="n">
+        <v>11.5062363267641</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.514381279980513</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.512955751197768</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.546766789443229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="23" t="n">
+        <v>4.06035001444303</v>
+      </c>
+      <c r="D24" s="23" t="n">
+        <v>3.66052484049765</v>
+      </c>
+      <c r="E24" s="23" t="n">
+        <v>7.72087485494067</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.485093335619168</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.586343283757348</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.524697342248087</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="23" t="n">
+        <v>6.4605773153906</v>
+      </c>
+      <c r="D25" s="23" t="n">
+        <v>4.41778507008827</v>
+      </c>
+      <c r="E25" s="23" t="n">
+        <v>10.8783623854789</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0.340390242723759</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0.684241569226383</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>0.387385689149648</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="23" t="n">
+        <v>7.73500709090449</v>
+      </c>
+      <c r="D26" s="23" t="n">
+        <v>6.16573070872516</v>
+      </c>
+      <c r="E26" s="23" t="n">
+        <v>13.9007377996297</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0.455938432977366</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.544061567022634</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0.455938432977366</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="23" t="n">
+        <v>5.18770311593917</v>
+      </c>
+      <c r="D27" s="23" t="n">
+        <v>4.58630934631753</v>
+      </c>
+      <c r="E27" s="23" t="n">
+        <v>9.7740124622567</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0.213135834830598</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0.786864165169402</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>0.213135834830598</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="23" t="n">
+        <v>3.13941514823884</v>
+      </c>
+      <c r="D29" s="23" t="n">
+        <v>8.93187001249531</v>
+      </c>
+      <c r="E29" s="23" t="n">
+        <v>12.0712851607341</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0.752779172070904</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0.258191759639345</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>0.763533083044154</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="23" t="n">
+        <v>5.22478064462308</v>
+      </c>
+      <c r="D30" s="23" t="n">
+        <v>5.56728545372538</v>
+      </c>
+      <c r="E30" s="23" t="n">
+        <v>10.7920660983485</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.42013949214612</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0.604515757318313</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>0.466526876950713</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="23" t="n">
+        <v>9.23066505038882</v>
+      </c>
+      <c r="D31" s="23" t="n">
+        <v>2.16712388452118</v>
+      </c>
+      <c r="E31" s="23" t="n">
+        <v>11.39778893491</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0.201259080761171</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>0.834340643744369</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>0.236858805266711</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="23" t="n">
+        <v>5.15755600514238</v>
+      </c>
+      <c r="D32" s="23" t="n">
+        <v>2.80478655001858</v>
+      </c>
+      <c r="E32" s="23" t="n">
+        <v>7.96234255516096</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0.369850283196595</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0.664115679142967</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>0.422812446594696</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="23" t="n">
+        <v>5.29659311000186</v>
+      </c>
+      <c r="D33" s="23" t="n">
+        <v>8.01993715841476</v>
+      </c>
+      <c r="E33" s="23" t="n">
+        <v>13.3165302684166</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>0.583961101586784</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>0.472232069875597</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>0.631494220217007</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="23" t="n">
+        <v>6.77290056513743</v>
+      </c>
+      <c r="D34" s="23" t="n">
+        <v>4.12023506709804</v>
+      </c>
+      <c r="E34" s="23" t="n">
+        <v>10.8931356322355</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0.378312316321567</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>0.629228229296222</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <v>0.394345873158885</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="23" t="n">
+        <v>5.02492109863389</v>
+      </c>
+      <c r="D35" s="23" t="n">
+        <v>5.3690431927789</v>
+      </c>
+      <c r="E35" s="23" t="n">
+        <v>10.3939642914128</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>0.496956420903474</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>0.522972566200002</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <v>0.516960012219983</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="23" t="n">
+        <v>6.12185869327324</v>
+      </c>
+      <c r="D36" s="23" t="n">
+        <v>6.3732973479036</v>
+      </c>
+      <c r="E36" s="23" t="n">
+        <v>12.4951560411768</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0.454525657796342</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>0.566092019510528</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>0.48575671380345</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" s="23" t="n">
+        <v>2.88018842461157</v>
+      </c>
+      <c r="D37" s="23" t="n">
+        <v>8.06407949490744</v>
+      </c>
+      <c r="E37" s="23" t="n">
+        <v>10.944267919519</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>0.721811524724818</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>0.314028198589354</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>0.758600085383526</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="23" t="n">
+        <v>8.28679511008873</v>
+      </c>
+      <c r="D38" s="23" t="n">
+        <v>5.34094167010144</v>
+      </c>
+      <c r="E38" s="23" t="n">
+        <v>13.6277367801902</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0.322475009776583</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>0.717318062085476</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>0.358682158279659</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="23" t="n">
+        <v>4.56840014242071</v>
+      </c>
+      <c r="D39" s="23" t="n">
+        <v>7.56405020332163</v>
+      </c>
+      <c r="E39" s="23" t="n">
+        <v>12.1324503457423</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>0.678657307838719</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>0.339134127359201</v>
+      </c>
+      <c r="H39" s="6" t="n">
+        <v>0.734044209941086</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="23" t="n">
+        <v>5.07181995383345</v>
+      </c>
+      <c r="D40" s="23" t="n">
+        <v>4.77495680772467</v>
+      </c>
+      <c r="E40" s="23" t="n">
+        <v>9.84677676155812</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>0.511500069910153</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>0.512150093086069</v>
+      </c>
+      <c r="H40" s="6" t="n">
+        <v>0.524848650308553</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="23" t="n">
+        <v>7.36676618463593</v>
+      </c>
+      <c r="D41" s="23" t="n">
+        <v>4.01607628544461</v>
+      </c>
+      <c r="E41" s="23" t="n">
+        <v>11.3828424700805</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>0.396834794046301</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>0.652168291790858</v>
+      </c>
+      <c r="H41" s="6" t="n">
+        <v>0.431179436045642</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" s="23" t="n">
+        <v>7.5214297893303</v>
+      </c>
+      <c r="D42" s="23" t="n">
+        <v>3.4892803106498</v>
+      </c>
+      <c r="E42" s="23" t="n">
+        <v>11.0107100999801</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>0.233735301195107</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>0.766264698804893</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <v>0.233735301195107</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>271</v>
+      </c>
+      <c r="C43" s="23" t="n">
+        <v>4.92945771365536</v>
+      </c>
+      <c r="D43" s="23" t="n">
+        <v>6.21296856312174</v>
+      </c>
+      <c r="E43" s="23" t="n">
+        <v>11.1424262767771</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>0.553227565894647</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>0.460813990522357</v>
+      </c>
+      <c r="H43" s="6" t="n">
+        <v>0.574507976625702</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
+        <v>272</v>
+      </c>
+      <c r="C44" s="23" t="n">
+        <v>6.68576989077087</v>
+      </c>
+      <c r="D44" s="23" t="n">
+        <v>3.55958483640525</v>
+      </c>
+      <c r="E44" s="23" t="n">
+        <v>10.2453547271761</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>0.359419441823075</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>0.659700024163632</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>0.37793910052522</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" t="s">
+        <v>273</v>
+      </c>
+      <c r="C45" s="23" t="n">
+        <v>5.91466988622023</v>
+      </c>
+      <c r="D45" s="23" t="n">
+        <v>5.03840230199985</v>
+      </c>
+      <c r="E45" s="23" t="n">
+        <v>10.9530721882201</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>0.422068929471845</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>0.612576736179932</v>
+      </c>
+      <c r="H45" s="6" t="n">
+        <v>0.454375988915943</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" s="23" t="n">
+        <v>6.31003648466824</v>
+      </c>
+      <c r="D46" s="23" t="n">
+        <v>3.65401596959579</v>
+      </c>
+      <c r="E46" s="23" t="n">
+        <v>9.96405245426403</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>0.302538831848672</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>0.697461168151328</v>
+      </c>
+      <c r="H46" s="6" t="n">
+        <v>0.302538831848672</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="23" t="n">
+        <v>5.02846315958672</v>
+      </c>
+      <c r="D47" s="23" t="n">
+        <v>5.46863890735162</v>
+      </c>
+      <c r="E47" s="23" t="n">
+        <v>10.4971020669383</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>0.532600605356257</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>0.497754682650794</v>
+      </c>
+      <c r="H47" s="6" t="n">
+        <v>0.566702004766749</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" s="23" t="n">
+        <v>5.40921187852105</v>
+      </c>
+      <c r="D48" s="23" t="n">
+        <v>4.28708674177034</v>
+      </c>
+      <c r="E48" s="23" t="n">
+        <v>9.69629862029138</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>0.363405028946154</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>0.695138139672116</v>
+      </c>
+      <c r="H48" s="6" t="n">
+        <v>0.43423956662317</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="23" t="n">
+        <v>4.36908995453466</v>
+      </c>
+      <c r="D49" s="23" t="n">
+        <v>3.43981651633958</v>
+      </c>
+      <c r="E49" s="23" t="n">
+        <v>7.80890647087424</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>0.483264996923065</v>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>0.555542007955241</v>
+      </c>
+      <c r="H49" s="6" t="n">
+        <v>0.52258329633791</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" s="23" t="n">
+        <v>10.2902599487547</v>
+      </c>
+      <c r="D50" s="23" t="n">
+        <v>3.85656082205649</v>
+      </c>
+      <c r="E50" s="23" t="n">
+        <v>14.1468207708112</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>0.308304578069005</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>0.702523425641085</v>
+      </c>
+      <c r="H50" s="6" t="n">
+        <v>0.339281942713563</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" s="23" t="n">
+        <v>5.46472709922001</v>
+      </c>
+      <c r="D51" s="23" t="n">
+        <v>2.40052969453953</v>
+      </c>
+      <c r="E51" s="23" t="n">
+        <v>7.86525679375954</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>0.332023256733975</v>
+      </c>
+      <c r="G51" s="6" t="n">
+        <v>0.709179581212661</v>
+      </c>
+      <c r="H51" s="6" t="n">
+        <v>0.36861066277255</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="23" t="n">
+        <v>5.46312933899709</v>
+      </c>
+      <c r="D52" s="23" t="n">
+        <v>5.87210144955894</v>
+      </c>
+      <c r="E52" s="23" t="n">
+        <v>11.335230788556</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>0.537029867526237</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>0.48413312104997</v>
+      </c>
+      <c r="H52" s="6" t="n">
+        <v>0.575702778846877</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="23" t="n">
+        <v>3.68616385468923</v>
+      </c>
+      <c r="D53" s="23" t="n">
+        <v>4.42309576650965</v>
+      </c>
+      <c r="E53" s="23" t="n">
+        <v>8.10925962119888</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>0.514098763030456</v>
+      </c>
+      <c r="G53" s="6" t="n">
+        <v>0.546508862184635</v>
+      </c>
+      <c r="H53" s="6" t="n">
+        <v>0.587166510580644</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="23" t="n">
+        <v>7.9342880268524</v>
+      </c>
+      <c r="D54" s="23" t="n">
+        <v>2.5663838337842</v>
+      </c>
+      <c r="E54" s="23" t="n">
+        <v>10.5006718606366</v>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>0.253217414172531</v>
+      </c>
+      <c r="G54" s="6" t="n">
+        <v>0.809792265276771</v>
+      </c>
+      <c r="H54" s="6" t="n">
+        <v>0.315917865548326</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s">
+        <v>283</v>
+      </c>
+      <c r="C55" s="23" t="n">
+        <v>9.17633859495998</v>
+      </c>
+      <c r="D55" s="23" t="n">
+        <v>6.50307505790351</v>
+      </c>
+      <c r="E55" s="23" t="n">
+        <v>15.6794136528635</v>
+      </c>
+      <c r="F55" s="6" t="n">
+        <v>0.423932133504413</v>
+      </c>
+      <c r="G55" s="6" t="n">
+        <v>0.637905667896386</v>
+      </c>
+      <c r="H55" s="6" t="n">
+        <v>0.510002089850475</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="23" t="n">
+        <v>8.74487164080114</v>
+      </c>
+      <c r="D56" s="23" t="n">
+        <v>4.74739055160753</v>
+      </c>
+      <c r="E56" s="23" t="n">
+        <v>13.4922621924087</v>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>0.297941697558116</v>
+      </c>
+      <c r="G56" s="6" t="n">
+        <v>0.731079494778006</v>
+      </c>
+      <c r="H56" s="6" t="n">
+        <v>0.31928714106596</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="23" t="n">
+        <v>6.89253964738665</v>
+      </c>
+      <c r="D57" s="23" t="n">
+        <v>5.14463218087393</v>
+      </c>
+      <c r="E57" s="23" t="n">
+        <v>12.0371718282606</v>
+      </c>
+      <c r="F57" s="6" t="n">
+        <v>0.396497998790882</v>
+      </c>
+      <c r="G57" s="6" t="n">
+        <v>0.603502001209119</v>
+      </c>
+      <c r="H57" s="6" t="n">
+        <v>0.396497998790882</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" t="s">
+        <v>286</v>
+      </c>
+      <c r="C58" s="23" t="n">
+        <v>6.14914435875603</v>
+      </c>
+      <c r="D58" s="23" t="n">
+        <v>4.72072134960419</v>
+      </c>
+      <c r="E58" s="23" t="n">
+        <v>10.8698657083602</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>0.444479009233893</v>
+      </c>
+      <c r="G58" s="6" t="n">
+        <v>0.574223071388111</v>
+      </c>
+      <c r="H58" s="6" t="n">
+        <v>0.477630506407031</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" s="23" t="n">
+        <v>6.146048005502</v>
+      </c>
+      <c r="D59" s="23" t="n">
+        <v>4.45485800677557</v>
+      </c>
+      <c r="E59" s="23" t="n">
+        <v>10.6009060122776</v>
+      </c>
+      <c r="F59" s="6" t="n">
+        <v>0.368830220687444</v>
+      </c>
+      <c r="G59" s="6" t="n">
+        <v>0.701872587691697</v>
+      </c>
+      <c r="H59" s="6" t="n">
+        <v>0.449046986578671</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="23" t="n">
+        <v>8.63765660918363</v>
+      </c>
+      <c r="D60" s="23" t="n">
+        <v>2.1558253471272</v>
+      </c>
+      <c r="E60" s="23" t="n">
+        <v>10.7934819563108</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>0.286632758264789</v>
+      </c>
+      <c r="G60" s="6" t="n">
+        <v>0.742450080242967</v>
+      </c>
+      <c r="H60" s="6" t="n">
+        <v>0.319540368406929</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="23" t="n">
+        <v>4.43002503142148</v>
+      </c>
+      <c r="D61" s="23" t="n">
+        <v>9.44882292738368</v>
+      </c>
+      <c r="E61" s="23" t="n">
+        <v>13.8788479588052</v>
+      </c>
+      <c r="F61" s="6" t="n">
+        <v>0.716754163303586</v>
+      </c>
+      <c r="G61" s="6" t="n">
+        <v>0.304149014061577</v>
+      </c>
+      <c r="H61" s="6" t="n">
+        <v>0.724395599206978</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>291</v>
+      </c>
+      <c r="C63" s="23" t="n">
+        <v>5.99120053873423</v>
+      </c>
+      <c r="D63" s="23" t="n">
+        <v>3.59278785961371</v>
+      </c>
+      <c r="E63" s="23" t="n">
+        <v>9.58398839834794</v>
+      </c>
+      <c r="F63" s="6" t="n">
+        <v>0.420201191936087</v>
+      </c>
+      <c r="G63" s="6" t="n">
+        <v>0.637235695866596</v>
+      </c>
+      <c r="H63" s="6" t="n">
+        <v>0.447515294358985</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" t="s">
+        <v>292</v>
+      </c>
+      <c r="C64" s="23" t="n">
+        <v>6.01723810585623</v>
+      </c>
+      <c r="D64" s="23" t="n">
+        <v>3.52483727336748</v>
+      </c>
+      <c r="E64" s="23" t="n">
+        <v>9.54207537922371</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>0.355638130103216</v>
+      </c>
+      <c r="G64" s="6" t="n">
+        <v>0.662527106992708</v>
+      </c>
+      <c r="H64" s="6" t="n">
+        <v>0.402814865202426</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" s="23" t="n">
+        <v>6.1530671616081</v>
+      </c>
+      <c r="D65" s="23" t="n">
+        <v>4.89120840630269</v>
+      </c>
+      <c r="E65" s="23" t="n">
+        <v>11.0442755679108</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>0.40902561253942</v>
+      </c>
+      <c r="G65" s="6" t="n">
+        <v>0.615702712213672</v>
+      </c>
+      <c r="H65" s="6" t="n">
+        <v>0.434584899585192</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" t="s">
+        <v>294</v>
+      </c>
+      <c r="C66" s="23" t="n">
+        <v>7.18338488475066</v>
+      </c>
+      <c r="D66" s="23" t="n">
+        <v>8.2998279767199</v>
+      </c>
+      <c r="E66" s="23" t="n">
+        <v>15.4832128614706</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>0.453284349289937</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>0.64097043650494</v>
+      </c>
+      <c r="H66" s="6" t="n">
+        <v>0.527525353063375</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67" s="23" t="n">
+        <v>3.12564232328623</v>
+      </c>
+      <c r="D67" s="23" t="n">
+        <v>5.15067861150192</v>
+      </c>
+      <c r="E67" s="23" t="n">
+        <v>8.27632093478815</v>
+      </c>
+      <c r="F67" s="6" t="n">
+        <v>0.680004767268502</v>
+      </c>
+      <c r="G67" s="6" t="n">
+        <v>0.451186130398838</v>
+      </c>
+      <c r="H67" s="6" t="n">
+        <v>0.811533744602122</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s">
+        <v>296</v>
+      </c>
+      <c r="C68" s="23" t="n">
+        <v>5.94974608080837</v>
+      </c>
+      <c r="D68" s="23" t="n">
+        <v>5.06167700783243</v>
+      </c>
+      <c r="E68" s="23" t="n">
+        <v>11.0114230886408</v>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>0.409667261704718</v>
+      </c>
+      <c r="G68" s="6" t="n">
+        <v>0.601276100074833</v>
+      </c>
+      <c r="H68" s="6" t="n">
+        <v>0.422241946137056</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s">
+        <v>297</v>
+      </c>
+      <c r="C69" s="23" t="n">
+        <v>8.43613950897157</v>
+      </c>
+      <c r="D69" s="23" t="n">
+        <v>2.84689546375799</v>
+      </c>
+      <c r="E69" s="23" t="n">
+        <v>11.2830349727296</v>
+      </c>
+      <c r="F69" s="6" t="n">
+        <v>0.261324788635783</v>
+      </c>
+      <c r="G69" s="6" t="n">
+        <v>0.739101090396688</v>
+      </c>
+      <c r="H69" s="6" t="n">
+        <v>0.271545885415097</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" t="s">
+        <v>298</v>
+      </c>
+      <c r="C70" s="23" t="n">
+        <v>5.24233522932554</v>
+      </c>
+      <c r="D70" s="23" t="n">
+        <v>2.42045458627873</v>
+      </c>
+      <c r="E70" s="23" t="n">
+        <v>7.66278981560427</v>
+      </c>
+      <c r="F70" s="6" t="n">
+        <v>0.353619499006157</v>
+      </c>
+      <c r="G70" s="6" t="n">
+        <v>0.709403024506112</v>
+      </c>
+      <c r="H70" s="6" t="n">
+        <v>0.413602709415068</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>299</v>
+      </c>
+      <c r="C71" s="23" t="n">
+        <v>5.33213353956038</v>
+      </c>
+      <c r="D71" s="23" t="n">
+        <v>5.88635728231967</v>
+      </c>
+      <c r="E71" s="23" t="n">
+        <v>11.2184908218801</v>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>0.483414573442127</v>
+      </c>
+      <c r="G71" s="6" t="n">
+        <v>0.540999438897261</v>
+      </c>
+      <c r="H71" s="6" t="n">
+        <v>0.512631448191014</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>300</v>
+      </c>
+      <c r="C72" s="23" t="n">
+        <v>4.31728932218908</v>
+      </c>
+      <c r="D72" s="23" t="n">
+        <v>4.61179693171369</v>
+      </c>
+      <c r="E72" s="23" t="n">
+        <v>8.92908625390277</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>0.538844943890191</v>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>0.48719046811384</v>
+      </c>
+      <c r="H72" s="6" t="n">
+        <v>0.569902478186849</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>301</v>
+      </c>
+      <c r="C73" s="23" t="n">
+        <v>4.4430151163284</v>
+      </c>
+      <c r="D73" s="23" t="n">
+        <v>4.63363762290197</v>
+      </c>
+      <c r="E73" s="23" t="n">
+        <v>9.07665273923038</v>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>0.50207652903207</v>
+      </c>
+      <c r="G73" s="6" t="n">
+        <v>0.53886874032431</v>
+      </c>
+      <c r="H73" s="6" t="n">
+        <v>0.538109178651898</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>302</v>
+      </c>
+      <c r="C74" s="23" t="n">
+        <v>6.39360923525901</v>
+      </c>
+      <c r="D74" s="23" t="n">
+        <v>4.52490462570453</v>
+      </c>
+      <c r="E74" s="23" t="n">
+        <v>10.9185138609635</v>
+      </c>
+      <c r="F74" s="6" t="n">
+        <v>0.395675789267079</v>
+      </c>
+      <c r="G74" s="6" t="n">
+        <v>0.647190166526937</v>
+      </c>
+      <c r="H74" s="6" t="n">
+        <v>0.4279086788467</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>303</v>
+      </c>
+      <c r="C75" s="23" t="n">
+        <v>6.01393726647263</v>
+      </c>
+      <c r="D75" s="23" t="n">
+        <v>2.96918160518854</v>
+      </c>
+      <c r="E75" s="23" t="n">
+        <v>8.98311887166117</v>
+      </c>
+      <c r="F75" s="6" t="n">
+        <v>0.383235542539371</v>
+      </c>
+      <c r="G75" s="6" t="n">
+        <v>0.654933357645625</v>
+      </c>
+      <c r="H75" s="6" t="n">
+        <v>0.413875341090218</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" s="23" t="n">
+        <v>4.73497918403728</v>
+      </c>
+      <c r="D76" s="23" t="n">
+        <v>6.50768167613611</v>
+      </c>
+      <c r="E76" s="23" t="n">
+        <v>11.2426608601734</v>
+      </c>
+      <c r="F76" s="6" t="n">
+        <v>0.538331360855375</v>
+      </c>
+      <c r="G76" s="6" t="n">
+        <v>0.485568501632899</v>
+      </c>
+      <c r="H76" s="6" t="n">
+        <v>0.562282157729339</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77" s="23" t="n">
+        <v>6.95880156283544</v>
+      </c>
+      <c r="D77" s="23" t="n">
+        <v>4.79050457674791</v>
+      </c>
+      <c r="E77" s="23" t="n">
+        <v>11.7493061395834</v>
+      </c>
+      <c r="F77" s="6" t="n">
+        <v>0.43953001779318</v>
+      </c>
+      <c r="G77" s="6" t="n">
+        <v>0.57977780313472</v>
+      </c>
+      <c r="H77" s="6" t="n">
+        <v>0.455159394119657</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>306</v>
+      </c>
+      <c r="C78" s="23" t="n">
+        <v>6.23435245027588</v>
+      </c>
+      <c r="D78" s="23" t="n">
+        <v>6.56948488487492</v>
+      </c>
+      <c r="E78" s="23" t="n">
+        <v>12.8038373351508</v>
+      </c>
+      <c r="F78" s="6" t="n">
+        <v>0.414294663260888</v>
+      </c>
+      <c r="G78" s="6" t="n">
+        <v>0.608718711985902</v>
+      </c>
+      <c r="H78" s="6" t="n">
+        <v>0.458176856407491</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>307</v>
+      </c>
+      <c r="C79" s="23" t="n">
+        <v>2.58138866639183</v>
+      </c>
+      <c r="D79" s="23" t="n">
+        <v>4.06244352311907</v>
+      </c>
+      <c r="E79" s="23" t="n">
+        <v>6.64383218951089</v>
+      </c>
+      <c r="F79" s="6" t="n">
+        <v>0.608506118912461</v>
+      </c>
+      <c r="G79" s="6" t="n">
+        <v>0.433690490990297</v>
+      </c>
+      <c r="H79" s="6" t="n">
+        <v>0.66627438445832</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>308</v>
+      </c>
+      <c r="C80" s="23" t="n">
+        <v>7.49317990178074</v>
+      </c>
+      <c r="D80" s="23" t="n">
+        <v>4.66923707596937</v>
+      </c>
+      <c r="E80" s="23" t="n">
+        <v>12.1624169777501</v>
+      </c>
+      <c r="F80" s="6" t="n">
+        <v>0.402306559585341</v>
+      </c>
+      <c r="G80" s="6" t="n">
+        <v>0.6159647706478</v>
+      </c>
+      <c r="H80" s="6" t="n">
+        <v>0.436731540452119</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>309</v>
+      </c>
+      <c r="C81" s="23" t="n">
+        <v>5.96825511735002</v>
+      </c>
+      <c r="D81" s="23" t="n">
+        <v>1.51618694681035</v>
+      </c>
+      <c r="E81" s="23" t="n">
+        <v>7.48444206416038</v>
+      </c>
+      <c r="F81" s="6" t="n">
+        <v>0.266664319869994</v>
+      </c>
+      <c r="G81" s="6" t="n">
+        <v>0.767287563163088</v>
+      </c>
+      <c r="H81" s="6" t="n">
+        <v>0.311062936144024</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>310</v>
+      </c>
+      <c r="C82" s="23" t="n">
+        <v>8.59166959126765</v>
+      </c>
+      <c r="D82" s="23" t="n">
+        <v>5.41270297708988</v>
+      </c>
+      <c r="E82" s="23" t="n">
+        <v>14.0043725683575</v>
+      </c>
+      <c r="F82" s="6" t="n">
+        <v>0.355361690789718</v>
+      </c>
+      <c r="G82" s="6" t="n">
+        <v>0.701897510853996</v>
+      </c>
+      <c r="H82" s="6" t="n">
+        <v>0.416064361096503</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>311</v>
+      </c>
+      <c r="C83" s="23" t="n">
+        <v>6.41202226664222</v>
+      </c>
+      <c r="D83" s="23" t="n">
+        <v>4.77559683718565</v>
+      </c>
+      <c r="E83" s="23" t="n">
+        <v>11.1876191038279</v>
+      </c>
+      <c r="F83" s="6" t="n">
+        <v>0.43491741104623</v>
+      </c>
+      <c r="G83" s="6" t="n">
+        <v>0.578959361882388</v>
+      </c>
+      <c r="H83" s="6" t="n">
+        <v>0.457939251590904</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" t="s">
+        <v>312</v>
+      </c>
+      <c r="C84" s="23" t="n">
+        <v>7.81895062306538</v>
+      </c>
+      <c r="D84" s="23" t="n">
+        <v>5.67324000445308</v>
+      </c>
+      <c r="E84" s="23" t="n">
+        <v>13.4921906275185</v>
+      </c>
+      <c r="F84" s="6" t="n">
+        <v>0.375469020242155</v>
+      </c>
+      <c r="G84" s="6" t="n">
+        <v>0.66146157743237</v>
+      </c>
+      <c r="H84" s="6" t="n">
+        <v>0.408370679435112</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>313</v>
+      </c>
+      <c r="C85" s="23" t="n">
+        <v>8.33992289211401</v>
+      </c>
+      <c r="D85" s="23" t="n">
+        <v>1.39366267396877</v>
+      </c>
+      <c r="E85" s="23" t="n">
+        <v>9.73358556608278</v>
+      </c>
+      <c r="F85" s="6" t="n">
+        <v>0.133053886600318</v>
+      </c>
+      <c r="G85" s="6" t="n">
+        <v>0.88115545967141</v>
+      </c>
+      <c r="H85" s="6" t="n">
+        <v>0.159514527550564</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
+        <v>314</v>
+      </c>
+      <c r="C86" s="23" t="n">
+        <v>3.99102380650286</v>
+      </c>
+      <c r="D86" s="23" t="n">
+        <v>7.6375196303221</v>
+      </c>
+      <c r="E86" s="23" t="n">
+        <v>11.628543436825</v>
+      </c>
+      <c r="F86" s="6" t="n">
+        <v>0.64859795488759</v>
+      </c>
+      <c r="G86" s="6" t="n">
+        <v>0.394735756139642</v>
+      </c>
+      <c r="H86" s="6" t="n">
+        <v>0.68746859370841</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" t="s">
+        <v>315</v>
+      </c>
+      <c r="C87" s="23" t="n">
+        <v>5.43745340222168</v>
+      </c>
+      <c r="D87" s="23" t="n">
+        <v>9.3500801438678</v>
+      </c>
+      <c r="E87" s="23" t="n">
+        <v>14.7875335460895</v>
+      </c>
+      <c r="F87" s="6" t="n">
+        <v>0.56873036736862</v>
+      </c>
+      <c r="G87" s="6" t="n">
+        <v>0.457650510735818</v>
+      </c>
+      <c r="H87" s="6" t="n">
+        <v>0.597140763479021</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" t="s">
+        <v>316</v>
+      </c>
+      <c r="C88" s="23" t="n">
+        <v>7.63721402181354</v>
+      </c>
+      <c r="D88" s="23" t="n">
+        <v>7.00206887060166</v>
+      </c>
+      <c r="E88" s="23" t="n">
+        <v>14.6392828924152</v>
+      </c>
+      <c r="F88" s="6" t="n">
+        <v>0.443963114980314</v>
+      </c>
+      <c r="G88" s="6" t="n">
+        <v>0.596217577093712</v>
+      </c>
+      <c r="H88" s="6" t="n">
+        <v>0.473281608104936</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" t="s">
+        <v>317</v>
+      </c>
+      <c r="C89" s="23" t="n">
+        <v>1.02079689032489</v>
+      </c>
+      <c r="D89" s="23" t="n">
+        <v>5.75419620160973</v>
+      </c>
+      <c r="E89" s="23" t="n">
+        <v>6.77499309193462</v>
+      </c>
+      <c r="F89" s="6" t="n">
+        <v>0.66670401133713</v>
+      </c>
+      <c r="G89" s="6" t="n">
+        <v>0.444687876964303</v>
+      </c>
+      <c r="H89" s="6" t="n">
+        <v>0.674660574787232</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" t="s">
+        <v>318</v>
+      </c>
+      <c r="C90" s="23" t="n">
+        <v>6.9063276804542</v>
+      </c>
+      <c r="D90" s="23" t="n">
+        <v>5.63092512830075</v>
+      </c>
+      <c r="E90" s="23" t="n">
+        <v>12.5372528087549</v>
+      </c>
+      <c r="F90" s="6" t="n">
+        <v>0.400592671553704</v>
+      </c>
+      <c r="G90" s="6" t="n">
+        <v>0.632611977925924</v>
+      </c>
+      <c r="H90" s="6" t="n">
+        <v>0.422425224392027</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" t="s">
+        <v>319</v>
+      </c>
+      <c r="C91" s="23" t="n">
+        <v>6.1356377626371</v>
+      </c>
+      <c r="D91" s="23" t="n">
+        <v>4.32661904583259</v>
+      </c>
+      <c r="E91" s="23" t="n">
+        <v>10.4622568084697</v>
+      </c>
+      <c r="F91" s="6" t="n">
+        <v>0.412348128354822</v>
+      </c>
+      <c r="G91" s="6" t="n">
+        <v>0.606369329203348</v>
+      </c>
+      <c r="H91" s="6" t="n">
+        <v>0.437405508507266</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" t="s">
+        <v>320</v>
+      </c>
+      <c r="C92" s="23" t="n">
+        <v>6.28292064569928</v>
+      </c>
+      <c r="D92" s="23" t="n">
+        <v>3.94029162529153</v>
+      </c>
+      <c r="E92" s="23" t="n">
+        <v>10.2232122709908</v>
+      </c>
+      <c r="F92" s="6" t="n">
+        <v>0.395356497825182</v>
+      </c>
+      <c r="G92" s="6" t="n">
+        <v>0.635324293973884</v>
+      </c>
+      <c r="H92" s="6" t="n">
+        <v>0.424348942958577</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" t="s">
+        <v>321</v>
+      </c>
+      <c r="C93" s="23" t="n">
+        <v>5.61425695494041</v>
+      </c>
+      <c r="D93" s="23" t="n">
+        <v>6.23225872345205</v>
+      </c>
+      <c r="E93" s="23" t="n">
+        <v>11.8465156783925</v>
+      </c>
+      <c r="F93" s="6" t="n">
+        <v>0.399227710348199</v>
+      </c>
+      <c r="G93" s="6" t="n">
+        <v>0.603559778340635</v>
+      </c>
+      <c r="H93" s="6" t="n">
+        <v>0.415952642481205</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" t="s">
+        <v>322</v>
+      </c>
+      <c r="C94" s="23" t="n">
+        <v>6.00656673271864</v>
+      </c>
+      <c r="D94" s="23" t="n">
+        <v>2.4599178619651</v>
+      </c>
+      <c r="E94" s="23" t="n">
+        <v>8.46648459468373</v>
+      </c>
+      <c r="F94" s="6" t="n">
+        <v>0.326321755896028</v>
+      </c>
+      <c r="G94" s="6" t="n">
+        <v>0.726341116214418</v>
+      </c>
+      <c r="H94" s="6" t="n">
+        <v>0.362256313955771</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" t="s">
+        <v>323</v>
+      </c>
+      <c r="C95" s="23" t="n">
+        <v>6.40975454335093</v>
+      </c>
+      <c r="D95" s="23" t="n">
+        <v>5.08117909064382</v>
+      </c>
+      <c r="E95" s="23" t="n">
+        <v>11.4909336339948</v>
+      </c>
+      <c r="F95" s="6" t="n">
+        <v>0.45086822341843</v>
+      </c>
+      <c r="G95" s="6" t="n">
+        <v>0.567247135956091</v>
+      </c>
+      <c r="H95" s="6" t="n">
+        <v>0.467864088296466</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" t="s">
+        <v>324</v>
+      </c>
+      <c r="C96" s="23" t="n">
+        <v>7.46056822354113</v>
+      </c>
+      <c r="D96" s="23" t="n">
+        <v>3.96183566759202</v>
+      </c>
+      <c r="E96" s="23" t="n">
+        <v>11.4224038911332</v>
+      </c>
+      <c r="F96" s="6" t="n">
+        <v>0.446703441885769</v>
+      </c>
+      <c r="G96" s="6" t="n">
+        <v>0.575812917447316</v>
+      </c>
+      <c r="H96" s="6" t="n">
+        <v>0.475003069411905</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97" s="23" t="n">
+        <v>5.84591222929451</v>
+      </c>
+      <c r="D97" s="23" t="n">
+        <v>4.28296173991497</v>
+      </c>
+      <c r="E97" s="23" t="n">
+        <v>10.1288739692095</v>
+      </c>
+      <c r="F97" s="6" t="n">
+        <v>0.420008182642951</v>
+      </c>
+      <c r="G97" s="6" t="n">
+        <v>0.605565557308576</v>
+      </c>
+      <c r="H97" s="6" t="n">
+        <v>0.446601775105762</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" t="s">
+        <v>326</v>
+      </c>
+      <c r="C98" s="23" t="n">
+        <v>5.91669296899836</v>
+      </c>
+      <c r="D98" s="23" t="n">
+        <v>3.68257579581629</v>
+      </c>
+      <c r="E98" s="23" t="n">
+        <v>9.59926876481465</v>
+      </c>
+      <c r="F98" s="6" t="n">
+        <v>0.475040002284459</v>
+      </c>
+      <c r="G98" s="6" t="n">
+        <v>0.524959997715541</v>
+      </c>
+      <c r="H98" s="6" t="n">
+        <v>0.475040002284459</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" t="s">
+        <v>327</v>
+      </c>
+      <c r="C99" s="23" t="n">
+        <v>2.93510517313428</v>
+      </c>
+      <c r="D99" s="23" t="n">
+        <v>8.99182142101611</v>
+      </c>
+      <c r="E99" s="23" t="n">
+        <v>11.9269265941504</v>
+      </c>
+      <c r="F99" s="6" t="n">
+        <v>0.7429930458616</v>
+      </c>
+      <c r="G99" s="6" t="n">
+        <v>0.294139933824713</v>
+      </c>
+      <c r="H99" s="6" t="n">
+        <v>0.767491165459221</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" t="s">
+        <v>328</v>
+      </c>
+      <c r="C100" s="23" t="n">
+        <v>7.61092746043527</v>
+      </c>
+      <c r="D100" s="23" t="n">
+        <v>4.81572924979616</v>
+      </c>
+      <c r="E100" s="23" t="n">
+        <v>12.4266567102314</v>
+      </c>
+      <c r="F100" s="6" t="n">
+        <v>0.425233121891334</v>
+      </c>
+      <c r="G100" s="6" t="n">
+        <v>0.59376125316159</v>
+      </c>
+      <c r="H100" s="6" t="n">
+        <v>0.458626342725635</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" t="s">
+        <v>329</v>
+      </c>
+      <c r="C101" s="23" t="n">
+        <v>1.19140431368015</v>
+      </c>
+      <c r="D101" s="23" t="n">
+        <v>2.10644676473989</v>
+      </c>
+      <c r="E101" s="23" t="n">
+        <v>3.29785107842004</v>
+      </c>
+      <c r="F101" s="6" t="n">
+        <v>0.702148921579962</v>
+      </c>
+      <c r="G101" s="6" t="n">
+        <v>0.297851078420038</v>
+      </c>
+      <c r="H101" s="6" t="n">
+        <v>0.702148921579962</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>179</v>
+      </c>
+      <c r="B102" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102" s="23" t="n">
+        <v>9.629070887972</v>
+      </c>
+      <c r="D102" s="23" t="n">
+        <v>1.65659047858056</v>
+      </c>
+      <c r="E102" s="23" t="n">
+        <v>11.2856613665526</v>
+      </c>
+      <c r="F102" s="6" t="n">
+        <v>0.175417888244774</v>
+      </c>
+      <c r="G102" s="6" t="n">
+        <v>0.8654291710152</v>
+      </c>
+      <c r="H102" s="6" t="n">
+        <v>0.200783024206535</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" t="s">
+        <v>331</v>
+      </c>
+      <c r="C103" s="23" t="n">
+        <v>6.87611754081935</v>
+      </c>
+      <c r="D103" s="23" t="n">
+        <v>4.60822002407221</v>
+      </c>
+      <c r="E103" s="23" t="n">
+        <v>11.4843375648916</v>
+      </c>
+      <c r="F103" s="6" t="n">
+        <v>0.379899117609261</v>
+      </c>
+      <c r="G103" s="6" t="n">
+        <v>0.631928801266694</v>
+      </c>
+      <c r="H103" s="6" t="n">
+        <v>0.382797379277483</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" t="s">
+        <v>332</v>
+      </c>
+      <c r="C104" s="23" t="n">
+        <v>4.94877035290321</v>
+      </c>
+      <c r="D104" s="23" t="n">
+        <v>4.29845773292445</v>
+      </c>
+      <c r="E104" s="23" t="n">
+        <v>9.24722808582766</v>
+      </c>
+      <c r="F104" s="6" t="n">
+        <v>0.461551871063641</v>
+      </c>
+      <c r="G104" s="6" t="n">
+        <v>0.556600455598301</v>
+      </c>
+      <c r="H104" s="6" t="n">
+        <v>0.557712493698823</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" t="s">
+        <v>333</v>
+      </c>
+      <c r="C105" s="23" t="n">
+        <v>4.9146602076898</v>
+      </c>
+      <c r="D105" s="23" t="n">
+        <v>7.52199835445787</v>
+      </c>
+      <c r="E105" s="23" t="n">
+        <v>12.4366585621477</v>
+      </c>
+      <c r="F105" s="6" t="n">
+        <v>0.558484348056053</v>
+      </c>
+      <c r="G105" s="6" t="n">
+        <v>0.455332399091858</v>
+      </c>
+      <c r="H105" s="6" t="n">
+        <v>0.571543199609057</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>183</v>
+      </c>
+      <c r="B106" t="s">
+        <v>334</v>
+      </c>
+      <c r="C106" s="23" t="n">
+        <v>7.82050097139629</v>
+      </c>
+      <c r="D106" s="23" t="n">
+        <v>4.58744679005753</v>
+      </c>
+      <c r="E106" s="23" t="n">
+        <v>12.4079477614538</v>
+      </c>
+      <c r="F106" s="6" t="n">
+        <v>0.377607296489808</v>
+      </c>
+      <c r="G106" s="6" t="n">
+        <v>0.678193028304665</v>
+      </c>
+      <c r="H106" s="6" t="n">
+        <v>0.419332652113361</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>184</v>
+      </c>
+      <c r="B107" t="s">
+        <v>335</v>
+      </c>
+      <c r="C107" s="23" t="n">
+        <v>5.00046801395935</v>
+      </c>
+      <c r="D107" s="23" t="n">
+        <v>4.42785999069059</v>
+      </c>
+      <c r="E107" s="23" t="n">
+        <v>9.42832800464994</v>
+      </c>
+      <c r="F107" s="6" t="n">
+        <v>0.527835247516038</v>
+      </c>
+      <c r="G107" s="6" t="n">
+        <v>0.524073169562753</v>
+      </c>
+      <c r="H107" s="6" t="n">
+        <v>0.588395067441293</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" t="s">
+        <v>336</v>
+      </c>
+      <c r="C108" s="23" t="n">
+        <v>8.81769496529708</v>
+      </c>
+      <c r="D108" s="23" t="n">
+        <v>3.13729426962561</v>
+      </c>
+      <c r="E108" s="23" t="n">
+        <v>11.9549892349227</v>
+      </c>
+      <c r="F108" s="6" t="n">
+        <v>0.268619288564455</v>
+      </c>
+      <c r="G108" s="6" t="n">
+        <v>0.786401184948237</v>
+      </c>
+      <c r="H108" s="6" t="n">
+        <v>0.332516455937719</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>186</v>
+      </c>
+      <c r="B109" t="s">
+        <v>337</v>
+      </c>
+      <c r="C109" s="23" t="n">
+        <v>7.15828249108244</v>
+      </c>
+      <c r="D109" s="23" t="n">
+        <v>4.76798685030124</v>
+      </c>
+      <c r="E109" s="23" t="n">
+        <v>11.9262693413837</v>
+      </c>
+      <c r="F109" s="6" t="n">
+        <v>0.356318974835919</v>
+      </c>
+      <c r="G109" s="6" t="n">
+        <v>0.666597097095971</v>
+      </c>
+      <c r="H109" s="6" t="n">
+        <v>0.386335839225419</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>187</v>
+      </c>
+      <c r="B110" t="s">
+        <v>338</v>
+      </c>
+      <c r="C110" s="23" t="n">
+        <v>9.24737921362241</v>
+      </c>
+      <c r="D110" s="23" t="n">
+        <v>3.77805655933709</v>
+      </c>
+      <c r="E110" s="23" t="n">
+        <v>13.0254357729595</v>
+      </c>
+      <c r="F110" s="6" t="n">
+        <v>0.294977415606569</v>
+      </c>
+      <c r="G110" s="6" t="n">
+        <v>0.727914957005462</v>
+      </c>
+      <c r="H110" s="6" t="n">
+        <v>0.318040180858504</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>188</v>
+      </c>
+      <c r="B111" t="s">
+        <v>339</v>
+      </c>
+      <c r="C111" s="23" t="n">
+        <v>6.45059043394602</v>
+      </c>
+      <c r="D111" s="23" t="n">
+        <v>4.15462609712252</v>
+      </c>
+      <c r="E111" s="23" t="n">
+        <v>10.6052165310685</v>
+      </c>
+      <c r="F111" s="6" t="n">
+        <v>0.394193040868058</v>
+      </c>
+      <c r="G111" s="6" t="n">
+        <v>0.636265981927871</v>
+      </c>
+      <c r="H111" s="6" t="n">
+        <v>0.430129194352568</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>189</v>
+      </c>
+      <c r="B112" t="s">
+        <v>340</v>
+      </c>
+      <c r="C112" s="23" t="n">
+        <v>5.35499246241842</v>
+      </c>
+      <c r="D112" s="23" t="n">
+        <v>8.2778044303608</v>
+      </c>
+      <c r="E112" s="23" t="n">
+        <v>13.6327968927792</v>
+      </c>
+      <c r="F112" s="6" t="n">
+        <v>0.564693919927889</v>
+      </c>
+      <c r="G112" s="6" t="n">
+        <v>0.469700784816024</v>
+      </c>
+      <c r="H112" s="6" t="n">
+        <v>0.584914393425354</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" t="s">
+        <v>341</v>
+      </c>
+      <c r="C113" s="23" t="n">
+        <v>7.76286215221652</v>
+      </c>
+      <c r="D113" s="23" t="n">
+        <v>2.13171626364157</v>
+      </c>
+      <c r="E113" s="23" t="n">
+        <v>9.89457841585809</v>
+      </c>
+      <c r="F113" s="6" t="n">
+        <v>0.260240916236626</v>
+      </c>
+      <c r="G113" s="6" t="n">
+        <v>0.758297832625612</v>
+      </c>
+      <c r="H113" s="6" t="n">
+        <v>0.358346778725203</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>191</v>
+      </c>
+      <c r="B114" t="s">
+        <v>342</v>
+      </c>
+      <c r="C114" s="23" t="n">
+        <v>8.39797882213565</v>
+      </c>
+      <c r="D114" s="23" t="n">
+        <v>2.59849811692942</v>
+      </c>
+      <c r="E114" s="23" t="n">
+        <v>10.9964769390651</v>
+      </c>
+      <c r="F114" s="6" t="n">
+        <v>0.259664607422987</v>
+      </c>
+      <c r="G114" s="6" t="n">
+        <v>0.764187082015005</v>
+      </c>
+      <c r="H114" s="6" t="n">
+        <v>0.275782419430878</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>192</v>
+      </c>
+      <c r="B115" t="s">
+        <v>343</v>
+      </c>
+      <c r="C115" s="23" t="n">
+        <v>3.5888171930427</v>
+      </c>
+      <c r="D115" s="23" t="n">
+        <v>7.03479872929457</v>
+      </c>
+      <c r="E115" s="23" t="n">
+        <v>10.6236159223373</v>
+      </c>
+      <c r="F115" s="6" t="n">
+        <v>0.702361430975619</v>
+      </c>
+      <c r="G115" s="6" t="n">
+        <v>0.31268430986089</v>
+      </c>
+      <c r="H115" s="6" t="n">
+        <v>0.705714500216434</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>193</v>
+      </c>
+      <c r="B116" t="s">
+        <v>344</v>
+      </c>
+      <c r="C116" s="23" t="n">
+        <v>5.11526928599763</v>
+      </c>
+      <c r="D116" s="23" t="n">
+        <v>6.2262160083899</v>
+      </c>
+      <c r="E116" s="23" t="n">
+        <v>11.3414852943875</v>
+      </c>
+      <c r="F116" s="6" t="n">
+        <v>0.589669109014414</v>
+      </c>
+      <c r="G116" s="6" t="n">
+        <v>0.410330890985586</v>
+      </c>
+      <c r="H116" s="6" t="n">
+        <v>0.589669109014414</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>194</v>
+      </c>
+      <c r="B117" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" s="23" t="n">
+        <v>6.49584304910339</v>
+      </c>
+      <c r="D117" s="23" t="n">
+        <v>6.82058747460779</v>
+      </c>
+      <c r="E117" s="23" t="n">
+        <v>13.3164305237112</v>
+      </c>
+      <c r="F117" s="6" t="n">
+        <v>0.493986384708661</v>
+      </c>
+      <c r="G117" s="6" t="n">
+        <v>0.506013615291339</v>
+      </c>
+      <c r="H117" s="6" t="n">
+        <v>0.493986384708661</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>195</v>
+      </c>
+      <c r="B118" t="s">
+        <v>346</v>
+      </c>
+      <c r="C118" s="23" t="n">
+        <v>6.61556963060477</v>
+      </c>
+      <c r="D118" s="23" t="n">
+        <v>4.79026406630684</v>
+      </c>
+      <c r="E118" s="23" t="n">
+        <v>11.4058336969116</v>
+      </c>
+      <c r="F118" s="6" t="n">
+        <v>0.501027218434284</v>
+      </c>
+      <c r="G118" s="6" t="n">
+        <v>0.503910042112422</v>
+      </c>
+      <c r="H118" s="6" t="n">
+        <v>0.515253833558478</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>196</v>
+      </c>
+      <c r="B119" t="s">
+        <v>347</v>
+      </c>
+      <c r="C119" s="23" t="n">
+        <v>5.85183796869359</v>
+      </c>
+      <c r="D119" s="23" t="n">
+        <v>5.43868502761825</v>
+      </c>
+      <c r="E119" s="23" t="n">
+        <v>11.2905229963118</v>
+      </c>
+      <c r="F119" s="6" t="n">
+        <v>0.467745771799144</v>
+      </c>
+      <c r="G119" s="6" t="n">
+        <v>0.559543003707437</v>
+      </c>
+      <c r="H119" s="6" t="n">
+        <v>0.4957720411197</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>197</v>
+      </c>
+      <c r="B120" t="s">
+        <v>348</v>
+      </c>
+      <c r="C120" s="23" t="n">
+        <v>5.21905253749543</v>
+      </c>
+      <c r="D120" s="23" t="n">
+        <v>3.04596224419626</v>
+      </c>
+      <c r="E120" s="23" t="n">
+        <v>8.2650147816917</v>
+      </c>
+      <c r="F120" s="6" t="n">
+        <v>0.463396638701396</v>
+      </c>
+      <c r="G120" s="6" t="n">
+        <v>0.576709392185372</v>
+      </c>
+      <c r="H120" s="6" t="n">
+        <v>0.513971250493416</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>198</v>
+      </c>
+      <c r="B121" t="s">
+        <v>349</v>
+      </c>
+      <c r="C121" s="23" t="n">
+        <v>6.28499071766161</v>
+      </c>
+      <c r="D121" s="23" t="n">
+        <v>5.27145700339382</v>
+      </c>
+      <c r="E121" s="23" t="n">
+        <v>11.5564477210554</v>
+      </c>
+      <c r="F121" s="6" t="n">
+        <v>0.465227554791878</v>
+      </c>
+      <c r="G121" s="6" t="n">
+        <v>0.563167175362113</v>
+      </c>
+      <c r="H121" s="6" t="n">
+        <v>0.498303095808083</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>199</v>
+      </c>
+      <c r="B122" t="s">
+        <v>350</v>
+      </c>
+      <c r="C122" s="23" t="n">
+        <v>5.95377571092731</v>
+      </c>
+      <c r="D122" s="23" t="n">
+        <v>7.70872939980944</v>
+      </c>
+      <c r="E122" s="23" t="n">
+        <v>13.6625051107368</v>
+      </c>
+      <c r="F122" s="6" t="n">
+        <v>0.584786172895611</v>
+      </c>
+      <c r="G122" s="6" t="n">
+        <v>0.442833238499704</v>
+      </c>
+      <c r="H122" s="6" t="n">
+        <v>0.627878059623049</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>200</v>
+      </c>
+      <c r="B123" t="s">
+        <v>351</v>
+      </c>
+      <c r="C123" s="23" t="n">
+        <v>8.53858373729678</v>
+      </c>
+      <c r="D123" s="23" t="n">
+        <v>3.972884980278</v>
+      </c>
+      <c r="E123" s="23" t="n">
+        <v>12.5114687175748</v>
+      </c>
+      <c r="F123" s="6" t="n">
+        <v>0.328629054037267</v>
+      </c>
+      <c r="G123" s="6" t="n">
+        <v>0.719478765079005</v>
+      </c>
+      <c r="H123" s="6" t="n">
+        <v>0.374085447527731</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124" t="s">
+        <v>352</v>
+      </c>
+      <c r="C124" s="23" t="n">
+        <v>7.7413757486049</v>
+      </c>
+      <c r="D124" s="23" t="n">
+        <v>5.31907887656134</v>
+      </c>
+      <c r="E124" s="23" t="n">
+        <v>13.0604546251662</v>
+      </c>
+      <c r="F124" s="6" t="n">
+        <v>0.347337593718325</v>
+      </c>
+      <c r="G124" s="6" t="n">
+        <v>0.683276569987138</v>
+      </c>
+      <c r="H124" s="6" t="n">
+        <v>0.381660435887348</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125" t="s">
+        <v>353</v>
+      </c>
+      <c r="C125" s="23" t="n">
+        <v>5.55248317465758</v>
+      </c>
+      <c r="D125" s="23" t="n">
+        <v>7.72391846568031</v>
+      </c>
+      <c r="E125" s="23" t="n">
+        <v>13.2764016403379</v>
+      </c>
+      <c r="F125" s="6" t="n">
+        <v>0.555684497444449</v>
+      </c>
+      <c r="G125" s="6" t="n">
+        <v>0.463511064410361</v>
+      </c>
+      <c r="H125" s="6" t="n">
+        <v>0.580311640101935</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>203</v>
+      </c>
+      <c r="B126" t="s">
+        <v>354</v>
+      </c>
+      <c r="C126" s="23" t="n">
+        <v>4.05974782456272</v>
+      </c>
+      <c r="D126" s="23" t="n">
+        <v>7.68920570777091</v>
+      </c>
+      <c r="E126" s="23" t="n">
+        <v>11.7489535323336</v>
+      </c>
+      <c r="F126" s="6" t="n">
+        <v>0.659853034526911</v>
+      </c>
+      <c r="G126" s="6" t="n">
+        <v>0.360119486161366</v>
+      </c>
+      <c r="H126" s="6" t="n">
+        <v>0.688318428893027</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>204</v>
+      </c>
+      <c r="B127" t="s">
+        <v>355</v>
+      </c>
+      <c r="C127" s="23" t="n">
+        <v>8.81392206744125</v>
+      </c>
+      <c r="D127" s="23" t="n">
+        <v>3.95747230640295</v>
+      </c>
+      <c r="E127" s="23" t="n">
+        <v>12.7713943738442</v>
+      </c>
+      <c r="F127" s="6" t="n">
+        <v>0.244296514527617</v>
+      </c>
+      <c r="G127" s="6" t="n">
+        <v>0.791197653565727</v>
+      </c>
+      <c r="H127" s="6" t="n">
+        <v>0.297677823511438</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>205</v>
+      </c>
+      <c r="B128" t="s">
+        <v>356</v>
+      </c>
+      <c r="C128" s="23" t="n">
+        <v>7.0202289177753</v>
+      </c>
+      <c r="D128" s="23" t="n">
+        <v>3.15828096269872</v>
+      </c>
+      <c r="E128" s="23" t="n">
+        <v>10.178509880474</v>
+      </c>
+      <c r="F128" s="6" t="n">
+        <v>0.346133120841927</v>
+      </c>
+      <c r="G128" s="6" t="n">
+        <v>0.677044352112377</v>
+      </c>
+      <c r="H128" s="6" t="n">
+        <v>0.378347045313363</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>206</v>
+      </c>
+      <c r="B129" t="s">
+        <v>357</v>
+      </c>
+      <c r="C129" s="23" t="n">
+        <v>5.88690079718132</v>
+      </c>
+      <c r="D129" s="23" t="n">
+        <v>4.4858610797121</v>
+      </c>
+      <c r="E129" s="23" t="n">
+        <v>10.3727618768934</v>
+      </c>
+      <c r="F129" s="6" t="n">
+        <v>0.369417017352076</v>
+      </c>
+      <c r="G129" s="6" t="n">
+        <v>0.666378496476861</v>
+      </c>
+      <c r="H129" s="6" t="n">
+        <v>0.476803558838888</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>207</v>
+      </c>
+      <c r="B130" t="s">
+        <v>358</v>
+      </c>
+      <c r="C130" s="23" t="n">
+        <v>6.07644848924459</v>
+      </c>
+      <c r="D130" s="23" t="n">
+        <v>3.81254026877744</v>
+      </c>
+      <c r="E130" s="23" t="n">
+        <v>9.88898875802203</v>
+      </c>
+      <c r="F130" s="6" t="n">
+        <v>0.285570057205227</v>
+      </c>
+      <c r="G130" s="6" t="n">
+        <v>0.726641293988756</v>
+      </c>
+      <c r="H130" s="6" t="n">
+        <v>0.320047147497977</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>208</v>
+      </c>
+      <c r="B131" t="s">
+        <v>359</v>
+      </c>
+      <c r="C131" s="23" t="n">
+        <v>7.16438142986139</v>
+      </c>
+      <c r="D131" s="23" t="n">
+        <v>6.40406706358649</v>
+      </c>
+      <c r="E131" s="23" t="n">
+        <v>13.5684484934479</v>
+      </c>
+      <c r="F131" s="6" t="n">
+        <v>0.491245631883748</v>
+      </c>
+      <c r="G131" s="6" t="n">
+        <v>0.53987149530462</v>
+      </c>
+      <c r="H131" s="6" t="n">
+        <v>0.51530899892849</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>209</v>
+      </c>
+      <c r="B132" t="s">
+        <v>360</v>
+      </c>
+      <c r="C132" s="23" t="n">
+        <v>5.50754949156204</v>
+      </c>
+      <c r="D132" s="23" t="n">
+        <v>5.97463682840804</v>
+      </c>
+      <c r="E132" s="23" t="n">
+        <v>11.4821863199701</v>
+      </c>
+      <c r="F132" s="6" t="n">
+        <v>0.415906650453128</v>
+      </c>
+      <c r="G132" s="6" t="n">
+        <v>0.610487113255163</v>
+      </c>
+      <c r="H132" s="6" t="n">
+        <v>0.431443703541266</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>210</v>
+      </c>
+      <c r="B133" t="s">
+        <v>361</v>
+      </c>
+      <c r="C133" s="23" t="n">
+        <v>7.92931539725806</v>
+      </c>
+      <c r="D133" s="23" t="n">
+        <v>5.04825532491757</v>
+      </c>
+      <c r="E133" s="23" t="n">
+        <v>12.9775707221756</v>
+      </c>
+      <c r="F133" s="6" t="n">
+        <v>0.393729616174665</v>
+      </c>
+      <c r="G133" s="6" t="n">
+        <v>0.679354440317279</v>
+      </c>
+      <c r="H133" s="6" t="n">
+        <v>0.453176479798949</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>211</v>
+      </c>
+      <c r="B134" t="s">
+        <v>362</v>
+      </c>
+      <c r="C134" s="23" t="n">
+        <v>3.52259788900032</v>
+      </c>
+      <c r="D134" s="23" t="n">
+        <v>12.4086019476035</v>
+      </c>
+      <c r="E134" s="23" t="n">
+        <v>15.9311998366038</v>
+      </c>
+      <c r="F134" s="6" t="n">
+        <v>0.576449118925679</v>
+      </c>
+      <c r="G134" s="6" t="n">
+        <v>0.423550881074321</v>
+      </c>
+      <c r="H134" s="6" t="n">
+        <v>0.576449118925679</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>212</v>
+      </c>
+      <c r="B135" t="s">
+        <v>363</v>
+      </c>
+      <c r="C135" s="23" t="n">
+        <v>4.69661908847021</v>
+      </c>
+      <c r="D135" s="23" t="n">
+        <v>3.32399901338247</v>
+      </c>
+      <c r="E135" s="23" t="n">
+        <v>8.02061810185268</v>
+      </c>
+      <c r="F135" s="6" t="n">
+        <v>0.41325206348508</v>
+      </c>
+      <c r="G135" s="6" t="n">
+        <v>0.611594101174306</v>
+      </c>
+      <c r="H135" s="6" t="n">
+        <v>0.453376212614221</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>213</v>
+      </c>
+      <c r="B136" t="s">
+        <v>364</v>
+      </c>
+      <c r="C136" s="23" t="n">
+        <v>4.95060560971506</v>
+      </c>
+      <c r="D136" s="23" t="n">
+        <v>3.29461641685173</v>
+      </c>
+      <c r="E136" s="23" t="n">
+        <v>8.24522202656679</v>
+      </c>
+      <c r="F136" s="6" t="n">
+        <v>0.31544044124802</v>
+      </c>
+      <c r="G136" s="6" t="n">
+        <v>0.696131639673707</v>
+      </c>
+      <c r="H136" s="6" t="n">
+        <v>0.337412133622945</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>214</v>
+      </c>
+      <c r="B137" t="s">
+        <v>365</v>
+      </c>
+      <c r="C137" s="23" t="n">
+        <v>4.81199518469166</v>
+      </c>
+      <c r="D137" s="23" t="n">
+        <v>8.2352652304838</v>
+      </c>
+      <c r="E137" s="23" t="n">
+        <v>13.0472604151755</v>
+      </c>
+      <c r="F137" s="6" t="n">
+        <v>0.666643624269665</v>
+      </c>
+      <c r="G137" s="6" t="n">
+        <v>0.333356375730335</v>
+      </c>
+      <c r="H137" s="6" t="n">
+        <v>0.666643624269665</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>215</v>
+      </c>
+      <c r="B138" t="s">
+        <v>366</v>
+      </c>
+      <c r="C138" s="23" t="n">
+        <v>4.83282135389165</v>
+      </c>
+      <c r="D138" s="23" t="n">
+        <v>7.15489911877195</v>
+      </c>
+      <c r="E138" s="23" t="n">
+        <v>11.9877204726636</v>
+      </c>
+      <c r="F138" s="6" t="n">
+        <v>0.578484423263465</v>
+      </c>
+      <c r="G138" s="6" t="n">
+        <v>0.439951792180023</v>
+      </c>
+      <c r="H138" s="6" t="n">
+        <v>0.586385658453531</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>216</v>
+      </c>
+      <c r="B139" t="s">
+        <v>367</v>
+      </c>
+      <c r="C139" s="23" t="n">
+        <v>4.85740262759355</v>
+      </c>
+      <c r="D139" s="23" t="n">
+        <v>3.38610771686928</v>
+      </c>
+      <c r="E139" s="23" t="n">
+        <v>8.24351034446283</v>
+      </c>
+      <c r="F139" s="6" t="n">
+        <v>0.378866980044595</v>
+      </c>
+      <c r="G139" s="6" t="n">
+        <v>0.638628256924407</v>
+      </c>
+      <c r="H139" s="6" t="n">
+        <v>0.401677768145608</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>217</v>
+      </c>
+      <c r="B140" t="s">
+        <v>368</v>
+      </c>
+      <c r="C140" s="23" t="n">
+        <v>3.98420892906336</v>
+      </c>
+      <c r="D140" s="23" t="n">
+        <v>3.56933389511511</v>
+      </c>
+      <c r="E140" s="23" t="n">
+        <v>7.55354282417847</v>
+      </c>
+      <c r="F140" s="6" t="n">
+        <v>0.460578831515045</v>
+      </c>
+      <c r="G140" s="6" t="n">
+        <v>0.582135315745006</v>
+      </c>
+      <c r="H140" s="6" t="n">
+        <v>0.481771220147501</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>218</v>
+      </c>
+      <c r="B141" t="s">
+        <v>369</v>
+      </c>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>219</v>
+      </c>
+      <c r="B142" t="s">
+        <v>370</v>
+      </c>
+      <c r="C142" s="23" t="n">
+        <v>5.92863676784904</v>
+      </c>
+      <c r="D142" s="23" t="n">
+        <v>4.96677417032357</v>
+      </c>
+      <c r="E142" s="23" t="n">
+        <v>10.8954109381726</v>
+      </c>
+      <c r="F142" s="6" t="n">
+        <v>0.449691951895939</v>
+      </c>
+      <c r="G142" s="6" t="n">
+        <v>0.564397558435375</v>
+      </c>
+      <c r="H142" s="6" t="n">
+        <v>0.463547703306771</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>220</v>
+      </c>
+      <c r="B143" t="s">
+        <v>371</v>
+      </c>
+      <c r="C143" s="23" t="n">
+        <v>5.19468313737791</v>
+      </c>
+      <c r="D143" s="23" t="n">
+        <v>6.43968486626146</v>
+      </c>
+      <c r="E143" s="23" t="n">
+        <v>11.6343680036394</v>
+      </c>
+      <c r="F143" s="6" t="n">
+        <v>0.42252104667313</v>
+      </c>
+      <c r="G143" s="6" t="n">
+        <v>0.621667404996244</v>
+      </c>
+      <c r="H143" s="6" t="n">
+        <v>0.601903349448179</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>221</v>
+      </c>
+      <c r="B144" t="s">
+        <v>372</v>
+      </c>
+      <c r="C144" s="23" t="n">
+        <v>5.00965357336393</v>
+      </c>
+      <c r="D144" s="23" t="n">
+        <v>5.62834058714285</v>
+      </c>
+      <c r="E144" s="23" t="n">
+        <v>10.6379941605068</v>
+      </c>
+      <c r="F144" s="6" t="n">
+        <v>0.494755491381209</v>
+      </c>
+      <c r="G144" s="6" t="n">
+        <v>0.534316531555262</v>
+      </c>
+      <c r="H144" s="6" t="n">
+        <v>0.525077890452515</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>222</v>
+      </c>
+      <c r="B145" t="s">
+        <v>373</v>
+      </c>
+      <c r="C145" s="23" t="n">
+        <v>4.16625252253642</v>
+      </c>
+      <c r="D145" s="23" t="n">
+        <v>2.51996085727485</v>
+      </c>
+      <c r="E145" s="23" t="n">
+        <v>6.68621337981127</v>
+      </c>
+      <c r="F145" s="6" t="n">
+        <v>0.332946888785804</v>
+      </c>
+      <c r="G145" s="6" t="n">
+        <v>0.688874497579105</v>
+      </c>
+      <c r="H145" s="6" t="n">
+        <v>0.360924908324582</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>223</v>
+      </c>
+      <c r="B146" t="s">
+        <v>374</v>
+      </c>
+      <c r="C146" s="23" t="n">
+        <v>8.97236913691323</v>
+      </c>
+      <c r="D146" s="23" t="n">
+        <v>3.30891034789791</v>
+      </c>
+      <c r="E146" s="23" t="n">
+        <v>12.2812794848111</v>
+      </c>
+      <c r="F146" s="6" t="n">
+        <v>0.292335632397123</v>
+      </c>
+      <c r="G146" s="6" t="n">
+        <v>0.737857456326104</v>
+      </c>
+      <c r="H146" s="6" t="n">
+        <v>0.310160410781469</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>224</v>
+      </c>
+      <c r="B147" t="s">
+        <v>375</v>
+      </c>
+      <c r="C147" s="23" t="n">
+        <v>5.57343938456466</v>
+      </c>
+      <c r="D147" s="23" t="n">
+        <v>6.54868821963428</v>
+      </c>
+      <c r="E147" s="23" t="n">
+        <v>12.1221276041989</v>
+      </c>
+      <c r="F147" s="6" t="n">
+        <v>0.577939159662276</v>
+      </c>
+      <c r="G147" s="6" t="n">
+        <v>0.441584625007352</v>
+      </c>
+      <c r="H147" s="6" t="n">
+        <v>0.59930512291109</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>225</v>
+      </c>
+      <c r="B148" t="s">
+        <v>376</v>
+      </c>
+      <c r="C148" s="23" t="n">
+        <v>1.09515630601437</v>
+      </c>
+      <c r="D148" s="23" t="n">
+        <v>10.829501399205</v>
+      </c>
+      <c r="E148" s="23" t="n">
+        <v>11.9246577052194</v>
+      </c>
+      <c r="F148" s="6" t="n">
+        <v>0.657906086042037</v>
+      </c>
+      <c r="G148" s="6" t="n">
+        <v>0.452711876511804</v>
+      </c>
+      <c r="H148" s="6" t="n">
+        <v>0.768524048595879</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>226</v>
+      </c>
+      <c r="B149" t="s">
+        <v>377</v>
+      </c>
+      <c r="C149" s="23" t="n">
+        <v>8.53126473537932</v>
+      </c>
+      <c r="D149" s="23" t="n">
+        <v>3.89267885056309</v>
+      </c>
+      <c r="E149" s="23" t="n">
+        <v>12.4239435859424</v>
+      </c>
+      <c r="F149" s="6" t="n">
+        <v>0.336356153007148</v>
+      </c>
+      <c r="G149" s="6" t="n">
+        <v>0.682861433072951</v>
+      </c>
+      <c r="H149" s="6" t="n">
+        <v>0.37574418127953</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>227</v>
+      </c>
+      <c r="B150" t="s">
+        <v>378</v>
+      </c>
+      <c r="C150" s="23" t="n">
+        <v>2.08459046272473</v>
+      </c>
+      <c r="D150" s="23" t="n">
+        <v>12.0194399603416</v>
+      </c>
+      <c r="E150" s="23" t="n">
+        <v>14.1040304230663</v>
+      </c>
+      <c r="F150" s="6" t="n">
+        <v>0.665390684485782</v>
+      </c>
+      <c r="G150" s="6" t="n">
+        <v>0.420500897472486</v>
+      </c>
+      <c r="H150" s="6" t="n">
+        <v>0.794228057423183</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>228</v>
+      </c>
+      <c r="B151" t="s">
+        <v>379</v>
+      </c>
+      <c r="C151" s="23" t="n">
+        <v>9.70449012105504</v>
+      </c>
+      <c r="D151" s="23" t="n">
+        <v>2.39548342131001</v>
+      </c>
+      <c r="E151" s="23" t="n">
+        <v>12.0999735423651</v>
+      </c>
+      <c r="F151" s="6" t="n">
+        <v>0.21736284878605</v>
+      </c>
+      <c r="G151" s="6" t="n">
+        <v>0.810838938511789</v>
+      </c>
+      <c r="H151" s="6" t="n">
+        <v>0.236614443332864</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>229</v>
+      </c>
+      <c r="B152" t="s">
+        <v>380</v>
+      </c>
+      <c r="C152" s="23" t="n">
+        <v>5.51800250304417</v>
+      </c>
+      <c r="D152" s="23" t="n">
+        <v>6.21757753519358</v>
+      </c>
+      <c r="E152" s="23" t="n">
+        <v>11.7355800382378</v>
+      </c>
+      <c r="F152" s="6" t="n">
+        <v>0.519585119774881</v>
+      </c>
+      <c r="G152" s="6" t="n">
+        <v>0.502723203641365</v>
+      </c>
+      <c r="H152" s="6" t="n">
+        <v>0.538603044344184</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>230</v>
+      </c>
+      <c r="B153" t="s">
+        <v>381</v>
+      </c>
+      <c r="C153" s="23" t="n">
+        <v>4.91278440313991</v>
+      </c>
+      <c r="D153" s="23" t="n">
+        <v>4.73067829949566</v>
+      </c>
+      <c r="E153" s="23" t="n">
+        <v>9.64346270263557</v>
+      </c>
+      <c r="F153" s="6" t="n">
+        <v>0.468255928517039</v>
+      </c>
+      <c r="G153" s="6" t="n">
+        <v>0.554510075209286</v>
+      </c>
+      <c r="H153" s="6" t="n">
+        <v>0.491021932243364</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="23"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="23"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="23"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="23"/>
+      <c r="D182" s="23"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="23"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="23"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="23"/>
+      <c r="D185" s="23"/>
+      <c r="E185" s="23"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="23"/>
+      <c r="D186" s="23"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="23"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="23"/>
+      <c r="D188" s="23"/>
+      <c r="E188" s="23"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="23"/>
+      <c r="D189" s="23"/>
+      <c r="E189" s="23"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="23"/>
+      <c r="D190" s="23"/>
+      <c r="E190" s="23"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="23"/>
+      <c r="D191" s="23"/>
+      <c r="E191" s="23"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="23"/>
+      <c r="D192" s="23"/>
+      <c r="E192" s="23"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="23"/>
+      <c r="D193" s="23"/>
+      <c r="E193" s="23"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="23"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="23"/>
+      <c r="D196" s="23"/>
+      <c r="E196" s="23"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="23"/>
+      <c r="D197" s="23"/>
+      <c r="E197" s="23"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="23"/>
+      <c r="D198" s="23"/>
+      <c r="E198" s="23"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="23"/>
+      <c r="D199" s="23"/>
+      <c r="E199" s="23"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="23"/>
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="23"/>
+      <c r="D201" s="23"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="23"/>
+      <c r="D202" s="23"/>
+      <c r="E202" s="23"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="23"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="23"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="23"/>
+      <c r="D204" s="23"/>
+      <c r="E204" s="23"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="23"/>
+      <c r="D205" s="23"/>
+      <c r="E205" s="23"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="23"/>
+      <c r="D206" s="23"/>
+      <c r="E206" s="23"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="23"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="23"/>
+      <c r="D208" s="23"/>
+      <c r="E208" s="23"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="23"/>
+      <c r="D209" s="23"/>
+      <c r="E209" s="23"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="23"/>
+      <c r="D210" s="23"/>
+      <c r="E210" s="23"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="23"/>
+      <c r="D211" s="23"/>
+      <c r="E211" s="23"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="23"/>
+      <c r="D212" s="23"/>
+      <c r="E212" s="23"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="23"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="23"/>
+      <c r="D214" s="23"/>
+      <c r="E214" s="23"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="23"/>
+      <c r="D215" s="23"/>
+      <c r="E215" s="23"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="23"/>
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="23"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="23"/>
+      <c r="D218" s="23"/>
+      <c r="E218" s="23"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="23"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="23"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="23"/>
+      <c r="D221" s="23"/>
+      <c r="E221" s="23"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="23"/>
+      <c r="D222" s="23"/>
+      <c r="E222" s="23"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="23"/>
+      <c r="D223" s="23"/>
+      <c r="E223" s="23"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="23"/>
+      <c r="D224" s="23"/>
+      <c r="E224" s="23"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="23"/>
+      <c r="D225" s="23"/>
+      <c r="E225" s="23"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="23"/>
+      <c r="D226" s="23"/>
+      <c r="E226" s="23"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="23"/>
+      <c r="D227" s="23"/>
+      <c r="E227" s="23"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="23"/>
+      <c r="D228" s="23"/>
+      <c r="E228" s="23"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="23"/>
+      <c r="D229" s="23"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="23"/>
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="23"/>
+      <c r="D231" s="23"/>
+      <c r="E231" s="23"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="23"/>
+      <c r="D232" s="23"/>
+      <c r="E232" s="23"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="23"/>
+      <c r="D233" s="23"/>
+      <c r="E233" s="23"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="23"/>
+      <c r="D234" s="23"/>
+      <c r="E234" s="23"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="23"/>
+      <c r="D235" s="23"/>
+      <c r="E235" s="23"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="23"/>
+      <c r="D236" s="23"/>
+      <c r="E236" s="23"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="23"/>
+      <c r="D237" s="23"/>
+      <c r="E237" s="23"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="23"/>
+      <c r="D238" s="23"/>
+      <c r="E238" s="23"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="23"/>
+      <c r="D239" s="23"/>
+      <c r="E239" s="23"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="23"/>
+      <c r="D240" s="23"/>
+      <c r="E240" s="23"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="23"/>
+      <c r="D241" s="23"/>
+      <c r="E241" s="23"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="23"/>
+      <c r="D242" s="23"/>
+      <c r="E242" s="23"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="23"/>
+      <c r="D243" s="23"/>
+      <c r="E243" s="23"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="23"/>
+      <c r="D244" s="23"/>
+      <c r="E244" s="23"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="23"/>
+      <c r="D245" s="23"/>
+      <c r="E245" s="23"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="23"/>
+      <c r="D246" s="23"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="23"/>
+      <c r="D247" s="23"/>
+      <c r="E247" s="23"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="23"/>
+      <c r="D248" s="23"/>
+      <c r="E248" s="23"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="23"/>
+      <c r="D249" s="23"/>
+      <c r="E249" s="23"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="23"/>
+      <c r="D250" s="23"/>
+      <c r="E250" s="23"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="23"/>
+      <c r="D251" s="23"/>
+      <c r="E251" s="23"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="23"/>
+      <c r="D252" s="23"/>
+      <c r="E252" s="23"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="23"/>
+      <c r="D253" s="23"/>
+      <c r="E253" s="23"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="23"/>
+      <c r="D254" s="23"/>
+      <c r="E254" s="23"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="23"/>
+      <c r="D255" s="23"/>
+      <c r="E255" s="23"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="23"/>
+      <c r="D256" s="23"/>
+      <c r="E256" s="23"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="23"/>
+      <c r="D257" s="23"/>
+      <c r="E257" s="23"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="23"/>
+      <c r="D258" s="23"/>
+      <c r="E258" s="23"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="23"/>
+      <c r="D259" s="23"/>
+      <c r="E259" s="23"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="23"/>
+      <c r="D260" s="23"/>
+      <c r="E260" s="23"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="23"/>
+      <c r="D261" s="23"/>
+      <c r="E261" s="23"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="23"/>
+      <c r="D262" s="23"/>
+      <c r="E262" s="23"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="23"/>
+      <c r="D263" s="23"/>
+      <c r="E263" s="23"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="23"/>
+      <c r="D264" s="23"/>
+      <c r="E264" s="23"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="23"/>
+      <c r="D265" s="23"/>
+      <c r="E265" s="23"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="23"/>
+      <c r="D266" s="23"/>
+      <c r="E266" s="23"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
+      <c r="H266" s="6"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="23"/>
+      <c r="D267" s="23"/>
+      <c r="E267" s="23"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="23"/>
+      <c r="D268" s="23"/>
+      <c r="E268" s="23"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="23"/>
+      <c r="D269" s="23"/>
+      <c r="E269" s="23"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="23"/>
+      <c r="D270" s="23"/>
+      <c r="E270" s="23"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="23"/>
+      <c r="D271" s="23"/>
+      <c r="E271" s="23"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="6"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="23"/>
+      <c r="D272" s="23"/>
+      <c r="E272" s="23"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="23"/>
+      <c r="D273" s="23"/>
+      <c r="E273" s="23"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="23"/>
+      <c r="D274" s="23"/>
+      <c r="E274" s="23"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="23"/>
+      <c r="D275" s="23"/>
+      <c r="E275" s="23"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="23"/>
+      <c r="D276" s="23"/>
+      <c r="E276" s="23"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="23"/>
+      <c r="D277" s="23"/>
+      <c r="E277" s="23"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="23"/>
+      <c r="D278" s="23"/>
+      <c r="E278" s="23"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="23"/>
+      <c r="D279" s="23"/>
+      <c r="E279" s="23"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="23"/>
+      <c r="D280" s="23"/>
+      <c r="E280" s="23"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="23"/>
+      <c r="D281" s="23"/>
+      <c r="E281" s="23"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="23"/>
+      <c r="D282" s="23"/>
+      <c r="E282" s="23"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="23"/>
+      <c r="D283" s="23"/>
+      <c r="E283" s="23"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="23"/>
+      <c r="D284" s="23"/>
+      <c r="E284" s="23"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="23"/>
+      <c r="D285" s="23"/>
+      <c r="E285" s="23"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="23"/>
+      <c r="D286" s="23"/>
+      <c r="E286" s="23"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="23"/>
+      <c r="D287" s="23"/>
+      <c r="E287" s="23"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
+      <c r="H287" s="6"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="23"/>
+      <c r="D288" s="23"/>
+      <c r="E288" s="23"/>
+      <c r="F288" s="6"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="23"/>
+      <c r="D289" s="23"/>
+      <c r="E289" s="23"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="23"/>
+      <c r="D290" s="23"/>
+      <c r="E290" s="23"/>
+      <c r="F290" s="6"/>
+      <c r="G290" s="6"/>
+      <c r="H290" s="6"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="23"/>
+      <c r="D291" s="23"/>
+      <c r="E291" s="23"/>
+      <c r="F291" s="6"/>
+      <c r="G291" s="6"/>
+      <c r="H291" s="6"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="23"/>
+      <c r="D292" s="23"/>
+      <c r="E292" s="23"/>
+      <c r="F292" s="6"/>
+      <c r="G292" s="6"/>
+      <c r="H292" s="6"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="23"/>
+      <c r="D293" s="23"/>
+      <c r="E293" s="23"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="6"/>
+      <c r="H293" s="6"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="23"/>
+      <c r="D294" s="23"/>
+      <c r="E294" s="23"/>
+      <c r="F294" s="6"/>
+      <c r="G294" s="6"/>
+      <c r="H294" s="6"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="23"/>
+      <c r="D295" s="23"/>
+      <c r="E295" s="23"/>
+      <c r="F295" s="6"/>
+      <c r="G295" s="6"/>
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="23"/>
+      <c r="D296" s="23"/>
+      <c r="E296" s="23"/>
+      <c r="F296" s="6"/>
+      <c r="G296" s="6"/>
+      <c r="H296" s="6"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="23"/>
+      <c r="D297" s="23"/>
+      <c r="E297" s="23"/>
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
+      <c r="H297" s="6"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="23"/>
+      <c r="D298" s="23"/>
+      <c r="E298" s="23"/>
+      <c r="F298" s="6"/>
+      <c r="G298" s="6"/>
+      <c r="H298" s="6"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="23"/>
+      <c r="D299" s="23"/>
+      <c r="E299" s="23"/>
+      <c r="F299" s="6"/>
+      <c r="G299" s="6"/>
+      <c r="H299" s="6"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="23"/>
+      <c r="D300" s="23"/>
+      <c r="E300" s="23"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="23"/>
+      <c r="D301" s="23"/>
+      <c r="E301" s="23"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="6"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="23"/>
+      <c r="D302" s="23"/>
+      <c r="E302" s="23"/>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
+      <c r="H302" s="6"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="23"/>
+      <c r="D303" s="23"/>
+      <c r="E303" s="23"/>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="6"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="23"/>
+      <c r="D304" s="23"/>
+      <c r="E304" s="23"/>
+      <c r="F304" s="6"/>
+      <c r="G304" s="6"/>
+      <c r="H304" s="6"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="23"/>
+      <c r="D305" s="23"/>
+      <c r="E305" s="23"/>
+      <c r="F305" s="6"/>
+      <c r="G305" s="6"/>
+      <c r="H305" s="6"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="23"/>
+      <c r="D306" s="23"/>
+      <c r="E306" s="23"/>
+      <c r="F306" s="6"/>
+      <c r="G306" s="6"/>
+      <c r="H306" s="6"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="23"/>
+      <c r="D307" s="23"/>
+      <c r="E307" s="23"/>
+      <c r="F307" s="6"/>
+      <c r="G307" s="6"/>
+      <c r="H307" s="6"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="23"/>
+      <c r="D308" s="23"/>
+      <c r="E308" s="23"/>
+      <c r="F308" s="6"/>
+      <c r="G308" s="6"/>
+      <c r="H308" s="6"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="23"/>
+      <c r="D309" s="23"/>
+      <c r="E309" s="23"/>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
+      <c r="H309" s="6"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="23"/>
+      <c r="D310" s="23"/>
+      <c r="E310" s="23"/>
+      <c r="F310" s="6"/>
+      <c r="G310" s="6"/>
+      <c r="H310" s="6"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="23"/>
+      <c r="D311" s="23"/>
+      <c r="E311" s="23"/>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6"/>
+      <c r="H311" s="6"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="23"/>
+      <c r="D312" s="23"/>
+      <c r="E312" s="23"/>
+      <c r="F312" s="6"/>
+      <c r="G312" s="6"/>
+      <c r="H312" s="6"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="23"/>
+      <c r="D313" s="23"/>
+      <c r="E313" s="23"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
+      <c r="H313" s="6"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="23"/>
+      <c r="D314" s="23"/>
+      <c r="E314" s="23"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
+      <c r="H314" s="6"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="23"/>
+      <c r="D315" s="23"/>
+      <c r="E315" s="23"/>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6"/>
+      <c r="H315" s="6"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="23"/>
+      <c r="D316" s="23"/>
+      <c r="E316" s="23"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
+      <c r="H316" s="6"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="23"/>
+      <c r="D317" s="23"/>
+      <c r="E317" s="23"/>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
+      <c r="H317" s="6"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="23"/>
+      <c r="D318" s="23"/>
+      <c r="E318" s="23"/>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
+      <c r="H318" s="6"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="23"/>
+      <c r="D319" s="23"/>
+      <c r="E319" s="23"/>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
+      <c r="H319" s="6"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="23"/>
+      <c r="D320" s="23"/>
+      <c r="E320" s="23"/>
+      <c r="F320" s="6"/>
+      <c r="G320" s="6"/>
+      <c r="H320" s="6"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="23"/>
+      <c r="D321" s="23"/>
+      <c r="E321" s="23"/>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6"/>
+      <c r="H321" s="6"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="23"/>
+      <c r="D322" s="23"/>
+      <c r="E322" s="23"/>
+      <c r="F322" s="6"/>
+      <c r="G322" s="6"/>
+      <c r="H322" s="6"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="23"/>
+      <c r="D323" s="23"/>
+      <c r="E323" s="23"/>
+      <c r="F323" s="6"/>
+      <c r="G323" s="6"/>
+      <c r="H323" s="6"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="23"/>
+      <c r="D324" s="23"/>
+      <c r="E324" s="23"/>
+      <c r="F324" s="6"/>
+      <c r="G324" s="6"/>
+      <c r="H324" s="6"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="23"/>
+      <c r="D325" s="23"/>
+      <c r="E325" s="23"/>
+      <c r="F325" s="6"/>
+      <c r="G325" s="6"/>
+      <c r="H325" s="6"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="23"/>
+      <c r="D326" s="23"/>
+      <c r="E326" s="23"/>
+      <c r="F326" s="6"/>
+      <c r="G326" s="6"/>
+      <c r="H326" s="6"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="23"/>
+      <c r="D327" s="23"/>
+      <c r="E327" s="23"/>
+      <c r="F327" s="6"/>
+      <c r="G327" s="6"/>
+      <c r="H327" s="6"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="23"/>
+      <c r="D328" s="23"/>
+      <c r="E328" s="23"/>
+      <c r="F328" s="6"/>
+      <c r="G328" s="6"/>
+      <c r="H328" s="6"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="23"/>
+      <c r="D329" s="23"/>
+      <c r="E329" s="23"/>
+      <c r="F329" s="6"/>
+      <c r="G329" s="6"/>
+      <c r="H329" s="6"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="23"/>
+      <c r="D330" s="23"/>
+      <c r="E330" s="23"/>
+      <c r="F330" s="6"/>
+      <c r="G330" s="6"/>
+      <c r="H330" s="6"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="23"/>
+      <c r="D331" s="23"/>
+      <c r="E331" s="23"/>
+      <c r="F331" s="6"/>
+      <c r="G331" s="6"/>
+      <c r="H331" s="6"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="23"/>
+      <c r="D332" s="23"/>
+      <c r="E332" s="23"/>
+      <c r="F332" s="6"/>
+      <c r="G332" s="6"/>
+      <c r="H332" s="6"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="23"/>
+      <c r="D333" s="23"/>
+      <c r="E333" s="23"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="6"/>
+      <c r="H333" s="6"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="23"/>
+      <c r="D334" s="23"/>
+      <c r="E334" s="23"/>
+      <c r="F334" s="6"/>
+      <c r="G334" s="6"/>
+      <c r="H334" s="6"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="23"/>
+      <c r="D335" s="23"/>
+      <c r="E335" s="23"/>
+      <c r="F335" s="6"/>
+      <c r="G335" s="6"/>
+      <c r="H335" s="6"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="23"/>
+      <c r="D336" s="23"/>
+      <c r="E336" s="23"/>
+      <c r="F336" s="6"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="6"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="23"/>
+      <c r="D337" s="23"/>
+      <c r="E337" s="23"/>
+      <c r="F337" s="6"/>
+      <c r="G337" s="6"/>
+      <c r="H337" s="6"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="23"/>
+      <c r="D338" s="23"/>
+      <c r="E338" s="23"/>
+      <c r="F338" s="6"/>
+      <c r="G338" s="6"/>
+      <c r="H338" s="6"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="23"/>
+      <c r="D339" s="23"/>
+      <c r="E339" s="23"/>
+      <c r="F339" s="6"/>
+      <c r="G339" s="6"/>
+      <c r="H339" s="6"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="23"/>
+      <c r="D340" s="23"/>
+      <c r="E340" s="23"/>
+      <c r="F340" s="6"/>
+      <c r="G340" s="6"/>
+      <c r="H340" s="6"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="23"/>
+      <c r="D341" s="23"/>
+      <c r="E341" s="23"/>
+      <c r="F341" s="6"/>
+      <c r="G341" s="6"/>
+      <c r="H341" s="6"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="23"/>
+      <c r="D342" s="23"/>
+      <c r="E342" s="23"/>
+      <c r="F342" s="6"/>
+      <c r="G342" s="6"/>
+      <c r="H342" s="6"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="23"/>
+      <c r="D343" s="23"/>
+      <c r="E343" s="23"/>
+      <c r="F343" s="6"/>
+      <c r="G343" s="6"/>
+      <c r="H343" s="6"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="23"/>
+      <c r="D344" s="23"/>
+      <c r="E344" s="23"/>
+      <c r="F344" s="6"/>
+      <c r="G344" s="6"/>
+      <c r="H344" s="6"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="23"/>
+      <c r="D345" s="23"/>
+      <c r="E345" s="23"/>
+      <c r="F345" s="6"/>
+      <c r="G345" s="6"/>
+      <c r="H345" s="6"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="23"/>
+      <c r="D346" s="23"/>
+      <c r="E346" s="23"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="6"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="23"/>
+      <c r="D347" s="23"/>
+      <c r="E347" s="23"/>
+      <c r="F347" s="6"/>
+      <c r="G347" s="6"/>
+      <c r="H347" s="6"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="23"/>
+      <c r="D348" s="23"/>
+      <c r="E348" s="23"/>
+      <c r="F348" s="6"/>
+      <c r="G348" s="6"/>
+      <c r="H348" s="6"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="23"/>
+      <c r="D349" s="23"/>
+      <c r="E349" s="23"/>
+      <c r="F349" s="6"/>
+      <c r="G349" s="6"/>
+      <c r="H349" s="6"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="23"/>
+      <c r="D350" s="23"/>
+      <c r="E350" s="23"/>
+      <c r="F350" s="6"/>
+      <c r="G350" s="6"/>
+      <c r="H350" s="6"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="23"/>
+      <c r="D351" s="23"/>
+      <c r="E351" s="23"/>
+      <c r="F351" s="6"/>
+      <c r="G351" s="6"/>
+      <c r="H351" s="6"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="23"/>
+      <c r="D352" s="23"/>
+      <c r="E352" s="23"/>
+      <c r="F352" s="6"/>
+      <c r="G352" s="6"/>
+      <c r="H352" s="6"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="23"/>
+      <c r="D353" s="23"/>
+      <c r="E353" s="23"/>
+      <c r="F353" s="6"/>
+      <c r="G353" s="6"/>
+      <c r="H353" s="6"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="23"/>
+      <c r="D354" s="23"/>
+      <c r="E354" s="23"/>
+      <c r="F354" s="6"/>
+      <c r="G354" s="6"/>
+      <c r="H354" s="6"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="23"/>
+      <c r="D355" s="23"/>
+      <c r="E355" s="23"/>
+      <c r="F355" s="6"/>
+      <c r="G355" s="6"/>
+      <c r="H355" s="6"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="23"/>
+      <c r="D356" s="23"/>
+      <c r="E356" s="23"/>
+      <c r="F356" s="6"/>
+      <c r="G356" s="6"/>
+      <c r="H356" s="6"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="23"/>
+      <c r="D357" s="23"/>
+      <c r="E357" s="23"/>
+      <c r="F357" s="6"/>
+      <c r="G357" s="6"/>
+      <c r="H357" s="6"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="23"/>
+      <c r="D358" s="23"/>
+      <c r="E358" s="23"/>
+      <c r="F358" s="6"/>
+      <c r="G358" s="6"/>
+      <c r="H358" s="6"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="23"/>
+      <c r="D359" s="23"/>
+      <c r="E359" s="23"/>
+      <c r="F359" s="6"/>
+      <c r="G359" s="6"/>
+      <c r="H359" s="6"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="23"/>
+      <c r="D360" s="23"/>
+      <c r="E360" s="23"/>
+      <c r="F360" s="6"/>
+      <c r="G360" s="6"/>
+      <c r="H360" s="6"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="23"/>
+      <c r="D361" s="23"/>
+      <c r="E361" s="23"/>
+      <c r="F361" s="6"/>
+      <c r="G361" s="6"/>
+      <c r="H361" s="6"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="23"/>
+      <c r="D362" s="23"/>
+      <c r="E362" s="23"/>
+      <c r="F362" s="6"/>
+      <c r="G362" s="6"/>
+      <c r="H362" s="6"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="23"/>
+      <c r="D363" s="23"/>
+      <c r="E363" s="23"/>
+      <c r="F363" s="6"/>
+      <c r="G363" s="6"/>
+      <c r="H363" s="6"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="23"/>
+      <c r="D364" s="23"/>
+      <c r="E364" s="23"/>
+      <c r="F364" s="6"/>
+      <c r="G364" s="6"/>
+      <c r="H364" s="6"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="23"/>
+      <c r="D365" s="23"/>
+      <c r="E365" s="23"/>
+      <c r="F365" s="6"/>
+      <c r="G365" s="6"/>
+      <c r="H365" s="6"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="23"/>
+      <c r="D366" s="23"/>
+      <c r="E366" s="23"/>
+      <c r="F366" s="6"/>
+      <c r="G366" s="6"/>
+      <c r="H366" s="6"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="23"/>
+      <c r="D367" s="23"/>
+      <c r="E367" s="23"/>
+      <c r="F367" s="6"/>
+      <c r="G367" s="6"/>
+      <c r="H367" s="6"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="23"/>
+      <c r="D368" s="23"/>
+      <c r="E368" s="23"/>
+      <c r="F368" s="6"/>
+      <c r="G368" s="6"/>
+      <c r="H368" s="6"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="23"/>
+      <c r="D369" s="23"/>
+      <c r="E369" s="23"/>
+      <c r="F369" s="6"/>
+      <c r="G369" s="6"/>
+      <c r="H369" s="6"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="23"/>
+      <c r="D370" s="23"/>
+      <c r="E370" s="23"/>
+      <c r="F370" s="6"/>
+      <c r="G370" s="6"/>
+      <c r="H370" s="6"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="23"/>
+      <c r="D371" s="23"/>
+      <c r="E371" s="23"/>
+      <c r="F371" s="6"/>
+      <c r="G371" s="6"/>
+      <c r="H371" s="6"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="23"/>
+      <c r="D372" s="23"/>
+      <c r="E372" s="23"/>
+      <c r="F372" s="6"/>
+      <c r="G372" s="6"/>
+      <c r="H372" s="6"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="23"/>
+      <c r="D373" s="23"/>
+      <c r="E373" s="23"/>
+      <c r="F373" s="6"/>
+      <c r="G373" s="6"/>
+      <c r="H373" s="6"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="23"/>
+      <c r="D374" s="23"/>
+      <c r="E374" s="23"/>
+      <c r="F374" s="6"/>
+      <c r="G374" s="6"/>
+      <c r="H374" s="6"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="23"/>
+      <c r="D375" s="23"/>
+      <c r="E375" s="23"/>
+      <c r="F375" s="6"/>
+      <c r="G375" s="6"/>
+      <c r="H375" s="6"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="23"/>
+      <c r="D376" s="23"/>
+      <c r="E376" s="23"/>
+      <c r="F376" s="6"/>
+      <c r="G376" s="6"/>
+      <c r="H376" s="6"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="23"/>
+      <c r="D377" s="23"/>
+      <c r="E377" s="23"/>
+      <c r="F377" s="6"/>
+      <c r="G377" s="6"/>
+      <c r="H377" s="6"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="23"/>
+      <c r="D378" s="23"/>
+      <c r="E378" s="23"/>
+      <c r="F378" s="6"/>
+      <c r="G378" s="6"/>
+      <c r="H378" s="6"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="23"/>
+      <c r="D379" s="23"/>
+      <c r="E379" s="23"/>
+      <c r="F379" s="6"/>
+      <c r="G379" s="6"/>
+      <c r="H379" s="6"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="23"/>
+      <c r="D380" s="23"/>
+      <c r="E380" s="23"/>
+      <c r="F380" s="6"/>
+      <c r="G380" s="6"/>
+      <c r="H380" s="6"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="23"/>
+      <c r="D381" s="23"/>
+      <c r="E381" s="23"/>
+      <c r="F381" s="6"/>
+      <c r="G381" s="6"/>
+      <c r="H381" s="6"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="23"/>
+      <c r="D382" s="23"/>
+      <c r="E382" s="23"/>
+      <c r="F382" s="6"/>
+      <c r="G382" s="6"/>
+      <c r="H382" s="6"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="23"/>
+      <c r="D383" s="23"/>
+      <c r="E383" s="23"/>
+      <c r="F383" s="6"/>
+      <c r="G383" s="6"/>
+      <c r="H383" s="6"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="23"/>
+      <c r="D384" s="23"/>
+      <c r="E384" s="23"/>
+      <c r="F384" s="6"/>
+      <c r="G384" s="6"/>
+      <c r="H384" s="6"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="23"/>
+      <c r="D385" s="23"/>
+      <c r="E385" s="23"/>
+      <c r="F385" s="6"/>
+      <c r="G385" s="6"/>
+      <c r="H385" s="6"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="23"/>
+      <c r="D386" s="23"/>
+      <c r="E386" s="23"/>
+      <c r="F386" s="6"/>
+      <c r="G386" s="6"/>
+      <c r="H386" s="6"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="23"/>
+      <c r="D387" s="23"/>
+      <c r="E387" s="23"/>
+      <c r="F387" s="6"/>
+      <c r="G387" s="6"/>
+      <c r="H387" s="6"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="23"/>
+      <c r="D388" s="23"/>
+      <c r="E388" s="23"/>
+      <c r="F388" s="6"/>
+      <c r="G388" s="6"/>
+      <c r="H388" s="6"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="23"/>
+      <c r="D389" s="23"/>
+      <c r="E389" s="23"/>
+      <c r="F389" s="6"/>
+      <c r="G389" s="6"/>
+      <c r="H389" s="6"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="23"/>
+      <c r="D390" s="23"/>
+      <c r="E390" s="23"/>
+      <c r="F390" s="6"/>
+      <c r="G390" s="6"/>
+      <c r="H390" s="6"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="23"/>
+      <c r="D391" s="23"/>
+      <c r="E391" s="23"/>
+      <c r="F391" s="6"/>
+      <c r="G391" s="6"/>
+      <c r="H391" s="6"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="23"/>
+      <c r="D392" s="23"/>
+      <c r="E392" s="23"/>
+      <c r="F392" s="6"/>
+      <c r="G392" s="6"/>
+      <c r="H392" s="6"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="23"/>
+      <c r="D393" s="23"/>
+      <c r="E393" s="23"/>
+      <c r="F393" s="6"/>
+      <c r="G393" s="6"/>
+      <c r="H393" s="6"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="23"/>
+      <c r="D394" s="23"/>
+      <c r="E394" s="23"/>
+      <c r="F394" s="6"/>
+      <c r="G394" s="6"/>
+      <c r="H394" s="6"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="23"/>
+      <c r="D395" s="23"/>
+      <c r="E395" s="23"/>
+      <c r="F395" s="6"/>
+      <c r="G395" s="6"/>
+      <c r="H395" s="6"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="23"/>
+      <c r="D396" s="23"/>
+      <c r="E396" s="23"/>
+      <c r="F396" s="6"/>
+      <c r="G396" s="6"/>
+      <c r="H396" s="6"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="23"/>
+      <c r="D397" s="23"/>
+      <c r="E397" s="23"/>
+      <c r="F397" s="6"/>
+      <c r="G397" s="6"/>
+      <c r="H397" s="6"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="23"/>
+      <c r="D398" s="23"/>
+      <c r="E398" s="23"/>
+      <c r="F398" s="6"/>
+      <c r="G398" s="6"/>
+      <c r="H398" s="6"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="23"/>
+      <c r="D399" s="23"/>
+      <c r="E399" s="23"/>
+      <c r="F399" s="6"/>
+      <c r="G399" s="6"/>
+      <c r="H399" s="6"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="23"/>
+      <c r="D400" s="23"/>
+      <c r="E400" s="23"/>
+      <c r="F400" s="6"/>
+      <c r="G400" s="6"/>
+      <c r="H400" s="6"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="23"/>
+      <c r="D401" s="23"/>
+      <c r="E401" s="23"/>
+      <c r="F401" s="6"/>
+      <c r="G401" s="6"/>
+      <c r="H401" s="6"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="23"/>
+      <c r="D402" s="23"/>
+      <c r="E402" s="23"/>
+      <c r="F402" s="6"/>
+      <c r="G402" s="6"/>
+      <c r="H402" s="6"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="23"/>
+      <c r="D403" s="23"/>
+      <c r="E403" s="23"/>
+      <c r="F403" s="6"/>
+      <c r="G403" s="6"/>
+      <c r="H403" s="6"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="23"/>
+      <c r="D404" s="23"/>
+      <c r="E404" s="23"/>
+      <c r="F404" s="6"/>
+      <c r="G404" s="6"/>
+      <c r="H404" s="6"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="23"/>
+      <c r="D405" s="23"/>
+      <c r="E405" s="23"/>
+      <c r="F405" s="6"/>
+      <c r="G405" s="6"/>
+      <c r="H405" s="6"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="23"/>
+      <c r="D406" s="23"/>
+      <c r="E406" s="23"/>
+      <c r="F406" s="6"/>
+      <c r="G406" s="6"/>
+      <c r="H406" s="6"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="23"/>
+      <c r="D407" s="23"/>
+      <c r="E407" s="23"/>
+      <c r="F407" s="6"/>
+      <c r="G407" s="6"/>
+      <c r="H407" s="6"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="23"/>
+      <c r="D408" s="23"/>
+      <c r="E408" s="23"/>
+      <c r="F408" s="6"/>
+      <c r="G408" s="6"/>
+      <c r="H408" s="6"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="23"/>
+      <c r="D409" s="23"/>
+      <c r="E409" s="23"/>
+      <c r="F409" s="6"/>
+      <c r="G409" s="6"/>
+      <c r="H409" s="6"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="23"/>
+      <c r="D410" s="23"/>
+      <c r="E410" s="23"/>
+      <c r="F410" s="6"/>
+      <c r="G410" s="6"/>
+      <c r="H410" s="6"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="23"/>
+      <c r="D411" s="23"/>
+      <c r="E411" s="23"/>
+      <c r="F411" s="6"/>
+      <c r="G411" s="6"/>
+      <c r="H411" s="6"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="23"/>
+      <c r="D412" s="23"/>
+      <c r="E412" s="23"/>
+      <c r="F412" s="6"/>
+      <c r="G412" s="6"/>
+      <c r="H412" s="6"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="23"/>
+      <c r="D413" s="23"/>
+      <c r="E413" s="23"/>
+      <c r="F413" s="6"/>
+      <c r="G413" s="6"/>
+      <c r="H413" s="6"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="23"/>
+      <c r="D414" s="23"/>
+      <c r="E414" s="23"/>
+      <c r="F414" s="6"/>
+      <c r="G414" s="6"/>
+      <c r="H414" s="6"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="23"/>
+      <c r="D415" s="23"/>
+      <c r="E415" s="23"/>
+      <c r="F415" s="6"/>
+      <c r="G415" s="6"/>
+      <c r="H415" s="6"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="23"/>
+      <c r="D416" s="23"/>
+      <c r="E416" s="23"/>
+      <c r="F416" s="6"/>
+      <c r="G416" s="6"/>
+      <c r="H416" s="6"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="23"/>
+      <c r="D417" s="23"/>
+      <c r="E417" s="23"/>
+      <c r="F417" s="6"/>
+      <c r="G417" s="6"/>
+      <c r="H417" s="6"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="23"/>
+      <c r="D418" s="23"/>
+      <c r="E418" s="23"/>
+      <c r="F418" s="6"/>
+      <c r="G418" s="6"/>
+      <c r="H418" s="6"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="23"/>
+      <c r="D419" s="23"/>
+      <c r="E419" s="23"/>
+      <c r="F419" s="6"/>
+      <c r="G419" s="6"/>
+      <c r="H419" s="6"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="23"/>
+      <c r="D420" s="23"/>
+      <c r="E420" s="23"/>
+      <c r="F420" s="6"/>
+      <c r="G420" s="6"/>
+      <c r="H420" s="6"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="23"/>
+      <c r="D421" s="23"/>
+      <c r="E421" s="23"/>
+      <c r="F421" s="6"/>
+      <c r="G421" s="6"/>
+      <c r="H421" s="6"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="23"/>
+      <c r="D422" s="23"/>
+      <c r="E422" s="23"/>
+      <c r="F422" s="6"/>
+      <c r="G422" s="6"/>
+      <c r="H422" s="6"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="23"/>
+      <c r="D423" s="23"/>
+      <c r="E423" s="23"/>
+      <c r="F423" s="6"/>
+      <c r="G423" s="6"/>
+      <c r="H423" s="6"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="23"/>
+      <c r="D424" s="23"/>
+      <c r="E424" s="23"/>
+      <c r="F424" s="6"/>
+      <c r="G424" s="6"/>
+      <c r="H424" s="6"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="23"/>
+      <c r="D425" s="23"/>
+      <c r="E425" s="23"/>
+      <c r="F425" s="6"/>
+      <c r="G425" s="6"/>
+      <c r="H425" s="6"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="23"/>
+      <c r="D426" s="23"/>
+      <c r="E426" s="23"/>
+      <c r="F426" s="6"/>
+      <c r="G426" s="6"/>
+      <c r="H426" s="6"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="23"/>
+      <c r="D427" s="23"/>
+      <c r="E427" s="23"/>
+      <c r="F427" s="6"/>
+      <c r="G427" s="6"/>
+      <c r="H427" s="6"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="23"/>
+      <c r="D428" s="23"/>
+      <c r="E428" s="23"/>
+      <c r="F428" s="6"/>
+      <c r="G428" s="6"/>
+      <c r="H428" s="6"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="23"/>
+      <c r="D429" s="23"/>
+      <c r="E429" s="23"/>
+      <c r="F429" s="6"/>
+      <c r="G429" s="6"/>
+      <c r="H429" s="6"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="23"/>
+      <c r="D430" s="23"/>
+      <c r="E430" s="23"/>
+      <c r="F430" s="6"/>
+      <c r="G430" s="6"/>
+      <c r="H430" s="6"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="23"/>
+      <c r="D431" s="23"/>
+      <c r="E431" s="23"/>
+      <c r="F431" s="6"/>
+      <c r="G431" s="6"/>
+      <c r="H431" s="6"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="23"/>
+      <c r="D432" s="23"/>
+      <c r="E432" s="23"/>
+      <c r="F432" s="6"/>
+      <c r="G432" s="6"/>
+      <c r="H432" s="6"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="23"/>
+      <c r="D433" s="23"/>
+      <c r="E433" s="23"/>
+      <c r="F433" s="6"/>
+      <c r="G433" s="6"/>
+      <c r="H433" s="6"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="23"/>
+      <c r="D434" s="23"/>
+      <c r="E434" s="23"/>
+      <c r="F434" s="6"/>
+      <c r="G434" s="6"/>
+      <c r="H434" s="6"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="23"/>
+      <c r="D435" s="23"/>
+      <c r="E435" s="23"/>
+      <c r="F435" s="6"/>
+      <c r="G435" s="6"/>
+      <c r="H435" s="6"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="23"/>
+      <c r="D436" s="23"/>
+      <c r="E436" s="23"/>
+      <c r="F436" s="6"/>
+      <c r="G436" s="6"/>
+      <c r="H436" s="6"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="23"/>
+      <c r="D437" s="23"/>
+      <c r="E437" s="23"/>
+      <c r="F437" s="6"/>
+      <c r="G437" s="6"/>
+      <c r="H437" s="6"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="23"/>
+      <c r="D438" s="23"/>
+      <c r="E438" s="23"/>
+      <c r="F438" s="6"/>
+      <c r="G438" s="6"/>
+      <c r="H438" s="6"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="23"/>
+      <c r="D439" s="23"/>
+      <c r="E439" s="23"/>
+      <c r="F439" s="6"/>
+      <c r="G439" s="6"/>
+      <c r="H439" s="6"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="23"/>
+      <c r="D440" s="23"/>
+      <c r="E440" s="23"/>
+      <c r="F440" s="6"/>
+      <c r="G440" s="6"/>
+      <c r="H440" s="6"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="23"/>
+      <c r="D441" s="23"/>
+      <c r="E441" s="23"/>
+      <c r="F441" s="6"/>
+      <c r="G441" s="6"/>
+      <c r="H441" s="6"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="23"/>
+      <c r="D442" s="23"/>
+      <c r="E442" s="23"/>
+      <c r="F442" s="6"/>
+      <c r="G442" s="6"/>
+      <c r="H442" s="6"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="23"/>
+      <c r="D443" s="23"/>
+      <c r="E443" s="23"/>
+      <c r="F443" s="6"/>
+      <c r="G443" s="6"/>
+      <c r="H443" s="6"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="23"/>
+      <c r="D444" s="23"/>
+      <c r="E444" s="23"/>
+      <c r="F444" s="6"/>
+      <c r="G444" s="6"/>
+      <c r="H444" s="6"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="23"/>
+      <c r="D445" s="23"/>
+      <c r="E445" s="23"/>
+      <c r="F445" s="6"/>
+      <c r="G445" s="6"/>
+      <c r="H445" s="6"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="23"/>
+      <c r="D446" s="23"/>
+      <c r="E446" s="23"/>
+      <c r="F446" s="6"/>
+      <c r="G446" s="6"/>
+      <c r="H446" s="6"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="23"/>
+      <c r="D447" s="23"/>
+      <c r="E447" s="23"/>
+      <c r="F447" s="6"/>
+      <c r="G447" s="6"/>
+      <c r="H447" s="6"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="23"/>
+      <c r="D448" s="23"/>
+      <c r="E448" s="23"/>
+      <c r="F448" s="6"/>
+      <c r="G448" s="6"/>
+      <c r="H448" s="6"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="23"/>
+      <c r="D449" s="23"/>
+      <c r="E449" s="23"/>
+      <c r="F449" s="6"/>
+      <c r="G449" s="6"/>
+      <c r="H449" s="6"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="23"/>
+      <c r="D450" s="23"/>
+      <c r="E450" s="23"/>
+      <c r="F450" s="6"/>
+      <c r="G450" s="6"/>
+      <c r="H450" s="6"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="23"/>
+      <c r="D451" s="23"/>
+      <c r="E451" s="23"/>
+      <c r="F451" s="6"/>
+      <c r="G451" s="6"/>
+      <c r="H451" s="6"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="23"/>
+      <c r="D452" s="23"/>
+      <c r="E452" s="23"/>
+      <c r="F452" s="6"/>
+      <c r="G452" s="6"/>
+      <c r="H452" s="6"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="23"/>
+      <c r="D453" s="23"/>
+      <c r="E453" s="23"/>
+      <c r="F453" s="6"/>
+      <c r="G453" s="6"/>
+      <c r="H453" s="6"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="23"/>
+      <c r="D454" s="23"/>
+      <c r="E454" s="23"/>
+      <c r="F454" s="6"/>
+      <c r="G454" s="6"/>
+      <c r="H454" s="6"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="23"/>
+      <c r="D455" s="23"/>
+      <c r="E455" s="23"/>
+      <c r="F455" s="6"/>
+      <c r="G455" s="6"/>
+      <c r="H455" s="6"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="23"/>
+      <c r="D456" s="23"/>
+      <c r="E456" s="23"/>
+      <c r="F456" s="6"/>
+      <c r="G456" s="6"/>
+      <c r="H456" s="6"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="23"/>
+      <c r="D457" s="23"/>
+      <c r="E457" s="23"/>
+      <c r="F457" s="6"/>
+      <c r="G457" s="6"/>
+      <c r="H457" s="6"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="23"/>
+      <c r="D458" s="23"/>
+      <c r="E458" s="23"/>
+      <c r="F458" s="6"/>
+      <c r="G458" s="6"/>
+      <c r="H458" s="6"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="23"/>
+      <c r="D459" s="23"/>
+      <c r="E459" s="23"/>
+      <c r="F459" s="6"/>
+      <c r="G459" s="6"/>
+      <c r="H459" s="6"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="23"/>
+      <c r="D460" s="23"/>
+      <c r="E460" s="23"/>
+      <c r="F460" s="6"/>
+      <c r="G460" s="6"/>
+      <c r="H460" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -9589,16 +16050,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9708,7 +16169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -9716,7 +16177,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -9729,30 +16190,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" ht="44.1" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B3" t="n">
         <v>64.83</v>
@@ -9760,33 +16221,33 @@
       <c r="C3" t="n">
         <v>12.07</v>
       </c>
-      <c r="D3" s="24" t="n">
+      <c r="D3" s="25" t="n">
         <v>1896.158</v>
       </c>
-      <c r="E3" s="24" t="n">
+      <c r="E3" s="25" t="n">
         <v>1763.427</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B4" t="n">
         <v>62.29</v>
       </c>
       <c r="C4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="D4" s="24" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="D4" s="25" t="n">
         <v>2146.268</v>
       </c>
-      <c r="E4" s="24" t="n">
+      <c r="E4" s="25" t="n">
         <v>1996.029</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B5" t="n">
         <v>60.6</v>
@@ -9794,16 +16255,16 @@
       <c r="C5" t="n">
         <v>10.04</v>
       </c>
-      <c r="D5" s="24" t="n">
+      <c r="D5" s="25" t="n">
         <v>2826.173</v>
       </c>
-      <c r="E5" s="24" t="n">
+      <c r="E5" s="25" t="n">
         <v>2628.341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B6" t="n">
         <v>70.9</v>
@@ -9811,16 +16272,16 @@
       <c r="C6" t="n">
         <v>15.17</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="25" t="n">
         <v>1161.177</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="25" t="n">
         <v>1079.895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B7" t="n">
         <v>70.54</v>
@@ -9828,33 +16289,33 @@
       <c r="C7" t="n">
         <v>14.93</v>
       </c>
-      <c r="D7" s="24" t="n">
+      <c r="D7" s="25" t="n">
         <v>2864.323</v>
       </c>
-      <c r="E7" s="24" t="n">
+      <c r="E7" s="25" t="n">
         <v>2663.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B8" t="n">
         <v>62.07</v>
       </c>
       <c r="C8" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="D8" s="24" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="D8" s="25" t="n">
         <v>2689.582</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="25" t="n">
         <v>2501.311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B9" t="n">
         <v>53.89</v>
@@ -9862,16 +16323,16 @@
       <c r="C9" t="n">
         <v>10.2</v>
       </c>
-      <c r="D9" s="24" t="n">
+      <c r="D9" s="25" t="n">
         <v>1759.481</v>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="25" t="n">
         <v>1636.317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B10" t="n">
         <v>64.65</v>
@@ -9879,16 +16340,16 @@
       <c r="C10" t="n">
         <v>13.26</v>
       </c>
-      <c r="D10" s="24" t="n">
+      <c r="D10" s="25" t="n">
         <v>2159.375</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="25" t="n">
         <v>2008.219</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B11" t="n">
         <v>62.6</v>
@@ -9896,32 +16357,41 @@
       <c r="C11" t="n">
         <v>12.66</v>
       </c>
-      <c r="D11" s="24" t="n">
+      <c r="D11" s="25" t="n">
         <v>2162.999</v>
       </c>
-      <c r="E11" s="24" t="n">
+      <c r="E11" s="25" t="n">
         <v>2011.589</v>
       </c>
     </row>
-    <row r="12">
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="C12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <f>SUM(D3:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="26" t="n">
+        <f>SUM(E3:E11)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14">
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15">
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16">
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9929,7 +16399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -9950,30 +16420,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" ht="44.1" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B3" t="n">
         <v>99.94</v>
@@ -9981,16 +16451,16 @@
       <c r="C3" t="n">
         <v>21.74</v>
       </c>
-      <c r="D3" s="24" t="n">
+      <c r="D3" s="25" t="n">
         <v>77.956</v>
       </c>
-      <c r="E3" s="24" t="n">
+      <c r="E3" s="25" t="n">
         <v>72.499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B4" t="n">
         <v>89.3</v>
@@ -9998,16 +16468,16 @@
       <c r="C4" t="n">
         <v>20.23</v>
       </c>
-      <c r="D4" s="24" t="n">
+      <c r="D4" s="25" t="n">
         <v>178.492</v>
       </c>
-      <c r="E4" s="24" t="n">
+      <c r="E4" s="25" t="n">
         <v>165.998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B5" t="n">
         <v>134.15</v>
@@ -10015,16 +16485,16 @@
       <c r="C5" t="n">
         <v>19.38</v>
       </c>
-      <c r="D5" s="24" t="n">
+      <c r="D5" s="25" t="n">
         <v>76.717</v>
       </c>
-      <c r="E5" s="24" t="n">
+      <c r="E5" s="25" t="n">
         <v>71.347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B6" t="n">
         <v>81.62</v>
@@ -10032,16 +16502,16 @@
       <c r="C6" t="n">
         <v>19.36</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="25" t="n">
         <v>60.181</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="25" t="n">
         <v>55.968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B7" t="n">
         <v>81.16</v>
@@ -10049,16 +16519,16 @@
       <c r="C7" t="n">
         <v>18.9</v>
       </c>
-      <c r="D7" s="24" t="n">
+      <c r="D7" s="25" t="n">
         <v>78.407</v>
       </c>
-      <c r="E7" s="24" t="n">
+      <c r="E7" s="25" t="n">
         <v>72.919</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B8" t="n">
         <v>85.1</v>
@@ -10066,16 +16536,16 @@
       <c r="C8" t="n">
         <v>18.19</v>
       </c>
-      <c r="D8" s="24" t="n">
+      <c r="D8" s="25" t="n">
         <v>153.887</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="25" t="n">
         <v>143.115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B9" t="n">
         <v>73.18</v>
@@ -10083,16 +16553,16 @@
       <c r="C9" t="n">
         <v>18.19</v>
       </c>
-      <c r="D9" s="24" t="n">
+      <c r="D9" s="25" t="n">
         <v>143.654</v>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="25" t="n">
         <v>133.598</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B10" t="n">
         <v>70.1</v>
@@ -10100,16 +16570,16 @@
       <c r="C10" t="n">
         <v>17.37</v>
       </c>
-      <c r="D10" s="24" t="n">
+      <c r="D10" s="25" t="n">
         <v>60.81</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="25" t="n">
         <v>56.553</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B11" t="n">
         <v>78.94</v>
@@ -10117,16 +16587,16 @@
       <c r="C11" t="n">
         <v>17.04</v>
       </c>
-      <c r="D11" s="24" t="n">
+      <c r="D11" s="25" t="n">
         <v>130.556</v>
       </c>
-      <c r="E11" s="24" t="n">
+      <c r="E11" s="25" t="n">
         <v>121.417</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B12" t="n">
         <v>78.62</v>
@@ -10134,32 +16604,32 @@
       <c r="C12" t="n">
         <v>16.97</v>
       </c>
-      <c r="D12" s="24" t="n">
+      <c r="D12" s="25" t="n">
         <v>129.864</v>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="25" t="n">
         <v>120.774</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14">
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15">
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16">
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17">
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/summary_table_5.xlsx
+++ b/output/summary_table_5.xlsx
@@ -1750,7 +1750,7 @@
         <v>61</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7">
@@ -1770,7 +1770,7 @@
         <v>53</v>
       </c>
       <c r="G7" s="9" t="n">
-        <v>51.6</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="8">
@@ -1824,7 +1824,7 @@
         <v>68</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4547</v>
+        <v>0.4898</v>
       </c>
     </row>
     <row r="11">
@@ -1844,7 +1844,7 @@
         <v>69</v>
       </c>
       <c r="G11" s="10" t="n">
-        <v>3176</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +1860,7 @@
     </row>
     <row r="13">
       <c r="H13" s="10" t="n">
-        <v>14535</v>
+        <v>14307</v>
       </c>
     </row>
     <row r="15">
@@ -1895,7 +1895,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>2.632</v>
+        <v>2.591</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -2014,7 +2014,7 @@
         <v>231</v>
       </c>
       <c r="C3" t="n">
-        <v>61.58</v>
+        <v>60.62</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -2035,16 +2035,16 @@
         <v>26982</v>
       </c>
       <c r="J3" t="n">
-        <v>1662</v>
+        <v>1636</v>
       </c>
       <c r="K3" s="14" t="n">
-        <v>86.404</v>
+        <v>85.048</v>
       </c>
       <c r="L3" t="n">
         <v>495</v>
       </c>
       <c r="M3" t="n">
-        <v>12.45</v>
+        <v>12.25</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
@@ -2058,7 +2058,7 @@
         <v>232</v>
       </c>
       <c r="C4" t="n">
-        <v>62.38</v>
+        <v>61.4</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
@@ -2079,16 +2079,16 @@
         <v>33648</v>
       </c>
       <c r="J4" t="n">
-        <v>2099</v>
+        <v>2066</v>
       </c>
       <c r="K4" s="14" t="n">
-        <v>109.144</v>
+        <v>107.432</v>
       </c>
       <c r="L4" t="n">
         <v>633</v>
       </c>
       <c r="M4" t="n">
-        <v>9.85</v>
+        <v>9.7</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
@@ -2102,7 +2102,7 @@
         <v>233</v>
       </c>
       <c r="C5" t="n">
-        <v>44.85</v>
+        <v>44.14</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -2123,16 +2123,16 @@
         <v>35804</v>
       </c>
       <c r="J5" t="n">
-        <v>1606</v>
+        <v>1581</v>
       </c>
       <c r="K5" s="14" t="n">
-        <v>83.497</v>
+        <v>82.187</v>
       </c>
       <c r="L5" t="n">
         <v>506</v>
       </c>
       <c r="M5" t="n">
-        <v>8.87</v>
+        <v>8.73</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
@@ -2146,7 +2146,7 @@
         <v>234</v>
       </c>
       <c r="C6" t="n">
-        <v>43.67</v>
+        <v>42.99</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -2167,16 +2167,16 @@
         <v>20484</v>
       </c>
       <c r="J6" t="n">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="K6" s="14" t="n">
-        <v>46.52</v>
+        <v>45.79</v>
       </c>
       <c r="L6" t="n">
         <v>574</v>
       </c>
       <c r="M6" t="n">
-        <v>7.6</v>
+        <v>7.48</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -2190,7 +2190,7 @@
         <v>235</v>
       </c>
       <c r="C7" t="n">
-        <v>44.36</v>
+        <v>43.67</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -2211,16 +2211,16 @@
         <v>14262</v>
       </c>
       <c r="J7" t="n">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="K7" s="14" t="n">
-        <v>32.902</v>
+        <v>32.386</v>
       </c>
       <c r="L7" t="n">
         <v>574</v>
       </c>
       <c r="M7" t="n">
-        <v>7.73</v>
+        <v>7.61</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -2234,7 +2234,7 @@
         <v>236</v>
       </c>
       <c r="C8" t="n">
-        <v>66.59</v>
+        <v>65.55</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -2255,16 +2255,16 @@
         <v>27084</v>
       </c>
       <c r="J8" t="n">
-        <v>1804</v>
+        <v>1775</v>
       </c>
       <c r="K8" s="14" t="n">
-        <v>93.786</v>
+        <v>92.315</v>
       </c>
       <c r="L8" t="n">
         <v>623</v>
       </c>
       <c r="M8" t="n">
-        <v>10.69</v>
+        <v>10.53</v>
       </c>
       <c r="N8" t="n">
         <v>4</v>
@@ -2278,7 +2278,7 @@
         <v>237</v>
       </c>
       <c r="C9" t="n">
-        <v>66.54</v>
+        <v>65.49</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -2299,16 +2299,16 @@
         <v>126363</v>
       </c>
       <c r="J9" t="n">
-        <v>8408</v>
+        <v>8276</v>
       </c>
       <c r="K9" s="14" t="n">
-        <v>437.214</v>
+        <v>430.356</v>
       </c>
       <c r="L9" t="n">
         <v>434</v>
       </c>
       <c r="M9" t="n">
-        <v>15.32</v>
+        <v>15.08</v>
       </c>
       <c r="N9" t="n">
         <v>9</v>
@@ -2322,7 +2322,7 @@
         <v>238</v>
       </c>
       <c r="C10" t="n">
-        <v>68.71</v>
+        <v>67.63</v>
       </c>
       <c r="D10" t="n">
         <v>7</v>
@@ -2343,16 +2343,16 @@
         <v>17197</v>
       </c>
       <c r="J10" t="n">
-        <v>1182</v>
+        <v>1163</v>
       </c>
       <c r="K10" s="14" t="n">
-        <v>61.439</v>
+        <v>60.475</v>
       </c>
       <c r="L10" t="n">
         <v>422</v>
       </c>
       <c r="M10" t="n">
-        <v>16.29</v>
+        <v>16.03</v>
       </c>
       <c r="N10" t="n">
         <v>9</v>
@@ -2366,7 +2366,7 @@
         <v>239</v>
       </c>
       <c r="C11" t="n">
-        <v>60.78</v>
+        <v>59.82</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -2387,16 +2387,16 @@
         <v>25797</v>
       </c>
       <c r="J11" t="n">
-        <v>1568</v>
+        <v>1543</v>
       </c>
       <c r="K11" s="14" t="n">
-        <v>81.526</v>
+        <v>80.248</v>
       </c>
       <c r="L11" t="n">
         <v>377</v>
       </c>
       <c r="M11" t="n">
-        <v>16.11</v>
+        <v>15.86</v>
       </c>
       <c r="N11" t="n">
         <v>9</v>
@@ -2410,7 +2410,7 @@
         <v>240</v>
       </c>
       <c r="C12" t="n">
-        <v>85.1</v>
+        <v>83.77</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
@@ -2431,16 +2431,16 @@
         <v>34774</v>
       </c>
       <c r="J12" t="n">
-        <v>2959</v>
+        <v>2913</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>153.887</v>
+        <v>151.473</v>
       </c>
       <c r="L12" t="n">
         <v>468</v>
       </c>
       <c r="M12" t="n">
-        <v>18.19</v>
+        <v>17.9</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
@@ -2454,7 +2454,7 @@
         <v>241</v>
       </c>
       <c r="C13" t="n">
-        <v>55.64</v>
+        <v>54.77</v>
       </c>
       <c r="D13" t="n">
         <v>3</v>
@@ -2475,16 +2475,16 @@
         <v>44330</v>
       </c>
       <c r="J13" t="n">
-        <v>2467</v>
+        <v>2428</v>
       </c>
       <c r="K13" s="14" t="n">
-        <v>128.268</v>
+        <v>126.256</v>
       </c>
       <c r="L13" t="n">
         <v>508</v>
       </c>
       <c r="M13" t="n">
-        <v>10.95</v>
+        <v>10.78</v>
       </c>
       <c r="N13" t="n">
         <v>5</v>
@@ -2498,7 +2498,7 @@
         <v>242</v>
       </c>
       <c r="C14" t="n">
-        <v>55.03</v>
+        <v>54.17</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -2519,16 +2519,16 @@
         <v>11170</v>
       </c>
       <c r="J14" t="n">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="K14" s="14" t="n">
-        <v>31.964</v>
+        <v>31.463</v>
       </c>
       <c r="L14" t="n">
         <v>604</v>
       </c>
       <c r="M14" t="n">
-        <v>9.1</v>
+        <v>8.96</v>
       </c>
       <c r="N14" t="n">
         <v>2</v>
@@ -2542,7 +2542,7 @@
         <v>243</v>
       </c>
       <c r="C15" t="n">
-        <v>67.05</v>
+        <v>65.99</v>
       </c>
       <c r="D15" t="n">
         <v>7</v>
@@ -2563,16 +2563,16 @@
         <v>65583</v>
       </c>
       <c r="J15" t="n">
-        <v>4397</v>
+        <v>4328</v>
       </c>
       <c r="K15" s="14" t="n">
-        <v>228.648</v>
+        <v>225.061</v>
       </c>
       <c r="L15" t="n">
         <v>430</v>
       </c>
       <c r="M15" t="n">
-        <v>15.58</v>
+        <v>15.34</v>
       </c>
       <c r="N15" t="n">
         <v>9</v>
@@ -2586,7 +2586,7 @@
         <v>244</v>
       </c>
       <c r="C16" t="n">
-        <v>65.17</v>
+        <v>64.15</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -2607,16 +2607,16 @@
         <v>26046</v>
       </c>
       <c r="J16" t="n">
-        <v>1697</v>
+        <v>1671</v>
       </c>
       <c r="K16" s="14" t="n">
-        <v>88.266</v>
+        <v>86.881</v>
       </c>
       <c r="L16" t="n">
         <v>530</v>
       </c>
       <c r="M16" t="n">
-        <v>12.29</v>
+        <v>12.09</v>
       </c>
       <c r="N16" t="n">
         <v>6</v>
@@ -2630,7 +2630,7 @@
         <v>245</v>
       </c>
       <c r="C17" t="n">
-        <v>50.86</v>
+        <v>50.06</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -2651,16 +2651,16 @@
         <v>42107</v>
       </c>
       <c r="J17" t="n">
-        <v>2142</v>
+        <v>2108</v>
       </c>
       <c r="K17" s="14" t="n">
-        <v>111.359</v>
+        <v>109.613</v>
       </c>
       <c r="L17" t="n">
         <v>575</v>
       </c>
       <c r="M17" t="n">
-        <v>8.85</v>
+        <v>8.71</v>
       </c>
       <c r="N17" t="n">
         <v>2</v>
@@ -2674,7 +2674,7 @@
         <v>246</v>
       </c>
       <c r="C18" t="n">
-        <v>50.43</v>
+        <v>49.64</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -2695,16 +2695,16 @@
         <v>66358</v>
       </c>
       <c r="J18" t="n">
-        <v>3347</v>
+        <v>3294</v>
       </c>
       <c r="K18" s="14" t="n">
-        <v>174.02</v>
+        <v>171.29</v>
       </c>
       <c r="L18" t="n">
         <v>521</v>
       </c>
       <c r="M18" t="n">
-        <v>9.68</v>
+        <v>9.53</v>
       </c>
       <c r="N18" t="n">
         <v>3</v>
@@ -2718,7 +2718,7 @@
         <v>247</v>
       </c>
       <c r="C19" t="n">
-        <v>61.18</v>
+        <v>60.22</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
@@ -2739,16 +2739,16 @@
         <v>24254</v>
       </c>
       <c r="J19" t="n">
-        <v>1484</v>
+        <v>1461</v>
       </c>
       <c r="K19" s="14" t="n">
-        <v>77.157</v>
+        <v>75.946</v>
       </c>
       <c r="L19" t="n">
         <v>704</v>
       </c>
       <c r="M19" t="n">
-        <v>8.69</v>
+        <v>8.55</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -2762,7 +2762,7 @@
         <v>248</v>
       </c>
       <c r="C20" t="n">
-        <v>57.19</v>
+        <v>56.29</v>
       </c>
       <c r="D20" t="n">
         <v>4</v>
@@ -2782,7 +2782,7 @@
         <v>645</v>
       </c>
       <c r="M20" t="n">
-        <v>8.87</v>
+        <v>8.73</v>
       </c>
       <c r="N20" t="n">
         <v>2</v>
@@ -2796,7 +2796,7 @@
         <v>249</v>
       </c>
       <c r="C21" t="n">
-        <v>61.37</v>
+        <v>60.4</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
@@ -2817,16 +2817,16 @@
         <v>18859</v>
       </c>
       <c r="J21" t="n">
-        <v>1157</v>
+        <v>1139</v>
       </c>
       <c r="K21" s="14" t="n">
-        <v>60.18</v>
+        <v>59.236</v>
       </c>
       <c r="L21" t="n">
         <v>508</v>
       </c>
       <c r="M21" t="n">
-        <v>12.08</v>
+        <v>11.89</v>
       </c>
       <c r="N21" t="n">
         <v>6</v>
@@ -2840,7 +2840,7 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>65.43</v>
+        <v>64.4</v>
       </c>
       <c r="D22" t="n">
         <v>6</v>
@@ -2861,16 +2861,16 @@
         <v>26598</v>
       </c>
       <c r="J22" t="n">
-        <v>1740</v>
+        <v>1713</v>
       </c>
       <c r="K22" s="14" t="n">
-        <v>90.492</v>
+        <v>89.072</v>
       </c>
       <c r="L22" t="n">
         <v>482</v>
       </c>
       <c r="M22" t="n">
-        <v>13.57</v>
+        <v>13.35</v>
       </c>
       <c r="N22" t="n">
         <v>8</v>
@@ -2884,7 +2884,7 @@
         <v>251</v>
       </c>
       <c r="C23" t="n">
-        <v>57.16</v>
+        <v>56.26</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
@@ -2905,16 +2905,16 @@
         <v>68239</v>
       </c>
       <c r="J23" t="n">
-        <v>3900</v>
+        <v>3839</v>
       </c>
       <c r="K23" s="14" t="n">
-        <v>202.819</v>
+        <v>199.638</v>
       </c>
       <c r="L23" t="n">
         <v>624</v>
       </c>
       <c r="M23" t="n">
-        <v>9.16</v>
+        <v>9.02</v>
       </c>
       <c r="N23" t="n">
         <v>2</v>
@@ -2928,7 +2928,7 @@
         <v>252</v>
       </c>
       <c r="C24" t="n">
-        <v>56.69</v>
+        <v>55.81</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -2949,16 +2949,16 @@
         <v>26219</v>
       </c>
       <c r="J24" t="n">
-        <v>1486</v>
+        <v>1463</v>
       </c>
       <c r="K24" s="14" t="n">
-        <v>77.297</v>
+        <v>76.084</v>
       </c>
       <c r="L24" t="n">
         <v>625</v>
       </c>
       <c r="M24" t="n">
-        <v>9.07</v>
+        <v>8.93</v>
       </c>
       <c r="N24" t="n">
         <v>2</v>
@@ -2972,7 +2972,7 @@
         <v>253</v>
       </c>
       <c r="C25" t="n">
-        <v>66.78</v>
+        <v>65.73</v>
       </c>
       <c r="D25" t="n">
         <v>7</v>
@@ -2993,16 +2993,16 @@
         <v>30831</v>
       </c>
       <c r="J25" t="n">
-        <v>2059</v>
+        <v>2027</v>
       </c>
       <c r="K25" s="14" t="n">
-        <v>107.066</v>
+        <v>105.387</v>
       </c>
       <c r="L25" t="n">
         <v>616</v>
       </c>
       <c r="M25" t="n">
-        <v>10.84</v>
+        <v>10.67</v>
       </c>
       <c r="N25" t="n">
         <v>4</v>
@@ -3016,7 +3016,7 @@
         <v>254</v>
       </c>
       <c r="C26" t="n">
-        <v>77.36</v>
+        <v>76.15</v>
       </c>
       <c r="D26" t="n">
         <v>9</v>
@@ -3037,16 +3037,16 @@
         <v>42362</v>
       </c>
       <c r="J26" t="n">
-        <v>3277</v>
+        <v>3226</v>
       </c>
       <c r="K26" s="14" t="n">
-        <v>170.41</v>
+        <v>167.737</v>
       </c>
       <c r="L26" t="n">
         <v>581</v>
       </c>
       <c r="M26" t="n">
-        <v>13.32</v>
+        <v>13.11</v>
       </c>
       <c r="N26" t="n">
         <v>8</v>
@@ -3060,7 +3060,7 @@
         <v>255</v>
       </c>
       <c r="C27" t="n">
-        <v>39.5</v>
+        <v>38.88</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -3081,16 +3081,16 @@
         <v>31125</v>
       </c>
       <c r="J27" t="n">
-        <v>1229</v>
+        <v>1210</v>
       </c>
       <c r="K27" s="14" t="n">
-        <v>63.926</v>
+        <v>62.923</v>
       </c>
       <c r="L27" t="n">
         <v>560</v>
       </c>
       <c r="M27" t="n">
-        <v>7.05</v>
+        <v>6.94</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -3130,7 +3130,7 @@
         <v>257</v>
       </c>
       <c r="C29" t="n">
-        <v>49.33</v>
+        <v>48.55</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -3151,16 +3151,16 @@
         <v>69931</v>
       </c>
       <c r="J29" t="n">
-        <v>3450</v>
+        <v>3395</v>
       </c>
       <c r="K29" s="14" t="n">
-        <v>179.379</v>
+        <v>176.565</v>
       </c>
       <c r="L29" t="n">
         <v>490</v>
       </c>
       <c r="M29" t="n">
-        <v>10.07</v>
+        <v>9.91</v>
       </c>
       <c r="N29" t="n">
         <v>3</v>
@@ -3174,7 +3174,7 @@
         <v>258</v>
       </c>
       <c r="C30" t="n">
-        <v>58.46</v>
+        <v>57.55</v>
       </c>
       <c r="D30" t="n">
         <v>4</v>
@@ -3195,16 +3195,16 @@
         <v>72875</v>
       </c>
       <c r="J30" t="n">
-        <v>4261</v>
+        <v>4194</v>
       </c>
       <c r="K30" s="14" t="n">
-        <v>221.552</v>
+        <v>218.077</v>
       </c>
       <c r="L30" t="n">
         <v>485</v>
       </c>
       <c r="M30" t="n">
-        <v>12.05</v>
+        <v>11.86</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
@@ -3218,7 +3218,7 @@
         <v>259</v>
       </c>
       <c r="C31" t="n">
-        <v>62.68</v>
+        <v>61.7</v>
       </c>
       <c r="D31" t="n">
         <v>6</v>
@@ -3239,16 +3239,16 @@
         <v>43973</v>
       </c>
       <c r="J31" t="n">
-        <v>2756</v>
+        <v>2713</v>
       </c>
       <c r="K31" s="14" t="n">
-        <v>143.329</v>
+        <v>141.081</v>
       </c>
       <c r="L31" t="n">
         <v>476</v>
       </c>
       <c r="M31" t="n">
-        <v>13.16</v>
+        <v>12.96</v>
       </c>
       <c r="N31" t="n">
         <v>7</v>
@@ -3262,7 +3262,7 @@
         <v>260</v>
       </c>
       <c r="C32" t="n">
-        <v>61.25</v>
+        <v>60.29</v>
       </c>
       <c r="D32" t="n">
         <v>5</v>
@@ -3283,16 +3283,16 @@
         <v>36269</v>
       </c>
       <c r="J32" t="n">
-        <v>2222</v>
+        <v>2187</v>
       </c>
       <c r="K32" s="14" t="n">
-        <v>115.523</v>
+        <v>113.711</v>
       </c>
       <c r="L32" t="n">
         <v>600</v>
       </c>
       <c r="M32" t="n">
-        <v>10.21</v>
+        <v>10.05</v>
       </c>
       <c r="N32" t="n">
         <v>3</v>
@@ -3306,7 +3306,7 @@
         <v>261</v>
       </c>
       <c r="C33" t="n">
-        <v>62.99</v>
+        <v>62</v>
       </c>
       <c r="D33" t="n">
         <v>6</v>
@@ -3327,16 +3327,16 @@
         <v>62243</v>
       </c>
       <c r="J33" t="n">
-        <v>3921</v>
+        <v>3859</v>
       </c>
       <c r="K33" s="14" t="n">
-        <v>203.877</v>
+        <v>200.679</v>
       </c>
       <c r="L33" t="n">
         <v>514</v>
       </c>
       <c r="M33" t="n">
-        <v>12.25</v>
+        <v>12.05</v>
       </c>
       <c r="N33" t="n">
         <v>6</v>
@@ -3350,7 +3350,7 @@
         <v>262</v>
       </c>
       <c r="C34" t="n">
-        <v>78.65</v>
+        <v>77.41</v>
       </c>
       <c r="D34" t="n">
         <v>9</v>
@@ -3371,16 +3371,16 @@
         <v>11552</v>
       </c>
       <c r="J34" t="n">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="K34" s="14" t="n">
-        <v>47.244</v>
+        <v>46.503</v>
       </c>
       <c r="L34" t="n">
         <v>466</v>
       </c>
       <c r="M34" t="n">
-        <v>16.86</v>
+        <v>16.6</v>
       </c>
       <c r="N34" t="n">
         <v>10</v>
@@ -3394,7 +3394,7 @@
         <v>263</v>
       </c>
       <c r="C35" t="n">
-        <v>59.05</v>
+        <v>58.12</v>
       </c>
       <c r="D35" t="n">
         <v>4</v>
@@ -3415,16 +3415,16 @@
         <v>33045</v>
       </c>
       <c r="J35" t="n">
-        <v>1951</v>
+        <v>1921</v>
       </c>
       <c r="K35" s="14" t="n">
-        <v>101.467</v>
+        <v>99.875</v>
       </c>
       <c r="L35" t="n">
         <v>522</v>
       </c>
       <c r="M35" t="n">
-        <v>11.31</v>
+        <v>11.13</v>
       </c>
       <c r="N35" t="n">
         <v>5</v>
@@ -3438,7 +3438,7 @@
         <v>264</v>
       </c>
       <c r="C36" t="n">
-        <v>64.46</v>
+        <v>63.45</v>
       </c>
       <c r="D36" t="n">
         <v>6</v>
@@ -3459,16 +3459,16 @@
         <v>81716</v>
       </c>
       <c r="J36" t="n">
-        <v>5268</v>
+        <v>5185</v>
       </c>
       <c r="K36" s="14" t="n">
-        <v>273.919</v>
+        <v>269.622</v>
       </c>
       <c r="L36" t="n">
         <v>556</v>
       </c>
       <c r="M36" t="n">
-        <v>11.59</v>
+        <v>11.41</v>
       </c>
       <c r="N36" t="n">
         <v>5</v>
@@ -3482,7 +3482,7 @@
         <v>265</v>
       </c>
       <c r="C37" t="n">
-        <v>47.51</v>
+        <v>46.77</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -3503,16 +3503,16 @@
         <v>88461</v>
       </c>
       <c r="J37" t="n">
-        <v>4203</v>
+        <v>4137</v>
       </c>
       <c r="K37" s="14" t="n">
-        <v>218.562</v>
+        <v>215.134</v>
       </c>
       <c r="L37" t="n">
         <v>523</v>
       </c>
       <c r="M37" t="n">
-        <v>9.09</v>
+        <v>8.95</v>
       </c>
       <c r="N37" t="n">
         <v>2</v>
@@ -3526,7 +3526,7 @@
         <v>266</v>
       </c>
       <c r="C38" t="n">
-        <v>80.05</v>
+        <v>78.79</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -3547,16 +3547,16 @@
         <v>46779</v>
       </c>
       <c r="J38" t="n">
-        <v>3744</v>
+        <v>3686</v>
       </c>
       <c r="K38" s="14" t="n">
-        <v>194.712</v>
+        <v>191.658</v>
       </c>
       <c r="L38" t="n">
         <v>498</v>
       </c>
       <c r="M38" t="n">
-        <v>16.06</v>
+        <v>15.81</v>
       </c>
       <c r="N38" t="n">
         <v>9</v>
@@ -3570,7 +3570,7 @@
         <v>267</v>
       </c>
       <c r="C39" t="n">
-        <v>51.16</v>
+        <v>50.36</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
@@ -3591,16 +3591,16 @@
         <v>31530</v>
       </c>
       <c r="J39" t="n">
-        <v>1613</v>
+        <v>1588</v>
       </c>
       <c r="K39" s="14" t="n">
-        <v>83.882</v>
+        <v>82.566</v>
       </c>
       <c r="L39" t="n">
         <v>552</v>
       </c>
       <c r="M39" t="n">
-        <v>9.27</v>
+        <v>9.13</v>
       </c>
       <c r="N39" t="n">
         <v>2</v>
@@ -3614,7 +3614,7 @@
         <v>268</v>
       </c>
       <c r="C40" t="n">
-        <v>54.93</v>
+        <v>54.06</v>
       </c>
       <c r="D40" t="n">
         <v>3</v>
@@ -3635,16 +3635,16 @@
         <v>34039</v>
       </c>
       <c r="J40" t="n">
-        <v>1870</v>
+        <v>1840</v>
       </c>
       <c r="K40" s="14" t="n">
-        <v>97.219</v>
+        <v>95.694</v>
       </c>
       <c r="L40" t="n">
         <v>479</v>
       </c>
       <c r="M40" t="n">
-        <v>11.46</v>
+        <v>11.28</v>
       </c>
       <c r="N40" t="n">
         <v>5</v>
@@ -3658,7 +3658,7 @@
         <v>269</v>
       </c>
       <c r="C41" t="n">
-        <v>60.25</v>
+        <v>59.31</v>
       </c>
       <c r="D41" t="n">
         <v>5</v>
@@ -3679,16 +3679,16 @@
         <v>25841</v>
       </c>
       <c r="J41" t="n">
-        <v>1557</v>
+        <v>1533</v>
       </c>
       <c r="K41" s="14" t="n">
-        <v>80.964</v>
+        <v>79.694</v>
       </c>
       <c r="L41" t="n">
         <v>598</v>
       </c>
       <c r="M41" t="n">
-        <v>10.08</v>
+        <v>9.92</v>
       </c>
       <c r="N41" t="n">
         <v>3</v>
@@ -3702,7 +3702,7 @@
         <v>270</v>
       </c>
       <c r="C42" t="n">
-        <v>68.73</v>
+        <v>67.66</v>
       </c>
       <c r="D42" t="n">
         <v>8</v>
@@ -3723,16 +3723,16 @@
         <v>33682</v>
       </c>
       <c r="J42" t="n">
-        <v>2315</v>
+        <v>2279</v>
       </c>
       <c r="K42" s="14" t="n">
-        <v>120.386</v>
+        <v>118.498</v>
       </c>
       <c r="L42" t="n">
         <v>543</v>
       </c>
       <c r="M42" t="n">
-        <v>12.66</v>
+        <v>12.46</v>
       </c>
       <c r="N42" t="n">
         <v>7</v>
@@ -3746,7 +3746,7 @@
         <v>271</v>
       </c>
       <c r="C43" t="n">
-        <v>54.21</v>
+        <v>53.36</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
@@ -3767,16 +3767,16 @@
         <v>57010</v>
       </c>
       <c r="J43" t="n">
-        <v>3090</v>
+        <v>3042</v>
       </c>
       <c r="K43" s="14" t="n">
-        <v>160.7</v>
+        <v>158.179</v>
       </c>
       <c r="L43" t="n">
         <v>555</v>
       </c>
       <c r="M43" t="n">
-        <v>9.77</v>
+        <v>9.61</v>
       </c>
       <c r="N43" t="n">
         <v>3</v>
@@ -3790,7 +3790,7 @@
         <v>272</v>
       </c>
       <c r="C44" t="n">
-        <v>62.22</v>
+        <v>61.24</v>
       </c>
       <c r="D44" t="n">
         <v>5</v>
@@ -3811,16 +3811,16 @@
         <v>39424</v>
       </c>
       <c r="J44" t="n">
-        <v>2453</v>
+        <v>2414</v>
       </c>
       <c r="K44" s="14" t="n">
-        <v>127.546</v>
+        <v>125.545</v>
       </c>
       <c r="L44" t="n">
         <v>547</v>
       </c>
       <c r="M44" t="n">
-        <v>11.36</v>
+        <v>11.19</v>
       </c>
       <c r="N44" t="n">
         <v>5</v>
@@ -3834,7 +3834,7 @@
         <v>273</v>
       </c>
       <c r="C45" t="n">
-        <v>69.11</v>
+        <v>68.03</v>
       </c>
       <c r="D45" t="n">
         <v>8</v>
@@ -3855,16 +3855,16 @@
         <v>154954</v>
       </c>
       <c r="J45" t="n">
-        <v>10709</v>
+        <v>10541</v>
       </c>
       <c r="K45" s="14" t="n">
-        <v>556.867</v>
+        <v>548.131</v>
       </c>
       <c r="L45" t="n">
         <v>577</v>
       </c>
       <c r="M45" t="n">
-        <v>11.98</v>
+        <v>11.8</v>
       </c>
       <c r="N45" t="n">
         <v>6</v>
@@ -3878,7 +3878,7 @@
         <v>274</v>
       </c>
       <c r="C46" t="n">
-        <v>54.47</v>
+        <v>53.62</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
@@ -3899,16 +3899,16 @@
         <v>27805</v>
       </c>
       <c r="J46" t="n">
-        <v>1515</v>
+        <v>1491</v>
       </c>
       <c r="K46" s="14" t="n">
-        <v>78.762</v>
+        <v>77.527</v>
       </c>
       <c r="L46" t="n">
         <v>470</v>
       </c>
       <c r="M46" t="n">
-        <v>11.6</v>
+        <v>11.42</v>
       </c>
       <c r="N46" t="n">
         <v>6</v>
@@ -3922,7 +3922,7 @@
         <v>275</v>
       </c>
       <c r="C47" t="n">
-        <v>60.22</v>
+        <v>59.28</v>
       </c>
       <c r="D47" t="n">
         <v>5</v>
@@ -3943,16 +3943,16 @@
         <v>65858</v>
       </c>
       <c r="J47" t="n">
-        <v>3966</v>
+        <v>3904</v>
       </c>
       <c r="K47" s="14" t="n">
-        <v>206.246</v>
+        <v>203.01</v>
       </c>
       <c r="L47" t="n">
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>10.72</v>
+        <v>10.55</v>
       </c>
       <c r="N47" t="n">
         <v>4</v>
@@ -3966,7 +3966,7 @@
         <v>276</v>
       </c>
       <c r="C48" t="n">
-        <v>65.65</v>
+        <v>64.62</v>
       </c>
       <c r="D48" t="n">
         <v>6</v>
@@ -3987,16 +3987,16 @@
         <v>27929</v>
       </c>
       <c r="J48" t="n">
-        <v>1834</v>
+        <v>1805</v>
       </c>
       <c r="K48" s="14" t="n">
-        <v>95.349</v>
+        <v>93.854</v>
       </c>
       <c r="L48" t="n">
         <v>585</v>
       </c>
       <c r="M48" t="n">
-        <v>11.23</v>
+        <v>11.05</v>
       </c>
       <c r="N48" t="n">
         <v>5</v>
@@ -4010,7 +4010,7 @@
         <v>277</v>
       </c>
       <c r="C49" t="n">
-        <v>49.76</v>
+        <v>48.98</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -4031,16 +4031,16 @@
         <v>31381</v>
       </c>
       <c r="J49" t="n">
-        <v>1562</v>
+        <v>1537</v>
       </c>
       <c r="K49" s="14" t="n">
-        <v>81.206</v>
+        <v>79.932</v>
       </c>
       <c r="L49" t="n">
         <v>519</v>
       </c>
       <c r="M49" t="n">
-        <v>9.58</v>
+        <v>9.43</v>
       </c>
       <c r="N49" t="n">
         <v>3</v>
@@ -4054,7 +4054,7 @@
         <v>278</v>
       </c>
       <c r="C50" t="n">
-        <v>99.94</v>
+        <v>98.38</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
@@ -4075,16 +4075,16 @@
         <v>15000</v>
       </c>
       <c r="J50" t="n">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="K50" s="14" t="n">
-        <v>77.956</v>
+        <v>76.733</v>
       </c>
       <c r="L50" t="n">
         <v>460</v>
       </c>
       <c r="M50" t="n">
-        <v>21.74</v>
+        <v>21.4</v>
       </c>
       <c r="N50" t="n">
         <v>10</v>
@@ -4098,7 +4098,7 @@
         <v>279</v>
       </c>
       <c r="C51" t="n">
-        <v>56.45</v>
+        <v>55.57</v>
       </c>
       <c r="D51" t="n">
         <v>3</v>
@@ -4119,16 +4119,16 @@
         <v>15305</v>
       </c>
       <c r="J51" t="n">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="K51" s="14" t="n">
-        <v>44.927</v>
+        <v>44.223</v>
       </c>
       <c r="L51" t="n">
         <v>610</v>
       </c>
       <c r="M51" t="n">
-        <v>9.25</v>
+        <v>9.1</v>
       </c>
       <c r="N51" t="n">
         <v>2</v>
@@ -4142,7 +4142,7 @@
         <v>280</v>
       </c>
       <c r="C52" t="n">
-        <v>66.68</v>
+        <v>65.63</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
@@ -4163,16 +4163,16 @@
         <v>109694</v>
       </c>
       <c r="J52" t="n">
-        <v>7314</v>
+        <v>7199</v>
       </c>
       <c r="K52" s="14" t="n">
-        <v>380.339</v>
+        <v>374.373</v>
       </c>
       <c r="L52" t="n">
         <v>630</v>
       </c>
       <c r="M52" t="n">
-        <v>10.59</v>
+        <v>10.42</v>
       </c>
       <c r="N52" t="n">
         <v>4</v>
@@ -4186,7 +4186,7 @@
         <v>281</v>
       </c>
       <c r="C53" t="n">
-        <v>46.95</v>
+        <v>46.21</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -4207,16 +4207,16 @@
         <v>31107</v>
       </c>
       <c r="J53" t="n">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="K53" s="14" t="n">
-        <v>75.941</v>
+        <v>74.749</v>
       </c>
       <c r="L53" t="n">
         <v>577</v>
       </c>
       <c r="M53" t="n">
-        <v>8.14</v>
+        <v>8.01</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
@@ -4230,7 +4230,7 @@
         <v>282</v>
       </c>
       <c r="C54" t="n">
-        <v>71.04</v>
+        <v>69.93</v>
       </c>
       <c r="D54" t="n">
         <v>8</v>
@@ -4251,16 +4251,16 @@
         <v>19875</v>
       </c>
       <c r="J54" t="n">
-        <v>1412</v>
+        <v>1390</v>
       </c>
       <c r="K54" s="14" t="n">
-        <v>73.421</v>
+        <v>72.27</v>
       </c>
       <c r="L54" t="n">
         <v>644</v>
       </c>
       <c r="M54" t="n">
-        <v>11.03</v>
+        <v>10.86</v>
       </c>
       <c r="N54" t="n">
         <v>5</v>
@@ -4274,7 +4274,7 @@
         <v>283</v>
       </c>
       <c r="C55" t="n">
-        <v>81.62</v>
+        <v>80.34</v>
       </c>
       <c r="D55" t="n">
         <v>10</v>
@@ -4295,16 +4295,16 @@
         <v>14180</v>
       </c>
       <c r="J55" t="n">
-        <v>1157</v>
+        <v>1139</v>
       </c>
       <c r="K55" s="14" t="n">
-        <v>60.181</v>
+        <v>59.237</v>
       </c>
       <c r="L55" t="n">
         <v>422</v>
       </c>
       <c r="M55" t="n">
-        <v>19.36</v>
+        <v>19.05</v>
       </c>
       <c r="N55" t="n">
         <v>10</v>
@@ -4318,7 +4318,7 @@
         <v>284</v>
       </c>
       <c r="C56" t="n">
-        <v>90.36</v>
+        <v>88.94</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
@@ -4339,16 +4339,16 @@
         <v>26524</v>
       </c>
       <c r="J56" t="n">
-        <v>2397</v>
+        <v>2359</v>
       </c>
       <c r="K56" s="14" t="n">
-        <v>124.632</v>
+        <v>122.677</v>
       </c>
       <c r="L56" t="n">
         <v>621</v>
       </c>
       <c r="M56" t="n">
-        <v>14.56</v>
+        <v>14.33</v>
       </c>
       <c r="N56" t="n">
         <v>8</v>
@@ -4362,7 +4362,7 @@
         <v>285</v>
       </c>
       <c r="C57" t="n">
-        <v>68.63</v>
+        <v>67.55</v>
       </c>
       <c r="D57" t="n">
         <v>7</v>
@@ -4383,16 +4383,16 @@
         <v>19235</v>
       </c>
       <c r="J57" t="n">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="K57" s="14" t="n">
-        <v>68.645</v>
+        <v>67.568</v>
       </c>
       <c r="L57" t="n">
         <v>520</v>
       </c>
       <c r="M57" t="n">
-        <v>13.19</v>
+        <v>12.99</v>
       </c>
       <c r="N57" t="n">
         <v>7</v>
@@ -4406,7 +4406,7 @@
         <v>286</v>
       </c>
       <c r="C58" t="n">
-        <v>55.6</v>
+        <v>54.73</v>
       </c>
       <c r="D58" t="n">
         <v>3</v>
@@ -4427,16 +4427,16 @@
         <v>100550</v>
       </c>
       <c r="J58" t="n">
-        <v>5590</v>
+        <v>5503</v>
       </c>
       <c r="K58" s="14" t="n">
-        <v>290.705</v>
+        <v>286.145</v>
       </c>
       <c r="L58" t="n">
         <v>609</v>
       </c>
       <c r="M58" t="n">
-        <v>9.13</v>
+        <v>8.98</v>
       </c>
       <c r="N58" t="n">
         <v>2</v>
@@ -4450,7 +4450,7 @@
         <v>287</v>
       </c>
       <c r="C59" t="n">
-        <v>66.13</v>
+        <v>65.09</v>
       </c>
       <c r="D59" t="n">
         <v>7</v>
@@ -4471,16 +4471,16 @@
         <v>27469</v>
       </c>
       <c r="J59" t="n">
-        <v>1816</v>
+        <v>1788</v>
       </c>
       <c r="K59" s="14" t="n">
-        <v>94.455</v>
+        <v>92.973</v>
       </c>
       <c r="L59" t="n">
         <v>615</v>
       </c>
       <c r="M59" t="n">
-        <v>10.76</v>
+        <v>10.59</v>
       </c>
       <c r="N59" t="n">
         <v>4</v>
@@ -4494,7 +4494,7 @@
         <v>288</v>
       </c>
       <c r="C60" t="n">
-        <v>65.16</v>
+        <v>64.14</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -4515,16 +4515,16 @@
         <v>29395</v>
       </c>
       <c r="J60" t="n">
-        <v>1915</v>
+        <v>1885</v>
       </c>
       <c r="K60" s="14" t="n">
-        <v>99.605</v>
+        <v>98.042</v>
       </c>
       <c r="L60" t="n">
         <v>593</v>
       </c>
       <c r="M60" t="n">
-        <v>10.98</v>
+        <v>10.81</v>
       </c>
       <c r="N60" t="n">
         <v>5</v>
@@ -4538,7 +4538,7 @@
         <v>289</v>
       </c>
       <c r="C61" t="n">
-        <v>70.34</v>
+        <v>69.24</v>
       </c>
       <c r="D61" t="n">
         <v>8</v>
@@ -4559,16 +4559,16 @@
         <v>16896</v>
       </c>
       <c r="J61" t="n">
-        <v>1189</v>
+        <v>1170</v>
       </c>
       <c r="K61" s="14" t="n">
-        <v>61.804</v>
+        <v>60.835</v>
       </c>
       <c r="L61" t="n">
         <v>522</v>
       </c>
       <c r="M61" t="n">
-        <v>13.48</v>
+        <v>13.26</v>
       </c>
       <c r="N61" t="n">
         <v>8</v>
@@ -4608,7 +4608,7 @@
         <v>291</v>
       </c>
       <c r="C63" t="n">
-        <v>57.48</v>
+        <v>56.58</v>
       </c>
       <c r="D63" t="n">
         <v>4</v>
@@ -4629,16 +4629,16 @@
         <v>24714</v>
       </c>
       <c r="J63" t="n">
-        <v>1421</v>
+        <v>1398</v>
       </c>
       <c r="K63" s="14" t="n">
-        <v>73.869</v>
+        <v>72.71</v>
       </c>
       <c r="L63" t="n">
         <v>569</v>
       </c>
       <c r="M63" t="n">
-        <v>10.1</v>
+        <v>9.94</v>
       </c>
       <c r="N63" t="n">
         <v>3</v>
@@ -4652,7 +4652,7 @@
         <v>292</v>
       </c>
       <c r="C64" t="n">
-        <v>59.88</v>
+        <v>58.94</v>
       </c>
       <c r="D64" t="n">
         <v>4</v>
@@ -4673,16 +4673,16 @@
         <v>18999</v>
       </c>
       <c r="J64" t="n">
-        <v>1138</v>
+        <v>1120</v>
       </c>
       <c r="K64" s="14" t="n">
-        <v>59.161</v>
+        <v>58.233</v>
       </c>
       <c r="L64" t="n">
         <v>654</v>
       </c>
       <c r="M64" t="n">
-        <v>9.15</v>
+        <v>9.01</v>
       </c>
       <c r="N64" t="n">
         <v>2</v>
@@ -4696,7 +4696,7 @@
         <v>293</v>
       </c>
       <c r="C65" t="n">
-        <v>61.76</v>
+        <v>60.79</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
@@ -4717,16 +4717,16 @@
         <v>169384</v>
       </c>
       <c r="J65" t="n">
-        <v>10461</v>
+        <v>10297</v>
       </c>
       <c r="K65" s="14" t="n">
-        <v>543.985</v>
+        <v>535.452</v>
       </c>
       <c r="L65" t="n">
         <v>570</v>
       </c>
       <c r="M65" t="n">
-        <v>10.83</v>
+        <v>10.66</v>
       </c>
       <c r="N65" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
         <v>294</v>
       </c>
       <c r="C66" t="n">
-        <v>69.73</v>
+        <v>68.63</v>
       </c>
       <c r="D66" t="n">
         <v>8</v>
@@ -4761,16 +4761,16 @@
         <v>44979</v>
       </c>
       <c r="J66" t="n">
-        <v>3136</v>
+        <v>3087</v>
       </c>
       <c r="K66" s="14" t="n">
-        <v>163.085</v>
+        <v>160.527</v>
       </c>
       <c r="L66" t="n">
         <v>432</v>
       </c>
       <c r="M66" t="n">
-        <v>16.15</v>
+        <v>15.9</v>
       </c>
       <c r="N66" t="n">
         <v>9</v>
@@ -4784,7 +4784,7 @@
         <v>295</v>
       </c>
       <c r="C67" t="n">
-        <v>43.95</v>
+        <v>43.26</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -4805,16 +4805,16 @@
         <v>12722</v>
       </c>
       <c r="J67" t="n">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="K67" s="14" t="n">
-        <v>29.077</v>
+        <v>28.621</v>
       </c>
       <c r="L67" t="n">
         <v>745</v>
       </c>
       <c r="M67" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="N67" t="n">
         <v>1</v>
@@ -4828,7 +4828,7 @@
         <v>296</v>
       </c>
       <c r="C68" t="n">
-        <v>60.01</v>
+        <v>59.07</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
@@ -4849,16 +4849,16 @@
         <v>48497</v>
       </c>
       <c r="J68" t="n">
-        <v>2910</v>
+        <v>2865</v>
       </c>
       <c r="K68" s="14" t="n">
-        <v>151.344</v>
+        <v>148.97</v>
       </c>
       <c r="L68" t="n">
         <v>468</v>
       </c>
       <c r="M68" t="n">
-        <v>12.82</v>
+        <v>12.61</v>
       </c>
       <c r="N68" t="n">
         <v>7</v>
@@ -4872,7 +4872,7 @@
         <v>297</v>
       </c>
       <c r="C69" t="n">
-        <v>70.1</v>
+        <v>69</v>
       </c>
       <c r="D69" t="n">
         <v>8</v>
@@ -4893,16 +4893,16 @@
         <v>16682</v>
       </c>
       <c r="J69" t="n">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="K69" s="14" t="n">
-        <v>60.81</v>
+        <v>59.856</v>
       </c>
       <c r="L69" t="n">
         <v>404</v>
       </c>
       <c r="M69" t="n">
-        <v>17.37</v>
+        <v>17.1</v>
       </c>
       <c r="N69" t="n">
         <v>10</v>
@@ -4916,7 +4916,7 @@
         <v>298</v>
       </c>
       <c r="C70" t="n">
-        <v>57.62</v>
+        <v>56.71</v>
       </c>
       <c r="D70" t="n">
         <v>4</v>
@@ -4937,16 +4937,16 @@
         <v>35272</v>
       </c>
       <c r="J70" t="n">
-        <v>2032</v>
+        <v>2000</v>
       </c>
       <c r="K70" s="14" t="n">
-        <v>105.676</v>
+        <v>104.019</v>
       </c>
       <c r="L70" t="n">
         <v>591</v>
       </c>
       <c r="M70" t="n">
-        <v>9.75</v>
+        <v>9.6</v>
       </c>
       <c r="N70" t="n">
         <v>3</v>
@@ -4960,7 +4960,7 @@
         <v>299</v>
       </c>
       <c r="C71" t="n">
-        <v>61.84</v>
+        <v>60.87</v>
       </c>
       <c r="D71" t="n">
         <v>5</v>
@@ -4981,16 +4981,16 @@
         <v>134164</v>
       </c>
       <c r="J71" t="n">
-        <v>8296</v>
+        <v>8166</v>
       </c>
       <c r="K71" s="14" t="n">
-        <v>431.406</v>
+        <v>424.639</v>
       </c>
       <c r="L71" t="n">
         <v>493</v>
       </c>
       <c r="M71" t="n">
-        <v>12.54</v>
+        <v>12.35</v>
       </c>
       <c r="N71" t="n">
         <v>7</v>
@@ -5004,7 +5004,7 @@
         <v>300</v>
       </c>
       <c r="C72" t="n">
-        <v>51.01</v>
+        <v>50.21</v>
       </c>
       <c r="D72" t="n">
         <v>2</v>
@@ -5025,16 +5025,16 @@
         <v>95184</v>
       </c>
       <c r="J72" t="n">
-        <v>4855</v>
+        <v>4779</v>
       </c>
       <c r="K72" s="14" t="n">
-        <v>252.482</v>
+        <v>248.521</v>
       </c>
       <c r="L72" t="n">
         <v>486</v>
       </c>
       <c r="M72" t="n">
-        <v>10.5</v>
+        <v>10.33</v>
       </c>
       <c r="N72" t="n">
         <v>4</v>
@@ -5048,7 +5048,7 @@
         <v>301</v>
       </c>
       <c r="C73" t="n">
-        <v>52.81</v>
+        <v>51.98</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
@@ -5069,16 +5069,16 @@
         <v>41728</v>
       </c>
       <c r="J73" t="n">
-        <v>2204</v>
+        <v>2169</v>
       </c>
       <c r="K73" s="14" t="n">
-        <v>114.589</v>
+        <v>112.792</v>
       </c>
       <c r="L73" t="n">
         <v>401</v>
       </c>
       <c r="M73" t="n">
-        <v>13.18</v>
+        <v>12.97</v>
       </c>
       <c r="N73" t="n">
         <v>7</v>
@@ -5092,7 +5092,7 @@
         <v>302</v>
       </c>
       <c r="C74" t="n">
-        <v>73.69</v>
+        <v>72.53</v>
       </c>
       <c r="D74" t="n">
         <v>9</v>
@@ -5113,16 +5113,16 @@
         <v>67615</v>
       </c>
       <c r="J74" t="n">
-        <v>4983</v>
+        <v>4904</v>
       </c>
       <c r="K74" s="14" t="n">
-        <v>259.091</v>
+        <v>255.027</v>
       </c>
       <c r="L74" t="n">
         <v>599</v>
       </c>
       <c r="M74" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="N74" t="n">
         <v>6</v>
@@ -5136,7 +5136,7 @@
         <v>303</v>
       </c>
       <c r="C75" t="n">
-        <v>55.81</v>
+        <v>54.94</v>
       </c>
       <c r="D75" t="n">
         <v>3</v>
@@ -5157,16 +5157,16 @@
         <v>34483</v>
       </c>
       <c r="J75" t="n">
-        <v>1925</v>
+        <v>1894</v>
       </c>
       <c r="K75" s="14" t="n">
-        <v>100.08</v>
+        <v>98.51</v>
       </c>
       <c r="L75" t="n">
         <v>592</v>
       </c>
       <c r="M75" t="n">
-        <v>9.43</v>
+        <v>9.29</v>
       </c>
       <c r="N75" t="n">
         <v>2</v>
@@ -5180,7 +5180,7 @@
         <v>304</v>
       </c>
       <c r="C76" t="n">
-        <v>56.15</v>
+        <v>55.27</v>
       </c>
       <c r="D76" t="n">
         <v>3</v>
@@ -5201,16 +5201,16 @@
         <v>94175</v>
       </c>
       <c r="J76" t="n">
-        <v>5288</v>
+        <v>5205</v>
       </c>
       <c r="K76" s="14" t="n">
-        <v>274.982</v>
+        <v>270.668</v>
       </c>
       <c r="L76" t="n">
         <v>520</v>
       </c>
       <c r="M76" t="n">
-        <v>10.81</v>
+        <v>10.64</v>
       </c>
       <c r="N76" t="n">
         <v>4</v>
@@ -5224,7 +5224,7 @@
         <v>305</v>
       </c>
       <c r="C77" t="n">
-        <v>64.47</v>
+        <v>63.45</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
@@ -5245,16 +5245,16 @@
         <v>56803</v>
       </c>
       <c r="J77" t="n">
-        <v>3662</v>
+        <v>3604</v>
       </c>
       <c r="K77" s="14" t="n">
-        <v>190.414</v>
+        <v>187.428</v>
       </c>
       <c r="L77" t="n">
         <v>421</v>
       </c>
       <c r="M77" t="n">
-        <v>15.31</v>
+        <v>15.07</v>
       </c>
       <c r="N77" t="n">
         <v>9</v>
@@ -5268,7 +5268,7 @@
         <v>306</v>
       </c>
       <c r="C78" t="n">
-        <v>78.44</v>
+        <v>77.21</v>
       </c>
       <c r="D78" t="n">
         <v>9</v>
@@ -5289,16 +5289,16 @@
         <v>26204</v>
       </c>
       <c r="J78" t="n">
-        <v>2055</v>
+        <v>2023</v>
       </c>
       <c r="K78" s="14" t="n">
-        <v>106.88</v>
+        <v>105.203</v>
       </c>
       <c r="L78" t="n">
         <v>493</v>
       </c>
       <c r="M78" t="n">
-        <v>15.92</v>
+        <v>15.67</v>
       </c>
       <c r="N78" t="n">
         <v>9</v>
@@ -5312,7 +5312,7 @@
         <v>307</v>
       </c>
       <c r="C79" t="n">
-        <v>38.27</v>
+        <v>37.67</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -5333,16 +5333,16 @@
         <v>77467</v>
       </c>
       <c r="J79" t="n">
-        <v>2964</v>
+        <v>2918</v>
       </c>
       <c r="K79" s="14" t="n">
-        <v>154.147</v>
+        <v>151.729</v>
       </c>
       <c r="L79" t="n">
         <v>421</v>
       </c>
       <c r="M79" t="n">
-        <v>9.09</v>
+        <v>8.94</v>
       </c>
       <c r="N79" t="n">
         <v>2</v>
@@ -5356,7 +5356,7 @@
         <v>308</v>
       </c>
       <c r="C80" t="n">
-        <v>74.73</v>
+        <v>73.56</v>
       </c>
       <c r="D80" t="n">
         <v>9</v>
@@ -5377,16 +5377,16 @@
         <v>30036</v>
       </c>
       <c r="J80" t="n">
-        <v>2245</v>
+        <v>2209</v>
       </c>
       <c r="K80" s="14" t="n">
-        <v>116.717</v>
+        <v>114.886</v>
       </c>
       <c r="L80" t="n">
         <v>547</v>
       </c>
       <c r="M80" t="n">
-        <v>13.65</v>
+        <v>13.44</v>
       </c>
       <c r="N80" t="n">
         <v>8</v>
@@ -5400,7 +5400,7 @@
         <v>309</v>
       </c>
       <c r="C81" t="n">
-        <v>49.5</v>
+        <v>48.73</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
@@ -5421,16 +5421,16 @@
         <v>21559</v>
       </c>
       <c r="J81" t="n">
-        <v>1067</v>
+        <v>1051</v>
       </c>
       <c r="K81" s="14" t="n">
-        <v>55.498</v>
+        <v>54.627</v>
       </c>
       <c r="L81" t="n">
         <v>680</v>
       </c>
       <c r="M81" t="n">
-        <v>7.28</v>
+        <v>7.16</v>
       </c>
       <c r="N81" t="n">
         <v>1</v>
@@ -5444,7 +5444,7 @@
         <v>310</v>
       </c>
       <c r="C82" t="n">
-        <v>81.16</v>
+        <v>79.89</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
@@ -5465,16 +5465,16 @@
         <v>18578</v>
       </c>
       <c r="J82" t="n">
-        <v>1508</v>
+        <v>1484</v>
       </c>
       <c r="K82" s="14" t="n">
-        <v>78.407</v>
+        <v>77.178</v>
       </c>
       <c r="L82" t="n">
         <v>429</v>
       </c>
       <c r="M82" t="n">
-        <v>18.9</v>
+        <v>18.61</v>
       </c>
       <c r="N82" t="n">
         <v>10</v>
@@ -5488,7 +5488,7 @@
         <v>311</v>
       </c>
       <c r="C83" t="n">
-        <v>65.73</v>
+        <v>64.7</v>
       </c>
       <c r="D83" t="n">
         <v>6</v>
@@ -5509,16 +5509,16 @@
         <v>30202</v>
       </c>
       <c r="J83" t="n">
-        <v>1985</v>
+        <v>1954</v>
       </c>
       <c r="K83" s="14" t="n">
-        <v>103.231</v>
+        <v>101.611</v>
       </c>
       <c r="L83" t="n">
         <v>567</v>
       </c>
       <c r="M83" t="n">
-        <v>11.59</v>
+        <v>11.41</v>
       </c>
       <c r="N83" t="n">
         <v>5</v>
@@ -5532,7 +5532,7 @@
         <v>312</v>
       </c>
       <c r="C84" t="n">
-        <v>78.94</v>
+        <v>77.7</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
@@ -5553,16 +5553,16 @@
         <v>31804</v>
       </c>
       <c r="J84" t="n">
-        <v>2511</v>
+        <v>2471</v>
       </c>
       <c r="K84" s="14" t="n">
-        <v>130.556</v>
+        <v>128.508</v>
       </c>
       <c r="L84" t="n">
         <v>463</v>
       </c>
       <c r="M84" t="n">
-        <v>17.04</v>
+        <v>16.78</v>
       </c>
       <c r="N84" t="n">
         <v>10</v>
@@ -5576,7 +5576,7 @@
         <v>313</v>
       </c>
       <c r="C85" t="n">
-        <v>73.96</v>
+        <v>72.8</v>
       </c>
       <c r="D85" t="n">
         <v>9</v>
@@ -5597,16 +5597,16 @@
         <v>36891</v>
       </c>
       <c r="J85" t="n">
-        <v>2728</v>
+        <v>2686</v>
       </c>
       <c r="K85" s="14" t="n">
-        <v>141.874</v>
+        <v>139.649</v>
       </c>
       <c r="L85" t="n">
         <v>505</v>
       </c>
       <c r="M85" t="n">
-        <v>14.64</v>
+        <v>14.41</v>
       </c>
       <c r="N85" t="n">
         <v>8</v>
@@ -5620,7 +5620,7 @@
         <v>314</v>
       </c>
       <c r="C86" t="n">
-        <v>53.58</v>
+        <v>52.74</v>
       </c>
       <c r="D86" t="n">
         <v>2</v>
@@ -5641,16 +5641,16 @@
         <v>106988</v>
       </c>
       <c r="J86" t="n">
-        <v>5733</v>
+        <v>5643</v>
       </c>
       <c r="K86" s="14" t="n">
-        <v>298.094</v>
+        <v>293.418</v>
       </c>
       <c r="L86" t="n">
         <v>545</v>
       </c>
       <c r="M86" t="n">
-        <v>9.82</v>
+        <v>9.67</v>
       </c>
       <c r="N86" t="n">
         <v>3</v>
@@ -5664,7 +5664,7 @@
         <v>315</v>
       </c>
       <c r="C87" t="n">
-        <v>64.92</v>
+        <v>63.9</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -5685,16 +5685,16 @@
         <v>27763</v>
       </c>
       <c r="J87" t="n">
-        <v>1802</v>
+        <v>1774</v>
       </c>
       <c r="K87" s="14" t="n">
-        <v>93.719</v>
+        <v>92.249</v>
       </c>
       <c r="L87" t="n">
         <v>452</v>
       </c>
       <c r="M87" t="n">
-        <v>14.35</v>
+        <v>14.12</v>
       </c>
       <c r="N87" t="n">
         <v>8</v>
@@ -5708,7 +5708,7 @@
         <v>316</v>
       </c>
       <c r="C88" t="n">
-        <v>66.7</v>
+        <v>65.66</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
@@ -5729,16 +5729,16 @@
         <v>24374</v>
       </c>
       <c r="J88" t="n">
-        <v>1626</v>
+        <v>1600</v>
       </c>
       <c r="K88" s="14" t="n">
-        <v>84.543</v>
+        <v>83.217</v>
       </c>
       <c r="L88" t="n">
         <v>516</v>
       </c>
       <c r="M88" t="n">
-        <v>12.93</v>
+        <v>12.73</v>
       </c>
       <c r="N88" t="n">
         <v>7</v>
@@ -5752,7 +5752,7 @@
         <v>317</v>
       </c>
       <c r="C89" t="n">
-        <v>43.04</v>
+        <v>42.37</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -5773,16 +5773,16 @@
         <v>19276</v>
       </c>
       <c r="J89" t="n">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="K89" s="14" t="n">
-        <v>43.144</v>
+        <v>42.467</v>
       </c>
       <c r="L89" t="n">
         <v>556</v>
       </c>
       <c r="M89" t="n">
-        <v>7.74</v>
+        <v>7.62</v>
       </c>
       <c r="N89" t="n">
         <v>1</v>
@@ -5796,7 +5796,7 @@
         <v>318</v>
       </c>
       <c r="C90" t="n">
-        <v>71.17</v>
+        <v>70.05</v>
       </c>
       <c r="D90" t="n">
         <v>8</v>
@@ -5817,16 +5817,16 @@
         <v>23140</v>
       </c>
       <c r="J90" t="n">
-        <v>1647</v>
+        <v>1621</v>
       </c>
       <c r="K90" s="14" t="n">
-        <v>85.633</v>
+        <v>84.29</v>
       </c>
       <c r="L90" t="n">
         <v>500</v>
       </c>
       <c r="M90" t="n">
-        <v>14.22</v>
+        <v>14</v>
       </c>
       <c r="N90" t="n">
         <v>8</v>
@@ -5840,7 +5840,7 @@
         <v>319</v>
       </c>
       <c r="C91" t="n">
-        <v>63.87</v>
+        <v>62.87</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
@@ -5861,16 +5861,16 @@
         <v>59798</v>
       </c>
       <c r="J91" t="n">
-        <v>3820</v>
+        <v>3760</v>
       </c>
       <c r="K91" s="14" t="n">
-        <v>198.618</v>
+        <v>195.502</v>
       </c>
       <c r="L91" t="n">
         <v>550</v>
       </c>
       <c r="M91" t="n">
-        <v>11.6</v>
+        <v>11.42</v>
       </c>
       <c r="N91" t="n">
         <v>6</v>
@@ -5884,7 +5884,7 @@
         <v>320</v>
       </c>
       <c r="C92" t="n">
-        <v>68.24</v>
+        <v>67.17</v>
       </c>
       <c r="D92" t="n">
         <v>7</v>
@@ -5905,16 +5905,16 @@
         <v>95181</v>
       </c>
       <c r="J92" t="n">
-        <v>6495</v>
+        <v>6393</v>
       </c>
       <c r="K92" s="14" t="n">
-        <v>337.735</v>
+        <v>332.437</v>
       </c>
       <c r="L92" t="n">
         <v>558</v>
       </c>
       <c r="M92" t="n">
-        <v>12.22</v>
+        <v>12.03</v>
       </c>
       <c r="N92" t="n">
         <v>6</v>
@@ -5928,7 +5928,7 @@
         <v>321</v>
       </c>
       <c r="C93" t="n">
-        <v>69.77</v>
+        <v>68.67</v>
       </c>
       <c r="D93" t="n">
         <v>8</v>
@@ -5949,16 +5949,16 @@
         <v>33849</v>
       </c>
       <c r="J93" t="n">
-        <v>2362</v>
+        <v>2325</v>
       </c>
       <c r="K93" s="14" t="n">
-        <v>122.801</v>
+        <v>120.874</v>
       </c>
       <c r="L93" t="n">
         <v>513</v>
       </c>
       <c r="M93" t="n">
-        <v>13.61</v>
+        <v>13.4</v>
       </c>
       <c r="N93" t="n">
         <v>8</v>
@@ -5972,7 +5972,7 @@
         <v>322</v>
       </c>
       <c r="C94" t="n">
-        <v>63.87</v>
+        <v>62.86</v>
       </c>
       <c r="D94" t="n">
         <v>6</v>
@@ -5993,16 +5993,16 @@
         <v>55121</v>
       </c>
       <c r="J94" t="n">
-        <v>3520</v>
+        <v>3465</v>
       </c>
       <c r="K94" s="14" t="n">
-        <v>183.056</v>
+        <v>180.184</v>
       </c>
       <c r="L94" t="n">
         <v>456</v>
       </c>
       <c r="M94" t="n">
-        <v>14.02</v>
+        <v>13.8</v>
       </c>
       <c r="N94" t="n">
         <v>8</v>
@@ -6016,7 +6016,7 @@
         <v>323</v>
       </c>
       <c r="C95" t="n">
-        <v>68.48</v>
+        <v>67.4</v>
       </c>
       <c r="D95" t="n">
         <v>7</v>
@@ -6037,16 +6037,16 @@
         <v>95012</v>
       </c>
       <c r="J95" t="n">
-        <v>6506</v>
+        <v>6404</v>
       </c>
       <c r="K95" s="14" t="n">
-        <v>338.326</v>
+        <v>333.019</v>
       </c>
       <c r="L95" t="n">
         <v>590</v>
       </c>
       <c r="M95" t="n">
-        <v>11.61</v>
+        <v>11.43</v>
       </c>
       <c r="N95" t="n">
         <v>6</v>
@@ -6060,7 +6060,7 @@
         <v>324</v>
       </c>
       <c r="C96" t="n">
-        <v>78.62</v>
+        <v>77.39</v>
       </c>
       <c r="D96" t="n">
         <v>9</v>
@@ -6081,16 +6081,16 @@
         <v>31764</v>
       </c>
       <c r="J96" t="n">
-        <v>2497</v>
+        <v>2458</v>
       </c>
       <c r="K96" s="14" t="n">
-        <v>129.864</v>
+        <v>127.827</v>
       </c>
       <c r="L96" t="n">
         <v>463</v>
       </c>
       <c r="M96" t="n">
-        <v>16.97</v>
+        <v>16.71</v>
       </c>
       <c r="N96" t="n">
         <v>10</v>
@@ -6104,7 +6104,7 @@
         <v>325</v>
       </c>
       <c r="C97" t="n">
-        <v>61.59</v>
+        <v>60.62</v>
       </c>
       <c r="D97" t="n">
         <v>5</v>
@@ -6125,16 +6125,16 @@
         <v>65455</v>
       </c>
       <c r="J97" t="n">
-        <v>4031</v>
+        <v>3968</v>
       </c>
       <c r="K97" s="14" t="n">
-        <v>209.621</v>
+        <v>206.333</v>
       </c>
       <c r="L97" t="n">
         <v>641</v>
       </c>
       <c r="M97" t="n">
-        <v>9.61</v>
+        <v>9.46</v>
       </c>
       <c r="N97" t="n">
         <v>3</v>
@@ -6148,7 +6148,7 @@
         <v>326</v>
       </c>
       <c r="C98" t="n">
-        <v>45.47</v>
+        <v>44.75</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -6169,16 +6169,16 @@
         <v>28328</v>
       </c>
       <c r="J98" t="n">
-        <v>1288</v>
+        <v>1268</v>
       </c>
       <c r="K98" s="14" t="n">
-        <v>66.975</v>
+        <v>65.925</v>
       </c>
       <c r="L98" t="n">
         <v>518</v>
       </c>
       <c r="M98" t="n">
-        <v>8.78</v>
+        <v>8.64</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
@@ -6192,7 +6192,7 @@
         <v>327</v>
       </c>
       <c r="C99" t="n">
-        <v>50.52</v>
+        <v>49.73</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
@@ -6213,16 +6213,16 @@
         <v>38738</v>
       </c>
       <c r="J99" t="n">
-        <v>1957</v>
+        <v>1927</v>
       </c>
       <c r="K99" s="14" t="n">
-        <v>101.776</v>
+        <v>100.179</v>
       </c>
       <c r="L99" t="n">
         <v>505</v>
       </c>
       <c r="M99" t="n">
-        <v>10.01</v>
+        <v>9.85</v>
       </c>
       <c r="N99" t="n">
         <v>3</v>
@@ -6236,7 +6236,7 @@
         <v>328</v>
       </c>
       <c r="C100" t="n">
-        <v>72.71</v>
+        <v>71.57</v>
       </c>
       <c r="D100" t="n">
         <v>8</v>
@@ -6257,16 +6257,16 @@
         <v>28148</v>
       </c>
       <c r="J100" t="n">
-        <v>2047</v>
+        <v>2014</v>
       </c>
       <c r="K100" s="14" t="n">
-        <v>106.42</v>
+        <v>104.751</v>
       </c>
       <c r="L100" t="n">
         <v>558</v>
       </c>
       <c r="M100" t="n">
-        <v>13.02</v>
+        <v>12.82</v>
       </c>
       <c r="N100" t="n">
         <v>7</v>
@@ -6324,7 +6324,7 @@
         <v>330</v>
       </c>
       <c r="C102" t="n">
-        <v>64.54</v>
+        <v>63.52</v>
       </c>
       <c r="D102" t="n">
         <v>6</v>
@@ -6345,16 +6345,16 @@
         <v>30605</v>
       </c>
       <c r="J102" t="n">
-        <v>1975</v>
+        <v>1944</v>
       </c>
       <c r="K102" s="14" t="n">
-        <v>102.707</v>
+        <v>101.096</v>
       </c>
       <c r="L102" t="n">
         <v>593</v>
       </c>
       <c r="M102" t="n">
-        <v>10.88</v>
+        <v>10.71</v>
       </c>
       <c r="N102" t="n">
         <v>4</v>
@@ -6368,7 +6368,7 @@
         <v>331</v>
       </c>
       <c r="C103" t="n">
-        <v>72.93</v>
+        <v>71.79</v>
       </c>
       <c r="D103" t="n">
         <v>8</v>
@@ -6389,16 +6389,16 @@
         <v>16942</v>
       </c>
       <c r="J103" t="n">
-        <v>1236</v>
+        <v>1216</v>
       </c>
       <c r="K103" s="14" t="n">
-        <v>64.252</v>
+        <v>63.245</v>
       </c>
       <c r="L103" t="n">
         <v>468</v>
       </c>
       <c r="M103" t="n">
-        <v>15.59</v>
+        <v>15.35</v>
       </c>
       <c r="N103" t="n">
         <v>9</v>
@@ -6412,7 +6412,7 @@
         <v>332</v>
       </c>
       <c r="C104" t="n">
-        <v>59.72</v>
+        <v>58.78</v>
       </c>
       <c r="D104" t="n">
         <v>4</v>
@@ -6433,16 +6433,16 @@
         <v>12172</v>
       </c>
       <c r="J104" t="n">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="K104" s="14" t="n">
-        <v>37.797</v>
+        <v>37.204</v>
       </c>
       <c r="L104" t="n">
         <v>779</v>
       </c>
       <c r="M104" t="n">
-        <v>7.66</v>
+        <v>7.54</v>
       </c>
       <c r="N104" t="n">
         <v>1</v>
@@ -6456,7 +6456,7 @@
         <v>333</v>
       </c>
       <c r="C105" t="n">
-        <v>57.18</v>
+        <v>56.28</v>
       </c>
       <c r="D105" t="n">
         <v>3</v>
@@ -6477,16 +6477,16 @@
         <v>25632</v>
       </c>
       <c r="J105" t="n">
-        <v>1466</v>
+        <v>1443</v>
       </c>
       <c r="K105" s="14" t="n">
-        <v>76.212</v>
+        <v>75.016</v>
       </c>
       <c r="L105" t="n">
         <v>455</v>
       </c>
       <c r="M105" t="n">
-        <v>12.56</v>
+        <v>12.37</v>
       </c>
       <c r="N105" t="n">
         <v>7</v>
@@ -6500,7 +6500,7 @@
         <v>334</v>
       </c>
       <c r="C106" t="n">
-        <v>56.96</v>
+        <v>56.06</v>
       </c>
       <c r="D106" t="n">
         <v>3</v>
@@ -6521,16 +6521,16 @@
         <v>37100</v>
       </c>
       <c r="J106" t="n">
-        <v>2113</v>
+        <v>2080</v>
       </c>
       <c r="K106" s="14" t="n">
-        <v>109.881</v>
+        <v>108.158</v>
       </c>
       <c r="L106" t="n">
         <v>509</v>
       </c>
       <c r="M106" t="n">
-        <v>11.19</v>
+        <v>11.02</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6544,7 +6544,7 @@
         <v>335</v>
       </c>
       <c r="C107" t="n">
-        <v>76.69</v>
+        <v>75.49</v>
       </c>
       <c r="D107" t="n">
         <v>9</v>
@@ -6565,16 +6565,16 @@
         <v>3258</v>
       </c>
       <c r="J107" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K107" s="14" t="n">
-        <v>12.993</v>
+        <v>12.789</v>
       </c>
       <c r="L107" t="n">
         <v>662</v>
       </c>
       <c r="M107" t="n">
-        <v>11.59</v>
+        <v>11.41</v>
       </c>
       <c r="N107" t="n">
         <v>6</v>
@@ -6588,7 +6588,7 @@
         <v>336</v>
       </c>
       <c r="C108" t="n">
-        <v>89.3</v>
+        <v>87.9</v>
       </c>
       <c r="D108" t="n">
         <v>10</v>
@@ -6609,16 +6609,16 @@
         <v>38440</v>
       </c>
       <c r="J108" t="n">
-        <v>3433</v>
+        <v>3379</v>
       </c>
       <c r="K108" s="14" t="n">
-        <v>178.492</v>
+        <v>175.692</v>
       </c>
       <c r="L108" t="n">
         <v>441</v>
       </c>
       <c r="M108" t="n">
-        <v>20.23</v>
+        <v>19.91</v>
       </c>
       <c r="N108" t="n">
         <v>10</v>
@@ -6632,7 +6632,7 @@
         <v>337</v>
       </c>
       <c r="C109" t="n">
-        <v>73.18</v>
+        <v>72.03</v>
       </c>
       <c r="D109" t="n">
         <v>9</v>
@@ -6653,16 +6653,16 @@
         <v>37750</v>
       </c>
       <c r="J109" t="n">
-        <v>2763</v>
+        <v>2719</v>
       </c>
       <c r="K109" s="14" t="n">
-        <v>143.654</v>
+        <v>141.401</v>
       </c>
       <c r="L109" t="n">
         <v>402</v>
       </c>
       <c r="M109" t="n">
-        <v>18.19</v>
+        <v>17.9</v>
       </c>
       <c r="N109" t="n">
         <v>10</v>
@@ -6676,7 +6676,7 @@
         <v>338</v>
       </c>
       <c r="C110" t="n">
-        <v>81.62</v>
+        <v>80.34</v>
       </c>
       <c r="D110" t="n">
         <v>10</v>
@@ -6697,16 +6697,16 @@
         <v>21157</v>
       </c>
       <c r="J110" t="n">
-        <v>1727</v>
+        <v>1700</v>
       </c>
       <c r="K110" s="14" t="n">
-        <v>89.791</v>
+        <v>88.382</v>
       </c>
       <c r="L110" t="n">
         <v>496</v>
       </c>
       <c r="M110" t="n">
-        <v>16.47</v>
+        <v>16.21</v>
       </c>
       <c r="N110" t="n">
         <v>9</v>
@@ -6720,7 +6720,7 @@
         <v>339</v>
       </c>
       <c r="C111" t="n">
-        <v>54.62</v>
+        <v>53.77</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -6741,16 +6741,16 @@
         <v>64968</v>
       </c>
       <c r="J111" t="n">
-        <v>3549</v>
+        <v>3493</v>
       </c>
       <c r="K111" s="14" t="n">
-        <v>184.532</v>
+        <v>181.637</v>
       </c>
       <c r="L111" t="n">
         <v>522</v>
       </c>
       <c r="M111" t="n">
-        <v>10.46</v>
+        <v>10.29</v>
       </c>
       <c r="N111" t="n">
         <v>4</v>
@@ -6764,7 +6764,7 @@
         <v>340</v>
       </c>
       <c r="C112" t="n">
-        <v>66.79</v>
+        <v>65.74</v>
       </c>
       <c r="D112" t="n">
         <v>7</v>
@@ -6785,16 +6785,16 @@
         <v>36082</v>
       </c>
       <c r="J112" t="n">
-        <v>2410</v>
+        <v>2372</v>
       </c>
       <c r="K112" s="14" t="n">
-        <v>125.308</v>
+        <v>123.342</v>
       </c>
       <c r="L112" t="n">
         <v>536</v>
       </c>
       <c r="M112" t="n">
-        <v>12.47</v>
+        <v>12.27</v>
       </c>
       <c r="N112" t="n">
         <v>7</v>
@@ -6808,7 +6808,7 @@
         <v>341</v>
       </c>
       <c r="C113" t="n">
-        <v>60.54</v>
+        <v>59.59</v>
       </c>
       <c r="D113" t="n">
         <v>5</v>
@@ -6829,16 +6829,16 @@
         <v>17192</v>
       </c>
       <c r="J113" t="n">
-        <v>1041</v>
+        <v>1025</v>
       </c>
       <c r="K113" s="14" t="n">
-        <v>54.124</v>
+        <v>53.275</v>
       </c>
       <c r="L113" t="n">
         <v>498</v>
       </c>
       <c r="M113" t="n">
-        <v>12.15</v>
+        <v>11.96</v>
       </c>
       <c r="N113" t="n">
         <v>6</v>
@@ -6852,7 +6852,7 @@
         <v>342</v>
       </c>
       <c r="C114" t="n">
-        <v>79.93</v>
+        <v>78.68</v>
       </c>
       <c r="D114" t="n">
         <v>10</v>
@@ -6873,16 +6873,16 @@
         <v>21225</v>
       </c>
       <c r="J114" t="n">
-        <v>1697</v>
+        <v>1670</v>
       </c>
       <c r="K114" s="14" t="n">
-        <v>88.22</v>
+        <v>86.837</v>
       </c>
       <c r="L114" t="n">
         <v>566</v>
       </c>
       <c r="M114" t="n">
-        <v>14.12</v>
+        <v>13.9</v>
       </c>
       <c r="N114" t="n">
         <v>8</v>
@@ -6896,7 +6896,7 @@
         <v>343</v>
       </c>
       <c r="C115" t="n">
-        <v>51.04</v>
+        <v>50.24</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
@@ -6917,16 +6917,16 @@
         <v>64912</v>
       </c>
       <c r="J115" t="n">
-        <v>3313</v>
+        <v>3261</v>
       </c>
       <c r="K115" s="14" t="n">
-        <v>172.277</v>
+        <v>169.575</v>
       </c>
       <c r="L115" t="n">
         <v>521</v>
       </c>
       <c r="M115" t="n">
-        <v>9.8</v>
+        <v>9.65</v>
       </c>
       <c r="N115" t="n">
         <v>3</v>
@@ -6940,7 +6940,7 @@
         <v>344</v>
       </c>
       <c r="C116" t="n">
-        <v>59.56</v>
+        <v>58.63</v>
       </c>
       <c r="D116" t="n">
         <v>4</v>
@@ -6961,16 +6961,16 @@
         <v>25299</v>
       </c>
       <c r="J116" t="n">
-        <v>1507</v>
+        <v>1483</v>
       </c>
       <c r="K116" s="14" t="n">
-        <v>78.353</v>
+        <v>77.124</v>
       </c>
       <c r="L116" t="n">
         <v>582</v>
       </c>
       <c r="M116" t="n">
-        <v>10.23</v>
+        <v>10.07</v>
       </c>
       <c r="N116" t="n">
         <v>3</v>
@@ -6984,7 +6984,7 @@
         <v>345</v>
       </c>
       <c r="C117" t="n">
-        <v>55.61</v>
+        <v>54.74</v>
       </c>
       <c r="D117" t="n">
         <v>3</v>
@@ -7005,16 +7005,16 @@
         <v>19723</v>
       </c>
       <c r="J117" t="n">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="K117" s="14" t="n">
-        <v>57.032</v>
+        <v>56.137</v>
       </c>
       <c r="L117" t="n">
         <v>472</v>
       </c>
       <c r="M117" t="n">
-        <v>11.79</v>
+        <v>11.61</v>
       </c>
       <c r="N117" t="n">
         <v>6</v>
@@ -7028,7 +7028,7 @@
         <v>346</v>
       </c>
       <c r="C118" t="n">
-        <v>55.85</v>
+        <v>54.97</v>
       </c>
       <c r="D118" t="n">
         <v>3</v>
@@ -7049,16 +7049,16 @@
         <v>33803</v>
       </c>
       <c r="J118" t="n">
-        <v>1888</v>
+        <v>1858</v>
       </c>
       <c r="K118" s="14" t="n">
-        <v>98.165</v>
+        <v>96.625</v>
       </c>
       <c r="L118" t="n">
         <v>530</v>
       </c>
       <c r="M118" t="n">
-        <v>10.54</v>
+        <v>10.37</v>
       </c>
       <c r="N118" t="n">
         <v>4</v>
@@ -7072,7 +7072,7 @@
         <v>347</v>
       </c>
       <c r="C119" t="n">
-        <v>69.83</v>
+        <v>68.74</v>
       </c>
       <c r="D119" t="n">
         <v>8</v>
@@ -7093,16 +7093,16 @@
         <v>18976</v>
       </c>
       <c r="J119" t="n">
-        <v>1325</v>
+        <v>1304</v>
       </c>
       <c r="K119" s="14" t="n">
-        <v>68.909</v>
+        <v>67.828</v>
       </c>
       <c r="L119" t="n">
         <v>538</v>
       </c>
       <c r="M119" t="n">
-        <v>12.97</v>
+        <v>12.77</v>
       </c>
       <c r="N119" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         <v>348</v>
       </c>
       <c r="C120" t="n">
-        <v>48.45</v>
+        <v>47.69</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -7137,16 +7137,16 @@
         <v>39445</v>
       </c>
       <c r="J120" t="n">
-        <v>1911</v>
+        <v>1881</v>
       </c>
       <c r="K120" s="14" t="n">
-        <v>99.371</v>
+        <v>97.812</v>
       </c>
       <c r="L120" t="n">
         <v>590</v>
       </c>
       <c r="M120" t="n">
-        <v>8.21</v>
+        <v>8.08</v>
       </c>
       <c r="N120" t="n">
         <v>1</v>
@@ -7160,7 +7160,7 @@
         <v>349</v>
       </c>
       <c r="C121" t="n">
-        <v>76.88</v>
+        <v>75.68</v>
       </c>
       <c r="D121" t="n">
         <v>9</v>
@@ -7181,16 +7181,16 @@
         <v>18748</v>
       </c>
       <c r="J121" t="n">
-        <v>1441</v>
+        <v>1419</v>
       </c>
       <c r="K121" s="14" t="n">
-        <v>74.953</v>
+        <v>73.778</v>
       </c>
       <c r="L121" t="n">
         <v>488</v>
       </c>
       <c r="M121" t="n">
-        <v>15.77</v>
+        <v>15.52</v>
       </c>
       <c r="N121" t="n">
         <v>9</v>
@@ -7204,7 +7204,7 @@
         <v>350</v>
       </c>
       <c r="C122" t="n">
-        <v>57.28</v>
+        <v>56.38</v>
       </c>
       <c r="D122" t="n">
         <v>4</v>
@@ -7225,16 +7225,16 @@
         <v>98437</v>
       </c>
       <c r="J122" t="n">
-        <v>5638</v>
+        <v>5550</v>
       </c>
       <c r="K122" s="14" t="n">
-        <v>293.19</v>
+        <v>288.591</v>
       </c>
       <c r="L122" t="n">
         <v>540</v>
       </c>
       <c r="M122" t="n">
-        <v>10.61</v>
+        <v>10.44</v>
       </c>
       <c r="N122" t="n">
         <v>4</v>
@@ -7248,7 +7248,7 @@
         <v>351</v>
       </c>
       <c r="C123" t="n">
-        <v>90.11</v>
+        <v>88.7</v>
       </c>
       <c r="D123" t="n">
         <v>10</v>
@@ -7269,16 +7269,16 @@
         <v>30789</v>
       </c>
       <c r="J123" t="n">
-        <v>2774</v>
+        <v>2731</v>
       </c>
       <c r="K123" s="14" t="n">
-        <v>144.268</v>
+        <v>142.005</v>
       </c>
       <c r="L123" t="n">
         <v>541</v>
       </c>
       <c r="M123" t="n">
-        <v>16.67</v>
+        <v>16.41</v>
       </c>
       <c r="N123" t="n">
         <v>10</v>
@@ -7292,7 +7292,7 @@
         <v>352</v>
       </c>
       <c r="C124" t="n">
-        <v>74.83</v>
+        <v>73.66</v>
       </c>
       <c r="D124" t="n">
         <v>9</v>
@@ -7313,16 +7313,16 @@
         <v>20294</v>
       </c>
       <c r="J124" t="n">
-        <v>1519</v>
+        <v>1495</v>
       </c>
       <c r="K124" s="14" t="n">
-        <v>78.969</v>
+        <v>77.73</v>
       </c>
       <c r="L124" t="n">
         <v>489</v>
       </c>
       <c r="M124" t="n">
-        <v>15.29</v>
+        <v>15.05</v>
       </c>
       <c r="N124" t="n">
         <v>8</v>
@@ -7336,7 +7336,7 @@
         <v>353</v>
       </c>
       <c r="C125" t="n">
-        <v>61.98</v>
+        <v>61.01</v>
       </c>
       <c r="D125" t="n">
         <v>5</v>
@@ -7357,16 +7357,16 @@
         <v>36216</v>
       </c>
       <c r="J125" t="n">
-        <v>2245</v>
+        <v>2209</v>
       </c>
       <c r="K125" s="14" t="n">
-        <v>116.725</v>
+        <v>114.894</v>
       </c>
       <c r="L125" t="n">
         <v>453</v>
       </c>
       <c r="M125" t="n">
-        <v>13.69</v>
+        <v>13.47</v>
       </c>
       <c r="N125" t="n">
         <v>8</v>
@@ -7380,7 +7380,7 @@
         <v>354</v>
       </c>
       <c r="C126" t="n">
-        <v>62.47</v>
+        <v>61.49</v>
       </c>
       <c r="D126" t="n">
         <v>5</v>
@@ -7401,16 +7401,16 @@
         <v>97749</v>
       </c>
       <c r="J126" t="n">
-        <v>6107</v>
+        <v>6011</v>
       </c>
       <c r="K126" s="14" t="n">
-        <v>317.546</v>
+        <v>312.565</v>
       </c>
       <c r="L126" t="n">
         <v>559</v>
       </c>
       <c r="M126" t="n">
-        <v>11.17</v>
+        <v>10.99</v>
       </c>
       <c r="N126" t="n">
         <v>5</v>
@@ -7424,7 +7424,7 @@
         <v>355</v>
       </c>
       <c r="C127" t="n">
-        <v>73.15</v>
+        <v>72</v>
       </c>
       <c r="D127" t="n">
         <v>8</v>
@@ -7445,16 +7445,16 @@
         <v>35699</v>
       </c>
       <c r="J127" t="n">
-        <v>2611</v>
+        <v>2570</v>
       </c>
       <c r="K127" s="14" t="n">
-        <v>135.788</v>
+        <v>133.658</v>
       </c>
       <c r="L127" t="n">
         <v>466</v>
       </c>
       <c r="M127" t="n">
-        <v>15.69</v>
+        <v>15.44</v>
       </c>
       <c r="N127" t="n">
         <v>9</v>
@@ -7468,7 +7468,7 @@
         <v>356</v>
       </c>
       <c r="C128" t="n">
-        <v>75.06</v>
+        <v>73.88</v>
       </c>
       <c r="D128" t="n">
         <v>9</v>
@@ -7489,16 +7489,16 @@
         <v>93710</v>
       </c>
       <c r="J128" t="n">
-        <v>7034</v>
+        <v>6924</v>
       </c>
       <c r="K128" s="14" t="n">
-        <v>365.769</v>
+        <v>360.031</v>
       </c>
       <c r="L128" t="n">
         <v>658</v>
       </c>
       <c r="M128" t="n">
-        <v>11.4</v>
+        <v>11.23</v>
       </c>
       <c r="N128" t="n">
         <v>5</v>
@@ -7512,7 +7512,7 @@
         <v>357</v>
       </c>
       <c r="C129" t="n">
-        <v>76.05</v>
+        <v>74.85</v>
       </c>
       <c r="D129" t="n">
         <v>9</v>
@@ -7533,16 +7533,16 @@
         <v>24988</v>
       </c>
       <c r="J129" t="n">
-        <v>1900</v>
+        <v>1870</v>
       </c>
       <c r="K129" s="14" t="n">
-        <v>98.813</v>
+        <v>97.263</v>
       </c>
       <c r="L129" t="n">
         <v>678</v>
       </c>
       <c r="M129" t="n">
-        <v>11.22</v>
+        <v>11.04</v>
       </c>
       <c r="N129" t="n">
         <v>5</v>
@@ -7556,7 +7556,7 @@
         <v>358</v>
       </c>
       <c r="C130" t="n">
-        <v>68.05</v>
+        <v>66.98</v>
       </c>
       <c r="D130" t="n">
         <v>7</v>
@@ -7577,16 +7577,16 @@
         <v>22505</v>
       </c>
       <c r="J130" t="n">
-        <v>1531</v>
+        <v>1507</v>
       </c>
       <c r="K130" s="14" t="n">
-        <v>79.631</v>
+        <v>78.382</v>
       </c>
       <c r="L130" t="n">
         <v>527</v>
       </c>
       <c r="M130" t="n">
-        <v>12.92</v>
+        <v>12.72</v>
       </c>
       <c r="N130" t="n">
         <v>7</v>
@@ -7600,7 +7600,7 @@
         <v>359</v>
       </c>
       <c r="C131" t="n">
-        <v>72.09</v>
+        <v>70.96</v>
       </c>
       <c r="D131" t="n">
         <v>8</v>
@@ -7621,16 +7621,16 @@
         <v>31913</v>
       </c>
       <c r="J131" t="n">
-        <v>2301</v>
+        <v>2264</v>
       </c>
       <c r="K131" s="14" t="n">
-        <v>119.626</v>
+        <v>117.75</v>
       </c>
       <c r="L131" t="n">
         <v>455</v>
       </c>
       <c r="M131" t="n">
-        <v>15.84</v>
+        <v>15.59</v>
       </c>
       <c r="N131" t="n">
         <v>9</v>
@@ -7644,7 +7644,7 @@
         <v>360</v>
       </c>
       <c r="C132" t="n">
-        <v>62.61</v>
+        <v>61.62</v>
       </c>
       <c r="D132" t="n">
         <v>6</v>
@@ -7665,16 +7665,16 @@
         <v>21344</v>
       </c>
       <c r="J132" t="n">
-        <v>1336</v>
+        <v>1315</v>
       </c>
       <c r="K132" s="14" t="n">
-        <v>69.486</v>
+        <v>68.396</v>
       </c>
       <c r="L132" t="n">
         <v>511</v>
       </c>
       <c r="M132" t="n">
-        <v>12.26</v>
+        <v>12.07</v>
       </c>
       <c r="N132" t="n">
         <v>6</v>
@@ -7688,7 +7688,7 @@
         <v>361</v>
       </c>
       <c r="C133" t="n">
-        <v>82.41</v>
+        <v>81.12</v>
       </c>
       <c r="D133" t="n">
         <v>10</v>
@@ -7709,16 +7709,16 @@
         <v>22753</v>
       </c>
       <c r="J133" t="n">
-        <v>1875</v>
+        <v>1846</v>
       </c>
       <c r="K133" s="14" t="n">
-        <v>97.505</v>
+        <v>95.976</v>
       </c>
       <c r="L133" t="n">
         <v>537</v>
       </c>
       <c r="M133" t="n">
-        <v>15.34</v>
+        <v>15.1</v>
       </c>
       <c r="N133" t="n">
         <v>9</v>
@@ -7732,7 +7732,7 @@
         <v>362</v>
       </c>
       <c r="C134" t="n">
-        <v>58.35</v>
+        <v>57.43</v>
       </c>
       <c r="D134" t="n">
         <v>4</v>
@@ -7753,16 +7753,16 @@
         <v>16590</v>
       </c>
       <c r="J134" t="n">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="K134" s="14" t="n">
-        <v>50.337</v>
+        <v>49.547</v>
       </c>
       <c r="L134" t="n">
         <v>441</v>
       </c>
       <c r="M134" t="n">
-        <v>13.22</v>
+        <v>13.01</v>
       </c>
       <c r="N134" t="n">
         <v>8</v>
@@ -7776,7 +7776,7 @@
         <v>363</v>
       </c>
       <c r="C135" t="n">
-        <v>58.36</v>
+        <v>57.45</v>
       </c>
       <c r="D135" t="n">
         <v>4</v>
@@ -7797,16 +7797,16 @@
         <v>38117</v>
       </c>
       <c r="J135" t="n">
-        <v>2225</v>
+        <v>2190</v>
       </c>
       <c r="K135" s="14" t="n">
-        <v>115.677</v>
+        <v>113.863</v>
       </c>
       <c r="L135" t="n">
         <v>548</v>
       </c>
       <c r="M135" t="n">
-        <v>10.66</v>
+        <v>10.49</v>
       </c>
       <c r="N135" t="n">
         <v>4</v>
@@ -7820,7 +7820,7 @@
         <v>364</v>
       </c>
       <c r="C136" t="n">
-        <v>66.99</v>
+        <v>65.94</v>
       </c>
       <c r="D136" t="n">
         <v>7</v>
@@ -7841,16 +7841,16 @@
         <v>16547</v>
       </c>
       <c r="J136" t="n">
-        <v>1108</v>
+        <v>1091</v>
       </c>
       <c r="K136" s="14" t="n">
-        <v>57.642</v>
+        <v>56.738</v>
       </c>
       <c r="L136" t="n">
         <v>536</v>
       </c>
       <c r="M136" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="N136" t="n">
         <v>7</v>
@@ -7864,7 +7864,7 @@
         <v>365</v>
       </c>
       <c r="C137" t="n">
-        <v>55.33</v>
+        <v>54.46</v>
       </c>
       <c r="D137" t="n">
         <v>3</v>
@@ -7885,16 +7885,16 @@
         <v>45778</v>
       </c>
       <c r="J137" t="n">
-        <v>2533</v>
+        <v>2493</v>
       </c>
       <c r="K137" s="14" t="n">
-        <v>131.711</v>
+        <v>129.645</v>
       </c>
       <c r="L137" t="n">
         <v>508</v>
       </c>
       <c r="M137" t="n">
-        <v>10.9</v>
+        <v>10.73</v>
       </c>
       <c r="N137" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
         <v>366</v>
       </c>
       <c r="C138" t="n">
-        <v>48.88</v>
+        <v>48.11</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -7929,16 +7929,16 @@
         <v>32551</v>
       </c>
       <c r="J138" t="n">
-        <v>1591</v>
+        <v>1566</v>
       </c>
       <c r="K138" s="14" t="n">
-        <v>82.738</v>
+        <v>81.44</v>
       </c>
       <c r="L138" t="n">
         <v>442</v>
       </c>
       <c r="M138" t="n">
-        <v>11.05</v>
+        <v>10.88</v>
       </c>
       <c r="N138" t="n">
         <v>5</v>
@@ -7952,7 +7952,7 @@
         <v>367</v>
       </c>
       <c r="C139" t="n">
-        <v>59.29</v>
+        <v>58.36</v>
       </c>
       <c r="D139" t="n">
         <v>4</v>
@@ -7973,16 +7973,16 @@
         <v>33953</v>
       </c>
       <c r="J139" t="n">
-        <v>2013</v>
+        <v>1982</v>
       </c>
       <c r="K139" s="14" t="n">
-        <v>104.686</v>
+        <v>103.044</v>
       </c>
       <c r="L139" t="n">
         <v>573</v>
       </c>
       <c r="M139" t="n">
-        <v>10.35</v>
+        <v>10.19</v>
       </c>
       <c r="N139" t="n">
         <v>3</v>
@@ -7996,7 +7996,7 @@
         <v>368</v>
       </c>
       <c r="C140" t="n">
-        <v>48.5</v>
+        <v>47.74</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -8017,16 +8017,16 @@
         <v>35713</v>
       </c>
       <c r="J140" t="n">
-        <v>1732</v>
+        <v>1705</v>
       </c>
       <c r="K140" s="14" t="n">
-        <v>90.073</v>
+        <v>88.66</v>
       </c>
       <c r="L140" t="n">
         <v>690</v>
       </c>
       <c r="M140" t="n">
-        <v>7.03</v>
+        <v>6.92</v>
       </c>
       <c r="N140" t="n">
         <v>1</v>
@@ -8072,7 +8072,7 @@
         <v>370</v>
       </c>
       <c r="C142" t="n">
-        <v>68.75</v>
+        <v>67.68</v>
       </c>
       <c r="D142" t="n">
         <v>8</v>
@@ -8093,16 +8093,16 @@
         <v>61149</v>
       </c>
       <c r="J142" t="n">
-        <v>4204</v>
+        <v>4138</v>
       </c>
       <c r="K142" s="14" t="n">
-        <v>218.622</v>
+        <v>215.193</v>
       </c>
       <c r="L142" t="n">
         <v>556</v>
       </c>
       <c r="M142" t="n">
-        <v>12.37</v>
+        <v>12.17</v>
       </c>
       <c r="N142" t="n">
         <v>7</v>
@@ -8116,7 +8116,7 @@
         <v>371</v>
       </c>
       <c r="C143" t="n">
-        <v>52.29</v>
+        <v>51.47</v>
       </c>
       <c r="D143" t="n">
         <v>2</v>
@@ -8137,16 +8137,16 @@
         <v>12712</v>
       </c>
       <c r="J143" t="n">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="K143" s="14" t="n">
-        <v>34.567</v>
+        <v>34.024</v>
       </c>
       <c r="L143" t="n">
         <v>656</v>
       </c>
       <c r="M143" t="n">
-        <v>7.98</v>
+        <v>7.85</v>
       </c>
       <c r="N143" t="n">
         <v>1</v>
@@ -8160,7 +8160,7 @@
         <v>372</v>
       </c>
       <c r="C144" t="n">
-        <v>56.17</v>
+        <v>55.29</v>
       </c>
       <c r="D144" t="n">
         <v>3</v>
@@ -8181,16 +8181,16 @@
         <v>69067</v>
       </c>
       <c r="J144" t="n">
-        <v>3880</v>
+        <v>3819</v>
       </c>
       <c r="K144" s="14" t="n">
-        <v>201.735</v>
+        <v>198.571</v>
       </c>
       <c r="L144" t="n">
         <v>594</v>
       </c>
       <c r="M144" t="n">
-        <v>9.46</v>
+        <v>9.31</v>
       </c>
       <c r="N144" t="n">
         <v>2</v>
@@ -8204,7 +8204,7 @@
         <v>373</v>
       </c>
       <c r="C145" t="n">
-        <v>57.2</v>
+        <v>56.3</v>
       </c>
       <c r="D145" t="n">
         <v>4</v>
@@ -8225,16 +8225,16 @@
         <v>22254</v>
       </c>
       <c r="J145" t="n">
-        <v>1273</v>
+        <v>1253</v>
       </c>
       <c r="K145" s="14" t="n">
-        <v>66.191</v>
+        <v>65.152</v>
       </c>
       <c r="L145" t="n">
         <v>640</v>
       </c>
       <c r="M145" t="n">
-        <v>8.94</v>
+        <v>8.8</v>
       </c>
       <c r="N145" t="n">
         <v>2</v>
@@ -8248,7 +8248,7 @@
         <v>374</v>
       </c>
       <c r="C146" t="n">
-        <v>81.51</v>
+        <v>80.23</v>
       </c>
       <c r="D146" t="n">
         <v>10</v>
@@ -8269,16 +8269,16 @@
         <v>44173</v>
       </c>
       <c r="J146" t="n">
-        <v>3601</v>
+        <v>3544</v>
       </c>
       <c r="K146" s="14" t="n">
-        <v>187.232</v>
+        <v>184.295</v>
       </c>
       <c r="L146" t="n">
         <v>484</v>
       </c>
       <c r="M146" t="n">
-        <v>16.83</v>
+        <v>16.56</v>
       </c>
       <c r="N146" t="n">
         <v>10</v>
@@ -8292,7 +8292,7 @@
         <v>375</v>
       </c>
       <c r="C147" t="n">
-        <v>65.88</v>
+        <v>64.85</v>
       </c>
       <c r="D147" t="n">
         <v>6</v>
@@ -8313,16 +8313,16 @@
         <v>57527</v>
       </c>
       <c r="J147" t="n">
-        <v>3790</v>
+        <v>3731</v>
       </c>
       <c r="K147" s="14" t="n">
-        <v>197.086</v>
+        <v>193.994</v>
       </c>
       <c r="L147" t="n">
         <v>575</v>
       </c>
       <c r="M147" t="n">
-        <v>11.46</v>
+        <v>11.28</v>
       </c>
       <c r="N147" t="n">
         <v>5</v>
@@ -8336,7 +8336,7 @@
         <v>376</v>
       </c>
       <c r="C148" t="n">
-        <v>54.38</v>
+        <v>53.53</v>
       </c>
       <c r="D148" t="n">
         <v>2</v>
@@ -8357,16 +8357,16 @@
         <v>11445</v>
       </c>
       <c r="J148" t="n">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="K148" s="14" t="n">
-        <v>32.365</v>
+        <v>31.858</v>
       </c>
       <c r="L148" t="n">
         <v>642</v>
       </c>
       <c r="M148" t="n">
-        <v>8.47</v>
+        <v>8.34</v>
       </c>
       <c r="N148" t="n">
         <v>1</v>
@@ -8380,7 +8380,7 @@
         <v>377</v>
       </c>
       <c r="C149" t="n">
-        <v>67.21</v>
+        <v>66.15</v>
       </c>
       <c r="D149" t="n">
         <v>7</v>
@@ -8401,16 +8401,16 @@
         <v>27545</v>
       </c>
       <c r="J149" t="n">
-        <v>1851</v>
+        <v>1822</v>
       </c>
       <c r="K149" s="14" t="n">
-        <v>96.265</v>
+        <v>94.755</v>
       </c>
       <c r="L149" t="n">
         <v>503</v>
       </c>
       <c r="M149" t="n">
-        <v>13.36</v>
+        <v>13.15</v>
       </c>
       <c r="N149" t="n">
         <v>8</v>
@@ -8424,7 +8424,7 @@
         <v>378</v>
       </c>
       <c r="C150" t="n">
-        <v>134.15</v>
+        <v>132.04</v>
       </c>
       <c r="D150" t="n">
         <v>10</v>
@@ -8445,16 +8445,16 @@
         <v>10998</v>
       </c>
       <c r="J150" t="n">
-        <v>1475</v>
+        <v>1452</v>
       </c>
       <c r="K150" s="14" t="n">
-        <v>76.717</v>
+        <v>75.514</v>
       </c>
       <c r="L150" t="n">
         <v>692</v>
       </c>
       <c r="M150" t="n">
-        <v>19.38</v>
+        <v>19.08</v>
       </c>
       <c r="N150" t="n">
         <v>10</v>
@@ -8468,7 +8468,7 @@
         <v>379</v>
       </c>
       <c r="C151" t="n">
-        <v>73.9</v>
+        <v>72.74</v>
       </c>
       <c r="D151" t="n">
         <v>9</v>
@@ -8489,16 +8489,16 @@
         <v>30362</v>
       </c>
       <c r="J151" t="n">
-        <v>2244</v>
+        <v>2209</v>
       </c>
       <c r="K151" s="14" t="n">
-        <v>116.673</v>
+        <v>114.843</v>
       </c>
       <c r="L151" t="n">
         <v>438</v>
       </c>
       <c r="M151" t="n">
-        <v>16.88</v>
+        <v>16.62</v>
       </c>
       <c r="N151" t="n">
         <v>10</v>
@@ -8512,7 +8512,7 @@
         <v>380</v>
       </c>
       <c r="C152" t="n">
-        <v>59.05</v>
+        <v>58.12</v>
       </c>
       <c r="D152" t="n">
         <v>4</v>
@@ -8533,16 +8533,16 @@
         <v>51570</v>
       </c>
       <c r="J152" t="n">
-        <v>3045</v>
+        <v>2997</v>
       </c>
       <c r="K152" s="14" t="n">
-        <v>158.352</v>
+        <v>155.868</v>
       </c>
       <c r="L152" t="n">
         <v>545</v>
       </c>
       <c r="M152" t="n">
-        <v>10.84</v>
+        <v>10.67</v>
       </c>
       <c r="N152" t="n">
         <v>4</v>
@@ -8556,7 +8556,7 @@
         <v>381</v>
       </c>
       <c r="C153" t="n">
-        <v>69.72</v>
+        <v>68.63</v>
       </c>
       <c r="D153" t="n">
         <v>8</v>
@@ -8577,16 +8577,16 @@
         <v>20783</v>
       </c>
       <c r="J153" t="n">
-        <v>1449</v>
+        <v>1426</v>
       </c>
       <c r="K153" s="14" t="n">
-        <v>75.349</v>
+        <v>74.167</v>
       </c>
       <c r="L153" t="n">
         <v>570</v>
       </c>
       <c r="M153" t="n">
-        <v>12.24</v>
+        <v>12.05</v>
       </c>
       <c r="N153" t="n">
         <v>6</v>
@@ -16216,16 +16216,16 @@
         <v>382</v>
       </c>
       <c r="B3" t="n">
-        <v>64.83</v>
+        <v>63.81</v>
       </c>
       <c r="C3" t="n">
-        <v>12.07</v>
+        <v>11.88</v>
       </c>
       <c r="D3" s="25" t="n">
-        <v>1896.158</v>
+        <v>1866.413</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>1763.427</v>
+        <v>1746.631</v>
       </c>
     </row>
     <row r="4">
@@ -16233,16 +16233,16 @@
         <v>383</v>
       </c>
       <c r="B4" t="n">
-        <v>62.29</v>
+        <v>61.32</v>
       </c>
       <c r="C4" t="n">
-        <v>11.17</v>
+        <v>10.99</v>
       </c>
       <c r="D4" s="25" t="n">
-        <v>2146.268</v>
+        <v>2112.602</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>1996.029</v>
+        <v>1977.02</v>
       </c>
     </row>
     <row r="5">
@@ -16250,16 +16250,16 @@
         <v>384</v>
       </c>
       <c r="B5" t="n">
-        <v>60.6</v>
+        <v>59.65</v>
       </c>
       <c r="C5" t="n">
-        <v>10.04</v>
+        <v>9.89</v>
       </c>
       <c r="D5" s="25" t="n">
-        <v>2826.173</v>
+        <v>2781.839</v>
       </c>
       <c r="E5" s="25" t="n">
-        <v>2628.341</v>
+        <v>2603.308</v>
       </c>
     </row>
     <row r="6">
@@ -16267,16 +16267,16 @@
         <v>385</v>
       </c>
       <c r="B6" t="n">
-        <v>70.9</v>
+        <v>69.78</v>
       </c>
       <c r="C6" t="n">
-        <v>15.17</v>
+        <v>14.93</v>
       </c>
       <c r="D6" s="25" t="n">
-        <v>1161.177</v>
+        <v>1142.964</v>
       </c>
       <c r="E6" s="25" t="n">
-        <v>1079.895</v>
+        <v>1069.611</v>
       </c>
     </row>
     <row r="7">
@@ -16284,16 +16284,16 @@
         <v>386</v>
       </c>
       <c r="B7" t="n">
-        <v>70.54</v>
+        <v>69.43</v>
       </c>
       <c r="C7" t="n">
-        <v>14.93</v>
+        <v>14.7</v>
       </c>
       <c r="D7" s="25" t="n">
-        <v>2864.323</v>
+        <v>2819.394</v>
       </c>
       <c r="E7" s="25" t="n">
-        <v>2663.82</v>
+        <v>2638.452</v>
       </c>
     </row>
     <row r="8">
@@ -16301,16 +16301,16 @@
         <v>387</v>
       </c>
       <c r="B8" t="n">
-        <v>62.07</v>
+        <v>61.09</v>
       </c>
       <c r="C8" t="n">
-        <v>10.46</v>
+        <v>10.3</v>
       </c>
       <c r="D8" s="25" t="n">
-        <v>2689.582</v>
+        <v>2647.394</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>2501.311</v>
+        <v>2477.491</v>
       </c>
     </row>
     <row r="9">
@@ -16318,16 +16318,16 @@
         <v>388</v>
       </c>
       <c r="B9" t="n">
-        <v>53.89</v>
+        <v>53.04</v>
       </c>
       <c r="C9" t="n">
-        <v>10.2</v>
+        <v>10.04</v>
       </c>
       <c r="D9" s="25" t="n">
-        <v>1759.481</v>
+        <v>1731.879</v>
       </c>
       <c r="E9" s="25" t="n">
-        <v>1636.317</v>
+        <v>1620.731</v>
       </c>
     </row>
     <row r="10">
@@ -16335,16 +16335,16 @@
         <v>389</v>
       </c>
       <c r="B10" t="n">
-        <v>64.65</v>
+        <v>63.64</v>
       </c>
       <c r="C10" t="n">
-        <v>13.26</v>
+        <v>13.05</v>
       </c>
       <c r="D10" s="25" t="n">
-        <v>2159.375</v>
+        <v>2125.504</v>
       </c>
       <c r="E10" s="25" t="n">
-        <v>2008.219</v>
+        <v>1989.094</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -16352,16 +16352,16 @@
         <v>390</v>
       </c>
       <c r="B11" t="n">
-        <v>62.6</v>
+        <v>61.62</v>
       </c>
       <c r="C11" t="n">
-        <v>12.66</v>
+        <v>12.46</v>
       </c>
       <c r="D11" s="25" t="n">
-        <v>2162.999</v>
+        <v>2129.069</v>
       </c>
       <c r="E11" s="25" t="n">
-        <v>2011.589</v>
+        <v>1992.431</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -16446,16 +16446,16 @@
         <v>278</v>
       </c>
       <c r="B3" t="n">
-        <v>99.94</v>
+        <v>98.38</v>
       </c>
       <c r="C3" t="n">
-        <v>21.74</v>
+        <v>21.4</v>
       </c>
       <c r="D3" s="25" t="n">
-        <v>77.956</v>
+        <v>76.733</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>72.499</v>
+        <v>71.808</v>
       </c>
     </row>
     <row r="4">
@@ -16463,16 +16463,16 @@
         <v>336</v>
       </c>
       <c r="B4" t="n">
-        <v>89.3</v>
+        <v>87.9</v>
       </c>
       <c r="C4" t="n">
-        <v>20.23</v>
+        <v>19.91</v>
       </c>
       <c r="D4" s="25" t="n">
-        <v>178.492</v>
+        <v>175.692</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>165.998</v>
+        <v>164.417</v>
       </c>
     </row>
     <row r="5">
@@ -16480,16 +16480,16 @@
         <v>378</v>
       </c>
       <c r="B5" t="n">
-        <v>134.15</v>
+        <v>132.04</v>
       </c>
       <c r="C5" t="n">
-        <v>19.38</v>
+        <v>19.08</v>
       </c>
       <c r="D5" s="25" t="n">
-        <v>76.717</v>
+        <v>75.514</v>
       </c>
       <c r="E5" s="25" t="n">
-        <v>71.347</v>
+        <v>70.668</v>
       </c>
     </row>
     <row r="6">
@@ -16497,16 +16497,16 @@
         <v>283</v>
       </c>
       <c r="B6" t="n">
-        <v>81.62</v>
+        <v>80.34</v>
       </c>
       <c r="C6" t="n">
-        <v>19.36</v>
+        <v>19.05</v>
       </c>
       <c r="D6" s="25" t="n">
-        <v>60.181</v>
+        <v>59.237</v>
       </c>
       <c r="E6" s="25" t="n">
-        <v>55.968</v>
+        <v>55.435</v>
       </c>
     </row>
     <row r="7">
@@ -16514,16 +16514,16 @@
         <v>310</v>
       </c>
       <c r="B7" t="n">
-        <v>81.16</v>
+        <v>79.89</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9</v>
+        <v>18.61</v>
       </c>
       <c r="D7" s="25" t="n">
-        <v>78.407</v>
+        <v>77.178</v>
       </c>
       <c r="E7" s="25" t="n">
-        <v>72.919</v>
+        <v>72.225</v>
       </c>
     </row>
     <row r="8">
@@ -16531,16 +16531,16 @@
         <v>240</v>
       </c>
       <c r="B8" t="n">
-        <v>85.1</v>
+        <v>83.77</v>
       </c>
       <c r="C8" t="n">
-        <v>18.19</v>
+        <v>17.9</v>
       </c>
       <c r="D8" s="25" t="n">
-        <v>153.887</v>
+        <v>151.473</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>143.115</v>
+        <v>141.752</v>
       </c>
     </row>
     <row r="9">
@@ -16548,16 +16548,16 @@
         <v>337</v>
       </c>
       <c r="B9" t="n">
-        <v>73.18</v>
+        <v>72.03</v>
       </c>
       <c r="C9" t="n">
-        <v>18.19</v>
+        <v>17.9</v>
       </c>
       <c r="D9" s="25" t="n">
-        <v>143.654</v>
+        <v>141.401</v>
       </c>
       <c r="E9" s="25" t="n">
-        <v>133.598</v>
+        <v>132.326</v>
       </c>
     </row>
     <row r="10">
@@ -16565,16 +16565,16 @@
         <v>297</v>
       </c>
       <c r="B10" t="n">
-        <v>70.1</v>
+        <v>69</v>
       </c>
       <c r="C10" t="n">
-        <v>17.37</v>
+        <v>17.1</v>
       </c>
       <c r="D10" s="25" t="n">
-        <v>60.81</v>
+        <v>59.856</v>
       </c>
       <c r="E10" s="25" t="n">
-        <v>56.553</v>
+        <v>56.015</v>
       </c>
     </row>
     <row r="11">
@@ -16582,16 +16582,16 @@
         <v>312</v>
       </c>
       <c r="B11" t="n">
-        <v>78.94</v>
+        <v>77.7</v>
       </c>
       <c r="C11" t="n">
-        <v>17.04</v>
+        <v>16.78</v>
       </c>
       <c r="D11" s="25" t="n">
-        <v>130.556</v>
+        <v>128.508</v>
       </c>
       <c r="E11" s="25" t="n">
-        <v>121.417</v>
+        <v>120.261</v>
       </c>
     </row>
     <row r="12">
@@ -16599,16 +16599,16 @@
         <v>324</v>
       </c>
       <c r="B12" t="n">
-        <v>78.62</v>
+        <v>77.39</v>
       </c>
       <c r="C12" t="n">
-        <v>16.97</v>
+        <v>16.71</v>
       </c>
       <c r="D12" s="25" t="n">
-        <v>129.864</v>
+        <v>127.827</v>
       </c>
       <c r="E12" s="25" t="n">
-        <v>120.774</v>
+        <v>119.623</v>
       </c>
     </row>
     <row r="13">
